--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
     <sheet name="1. Content items" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$2:$V$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$2:$V$211</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2695" uniqueCount="353">
   <si>
     <t>Work in progress</t>
   </si>
@@ -798,6 +798,300 @@
   </si>
   <si>
     <t>Banner_10.png</t>
+  </si>
+  <si>
+    <t>EU Semantic Interoperability Catalogue</t>
+  </si>
+  <si>
+    <t>Common Reporting Framework XBRL Project</t>
+  </si>
+  <si>
+    <t>EUN Learning Resource Exchange Metadata Application profile</t>
+  </si>
+  <si>
+    <t>European Training Thesaurus</t>
+  </si>
+  <si>
+    <t>Statistical Data and Metadata Exchange</t>
+  </si>
+  <si>
+    <t>MoReq2</t>
+  </si>
+  <si>
+    <t>Biological Collection Access Service for Europe (BioCASE) Protocol</t>
+  </si>
+  <si>
+    <t>Common European Research Information Format</t>
+  </si>
+  <si>
+    <t>European Shortlist for Causes of Death</t>
+  </si>
+  <si>
+    <t>The Combined Nomencalture</t>
+  </si>
+  <si>
+    <t>Common Procurement Vocabulary</t>
+  </si>
+  <si>
+    <t>The Classification of Types of Constructions</t>
+  </si>
+  <si>
+    <t>SCL - International Statistical Classification of Diseases and Related Health Problems</t>
+  </si>
+  <si>
+    <t>The International Statistical Classification of Diseases and Related Health Problems</t>
+  </si>
+  <si>
+    <t>Classification of Functions of Government</t>
+  </si>
+  <si>
+    <t>Standard goods classification for transport statistics</t>
+  </si>
+  <si>
+    <t>Standard International Trade Classification (SITC)</t>
+  </si>
+  <si>
+    <t>SCL-Languages</t>
+  </si>
+  <si>
+    <t>List of Wastes</t>
+  </si>
+  <si>
+    <t>SCL - Marital Stautus</t>
+  </si>
+  <si>
+    <t>International Standard Classification of Occupations 2008</t>
+  </si>
+  <si>
+    <t>European Schedule of Occupational Diseases</t>
+  </si>
+  <si>
+    <t>Statistical Classification of Products by Activity in the European Economic Community, 2008 version</t>
+  </si>
+  <si>
+    <t>Field of science and technology classification</t>
+  </si>
+  <si>
+    <t>SCL - Sex</t>
+  </si>
+  <si>
+    <t>Classification of Fields of Education and Training (1999)</t>
+  </si>
+  <si>
+    <t>WIPO Standard ST.66</t>
+  </si>
+  <si>
+    <t>XML Data Model for Designs</t>
+  </si>
+  <si>
+    <t>Tran Alexandre</t>
+  </si>
+  <si>
+    <t>Alexandre.Tran@oami.europa.eu</t>
+  </si>
+  <si>
+    <t>Europeana Data Model</t>
+  </si>
+  <si>
+    <t>Valentine Charles</t>
+  </si>
+  <si>
+    <t>valentine.charles@kb.nl</t>
+  </si>
+  <si>
+    <t>Trade Mark XML</t>
+  </si>
+  <si>
+    <t>Aeronautical Information Exchange Model</t>
+  </si>
+  <si>
+    <t>Eduard Porosnicu</t>
+  </si>
+  <si>
+    <t>eduard.porosnicu@eurocontrol.int</t>
+  </si>
+  <si>
+    <t>Shortsea XML</t>
+  </si>
+  <si>
+    <t>Europass XML Schema</t>
+  </si>
+  <si>
+    <t>Specification for Interoperable Access to eDelivery and eSafe Systems</t>
+  </si>
+  <si>
+    <t>European Skills/Competences, qualifications and Occupations</t>
+  </si>
+  <si>
+    <t>Martin Le Vrang</t>
+  </si>
+  <si>
+    <t>Martin.le-Vrang@ec.europa.eu</t>
+  </si>
+  <si>
+    <t>EuroVoc</t>
+  </si>
+  <si>
+    <t>Christine Laaboudi-Spoiden</t>
+  </si>
+  <si>
+    <t>christine.laaboudi@publications.europa.eu</t>
+  </si>
+  <si>
+    <t>EUCARIS XML messages</t>
+  </si>
+  <si>
+    <t>CEN Metalex</t>
+  </si>
+  <si>
+    <t>TACHOnet XML Messaging Reference Guide and XML schema</t>
+  </si>
+  <si>
+    <t>Luisa Guedes</t>
+  </si>
+  <si>
+    <t>MOVE-ENER-TACHONET@ec.europa.eu</t>
+  </si>
+  <si>
+    <t>Weather Information Exchange Models</t>
+  </si>
+  <si>
+    <t>Human Resources Management Ontology</t>
+  </si>
+  <si>
+    <t>FINREP XBRL</t>
+  </si>
+  <si>
+    <t>IDABC XML shemas for eProcurment</t>
+  </si>
+  <si>
+    <t>SCL - International Standard Classification of Education (ISCED 1997)</t>
+  </si>
+  <si>
+    <t>CODICE</t>
+  </si>
+  <si>
+    <t>Standard Fields of Education Classification</t>
+  </si>
+  <si>
+    <t>Danish Standard industrial groupings for publishing purposes (Bilag 2)</t>
+  </si>
+  <si>
+    <t>Data flow and interfaces for the European PRTR</t>
+  </si>
+  <si>
+    <t>Environmental Electronic Exchange Language</t>
+  </si>
+  <si>
+    <t>Environmental Electronic Exchange Service</t>
+  </si>
+  <si>
+    <t>SCL - Activity and employment status</t>
+  </si>
+  <si>
+    <t>SCL - International patent classification (IPC)</t>
+  </si>
+  <si>
+    <t>SCL - International Classification of Health Accounts (ICHA)</t>
+  </si>
+  <si>
+    <t>Electronic recording and reporting system (ERS)</t>
+  </si>
+  <si>
+    <t>Study on persistent URIs, with identification of best practices and recommendations on the topic for the MSs and the EC</t>
+  </si>
+  <si>
+    <t>Process and Methodology for Developing Core Vocabularies</t>
+  </si>
+  <si>
+    <t>EUDIN Shipments of Waste XML data format (XML Schema)</t>
+  </si>
+  <si>
+    <t>Norbert Pfaffinger</t>
+  </si>
+  <si>
+    <t>norbert.pfaffinger@umweltbundesamt.at</t>
+  </si>
+  <si>
+    <t>AGROVOC</t>
+  </si>
+  <si>
+    <t>GEMET</t>
+  </si>
+  <si>
+    <t>Søren Roug</t>
+  </si>
+  <si>
+    <t>soren.roug@eea.europa.eu</t>
+  </si>
+  <si>
+    <t>EU Citizens Life Cycle Events</t>
+  </si>
+  <si>
+    <t>Javier Gutierrez</t>
+  </si>
+  <si>
+    <t>jgumar@hotmail.com</t>
+  </si>
+  <si>
+    <t>CoopP 2013 - Specification of Data Formats and Semantics resulting from the CISE Cooperation Project (2013)</t>
+  </si>
+  <si>
+    <t>Fernando Sérgio Bryton Dias Marques</t>
+  </si>
+  <si>
+    <t>dias.marques@marinha.pt</t>
+  </si>
+  <si>
+    <t>Products covered by the fruit and vegetable regime</t>
+  </si>
+  <si>
+    <t>List of EU national authorities responsible to promote and protect names of quality agricultural products</t>
+  </si>
+  <si>
+    <t>List of agricultural products</t>
+  </si>
+  <si>
+    <t>Biogeographical regions</t>
+  </si>
+  <si>
+    <t>Codelist for bio-geographical regions, Europe 2011</t>
+  </si>
+  <si>
+    <t>Maritime Boundaries</t>
+  </si>
+  <si>
+    <t>Urban morphological zones 2006</t>
+  </si>
+  <si>
+    <t>The thesaurus for education systems in Europe</t>
+  </si>
+  <si>
+    <t>EU Pesticides Database</t>
+  </si>
+  <si>
+    <t>Guidance on the preparation of dossiers for Harmonised Classification and Labelling</t>
+  </si>
+  <si>
+    <t>Common European Framework of Reference for Languages: Learning, teaching, assessment</t>
+  </si>
+  <si>
+    <t>Classification and Labelling Inventory database for chemicals</t>
+  </si>
+  <si>
+    <t>Registered substances database</t>
+  </si>
+  <si>
+    <t>ERRU - European Register of Road Transport Undertaking</t>
+  </si>
+  <si>
+    <t>e-Document formats used in the European Criminal Records Information System (ECRIS)</t>
+  </si>
+  <si>
+    <t>Statistical Classification of Economic Activities in the European Community</t>
+  </si>
+  <si>
+    <t>Eurovoc</t>
   </si>
 </sst>
 </file>
@@ -976,7 +1270,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1132,6 +1426,12 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1498,8 +1798,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A2:AA126" totalsRowShown="0" headerRowDxfId="24">
-  <autoFilter ref="A2:AA126"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A2:AA211" totalsRowShown="0" headerRowDxfId="24">
+  <autoFilter ref="A2:AA211"/>
   <sortState ref="A13187:X13200">
     <sortCondition ref="D2:D13200"/>
   </sortState>
@@ -1802,7 +2102,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:AA126"/>
+  <dimension ref="A1:AA211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -8726,54 +9026,46 @@
       </c>
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A109" s="16" t="s">
+      <c r="A109" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B109" s="26">
-        <v>75420</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>63</v>
+      <c r="B109" s="15">
+        <v>59110</v>
+      </c>
+      <c r="C109" s="38" t="s">
+        <v>255</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E109" s="16"/>
-      <c r="F109" s="16" t="s">
-        <v>24</v>
+        <v>255</v>
+      </c>
+      <c r="E109" s="38"/>
+      <c r="F109" s="38" t="s">
+        <v>12</v>
       </c>
       <c r="G109" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H109" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="J109" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="K109" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="L109" s="16"/>
-      <c r="M109" s="16"/>
-      <c r="N109" s="16"/>
-      <c r="O109" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="P109" s="16"/>
-      <c r="Q109" s="41">
-        <v>41676</v>
-      </c>
-      <c r="R109" s="37">
-        <v>1007</v>
-      </c>
-      <c r="S109" s="37">
-        <v>3</v>
-      </c>
-      <c r="T109" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H109" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="I109" s="45"/>
+      <c r="J109" s="45"/>
+      <c r="K109" s="45"/>
+      <c r="L109" s="45"/>
+      <c r="M109" s="45"/>
+      <c r="N109" s="45"/>
+      <c r="O109" s="45"/>
+      <c r="P109" s="45"/>
+      <c r="Q109" s="44">
+        <v>41977</v>
+      </c>
+      <c r="R109" s="67">
+        <v>4463</v>
+      </c>
+      <c r="S109" s="7">
+        <v>83</v>
+      </c>
+      <c r="T109" s="16" t="s">
         <v>1</v>
       </c>
       <c r="U109" s="16" t="s">
@@ -8781,10 +9073,10 @@
       </c>
       <c r="V109" s="16"/>
       <c r="W109" s="16" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="X109" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="Y109" s="16"/>
       <c r="Z109" s="16"/>
@@ -8793,64 +9085,62 @@
       </c>
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A110" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B110" s="10">
-        <v>75425</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>66</v>
+      <c r="A110" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" s="13">
+        <v>59178</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>256</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>63</v>
+        <v>255</v>
       </c>
       <c r="E110" s="13"/>
       <c r="F110" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G110" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="H110" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I110" s="3"/>
-      <c r="J110" s="58"/>
-      <c r="K110" s="58"/>
-      <c r="L110" s="58"/>
-      <c r="M110" s="58"/>
-      <c r="N110" s="58"/>
-      <c r="O110" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="P110" s="40"/>
-      <c r="Q110" s="23">
-        <v>41913</v>
+        <v>12</v>
+      </c>
+      <c r="G110" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H110" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I110" s="46"/>
+      <c r="J110" s="46"/>
+      <c r="K110" s="46"/>
+      <c r="L110" s="46"/>
+      <c r="M110" s="46"/>
+      <c r="N110" s="46"/>
+      <c r="O110" s="46"/>
+      <c r="P110" s="46"/>
+      <c r="Q110" s="41">
+        <v>42347</v>
       </c>
       <c r="R110" s="14">
-        <v>316</v>
-      </c>
-      <c r="S110" s="19">
-        <v>0</v>
-      </c>
-      <c r="T110" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="U110" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V110" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="W110" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="X110" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y110" s="3"/>
-      <c r="Z110" s="3"/>
+        <v>484</v>
+      </c>
+      <c r="S110" s="37">
+        <v>0</v>
+      </c>
+      <c r="T110" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U110" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V110" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W110" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X110" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y110" s="27"/>
+      <c r="Z110" s="27"/>
       <c r="AA110" s="15" t="s">
         <v>0</v>
       </c>
@@ -8860,57 +9150,55 @@
         <v>10</v>
       </c>
       <c r="B111" s="13">
-        <v>75427</v>
+        <v>59180</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>65</v>
+        <v>256</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>63</v>
+        <v>255</v>
       </c>
       <c r="E111" s="13"/>
       <c r="F111" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G111" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="H111" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="I111" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="G111" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H111" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I111" s="46"/>
       <c r="J111" s="46"/>
       <c r="K111" s="46"/>
       <c r="L111" s="46"/>
       <c r="M111" s="46"/>
       <c r="N111" s="46"/>
-      <c r="O111" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="P111" s="29"/>
-      <c r="Q111" s="21">
-        <v>41778</v>
+      <c r="O111" s="46"/>
+      <c r="P111" s="46"/>
+      <c r="Q111" s="41">
+        <v>42347</v>
       </c>
       <c r="R111" s="14">
-        <v>253</v>
-      </c>
-      <c r="S111" s="22">
-        <v>0</v>
-      </c>
-      <c r="T111" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="S111" s="37">
+        <v>0</v>
+      </c>
+      <c r="T111" s="16" t="s">
         <v>1</v>
       </c>
       <c r="U111" s="28" t="s">
         <v>5</v>
       </c>
       <c r="V111" s="27" t="s">
-        <v>63</v>
+        <v>255</v>
       </c>
       <c r="W111" s="27" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="X111" s="27" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="Y111" s="27"/>
       <c r="Z111" s="27"/>
@@ -8919,259 +9207,245 @@
       </c>
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A112" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B112" s="10">
-        <v>75429</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>64</v>
+      <c r="A112" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" s="68">
+        <v>59183</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>256</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>63</v>
+        <v>255</v>
       </c>
       <c r="E112" s="13"/>
       <c r="F112" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G112" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="H112" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="I112" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="G112" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H112" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I112" s="46"/>
       <c r="J112" s="46"/>
       <c r="K112" s="46"/>
       <c r="L112" s="46"/>
       <c r="M112" s="46"/>
       <c r="N112" s="46"/>
-      <c r="O112" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="P112" s="29"/>
-      <c r="Q112" s="23">
+      <c r="O112" s="46"/>
+      <c r="P112" s="46"/>
+      <c r="Q112" s="41">
+        <v>42347</v>
+      </c>
+      <c r="R112" s="14">
+        <v>484</v>
+      </c>
+      <c r="S112" s="37">
+        <v>0</v>
+      </c>
+      <c r="T112" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U112" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V112" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W112" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X112" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y112" s="27"/>
+      <c r="Z112" s="27"/>
+      <c r="AA112" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A113" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" s="2">
+        <v>59189</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H113" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="I113" s="58"/>
+      <c r="J113" s="58"/>
+      <c r="K113" s="58"/>
+      <c r="L113" s="58"/>
+      <c r="M113" s="58"/>
+      <c r="N113" s="58"/>
+      <c r="O113" s="58"/>
+      <c r="P113" s="58"/>
+      <c r="Q113" s="9">
         <v>41778</v>
       </c>
-      <c r="R112" s="8">
-        <v>279</v>
-      </c>
-      <c r="S112" s="19">
-        <v>0</v>
-      </c>
-      <c r="T112" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="U112" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V112" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="W112" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="X112" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y112" s="3"/>
-      <c r="Z112" s="3"/>
-      <c r="AA112" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A113" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B113" s="15">
-        <v>77652</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E113" s="33"/>
-      <c r="F113" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H113" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="J113" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="K113" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="L113" s="16"/>
-      <c r="M113" s="16"/>
-      <c r="N113" s="16"/>
-      <c r="O113" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="P113" s="16"/>
-      <c r="Q113" s="41">
-        <v>41794</v>
-      </c>
-      <c r="R113" s="20">
-        <v>412</v>
-      </c>
-      <c r="S113" s="37">
-        <v>0</v>
-      </c>
-      <c r="T113" s="37">
-        <v>1</v>
-      </c>
-      <c r="U113" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="V113" s="16"/>
-      <c r="W113" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="X113" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y113" s="16"/>
-      <c r="Z113" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="R113" s="8">
+        <v>396</v>
+      </c>
+      <c r="S113" s="7">
+        <v>0</v>
+      </c>
+      <c r="T113" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U113" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V113" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="W113" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X113" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y113" s="3"/>
+      <c r="Z113" s="3"/>
       <c r="AA113" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A114" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B114" s="12">
-        <v>93863</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>60</v>
+      <c r="A114" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" s="10">
+        <v>59192</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="E114" s="13"/>
       <c r="F114" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I114" s="3"/>
-      <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
-      <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
-      <c r="O114" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="P114" s="2"/>
-      <c r="Q114" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="R114" s="8">
-        <v>213</v>
-      </c>
-      <c r="S114" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="T114" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="U114" s="6"/>
-      <c r="V114" s="3"/>
-      <c r="W114" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="X114" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y114" s="4"/>
-      <c r="Z114" s="3"/>
-      <c r="AA114" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H114" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I114" s="46"/>
+      <c r="J114" s="46"/>
+      <c r="K114" s="46"/>
+      <c r="L114" s="46"/>
+      <c r="M114" s="46"/>
+      <c r="N114" s="46"/>
+      <c r="O114" s="46"/>
+      <c r="P114" s="46"/>
+      <c r="Q114" s="41">
+        <v>41913</v>
+      </c>
+      <c r="R114" s="14">
+        <v>501</v>
+      </c>
+      <c r="S114" s="37">
+        <v>0</v>
+      </c>
+      <c r="T114" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U114" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V114" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W114" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X114" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y114" s="27"/>
+      <c r="Z114" s="27"/>
+      <c r="AA114" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A115" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B115" s="15">
-        <v>59641</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>47</v>
+      <c r="A115" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" s="13">
+        <v>59205</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>259</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E115" s="26"/>
-      <c r="F115" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G115" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H115" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="J115" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="K115" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="L115" s="16"/>
-      <c r="M115" s="16"/>
-      <c r="N115" s="16"/>
-      <c r="O115" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="P115" s="16"/>
+      <c r="H115" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I115" s="46"/>
+      <c r="J115" s="46"/>
+      <c r="K115" s="46"/>
+      <c r="L115" s="46"/>
+      <c r="M115" s="46"/>
+      <c r="N115" s="46"/>
+      <c r="O115" s="46"/>
+      <c r="P115" s="46"/>
       <c r="Q115" s="41">
-        <v>41687</v>
-      </c>
-      <c r="R115" s="37">
-        <v>2627</v>
+        <v>42345</v>
+      </c>
+      <c r="R115" s="14">
+        <v>307</v>
       </c>
       <c r="S115" s="7">
-        <v>8</v>
-      </c>
-      <c r="T115" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="U115" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="V115" s="16"/>
-      <c r="W115" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="X115" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y115" s="16"/>
-      <c r="Z115" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="T115" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U115" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V115" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W115" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X115" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y115" s="27"/>
+      <c r="Z115" s="27"/>
       <c r="AA115" s="15" t="s">
         <v>0</v>
       </c>
@@ -9181,51 +9455,49 @@
         <v>10</v>
       </c>
       <c r="B116" s="13">
-        <v>59646</v>
+        <v>59217</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>56</v>
+        <v>259</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>47</v>
+        <v>255</v>
       </c>
       <c r="E116" s="13"/>
       <c r="F116" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G116" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H116" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="I116" s="3"/>
+      <c r="G116" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H116" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I116" s="46"/>
       <c r="J116" s="46"/>
       <c r="K116" s="46"/>
       <c r="L116" s="46"/>
       <c r="M116" s="46"/>
       <c r="N116" s="46"/>
-      <c r="O116" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="P116" s="29"/>
-      <c r="Q116" s="21">
-        <v>42054</v>
+      <c r="O116" s="46"/>
+      <c r="P116" s="46"/>
+      <c r="Q116" s="41">
+        <v>42345</v>
       </c>
       <c r="R116" s="14">
-        <v>629</v>
-      </c>
-      <c r="S116" s="22">
-        <v>0</v>
-      </c>
-      <c r="T116" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="S116" s="37">
+        <v>0</v>
+      </c>
+      <c r="T116" s="16" t="s">
         <v>1</v>
       </c>
       <c r="U116" s="28" t="s">
         <v>5</v>
       </c>
       <c r="V116" s="27" t="s">
-        <v>47</v>
+        <v>255</v>
       </c>
       <c r="W116" s="27" t="s">
         <v>28</v>
@@ -9240,253 +9512,245 @@
       </c>
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A117" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B117" s="10">
-        <v>76761</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>55</v>
+      <c r="A117" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="68">
+        <v>59228</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>259</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>47</v>
+        <v>255</v>
       </c>
       <c r="E117" s="13"/>
       <c r="F117" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G117" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H117" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I117" s="3"/>
-      <c r="J117" s="58"/>
-      <c r="K117" s="58"/>
-      <c r="L117" s="58"/>
-      <c r="M117" s="58"/>
-      <c r="N117" s="58"/>
-      <c r="O117" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="P117" s="40"/>
-      <c r="Q117" s="23">
+      <c r="G117" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H117" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I117" s="46"/>
+      <c r="J117" s="46"/>
+      <c r="K117" s="46"/>
+      <c r="L117" s="46"/>
+      <c r="M117" s="46"/>
+      <c r="N117" s="46"/>
+      <c r="O117" s="46"/>
+      <c r="P117" s="46"/>
+      <c r="Q117" s="41">
+        <v>42345</v>
+      </c>
+      <c r="R117" s="14">
+        <v>307</v>
+      </c>
+      <c r="S117" s="37">
+        <v>0</v>
+      </c>
+      <c r="T117" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U117" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V117" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W117" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X117" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y117" s="27"/>
+      <c r="Z117" s="27"/>
+      <c r="AA117" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A118" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" s="10">
+        <v>59238</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H118" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I118" s="46"/>
+      <c r="J118" s="46"/>
+      <c r="K118" s="46"/>
+      <c r="L118" s="46"/>
+      <c r="M118" s="46"/>
+      <c r="N118" s="46"/>
+      <c r="O118" s="46"/>
+      <c r="P118" s="46"/>
+      <c r="Q118" s="41">
         <v>42346</v>
       </c>
-      <c r="R117" s="14">
-        <v>379</v>
-      </c>
-      <c r="S117" s="19">
-        <v>0</v>
-      </c>
-      <c r="T117" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="U117" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V117" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W117" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="X117" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y117" s="3"/>
-      <c r="Z117" s="3"/>
-      <c r="AA117" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A118" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B118" s="10">
-        <v>76762</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E118" s="39"/>
-      <c r="F118" s="39" t="s">
+      <c r="R118" s="14">
+        <v>496</v>
+      </c>
+      <c r="S118" s="37">
+        <v>0</v>
+      </c>
+      <c r="T118" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U118" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V118" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W118" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X118" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y118" s="27"/>
+      <c r="Z118" s="27"/>
+      <c r="AA118" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A119" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" s="13">
+        <v>59249</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G118" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="H118" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I118" s="3"/>
-      <c r="J118" s="58"/>
-      <c r="K118" s="58"/>
-      <c r="L118" s="58"/>
-      <c r="M118" s="58"/>
-      <c r="N118" s="58"/>
-      <c r="O118" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="P118" s="40"/>
-      <c r="Q118" s="23">
+      <c r="G119" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H119" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I119" s="46"/>
+      <c r="J119" s="46"/>
+      <c r="K119" s="46"/>
+      <c r="L119" s="46"/>
+      <c r="M119" s="46"/>
+      <c r="N119" s="46"/>
+      <c r="O119" s="46"/>
+      <c r="P119" s="46"/>
+      <c r="Q119" s="41">
         <v>42346</v>
       </c>
-      <c r="R118" s="14">
-        <v>297</v>
-      </c>
-      <c r="S118" s="19">
-        <v>0</v>
-      </c>
-      <c r="T118" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="U118" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V118" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W118" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="X118" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y118" s="3"/>
-      <c r="Z118" s="3"/>
-      <c r="AA118" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A119" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B119" s="10">
-        <v>76764</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H119" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I119" s="3"/>
-      <c r="J119" s="58"/>
-      <c r="K119" s="58"/>
-      <c r="L119" s="58"/>
-      <c r="M119" s="58"/>
-      <c r="N119" s="58"/>
-      <c r="O119" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="P119" s="40"/>
-      <c r="Q119" s="23">
-        <v>42054</v>
-      </c>
       <c r="R119" s="14">
-        <v>253</v>
-      </c>
-      <c r="S119" s="19">
-        <v>0</v>
-      </c>
-      <c r="T119" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="U119" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V119" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W119" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="X119" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y119" s="3"/>
-      <c r="Z119" s="3"/>
+        <v>381</v>
+      </c>
+      <c r="S119" s="37">
+        <v>0</v>
+      </c>
+      <c r="T119" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U119" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V119" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W119" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X119" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y119" s="27"/>
+      <c r="Z119" s="27"/>
       <c r="AA119" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A120" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B120" s="10">
-        <v>76766</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>52</v>
+      <c r="A120" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" s="13">
+        <v>59257</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>262</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>47</v>
+        <v>255</v>
       </c>
       <c r="E120" s="13"/>
       <c r="F120" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G120" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H120" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I120" s="3"/>
-      <c r="J120" s="58"/>
-      <c r="K120" s="58"/>
-      <c r="L120" s="58"/>
-      <c r="M120" s="58"/>
-      <c r="N120" s="58"/>
-      <c r="O120" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="P120" s="40"/>
-      <c r="Q120" s="23">
-        <v>41778</v>
+      <c r="G120" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H120" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I120" s="46"/>
+      <c r="J120" s="46"/>
+      <c r="K120" s="46"/>
+      <c r="L120" s="46"/>
+      <c r="M120" s="46"/>
+      <c r="N120" s="46"/>
+      <c r="O120" s="46"/>
+      <c r="P120" s="46"/>
+      <c r="Q120" s="41">
+        <v>42346</v>
       </c>
       <c r="R120" s="14">
-        <v>254</v>
-      </c>
-      <c r="S120" s="19">
-        <v>0</v>
-      </c>
-      <c r="T120" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="U120" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V120" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W120" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="X120" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y120" s="3"/>
-      <c r="Z120" s="3"/>
+        <v>341</v>
+      </c>
+      <c r="S120" s="37">
+        <v>0</v>
+      </c>
+      <c r="T120" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U120" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V120" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W120" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X120" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y120" s="27"/>
+      <c r="Z120" s="27"/>
       <c r="AA120" s="15" t="s">
         <v>0</v>
       </c>
@@ -9496,57 +9760,55 @@
         <v>10</v>
       </c>
       <c r="B121" s="13">
-        <v>76767</v>
+        <v>59259</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>51</v>
+        <v>262</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E121" s="39"/>
-      <c r="F121" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G121" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="H121" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="I121" s="3"/>
+      <c r="G121" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H121" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I121" s="46"/>
       <c r="J121" s="46"/>
       <c r="K121" s="46"/>
       <c r="L121" s="46"/>
       <c r="M121" s="46"/>
       <c r="N121" s="46"/>
-      <c r="O121" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="P121" s="29"/>
-      <c r="Q121" s="21">
-        <v>42054</v>
+      <c r="O121" s="46"/>
+      <c r="P121" s="46"/>
+      <c r="Q121" s="41">
+        <v>42346</v>
       </c>
       <c r="R121" s="14">
-        <v>191</v>
-      </c>
-      <c r="S121" s="19">
-        <v>0</v>
-      </c>
-      <c r="T121" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="S121" s="37">
+        <v>0</v>
+      </c>
+      <c r="T121" s="16" t="s">
         <v>1</v>
       </c>
       <c r="U121" s="28" t="s">
         <v>5</v>
       </c>
       <c r="V121" s="27" t="s">
-        <v>47</v>
+        <v>255</v>
       </c>
       <c r="W121" s="27" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="X121" s="27" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="Y121" s="27"/>
       <c r="Z121" s="27"/>
@@ -9555,259 +9817,245 @@
       </c>
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A122" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B122" s="10">
-        <v>76768</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>50</v>
+      <c r="A122" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="68">
+        <v>59264</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>262</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E122" s="39"/>
-      <c r="F122" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G122" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="H122" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I122" s="3"/>
-      <c r="J122" s="58"/>
-      <c r="K122" s="58"/>
-      <c r="L122" s="58"/>
-      <c r="M122" s="58"/>
-      <c r="N122" s="58"/>
-      <c r="O122" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="P122" s="40"/>
-      <c r="Q122" s="23">
-        <v>42054</v>
+      <c r="G122" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H122" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I122" s="46"/>
+      <c r="J122" s="46"/>
+      <c r="K122" s="46"/>
+      <c r="L122" s="46"/>
+      <c r="M122" s="46"/>
+      <c r="N122" s="46"/>
+      <c r="O122" s="46"/>
+      <c r="P122" s="46"/>
+      <c r="Q122" s="41">
+        <v>42346</v>
       </c>
       <c r="R122" s="14">
-        <v>262</v>
-      </c>
-      <c r="S122" s="19">
-        <v>0</v>
-      </c>
-      <c r="T122" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="U122" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V122" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W122" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="X122" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y122" s="3"/>
-      <c r="Z122" s="3"/>
+        <v>341</v>
+      </c>
+      <c r="S122" s="37">
+        <v>0</v>
+      </c>
+      <c r="T122" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U122" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V122" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W122" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X122" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y122" s="27"/>
+      <c r="Z122" s="27"/>
       <c r="AA122" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A123" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B123" s="10">
-        <v>76770</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>49</v>
+      <c r="A123" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" s="69">
+        <v>59271</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>263</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E123" s="39"/>
-      <c r="F123" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G123" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="H123" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I123" s="3"/>
-      <c r="J123" s="58"/>
-      <c r="K123" s="58"/>
-      <c r="L123" s="58"/>
-      <c r="M123" s="58"/>
-      <c r="N123" s="58"/>
-      <c r="O123" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="P123" s="40"/>
-      <c r="Q123" s="23">
-        <v>42346</v>
-      </c>
-      <c r="R123" s="8">
-        <v>279</v>
-      </c>
-      <c r="S123" s="19">
-        <v>0</v>
-      </c>
-      <c r="T123" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="U123" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V123" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W123" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="X123" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y123" s="3"/>
-      <c r="Z123" s="3"/>
+      <c r="G123" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H123" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I123" s="46"/>
+      <c r="J123" s="46"/>
+      <c r="K123" s="46"/>
+      <c r="L123" s="46"/>
+      <c r="M123" s="46"/>
+      <c r="N123" s="46"/>
+      <c r="O123" s="46"/>
+      <c r="P123" s="46"/>
+      <c r="Q123" s="41">
+        <v>41913</v>
+      </c>
+      <c r="R123" s="25">
+        <v>1006</v>
+      </c>
+      <c r="S123" s="37">
+        <v>0</v>
+      </c>
+      <c r="T123" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U123" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V123" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W123" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X123" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y123" s="27"/>
+      <c r="Z123" s="27"/>
       <c r="AA123" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A124" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B124" s="26">
-        <v>141741</v>
-      </c>
-      <c r="C124" s="15" t="s">
-        <v>48</v>
+      <c r="A124" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" s="10">
+        <v>59275</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>264</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E124" s="33"/>
-      <c r="F124" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G124" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="H124" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I124" s="3"/>
-      <c r="J124" s="16"/>
-      <c r="K124" s="16"/>
-      <c r="L124" s="16"/>
-      <c r="M124" s="16"/>
-      <c r="N124" s="16"/>
-      <c r="O124" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="P124" s="18"/>
-      <c r="Q124" s="21">
-        <v>42107</v>
-      </c>
-      <c r="R124" s="20">
-        <v>76</v>
-      </c>
-      <c r="S124" s="22">
-        <v>0</v>
-      </c>
-      <c r="T124" s="37">
-        <v>5</v>
-      </c>
-      <c r="U124" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="V124" s="16">
-        <v>0</v>
-      </c>
-      <c r="W124" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="X124" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y124" s="16"/>
-      <c r="Z124" s="16"/>
+      <c r="G124" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H124" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I124" s="46"/>
+      <c r="J124" s="46"/>
+      <c r="K124" s="46"/>
+      <c r="L124" s="46"/>
+      <c r="M124" s="46"/>
+      <c r="N124" s="46"/>
+      <c r="O124" s="46"/>
+      <c r="P124" s="46"/>
+      <c r="Q124" s="41">
+        <v>41778</v>
+      </c>
+      <c r="R124" s="14">
+        <v>336</v>
+      </c>
+      <c r="S124" s="7">
+        <v>0</v>
+      </c>
+      <c r="T124" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U124" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V124" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W124" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X124" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y124" s="27"/>
+      <c r="Z124" s="27"/>
       <c r="AA124" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A125" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B125" s="15">
-        <v>145819</v>
-      </c>
-      <c r="C125" s="15" t="s">
-        <v>43</v>
+      <c r="A125" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" s="13">
+        <v>59279</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>265</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G125" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="H125" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="I125" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="J125" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="K125" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="L125" s="45"/>
-      <c r="M125" s="45"/>
-      <c r="N125" s="45">
-        <v>2</v>
-      </c>
-      <c r="O125" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="P125" s="45"/>
+        <v>255</v>
+      </c>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H125" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I125" s="46"/>
+      <c r="J125" s="46"/>
+      <c r="K125" s="46"/>
+      <c r="L125" s="46"/>
+      <c r="M125" s="46"/>
+      <c r="N125" s="46"/>
+      <c r="O125" s="46"/>
+      <c r="P125" s="46"/>
       <c r="Q125" s="41">
-        <v>42278</v>
-      </c>
-      <c r="R125" s="43">
-        <v>167</v>
-      </c>
-      <c r="S125" s="7">
-        <v>1</v>
-      </c>
-      <c r="T125" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="U125" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="V125" s="16"/>
-      <c r="W125" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="X125" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y125" s="16"/>
-      <c r="Z125" s="16"/>
+        <v>41801</v>
+      </c>
+      <c r="R125" s="14">
+        <v>935</v>
+      </c>
+      <c r="S125" s="37">
+        <v>0</v>
+      </c>
+      <c r="T125" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U125" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V125" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W125" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X125" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y125" s="27"/>
+      <c r="Z125" s="27"/>
       <c r="AA125" s="15" t="s">
         <v>0</v>
       </c>
@@ -9816,64 +10064,5299 @@
       <c r="A126" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B126" s="13">
-        <v>146101</v>
+      <c r="B126" s="10">
+        <v>59284</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>44</v>
+        <v>266</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>43</v>
+        <v>255</v>
       </c>
       <c r="E126" s="13"/>
       <c r="F126" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="H126" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="I126" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="G126" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H126" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I126" s="46"/>
       <c r="J126" s="46"/>
       <c r="K126" s="46"/>
       <c r="L126" s="46"/>
       <c r="M126" s="46"/>
-      <c r="N126" s="46">
-        <v>2</v>
-      </c>
-      <c r="O126" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="P126" s="29"/>
-      <c r="Q126" s="21">
-        <v>42278</v>
+      <c r="N126" s="46"/>
+      <c r="O126" s="46"/>
+      <c r="P126" s="46"/>
+      <c r="Q126" s="41">
+        <v>41778</v>
       </c>
       <c r="R126" s="14">
-        <v>55</v>
-      </c>
-      <c r="S126" s="22">
-        <v>0</v>
-      </c>
-      <c r="T126" s="18" t="s">
+        <v>636</v>
+      </c>
+      <c r="S126" s="37">
+        <v>0</v>
+      </c>
+      <c r="T126" s="16" t="s">
         <v>1</v>
       </c>
       <c r="U126" s="28" t="s">
         <v>5</v>
       </c>
       <c r="V126" s="27" t="s">
-        <v>43</v>
+        <v>255</v>
       </c>
       <c r="W126" s="27" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="X126" s="27" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="Y126" s="27"/>
       <c r="Z126" s="27"/>
       <c r="AA126" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A127" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="10">
+        <v>59289</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H127" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I127" s="46"/>
+      <c r="J127" s="46"/>
+      <c r="K127" s="46"/>
+      <c r="L127" s="46"/>
+      <c r="M127" s="46"/>
+      <c r="N127" s="46"/>
+      <c r="O127" s="46"/>
+      <c r="P127" s="46"/>
+      <c r="Q127" s="41">
+        <v>41913</v>
+      </c>
+      <c r="R127" s="14">
+        <v>602</v>
+      </c>
+      <c r="S127" s="37">
+        <v>0</v>
+      </c>
+      <c r="T127" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U127" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V127" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W127" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X127" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y127" s="27"/>
+      <c r="Z127" s="27"/>
+      <c r="AA127" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A128" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" s="10">
+        <v>59292</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H128" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I128" s="46"/>
+      <c r="J128" s="46"/>
+      <c r="K128" s="46"/>
+      <c r="L128" s="46"/>
+      <c r="M128" s="46"/>
+      <c r="N128" s="46"/>
+      <c r="O128" s="46"/>
+      <c r="P128" s="46"/>
+      <c r="Q128" s="41">
+        <v>41778</v>
+      </c>
+      <c r="R128" s="14">
+        <v>288</v>
+      </c>
+      <c r="S128" s="37">
+        <v>0</v>
+      </c>
+      <c r="T128" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U128" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V128" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W128" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X128" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y128" s="27"/>
+      <c r="Z128" s="27"/>
+      <c r="AA128" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A129" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" s="13">
+        <v>59301</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H129" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I129" s="46"/>
+      <c r="J129" s="46"/>
+      <c r="K129" s="46"/>
+      <c r="L129" s="46"/>
+      <c r="M129" s="46"/>
+      <c r="N129" s="46"/>
+      <c r="O129" s="46"/>
+      <c r="P129" s="46"/>
+      <c r="Q129" s="41">
+        <v>41778</v>
+      </c>
+      <c r="R129" s="14">
+        <v>346</v>
+      </c>
+      <c r="S129" s="37">
+        <v>0</v>
+      </c>
+      <c r="T129" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U129" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V129" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W129" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X129" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y129" s="27"/>
+      <c r="Z129" s="27"/>
+      <c r="AA129" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A130" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" s="10">
+        <v>59304</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H130" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I130" s="46"/>
+      <c r="J130" s="46"/>
+      <c r="K130" s="46"/>
+      <c r="L130" s="46"/>
+      <c r="M130" s="46"/>
+      <c r="N130" s="46"/>
+      <c r="O130" s="46"/>
+      <c r="P130" s="46"/>
+      <c r="Q130" s="41">
+        <v>41778</v>
+      </c>
+      <c r="R130" s="14">
+        <v>385</v>
+      </c>
+      <c r="S130" s="37">
+        <v>0</v>
+      </c>
+      <c r="T130" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U130" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V130" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W130" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X130" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y130" s="27"/>
+      <c r="Z130" s="27"/>
+      <c r="AA130" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A131" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" s="10">
+        <v>59306</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H131" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I131" s="46"/>
+      <c r="J131" s="46"/>
+      <c r="K131" s="46"/>
+      <c r="L131" s="46"/>
+      <c r="M131" s="46"/>
+      <c r="N131" s="46"/>
+      <c r="O131" s="46"/>
+      <c r="P131" s="46"/>
+      <c r="Q131" s="41">
+        <v>41778</v>
+      </c>
+      <c r="R131" s="14">
+        <v>484</v>
+      </c>
+      <c r="S131" s="37">
+        <v>0</v>
+      </c>
+      <c r="T131" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U131" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V131" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W131" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X131" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y131" s="27"/>
+      <c r="Z131" s="27"/>
+      <c r="AA131" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A132" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" s="10">
+        <v>59309</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H132" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I132" s="46"/>
+      <c r="J132" s="46"/>
+      <c r="K132" s="46"/>
+      <c r="L132" s="46"/>
+      <c r="M132" s="46"/>
+      <c r="N132" s="46"/>
+      <c r="O132" s="46"/>
+      <c r="P132" s="46"/>
+      <c r="Q132" s="41">
+        <v>42342</v>
+      </c>
+      <c r="R132" s="14">
+        <v>188</v>
+      </c>
+      <c r="S132" s="37">
+        <v>0</v>
+      </c>
+      <c r="T132" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U132" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V132" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W132" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X132" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y132" s="27"/>
+      <c r="Z132" s="27"/>
+      <c r="AA132" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A133" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" s="10">
+        <v>59313</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H133" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I133" s="46"/>
+      <c r="J133" s="46"/>
+      <c r="K133" s="46"/>
+      <c r="L133" s="46"/>
+      <c r="M133" s="46"/>
+      <c r="N133" s="46"/>
+      <c r="O133" s="46"/>
+      <c r="P133" s="46"/>
+      <c r="Q133" s="41">
+        <v>41778</v>
+      </c>
+      <c r="R133" s="14">
+        <v>543</v>
+      </c>
+      <c r="S133" s="7">
+        <v>0</v>
+      </c>
+      <c r="T133" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U133" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V133" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W133" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X133" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y133" s="27"/>
+      <c r="Z133" s="27"/>
+      <c r="AA133" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A134" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B134" s="10">
+        <v>59315</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H134" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="I134" s="58"/>
+      <c r="J134" s="58"/>
+      <c r="K134" s="58"/>
+      <c r="L134" s="58"/>
+      <c r="M134" s="58"/>
+      <c r="N134" s="58"/>
+      <c r="O134" s="58"/>
+      <c r="P134" s="58"/>
+      <c r="Q134" s="9">
+        <v>41778</v>
+      </c>
+      <c r="R134" s="8">
+        <v>417</v>
+      </c>
+      <c r="S134" s="7">
+        <v>0</v>
+      </c>
+      <c r="T134" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U134" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V134" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="W134" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X134" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y134" s="3"/>
+      <c r="Z134" s="3"/>
+      <c r="AA134" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A135" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" s="10">
+        <v>59319</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H135" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="I135" s="58"/>
+      <c r="J135" s="58"/>
+      <c r="K135" s="58"/>
+      <c r="L135" s="58"/>
+      <c r="M135" s="58"/>
+      <c r="N135" s="58"/>
+      <c r="O135" s="58"/>
+      <c r="P135" s="58"/>
+      <c r="Q135" s="9">
+        <v>41778</v>
+      </c>
+      <c r="R135" s="8">
+        <v>402</v>
+      </c>
+      <c r="S135" s="7">
+        <v>0</v>
+      </c>
+      <c r="T135" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U135" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V135" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="W135" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X135" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y135" s="3"/>
+      <c r="Z135" s="3"/>
+      <c r="AA135" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A136" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" s="10">
+        <v>59322</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H136" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="I136" s="58"/>
+      <c r="J136" s="58"/>
+      <c r="K136" s="58"/>
+      <c r="L136" s="58"/>
+      <c r="M136" s="58"/>
+      <c r="N136" s="58"/>
+      <c r="O136" s="58"/>
+      <c r="P136" s="58"/>
+      <c r="Q136" s="9">
+        <v>41778</v>
+      </c>
+      <c r="R136" s="8">
+        <v>278</v>
+      </c>
+      <c r="S136" s="7">
+        <v>0</v>
+      </c>
+      <c r="T136" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U136" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V136" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="W136" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X136" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y136" s="3"/>
+      <c r="Z136" s="3"/>
+      <c r="AA136" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27" ht="26" x14ac:dyDescent="0.15">
+      <c r="A137" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B137" s="10">
+        <v>59326</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E137" s="13"/>
+      <c r="F137" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H137" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I137" s="46"/>
+      <c r="J137" s="46"/>
+      <c r="K137" s="46"/>
+      <c r="L137" s="46"/>
+      <c r="M137" s="46"/>
+      <c r="N137" s="46"/>
+      <c r="O137" s="46"/>
+      <c r="P137" s="46"/>
+      <c r="Q137" s="41">
+        <v>41778</v>
+      </c>
+      <c r="R137" s="14">
+        <v>476</v>
+      </c>
+      <c r="S137" s="37">
+        <v>0</v>
+      </c>
+      <c r="T137" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U137" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V137" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W137" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X137" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y137" s="27"/>
+      <c r="Z137" s="27"/>
+      <c r="AA137" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A138" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138" s="10">
+        <v>59328</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G138" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H138" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I138" s="46"/>
+      <c r="J138" s="46"/>
+      <c r="K138" s="46"/>
+      <c r="L138" s="46"/>
+      <c r="M138" s="46"/>
+      <c r="N138" s="46"/>
+      <c r="O138" s="46"/>
+      <c r="P138" s="46"/>
+      <c r="Q138" s="41">
+        <v>41906</v>
+      </c>
+      <c r="R138" s="25">
+        <v>1575</v>
+      </c>
+      <c r="S138" s="37">
+        <v>0</v>
+      </c>
+      <c r="T138" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U138" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V138" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W138" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X138" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y138" s="27"/>
+      <c r="Z138" s="27"/>
+      <c r="AA138" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A139" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" s="10">
+        <v>59330</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E139" s="39"/>
+      <c r="F139" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G139" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H139" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I139" s="46"/>
+      <c r="J139" s="46"/>
+      <c r="K139" s="46"/>
+      <c r="L139" s="46"/>
+      <c r="M139" s="46"/>
+      <c r="N139" s="46"/>
+      <c r="O139" s="46"/>
+      <c r="P139" s="46"/>
+      <c r="Q139" s="41">
+        <v>41913</v>
+      </c>
+      <c r="R139" s="14">
+        <v>977</v>
+      </c>
+      <c r="S139" s="37">
+        <v>0</v>
+      </c>
+      <c r="T139" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U139" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V139" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W139" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X139" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y139" s="27"/>
+      <c r="Z139" s="27"/>
+      <c r="AA139" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A140" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" s="13">
+        <v>59333</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G140" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H140" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I140" s="46"/>
+      <c r="J140" s="46"/>
+      <c r="K140" s="46"/>
+      <c r="L140" s="46"/>
+      <c r="M140" s="46"/>
+      <c r="N140" s="46"/>
+      <c r="O140" s="46"/>
+      <c r="P140" s="46"/>
+      <c r="Q140" s="41">
+        <v>41778</v>
+      </c>
+      <c r="R140" s="14">
+        <v>444</v>
+      </c>
+      <c r="S140" s="37">
+        <v>0</v>
+      </c>
+      <c r="T140" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U140" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V140" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W140" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X140" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y140" s="27"/>
+      <c r="Z140" s="27"/>
+      <c r="AA140" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" s="10">
+        <v>59340</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G141" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H141" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="I141" s="58"/>
+      <c r="J141" s="58"/>
+      <c r="K141" s="58"/>
+      <c r="L141" s="58"/>
+      <c r="M141" s="58"/>
+      <c r="N141" s="58"/>
+      <c r="O141" s="58"/>
+      <c r="P141" s="58"/>
+      <c r="Q141" s="9">
+        <v>42342</v>
+      </c>
+      <c r="R141" s="14">
+        <v>376</v>
+      </c>
+      <c r="S141" s="7">
+        <v>0</v>
+      </c>
+      <c r="T141" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U141" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V141" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="W141" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X141" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y141" s="3"/>
+      <c r="Z141" s="3"/>
+      <c r="AA141" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A142" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" s="10">
+        <v>59350</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G142" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H142" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="I142" s="58"/>
+      <c r="J142" s="58"/>
+      <c r="K142" s="58"/>
+      <c r="L142" s="58"/>
+      <c r="M142" s="58"/>
+      <c r="N142" s="58"/>
+      <c r="O142" s="58"/>
+      <c r="P142" s="58"/>
+      <c r="Q142" s="9">
+        <v>42342</v>
+      </c>
+      <c r="R142" s="14">
+        <v>325</v>
+      </c>
+      <c r="S142" s="7">
+        <v>0</v>
+      </c>
+      <c r="T142" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U142" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V142" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="W142" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="X142" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y142" s="3"/>
+      <c r="Z142" s="3"/>
+      <c r="AA142" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A143" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" s="13">
+        <v>59361</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E143" s="13"/>
+      <c r="F143" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G143" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H143" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I143" s="46"/>
+      <c r="J143" s="46"/>
+      <c r="K143" s="46"/>
+      <c r="L143" s="46"/>
+      <c r="M143" s="46"/>
+      <c r="N143" s="46"/>
+      <c r="O143" s="46"/>
+      <c r="P143" s="46"/>
+      <c r="Q143" s="41">
+        <v>42342</v>
+      </c>
+      <c r="R143" s="14">
+        <v>359</v>
+      </c>
+      <c r="S143" s="37">
+        <v>0</v>
+      </c>
+      <c r="T143" s="70">
+        <v>2</v>
+      </c>
+      <c r="U143" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V143" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W143" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="X143" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y143" s="27"/>
+      <c r="Z143" s="27"/>
+      <c r="AA143" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A144" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B144" s="13">
+        <v>59367</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G144" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H144" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I144" s="46"/>
+      <c r="J144" s="46"/>
+      <c r="K144" s="46"/>
+      <c r="L144" s="46"/>
+      <c r="M144" s="46"/>
+      <c r="N144" s="46"/>
+      <c r="O144" s="46"/>
+      <c r="P144" s="46"/>
+      <c r="Q144" s="41">
+        <v>42306</v>
+      </c>
+      <c r="R144" s="14">
+        <v>496</v>
+      </c>
+      <c r="S144" s="37">
+        <v>0</v>
+      </c>
+      <c r="T144" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U144" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V144" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W144" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="X144" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y144" s="27"/>
+      <c r="Z144" s="27"/>
+      <c r="AA144" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A145" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" s="13">
+        <v>59374</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E145" s="13"/>
+      <c r="F145" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G145" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H145" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I145" s="46"/>
+      <c r="J145" s="46"/>
+      <c r="K145" s="46"/>
+      <c r="L145" s="46"/>
+      <c r="M145" s="46"/>
+      <c r="N145" s="46"/>
+      <c r="O145" s="46"/>
+      <c r="P145" s="46"/>
+      <c r="Q145" s="41">
+        <v>41778</v>
+      </c>
+      <c r="R145" s="14">
+        <v>479</v>
+      </c>
+      <c r="S145" s="37">
+        <v>0</v>
+      </c>
+      <c r="T145" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U145" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V145" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W145" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="X145" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y145" s="27"/>
+      <c r="Z145" s="27"/>
+      <c r="AA145" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A146" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" s="10">
+        <v>59383</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G146" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H146" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I146" s="46"/>
+      <c r="J146" s="46"/>
+      <c r="K146" s="46"/>
+      <c r="L146" s="46"/>
+      <c r="M146" s="46"/>
+      <c r="N146" s="46"/>
+      <c r="O146" s="46"/>
+      <c r="P146" s="46"/>
+      <c r="Q146" s="41">
+        <v>42346</v>
+      </c>
+      <c r="R146" s="14">
+        <v>557</v>
+      </c>
+      <c r="S146" s="37">
+        <v>0</v>
+      </c>
+      <c r="T146" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U146" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V146" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W146" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X146" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y146" s="27"/>
+      <c r="Z146" s="27"/>
+      <c r="AA146" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A147" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B147" s="15">
+        <v>59389</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E147" s="13"/>
+      <c r="F147" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G147" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H147" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="I147" s="58"/>
+      <c r="J147" s="58"/>
+      <c r="K147" s="58"/>
+      <c r="L147" s="58"/>
+      <c r="M147" s="58"/>
+      <c r="N147" s="58"/>
+      <c r="O147" s="58"/>
+      <c r="P147" s="58"/>
+      <c r="Q147" s="9">
+        <v>42346</v>
+      </c>
+      <c r="R147" s="8">
+        <v>290</v>
+      </c>
+      <c r="S147" s="7">
+        <v>0</v>
+      </c>
+      <c r="T147" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U147" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V147" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="W147" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X147" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y147" s="3"/>
+      <c r="Z147" s="3"/>
+      <c r="AA147" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A148" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" s="10">
+        <v>59398</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E148" s="13"/>
+      <c r="F148" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G148" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H148" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="I148" s="58"/>
+      <c r="J148" s="58"/>
+      <c r="K148" s="58"/>
+      <c r="L148" s="58"/>
+      <c r="M148" s="58"/>
+      <c r="N148" s="58"/>
+      <c r="O148" s="58"/>
+      <c r="P148" s="58"/>
+      <c r="Q148" s="9">
+        <v>42342</v>
+      </c>
+      <c r="R148" s="14">
+        <v>371</v>
+      </c>
+      <c r="S148" s="7">
+        <v>0</v>
+      </c>
+      <c r="T148" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U148" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V148" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="W148" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X148" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y148" s="3"/>
+      <c r="Z148" s="3"/>
+      <c r="AA148" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A149" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B149" s="15">
+        <v>59493</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E149" s="13"/>
+      <c r="F149" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G149" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H149" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I149" s="46"/>
+      <c r="J149" s="46"/>
+      <c r="K149" s="46"/>
+      <c r="L149" s="46"/>
+      <c r="M149" s="46"/>
+      <c r="N149" s="46"/>
+      <c r="O149" s="46"/>
+      <c r="P149" s="46"/>
+      <c r="Q149" s="41">
+        <v>41778</v>
+      </c>
+      <c r="R149" s="14">
+        <v>919</v>
+      </c>
+      <c r="S149" s="37">
+        <v>0</v>
+      </c>
+      <c r="T149" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U149" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V149" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W149" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="X149" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y149" s="27"/>
+      <c r="Z149" s="27"/>
+      <c r="AA149" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A150" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150" s="15">
+        <v>59501</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G150" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H150" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I150" s="46"/>
+      <c r="J150" s="46"/>
+      <c r="K150" s="46"/>
+      <c r="L150" s="46"/>
+      <c r="M150" s="46"/>
+      <c r="N150" s="46"/>
+      <c r="O150" s="46"/>
+      <c r="P150" s="46"/>
+      <c r="Q150" s="41">
+        <v>41778</v>
+      </c>
+      <c r="R150" s="14">
+        <v>703</v>
+      </c>
+      <c r="S150" s="37">
+        <v>0</v>
+      </c>
+      <c r="T150" s="70">
+        <v>11</v>
+      </c>
+      <c r="U150" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V150" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W150" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="X150" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y150" s="27"/>
+      <c r="Z150" s="27"/>
+      <c r="AA150" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A151" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151" s="15">
+        <v>59503</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G151" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H151" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I151" s="46"/>
+      <c r="J151" s="46"/>
+      <c r="K151" s="46"/>
+      <c r="L151" s="46"/>
+      <c r="M151" s="46"/>
+      <c r="N151" s="46"/>
+      <c r="O151" s="46"/>
+      <c r="P151" s="46"/>
+      <c r="Q151" s="41">
+        <v>41913</v>
+      </c>
+      <c r="R151" s="14">
+        <v>740</v>
+      </c>
+      <c r="S151" s="37">
+        <v>0</v>
+      </c>
+      <c r="T151" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U151" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V151" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W151" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X151" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y151" s="27"/>
+      <c r="Z151" s="27"/>
+      <c r="AA151" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A152" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" s="13">
+        <v>59507</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G152" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H152" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I152" s="46"/>
+      <c r="J152" s="46"/>
+      <c r="K152" s="46"/>
+      <c r="L152" s="46"/>
+      <c r="M152" s="46"/>
+      <c r="N152" s="46"/>
+      <c r="O152" s="46"/>
+      <c r="P152" s="46"/>
+      <c r="Q152" s="41">
+        <v>42346</v>
+      </c>
+      <c r="R152" s="14">
+        <v>991</v>
+      </c>
+      <c r="S152" s="37">
+        <v>0</v>
+      </c>
+      <c r="T152" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U152" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V152" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W152" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X152" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y152" s="27"/>
+      <c r="Z152" s="27"/>
+      <c r="AA152" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A153" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" s="10">
+        <v>59509</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G153" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H153" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I153" s="46"/>
+      <c r="J153" s="46"/>
+      <c r="K153" s="46"/>
+      <c r="L153" s="46"/>
+      <c r="M153" s="46"/>
+      <c r="N153" s="46"/>
+      <c r="O153" s="46"/>
+      <c r="P153" s="46"/>
+      <c r="Q153" s="41">
+        <v>42346</v>
+      </c>
+      <c r="R153" s="14">
+        <v>570</v>
+      </c>
+      <c r="S153" s="37">
+        <v>0</v>
+      </c>
+      <c r="T153" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U153" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V153" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W153" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="X153" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y153" s="27"/>
+      <c r="Z153" s="27"/>
+      <c r="AA153" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A154" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B154" s="10">
+        <v>59513</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G154" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H154" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I154" s="46"/>
+      <c r="J154" s="46"/>
+      <c r="K154" s="46"/>
+      <c r="L154" s="46"/>
+      <c r="M154" s="46"/>
+      <c r="N154" s="46"/>
+      <c r="O154" s="46"/>
+      <c r="P154" s="46"/>
+      <c r="Q154" s="41">
+        <v>42346</v>
+      </c>
+      <c r="R154" s="14">
+        <v>578</v>
+      </c>
+      <c r="S154" s="37">
+        <v>0</v>
+      </c>
+      <c r="T154" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U154" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V154" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W154" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X154" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y154" s="27"/>
+      <c r="Z154" s="27"/>
+      <c r="AA154" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A155" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B155" s="10">
+        <v>59522</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E155" s="13"/>
+      <c r="F155" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G155" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H155" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I155" s="46"/>
+      <c r="J155" s="46"/>
+      <c r="K155" s="46"/>
+      <c r="L155" s="46"/>
+      <c r="M155" s="46"/>
+      <c r="N155" s="46"/>
+      <c r="O155" s="46"/>
+      <c r="P155" s="46"/>
+      <c r="Q155" s="41">
+        <v>41913</v>
+      </c>
+      <c r="R155" s="25">
+        <v>1802</v>
+      </c>
+      <c r="S155" s="37">
+        <v>0</v>
+      </c>
+      <c r="T155" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U155" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V155" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W155" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X155" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y155" s="27"/>
+      <c r="Z155" s="27"/>
+      <c r="AA155" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A156" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B156" s="10">
+        <v>59526</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G156" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H156" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="I156" s="58"/>
+      <c r="J156" s="58"/>
+      <c r="K156" s="58"/>
+      <c r="L156" s="58"/>
+      <c r="M156" s="58"/>
+      <c r="N156" s="58"/>
+      <c r="O156" s="58"/>
+      <c r="P156" s="58"/>
+      <c r="Q156" s="9">
+        <v>41778</v>
+      </c>
+      <c r="R156" s="8">
+        <v>354</v>
+      </c>
+      <c r="S156" s="7">
+        <v>0</v>
+      </c>
+      <c r="T156" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U156" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V156" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="W156" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X156" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y156" s="3"/>
+      <c r="Z156" s="3"/>
+      <c r="AA156" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A157" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B157" s="10">
+        <v>59529</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E157" s="13"/>
+      <c r="F157" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G157" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H157" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I157" s="46"/>
+      <c r="J157" s="46"/>
+      <c r="K157" s="46"/>
+      <c r="L157" s="46"/>
+      <c r="M157" s="46"/>
+      <c r="N157" s="46"/>
+      <c r="O157" s="46"/>
+      <c r="P157" s="46"/>
+      <c r="Q157" s="41">
+        <v>42346</v>
+      </c>
+      <c r="R157" s="14">
+        <v>518</v>
+      </c>
+      <c r="S157" s="37">
+        <v>0</v>
+      </c>
+      <c r="T157" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U157" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V157" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W157" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X157" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y157" s="27"/>
+      <c r="Z157" s="27"/>
+      <c r="AA157" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A158" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158" s="10">
+        <v>59535</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G158" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H158" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="I158" s="58"/>
+      <c r="J158" s="58"/>
+      <c r="K158" s="58"/>
+      <c r="L158" s="58"/>
+      <c r="M158" s="58"/>
+      <c r="N158" s="58"/>
+      <c r="O158" s="58"/>
+      <c r="P158" s="58"/>
+      <c r="Q158" s="9">
+        <v>41913</v>
+      </c>
+      <c r="R158" s="8">
+        <v>25552</v>
+      </c>
+      <c r="S158" s="7">
+        <v>0</v>
+      </c>
+      <c r="T158" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U158" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V158" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="W158" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X158" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y158" s="3"/>
+      <c r="Z158" s="3"/>
+      <c r="AA158" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A159" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" s="13">
+        <v>59541</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E159" s="13"/>
+      <c r="F159" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G159" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H159" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I159" s="46"/>
+      <c r="J159" s="46"/>
+      <c r="K159" s="46"/>
+      <c r="L159" s="46"/>
+      <c r="M159" s="46"/>
+      <c r="N159" s="46"/>
+      <c r="O159" s="46"/>
+      <c r="P159" s="46"/>
+      <c r="Q159" s="41">
+        <v>42346</v>
+      </c>
+      <c r="R159" s="14">
+        <v>452</v>
+      </c>
+      <c r="S159" s="37">
+        <v>0</v>
+      </c>
+      <c r="T159" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U159" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V159" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W159" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X159" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y159" s="27"/>
+      <c r="Z159" s="27"/>
+      <c r="AA159" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A160" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B160" s="10">
+        <v>59544</v>
+      </c>
+      <c r="C160" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G160" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H160" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I160" s="46"/>
+      <c r="J160" s="46"/>
+      <c r="K160" s="46"/>
+      <c r="L160" s="46"/>
+      <c r="M160" s="46"/>
+      <c r="N160" s="46"/>
+      <c r="O160" s="46"/>
+      <c r="P160" s="46"/>
+      <c r="Q160" s="41">
+        <v>41778</v>
+      </c>
+      <c r="R160" s="14">
+        <v>537</v>
+      </c>
+      <c r="S160" s="37">
+        <v>0</v>
+      </c>
+      <c r="T160" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U160" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V160" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W160" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X160" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y160" s="27"/>
+      <c r="Z160" s="27"/>
+      <c r="AA160" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A161" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B161" s="13">
+        <v>59548</v>
+      </c>
+      <c r="C161" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G161" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H161" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I161" s="46"/>
+      <c r="J161" s="46"/>
+      <c r="K161" s="46"/>
+      <c r="L161" s="46"/>
+      <c r="M161" s="46"/>
+      <c r="N161" s="46"/>
+      <c r="O161" s="46"/>
+      <c r="P161" s="46"/>
+      <c r="Q161" s="41">
+        <v>41778</v>
+      </c>
+      <c r="R161" s="14">
+        <v>386</v>
+      </c>
+      <c r="S161" s="37">
+        <v>0</v>
+      </c>
+      <c r="T161" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U161" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V161" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W161" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X161" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y161" s="27"/>
+      <c r="Z161" s="27"/>
+      <c r="AA161" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A162" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B162" s="13">
+        <v>59554</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E162" s="13"/>
+      <c r="F162" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G162" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H162" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I162" s="46"/>
+      <c r="J162" s="46"/>
+      <c r="K162" s="46"/>
+      <c r="L162" s="46"/>
+      <c r="M162" s="46"/>
+      <c r="N162" s="46"/>
+      <c r="O162" s="46"/>
+      <c r="P162" s="46"/>
+      <c r="Q162" s="41">
+        <v>42346</v>
+      </c>
+      <c r="R162" s="14">
+        <v>613</v>
+      </c>
+      <c r="S162" s="37">
+        <v>0</v>
+      </c>
+      <c r="T162" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U162" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V162" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W162" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X162" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y162" s="27"/>
+      <c r="Z162" s="27"/>
+      <c r="AA162" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A163" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B163" s="10">
+        <v>59558</v>
+      </c>
+      <c r="C163" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E163" s="13"/>
+      <c r="F163" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G163" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H163" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I163" s="46"/>
+      <c r="J163" s="46"/>
+      <c r="K163" s="46"/>
+      <c r="L163" s="46"/>
+      <c r="M163" s="46"/>
+      <c r="N163" s="46"/>
+      <c r="O163" s="46"/>
+      <c r="P163" s="46"/>
+      <c r="Q163" s="41">
+        <v>42346</v>
+      </c>
+      <c r="R163" s="14">
+        <v>702</v>
+      </c>
+      <c r="S163" s="37">
+        <v>0</v>
+      </c>
+      <c r="T163" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U163" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V163" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W163" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X163" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y163" s="27"/>
+      <c r="Z163" s="27"/>
+      <c r="AA163" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A164" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164" s="10">
+        <v>59561</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E164" s="13"/>
+      <c r="F164" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G164" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H164" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I164" s="46"/>
+      <c r="J164" s="46"/>
+      <c r="K164" s="46"/>
+      <c r="L164" s="46"/>
+      <c r="M164" s="46"/>
+      <c r="N164" s="46"/>
+      <c r="O164" s="46"/>
+      <c r="P164" s="46"/>
+      <c r="Q164" s="41">
+        <v>42346</v>
+      </c>
+      <c r="R164" s="14">
+        <v>519</v>
+      </c>
+      <c r="S164" s="37">
+        <v>0</v>
+      </c>
+      <c r="T164" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U164" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V164" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W164" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X164" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y164" s="27"/>
+      <c r="Z164" s="27"/>
+      <c r="AA164" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A165" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B165" s="10">
+        <v>59563</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E165" s="10"/>
+      <c r="F165" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G165" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H165" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I165" s="46"/>
+      <c r="J165" s="46"/>
+      <c r="K165" s="46"/>
+      <c r="L165" s="46"/>
+      <c r="M165" s="46"/>
+      <c r="N165" s="46"/>
+      <c r="O165" s="46"/>
+      <c r="P165" s="46"/>
+      <c r="Q165" s="9">
+        <v>41906</v>
+      </c>
+      <c r="R165" s="8">
+        <v>420</v>
+      </c>
+      <c r="S165" s="7">
+        <v>0</v>
+      </c>
+      <c r="T165" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U165" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V165" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="W165" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X165" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y165" s="3"/>
+      <c r="Z165" s="3"/>
+      <c r="AA165" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A166" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B166" s="10">
+        <v>59565</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E166" s="13"/>
+      <c r="F166" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G166" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H166" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I166" s="46"/>
+      <c r="J166" s="46"/>
+      <c r="K166" s="46"/>
+      <c r="L166" s="46"/>
+      <c r="M166" s="46"/>
+      <c r="N166" s="46"/>
+      <c r="O166" s="46"/>
+      <c r="P166" s="46"/>
+      <c r="Q166" s="41">
+        <v>41913</v>
+      </c>
+      <c r="R166" s="14">
+        <v>860</v>
+      </c>
+      <c r="S166" s="37">
+        <v>0</v>
+      </c>
+      <c r="T166" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U166" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V166" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W166" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X166" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y166" s="27"/>
+      <c r="Z166" s="27"/>
+      <c r="AA166" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A167" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167" s="10">
+        <v>59567</v>
+      </c>
+      <c r="C167" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E167" s="39"/>
+      <c r="F167" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G167" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H167" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I167" s="46"/>
+      <c r="J167" s="46"/>
+      <c r="K167" s="46"/>
+      <c r="L167" s="46"/>
+      <c r="M167" s="46"/>
+      <c r="N167" s="46"/>
+      <c r="O167" s="46"/>
+      <c r="P167" s="46"/>
+      <c r="Q167" s="41">
+        <v>41913</v>
+      </c>
+      <c r="R167" s="14">
+        <v>561</v>
+      </c>
+      <c r="S167" s="7">
+        <v>0</v>
+      </c>
+      <c r="T167" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U167" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V167" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W167" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X167" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y167" s="27"/>
+      <c r="Z167" s="27"/>
+      <c r="AA167" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A168" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B168" s="10">
+        <v>64607</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E168" s="13"/>
+      <c r="F168" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G168" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H168" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="I168" s="58"/>
+      <c r="J168" s="58"/>
+      <c r="K168" s="58"/>
+      <c r="L168" s="58"/>
+      <c r="M168" s="58"/>
+      <c r="N168" s="58"/>
+      <c r="O168" s="58"/>
+      <c r="P168" s="58"/>
+      <c r="Q168" s="9">
+        <v>42342</v>
+      </c>
+      <c r="R168" s="8">
+        <v>397</v>
+      </c>
+      <c r="S168" s="7">
+        <v>0</v>
+      </c>
+      <c r="T168" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U168" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V168" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="W168" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X168" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y168" s="3"/>
+      <c r="Z168" s="3"/>
+      <c r="AA168" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27" ht="26" x14ac:dyDescent="0.15">
+      <c r="A169" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B169" s="10">
+        <v>66898</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E169" s="13"/>
+      <c r="F169" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G169" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H169" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="I169" s="58"/>
+      <c r="J169" s="58"/>
+      <c r="K169" s="58"/>
+      <c r="L169" s="58"/>
+      <c r="M169" s="58"/>
+      <c r="N169" s="58"/>
+      <c r="O169" s="58"/>
+      <c r="P169" s="58"/>
+      <c r="Q169" s="9">
+        <v>42342</v>
+      </c>
+      <c r="R169" s="14">
+        <v>318</v>
+      </c>
+      <c r="S169" s="7">
+        <v>0</v>
+      </c>
+      <c r="T169" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U169" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V169" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="W169" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X169" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y169" s="3"/>
+      <c r="Z169" s="3"/>
+      <c r="AA169" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A170" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B170" s="10">
+        <v>66899</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E170" s="10"/>
+      <c r="F170" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G170" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H170" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="I170" s="58"/>
+      <c r="J170" s="58"/>
+      <c r="K170" s="58"/>
+      <c r="L170" s="58"/>
+      <c r="M170" s="58"/>
+      <c r="N170" s="58"/>
+      <c r="O170" s="58"/>
+      <c r="P170" s="58"/>
+      <c r="Q170" s="9">
+        <v>42342</v>
+      </c>
+      <c r="R170" s="8">
+        <v>213</v>
+      </c>
+      <c r="S170" s="7">
+        <v>0</v>
+      </c>
+      <c r="T170" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U170" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V170" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="W170" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X170" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y170" s="3"/>
+      <c r="Z170" s="3"/>
+      <c r="AA170" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A171" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B171" s="15">
+        <v>66908</v>
+      </c>
+      <c r="C171" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E171" s="13"/>
+      <c r="F171" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G171" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H171" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I171" s="46"/>
+      <c r="J171" s="46"/>
+      <c r="K171" s="46"/>
+      <c r="L171" s="46"/>
+      <c r="M171" s="46"/>
+      <c r="N171" s="46"/>
+      <c r="O171" s="46"/>
+      <c r="P171" s="46"/>
+      <c r="Q171" s="41">
+        <v>42346</v>
+      </c>
+      <c r="R171" s="14">
+        <v>600</v>
+      </c>
+      <c r="S171" s="37">
+        <v>0</v>
+      </c>
+      <c r="T171" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U171" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V171" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W171" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="X171" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y171" s="27"/>
+      <c r="Z171" s="27"/>
+      <c r="AA171" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A172" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B172" s="13">
+        <v>66959</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E172" s="13"/>
+      <c r="F172" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G172" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H172" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I172" s="46"/>
+      <c r="J172" s="46"/>
+      <c r="K172" s="46"/>
+      <c r="L172" s="46"/>
+      <c r="M172" s="46"/>
+      <c r="N172" s="46"/>
+      <c r="O172" s="46"/>
+      <c r="P172" s="46"/>
+      <c r="Q172" s="41">
+        <v>41778</v>
+      </c>
+      <c r="R172" s="14">
+        <v>391</v>
+      </c>
+      <c r="S172" s="37">
+        <v>0</v>
+      </c>
+      <c r="T172" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U172" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V172" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W172" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X172" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y172" s="27"/>
+      <c r="Z172" s="27"/>
+      <c r="AA172" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A173" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B173" s="10">
+        <v>67000</v>
+      </c>
+      <c r="C173" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E173" s="13"/>
+      <c r="F173" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G173" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H173" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I173" s="46"/>
+      <c r="J173" s="46"/>
+      <c r="K173" s="46"/>
+      <c r="L173" s="46"/>
+      <c r="M173" s="46"/>
+      <c r="N173" s="46"/>
+      <c r="O173" s="46"/>
+      <c r="P173" s="46"/>
+      <c r="Q173" s="41">
+        <v>41778</v>
+      </c>
+      <c r="R173" s="14">
+        <v>424</v>
+      </c>
+      <c r="S173" s="37">
+        <v>0</v>
+      </c>
+      <c r="T173" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U173" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V173" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W173" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="X173" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y173" s="27"/>
+      <c r="Z173" s="27"/>
+      <c r="AA173" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A174" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B174" s="15">
+        <v>67109</v>
+      </c>
+      <c r="C174" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E174" s="13"/>
+      <c r="F174" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G174" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H174" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I174" s="46"/>
+      <c r="J174" s="46"/>
+      <c r="K174" s="46"/>
+      <c r="L174" s="46"/>
+      <c r="M174" s="46"/>
+      <c r="N174" s="46"/>
+      <c r="O174" s="46"/>
+      <c r="P174" s="46"/>
+      <c r="Q174" s="41">
+        <v>41778</v>
+      </c>
+      <c r="R174" s="14">
+        <v>677</v>
+      </c>
+      <c r="S174" s="37">
+        <v>0</v>
+      </c>
+      <c r="T174" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U174" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V174" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W174" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="X174" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y174" s="27"/>
+      <c r="Z174" s="27"/>
+      <c r="AA174" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:27" ht="26" x14ac:dyDescent="0.15">
+      <c r="A175" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B175" s="13">
+        <v>67117</v>
+      </c>
+      <c r="C175" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E175" s="13"/>
+      <c r="F175" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G175" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H175" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I175" s="46"/>
+      <c r="J175" s="46"/>
+      <c r="K175" s="46"/>
+      <c r="L175" s="46"/>
+      <c r="M175" s="46"/>
+      <c r="N175" s="46"/>
+      <c r="O175" s="46"/>
+      <c r="P175" s="46"/>
+      <c r="Q175" s="41">
+        <v>41778</v>
+      </c>
+      <c r="R175" s="14">
+        <v>663</v>
+      </c>
+      <c r="S175" s="37">
+        <v>0</v>
+      </c>
+      <c r="T175" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U175" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V175" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W175" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="X175" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y175" s="27"/>
+      <c r="Z175" s="27"/>
+      <c r="AA175" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A176" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B176" s="13">
+        <v>67122</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E176" s="13"/>
+      <c r="F176" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G176" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H176" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I176" s="46"/>
+      <c r="J176" s="46"/>
+      <c r="K176" s="46"/>
+      <c r="L176" s="46"/>
+      <c r="M176" s="46"/>
+      <c r="N176" s="46"/>
+      <c r="O176" s="46"/>
+      <c r="P176" s="46"/>
+      <c r="Q176" s="41">
+        <v>42306</v>
+      </c>
+      <c r="R176" s="14">
+        <v>496</v>
+      </c>
+      <c r="S176" s="37">
+        <v>0</v>
+      </c>
+      <c r="T176" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U176" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V176" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W176" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="X176" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y176" s="27"/>
+      <c r="Z176" s="27"/>
+      <c r="AA176" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A177" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B177" s="10">
+        <v>67191</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E177" s="10"/>
+      <c r="F177" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G177" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H177" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="I177" s="58"/>
+      <c r="J177" s="58"/>
+      <c r="K177" s="58"/>
+      <c r="L177" s="58"/>
+      <c r="M177" s="58"/>
+      <c r="N177" s="58"/>
+      <c r="O177" s="58"/>
+      <c r="P177" s="58"/>
+      <c r="Q177" s="9">
+        <v>41778</v>
+      </c>
+      <c r="R177" s="8">
+        <v>332</v>
+      </c>
+      <c r="S177" s="7">
+        <v>0</v>
+      </c>
+      <c r="T177" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U177" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V177" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="W177" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X177" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y177" s="3"/>
+      <c r="Z177" s="3"/>
+      <c r="AA177" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:27" ht="26" x14ac:dyDescent="0.15">
+      <c r="A178" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" s="10">
+        <v>67194</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E178" s="39"/>
+      <c r="F178" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G178" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="H178" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="I178" s="58"/>
+      <c r="J178" s="58"/>
+      <c r="K178" s="58"/>
+      <c r="L178" s="58"/>
+      <c r="M178" s="58"/>
+      <c r="N178" s="58"/>
+      <c r="O178" s="58"/>
+      <c r="P178" s="58"/>
+      <c r="Q178" s="9">
+        <v>41778</v>
+      </c>
+      <c r="R178" s="8">
+        <v>212</v>
+      </c>
+      <c r="S178" s="7">
+        <v>0</v>
+      </c>
+      <c r="T178" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U178" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V178" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="W178" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X178" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y178" s="3"/>
+      <c r="Z178" s="3"/>
+      <c r="AA178" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A179" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B179" s="10">
+        <v>67196</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E179" s="13"/>
+      <c r="F179" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G179" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H179" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="I179" s="58"/>
+      <c r="J179" s="58"/>
+      <c r="K179" s="58"/>
+      <c r="L179" s="58"/>
+      <c r="M179" s="58"/>
+      <c r="N179" s="58"/>
+      <c r="O179" s="58"/>
+      <c r="P179" s="58"/>
+      <c r="Q179" s="9">
+        <v>41778</v>
+      </c>
+      <c r="R179" s="8">
+        <v>331</v>
+      </c>
+      <c r="S179" s="7">
+        <v>0</v>
+      </c>
+      <c r="T179" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U179" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V179" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="W179" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X179" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y179" s="3"/>
+      <c r="Z179" s="3"/>
+      <c r="AA179" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A180" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B180" s="13">
+        <v>67211</v>
+      </c>
+      <c r="C180" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E180" s="13"/>
+      <c r="F180" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G180" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H180" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I180" s="46"/>
+      <c r="J180" s="46"/>
+      <c r="K180" s="46"/>
+      <c r="L180" s="46"/>
+      <c r="M180" s="46"/>
+      <c r="N180" s="46"/>
+      <c r="O180" s="46"/>
+      <c r="P180" s="46"/>
+      <c r="Q180" s="41">
+        <v>41778</v>
+      </c>
+      <c r="R180" s="14">
+        <v>322</v>
+      </c>
+      <c r="S180" s="37">
+        <v>0</v>
+      </c>
+      <c r="T180" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U180" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V180" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W180" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="X180" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y180" s="27"/>
+      <c r="Z180" s="27"/>
+      <c r="AA180" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A181" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B181" s="13">
+        <v>67219</v>
+      </c>
+      <c r="C181" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E181" s="13"/>
+      <c r="F181" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G181" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H181" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I181" s="46"/>
+      <c r="J181" s="46"/>
+      <c r="K181" s="46"/>
+      <c r="L181" s="46"/>
+      <c r="M181" s="46"/>
+      <c r="N181" s="46"/>
+      <c r="O181" s="46"/>
+      <c r="P181" s="46"/>
+      <c r="Q181" s="41">
+        <v>41778</v>
+      </c>
+      <c r="R181" s="14">
+        <v>341</v>
+      </c>
+      <c r="S181" s="37">
+        <v>0</v>
+      </c>
+      <c r="T181" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U181" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V181" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W181" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="X181" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y181" s="27"/>
+      <c r="Z181" s="27"/>
+      <c r="AA181" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A182" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B182" s="10">
+        <v>67225</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E182" s="13"/>
+      <c r="F182" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G182" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H182" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="I182" s="58"/>
+      <c r="J182" s="58"/>
+      <c r="K182" s="58"/>
+      <c r="L182" s="58"/>
+      <c r="M182" s="58"/>
+      <c r="N182" s="58"/>
+      <c r="O182" s="58"/>
+      <c r="P182" s="58"/>
+      <c r="Q182" s="9">
+        <v>41778</v>
+      </c>
+      <c r="R182" s="8">
+        <v>313</v>
+      </c>
+      <c r="S182" s="7">
+        <v>0</v>
+      </c>
+      <c r="T182" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U182" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V182" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="W182" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="X182" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y182" s="3"/>
+      <c r="Z182" s="3"/>
+      <c r="AA182" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A183" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B183" s="10">
+        <v>67232</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E183" s="39"/>
+      <c r="F183" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G183" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="H183" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I183" s="46"/>
+      <c r="J183" s="46"/>
+      <c r="K183" s="46"/>
+      <c r="L183" s="46"/>
+      <c r="M183" s="46"/>
+      <c r="N183" s="46"/>
+      <c r="O183" s="46"/>
+      <c r="P183" s="46"/>
+      <c r="Q183" s="41">
+        <v>41778</v>
+      </c>
+      <c r="R183" s="14">
+        <v>433</v>
+      </c>
+      <c r="S183" s="37">
+        <v>0</v>
+      </c>
+      <c r="T183" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U183" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V183" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W183" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="X183" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y183" s="27"/>
+      <c r="Z183" s="27"/>
+      <c r="AA183" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A184" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B184" s="10">
+        <v>67237</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E184" s="10"/>
+      <c r="F184" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G184" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H184" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="I184" s="58"/>
+      <c r="J184" s="58"/>
+      <c r="K184" s="58"/>
+      <c r="L184" s="58"/>
+      <c r="M184" s="58"/>
+      <c r="N184" s="58"/>
+      <c r="O184" s="58"/>
+      <c r="P184" s="58"/>
+      <c r="Q184" s="9">
+        <v>41778</v>
+      </c>
+      <c r="R184" s="14">
+        <v>170</v>
+      </c>
+      <c r="S184" s="7">
+        <v>0</v>
+      </c>
+      <c r="T184" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U184" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V184" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="W184" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X184" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y184" s="3"/>
+      <c r="Z184" s="3"/>
+      <c r="AA184" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A185" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B185" s="15">
+        <v>67252</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E185" s="13"/>
+      <c r="F185" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G185" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H185" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I185" s="46"/>
+      <c r="J185" s="46"/>
+      <c r="K185" s="46"/>
+      <c r="L185" s="46"/>
+      <c r="M185" s="46"/>
+      <c r="N185" s="46"/>
+      <c r="O185" s="46"/>
+      <c r="P185" s="46"/>
+      <c r="Q185" s="41">
+        <v>41778</v>
+      </c>
+      <c r="R185" s="14">
+        <v>422</v>
+      </c>
+      <c r="S185" s="37">
+        <v>0</v>
+      </c>
+      <c r="T185" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U185" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V185" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W185" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X185" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y185" s="27"/>
+      <c r="Z185" s="27"/>
+      <c r="AA185" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A186" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B186" s="10">
+        <v>67257</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E186" s="10"/>
+      <c r="F186" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G186" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H186" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="I186" s="58"/>
+      <c r="J186" s="58"/>
+      <c r="K186" s="58"/>
+      <c r="L186" s="58"/>
+      <c r="M186" s="58"/>
+      <c r="N186" s="58"/>
+      <c r="O186" s="58"/>
+      <c r="P186" s="58"/>
+      <c r="Q186" s="9">
+        <v>41778</v>
+      </c>
+      <c r="R186" s="8">
+        <v>399</v>
+      </c>
+      <c r="S186" s="7">
+        <v>0</v>
+      </c>
+      <c r="T186" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U186" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V186" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="W186" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X186" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y186" s="3"/>
+      <c r="Z186" s="3"/>
+      <c r="AA186" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A187" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187" s="13">
+        <v>67267</v>
+      </c>
+      <c r="C187" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E187" s="13"/>
+      <c r="F187" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G187" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H187" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I187" s="46"/>
+      <c r="J187" s="46"/>
+      <c r="K187" s="46"/>
+      <c r="L187" s="46"/>
+      <c r="M187" s="46"/>
+      <c r="N187" s="46"/>
+      <c r="O187" s="46"/>
+      <c r="P187" s="46"/>
+      <c r="Q187" s="41">
+        <v>41778</v>
+      </c>
+      <c r="R187" s="14">
+        <v>539</v>
+      </c>
+      <c r="S187" s="37">
+        <v>0</v>
+      </c>
+      <c r="T187" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U187" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V187" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W187" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X187" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y187" s="27"/>
+      <c r="Z187" s="27"/>
+      <c r="AA187" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A188" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B188" s="13">
+        <v>67297</v>
+      </c>
+      <c r="C188" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E188" s="13"/>
+      <c r="F188" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G188" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H188" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I188" s="46"/>
+      <c r="J188" s="46"/>
+      <c r="K188" s="46"/>
+      <c r="L188" s="46"/>
+      <c r="M188" s="46"/>
+      <c r="N188" s="46"/>
+      <c r="O188" s="46"/>
+      <c r="P188" s="46"/>
+      <c r="Q188" s="41">
+        <v>41778</v>
+      </c>
+      <c r="R188" s="14">
+        <v>401</v>
+      </c>
+      <c r="S188" s="37">
+        <v>0</v>
+      </c>
+      <c r="T188" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U188" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V188" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W188" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X188" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y188" s="27"/>
+      <c r="Z188" s="27"/>
+      <c r="AA188" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A189" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189" s="10">
+        <v>67300</v>
+      </c>
+      <c r="C189" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E189" s="13"/>
+      <c r="F189" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G189" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H189" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I189" s="46"/>
+      <c r="J189" s="46"/>
+      <c r="K189" s="46"/>
+      <c r="L189" s="46"/>
+      <c r="M189" s="46"/>
+      <c r="N189" s="46"/>
+      <c r="O189" s="46"/>
+      <c r="P189" s="46"/>
+      <c r="Q189" s="41">
+        <v>41778</v>
+      </c>
+      <c r="R189" s="14">
+        <v>493</v>
+      </c>
+      <c r="S189" s="37">
+        <v>0</v>
+      </c>
+      <c r="T189" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U189" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V189" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W189" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X189" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y189" s="27"/>
+      <c r="Z189" s="27"/>
+      <c r="AA189" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A190" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B190" s="10">
+        <v>76170</v>
+      </c>
+      <c r="C190" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E190" s="13"/>
+      <c r="F190" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G190" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H190" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I190" s="46"/>
+      <c r="J190" s="46"/>
+      <c r="K190" s="46"/>
+      <c r="L190" s="46"/>
+      <c r="M190" s="46"/>
+      <c r="N190" s="46"/>
+      <c r="O190" s="46"/>
+      <c r="P190" s="46"/>
+      <c r="Q190" s="41">
+        <v>41778</v>
+      </c>
+      <c r="R190" s="25">
+        <v>1623</v>
+      </c>
+      <c r="S190" s="37">
+        <v>0</v>
+      </c>
+      <c r="T190" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U190" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V190" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W190" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="X190" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y190" s="27"/>
+      <c r="Z190" s="27"/>
+      <c r="AA190" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A191" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B191" s="10">
+        <v>76777</v>
+      </c>
+      <c r="C191" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E191" s="13"/>
+      <c r="F191" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G191" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H191" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I191" s="46"/>
+      <c r="J191" s="46"/>
+      <c r="K191" s="46"/>
+      <c r="L191" s="46"/>
+      <c r="M191" s="46"/>
+      <c r="N191" s="46"/>
+      <c r="O191" s="46"/>
+      <c r="P191" s="46"/>
+      <c r="Q191" s="41">
+        <v>42346</v>
+      </c>
+      <c r="R191" s="25">
+        <v>1080</v>
+      </c>
+      <c r="S191" s="37">
+        <v>0</v>
+      </c>
+      <c r="T191" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U191" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V191" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W191" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="X191" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y191" s="27"/>
+      <c r="Z191" s="27"/>
+      <c r="AA191" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A192" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B192" s="10">
+        <v>98284</v>
+      </c>
+      <c r="C192" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E192" s="13"/>
+      <c r="F192" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G192" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H192" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I192" s="46"/>
+      <c r="J192" s="46"/>
+      <c r="K192" s="46"/>
+      <c r="L192" s="46"/>
+      <c r="M192" s="46"/>
+      <c r="N192" s="46"/>
+      <c r="O192" s="46"/>
+      <c r="P192" s="46"/>
+      <c r="Q192" s="41">
+        <v>41913</v>
+      </c>
+      <c r="R192" s="25">
+        <v>1654</v>
+      </c>
+      <c r="S192" s="7">
+        <v>0</v>
+      </c>
+      <c r="T192" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U192" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V192" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="W192" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="X192" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y192" s="27"/>
+      <c r="Z192" s="27"/>
+      <c r="AA192" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A193" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B193" s="15">
+        <v>141775</v>
+      </c>
+      <c r="C193" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E193" s="13"/>
+      <c r="F193" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G193" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H193" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I193" s="16"/>
+      <c r="J193" s="16"/>
+      <c r="K193" s="16"/>
+      <c r="L193" s="16"/>
+      <c r="M193" s="16"/>
+      <c r="N193" s="16"/>
+      <c r="O193" s="16"/>
+      <c r="P193" s="16"/>
+      <c r="Q193" s="41">
+        <v>42108</v>
+      </c>
+      <c r="R193" s="20">
+        <v>79</v>
+      </c>
+      <c r="S193" s="37">
+        <v>0</v>
+      </c>
+      <c r="T193" s="37">
+        <v>11</v>
+      </c>
+      <c r="U193" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="V193" s="16">
+        <v>0</v>
+      </c>
+      <c r="W193" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="X193" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y193" s="16"/>
+      <c r="Z193" s="16"/>
+      <c r="AA193" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A194" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B194" s="26">
+        <v>75420</v>
+      </c>
+      <c r="C194" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E194" s="16"/>
+      <c r="F194" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G194" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H194" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I194" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="J194" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="K194" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="L194" s="16"/>
+      <c r="M194" s="16"/>
+      <c r="N194" s="16"/>
+      <c r="O194" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P194" s="16"/>
+      <c r="Q194" s="41">
+        <v>41676</v>
+      </c>
+      <c r="R194" s="37">
+        <v>1007</v>
+      </c>
+      <c r="S194" s="37">
+        <v>3</v>
+      </c>
+      <c r="T194" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U194" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="V194" s="16"/>
+      <c r="W194" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="X194" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y194" s="16"/>
+      <c r="Z194" s="16"/>
+      <c r="AA194" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A195" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B195" s="10">
+        <v>75425</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E195" s="13"/>
+      <c r="F195" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G195" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H195" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I195" s="3"/>
+      <c r="J195" s="58"/>
+      <c r="K195" s="58"/>
+      <c r="L195" s="58"/>
+      <c r="M195" s="58"/>
+      <c r="N195" s="58"/>
+      <c r="O195" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P195" s="40"/>
+      <c r="Q195" s="23">
+        <v>41913</v>
+      </c>
+      <c r="R195" s="14">
+        <v>316</v>
+      </c>
+      <c r="S195" s="19">
+        <v>0</v>
+      </c>
+      <c r="T195" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U195" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V195" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="W195" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X195" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y195" s="3"/>
+      <c r="Z195" s="3"/>
+      <c r="AA195" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A196" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B196" s="13">
+        <v>75427</v>
+      </c>
+      <c r="C196" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E196" s="13"/>
+      <c r="F196" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G196" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H196" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I196" s="3"/>
+      <c r="J196" s="46"/>
+      <c r="K196" s="46"/>
+      <c r="L196" s="46"/>
+      <c r="M196" s="46"/>
+      <c r="N196" s="46"/>
+      <c r="O196" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P196" s="29"/>
+      <c r="Q196" s="21">
+        <v>41778</v>
+      </c>
+      <c r="R196" s="14">
+        <v>253</v>
+      </c>
+      <c r="S196" s="22">
+        <v>0</v>
+      </c>
+      <c r="T196" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U196" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V196" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="W196" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="X196" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y196" s="27"/>
+      <c r="Z196" s="27"/>
+      <c r="AA196" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A197" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B197" s="10">
+        <v>75429</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E197" s="13"/>
+      <c r="F197" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G197" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H197" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I197" s="3"/>
+      <c r="J197" s="46"/>
+      <c r="K197" s="46"/>
+      <c r="L197" s="46"/>
+      <c r="M197" s="46"/>
+      <c r="N197" s="46"/>
+      <c r="O197" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P197" s="29"/>
+      <c r="Q197" s="23">
+        <v>41778</v>
+      </c>
+      <c r="R197" s="8">
+        <v>279</v>
+      </c>
+      <c r="S197" s="19">
+        <v>0</v>
+      </c>
+      <c r="T197" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U197" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V197" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="W197" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X197" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y197" s="3"/>
+      <c r="Z197" s="3"/>
+      <c r="AA197" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A198" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B198" s="15">
+        <v>77652</v>
+      </c>
+      <c r="C198" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E198" s="33"/>
+      <c r="F198" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G198" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H198" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I198" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="J198" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="K198" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="L198" s="16"/>
+      <c r="M198" s="16"/>
+      <c r="N198" s="16"/>
+      <c r="O198" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P198" s="16"/>
+      <c r="Q198" s="41">
+        <v>41794</v>
+      </c>
+      <c r="R198" s="20">
+        <v>412</v>
+      </c>
+      <c r="S198" s="37">
+        <v>0</v>
+      </c>
+      <c r="T198" s="37">
+        <v>1</v>
+      </c>
+      <c r="U198" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="V198" s="16"/>
+      <c r="W198" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="X198" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y198" s="16"/>
+      <c r="Z198" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA198" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A199" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B199" s="12">
+        <v>93863</v>
+      </c>
+      <c r="C199" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D199" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E199" s="13"/>
+      <c r="F199" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G199" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I199" s="3"/>
+      <c r="J199" s="2"/>
+      <c r="K199" s="2"/>
+      <c r="L199" s="2"/>
+      <c r="M199" s="2"/>
+      <c r="N199" s="2"/>
+      <c r="O199" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P199" s="2"/>
+      <c r="Q199" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="R199" s="8">
+        <v>213</v>
+      </c>
+      <c r="S199" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T199" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="U199" s="6"/>
+      <c r="V199" s="3"/>
+      <c r="W199" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X199" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y199" s="4"/>
+      <c r="Z199" s="3"/>
+      <c r="AA199" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A200" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B200" s="15">
+        <v>59641</v>
+      </c>
+      <c r="C200" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E200" s="26"/>
+      <c r="F200" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G200" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H200" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I200" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J200" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="K200" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="L200" s="16"/>
+      <c r="M200" s="16"/>
+      <c r="N200" s="16"/>
+      <c r="O200" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P200" s="16"/>
+      <c r="Q200" s="41">
+        <v>41687</v>
+      </c>
+      <c r="R200" s="37">
+        <v>2627</v>
+      </c>
+      <c r="S200" s="7">
+        <v>8</v>
+      </c>
+      <c r="T200" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U200" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="V200" s="16"/>
+      <c r="W200" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="X200" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y200" s="16"/>
+      <c r="Z200" s="16"/>
+      <c r="AA200" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A201" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B201" s="13">
+        <v>59646</v>
+      </c>
+      <c r="C201" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E201" s="13"/>
+      <c r="F201" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G201" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H201" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I201" s="3"/>
+      <c r="J201" s="46"/>
+      <c r="K201" s="46"/>
+      <c r="L201" s="46"/>
+      <c r="M201" s="46"/>
+      <c r="N201" s="46"/>
+      <c r="O201" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P201" s="29"/>
+      <c r="Q201" s="21">
+        <v>42054</v>
+      </c>
+      <c r="R201" s="14">
+        <v>629</v>
+      </c>
+      <c r="S201" s="22">
+        <v>0</v>
+      </c>
+      <c r="T201" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U201" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V201" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="W201" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X201" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y201" s="27"/>
+      <c r="Z201" s="27"/>
+      <c r="AA201" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A202" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202" s="10">
+        <v>76761</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E202" s="13"/>
+      <c r="F202" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G202" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H202" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I202" s="3"/>
+      <c r="J202" s="58"/>
+      <c r="K202" s="58"/>
+      <c r="L202" s="58"/>
+      <c r="M202" s="58"/>
+      <c r="N202" s="58"/>
+      <c r="O202" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P202" s="40"/>
+      <c r="Q202" s="23">
+        <v>42346</v>
+      </c>
+      <c r="R202" s="14">
+        <v>379</v>
+      </c>
+      <c r="S202" s="19">
+        <v>0</v>
+      </c>
+      <c r="T202" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U202" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V202" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W202" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X202" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y202" s="3"/>
+      <c r="Z202" s="3"/>
+      <c r="AA202" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A203" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B203" s="10">
+        <v>76762</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E203" s="39"/>
+      <c r="F203" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G203" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H203" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I203" s="3"/>
+      <c r="J203" s="58"/>
+      <c r="K203" s="58"/>
+      <c r="L203" s="58"/>
+      <c r="M203" s="58"/>
+      <c r="N203" s="58"/>
+      <c r="O203" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P203" s="40"/>
+      <c r="Q203" s="23">
+        <v>42346</v>
+      </c>
+      <c r="R203" s="14">
+        <v>297</v>
+      </c>
+      <c r="S203" s="19">
+        <v>0</v>
+      </c>
+      <c r="T203" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U203" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V203" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W203" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X203" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y203" s="3"/>
+      <c r="Z203" s="3"/>
+      <c r="AA203" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A204" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B204" s="10">
+        <v>76764</v>
+      </c>
+      <c r="C204" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E204" s="10"/>
+      <c r="F204" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G204" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H204" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I204" s="3"/>
+      <c r="J204" s="58"/>
+      <c r="K204" s="58"/>
+      <c r="L204" s="58"/>
+      <c r="M204" s="58"/>
+      <c r="N204" s="58"/>
+      <c r="O204" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P204" s="40"/>
+      <c r="Q204" s="23">
+        <v>42054</v>
+      </c>
+      <c r="R204" s="14">
+        <v>253</v>
+      </c>
+      <c r="S204" s="19">
+        <v>0</v>
+      </c>
+      <c r="T204" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U204" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V204" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W204" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X204" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y204" s="3"/>
+      <c r="Z204" s="3"/>
+      <c r="AA204" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A205" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B205" s="10">
+        <v>76766</v>
+      </c>
+      <c r="C205" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E205" s="13"/>
+      <c r="F205" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G205" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H205" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I205" s="3"/>
+      <c r="J205" s="58"/>
+      <c r="K205" s="58"/>
+      <c r="L205" s="58"/>
+      <c r="M205" s="58"/>
+      <c r="N205" s="58"/>
+      <c r="O205" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P205" s="40"/>
+      <c r="Q205" s="23">
+        <v>41778</v>
+      </c>
+      <c r="R205" s="14">
+        <v>254</v>
+      </c>
+      <c r="S205" s="19">
+        <v>0</v>
+      </c>
+      <c r="T205" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U205" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V205" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W205" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X205" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y205" s="3"/>
+      <c r="Z205" s="3"/>
+      <c r="AA205" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A206" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B206" s="13">
+        <v>76767</v>
+      </c>
+      <c r="C206" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E206" s="39"/>
+      <c r="F206" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G206" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H206" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I206" s="3"/>
+      <c r="J206" s="46"/>
+      <c r="K206" s="46"/>
+      <c r="L206" s="46"/>
+      <c r="M206" s="46"/>
+      <c r="N206" s="46"/>
+      <c r="O206" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P206" s="29"/>
+      <c r="Q206" s="21">
+        <v>42054</v>
+      </c>
+      <c r="R206" s="14">
+        <v>191</v>
+      </c>
+      <c r="S206" s="19">
+        <v>0</v>
+      </c>
+      <c r="T206" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U206" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V206" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="W206" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="X206" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y206" s="27"/>
+      <c r="Z206" s="27"/>
+      <c r="AA206" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A207" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B207" s="10">
+        <v>76768</v>
+      </c>
+      <c r="C207" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E207" s="39"/>
+      <c r="F207" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G207" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H207" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I207" s="3"/>
+      <c r="J207" s="58"/>
+      <c r="K207" s="58"/>
+      <c r="L207" s="58"/>
+      <c r="M207" s="58"/>
+      <c r="N207" s="58"/>
+      <c r="O207" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P207" s="40"/>
+      <c r="Q207" s="23">
+        <v>42054</v>
+      </c>
+      <c r="R207" s="14">
+        <v>262</v>
+      </c>
+      <c r="S207" s="19">
+        <v>0</v>
+      </c>
+      <c r="T207" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U207" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V207" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W207" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X207" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y207" s="3"/>
+      <c r="Z207" s="3"/>
+      <c r="AA207" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A208" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B208" s="10">
+        <v>76770</v>
+      </c>
+      <c r="C208" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E208" s="39"/>
+      <c r="F208" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G208" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H208" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I208" s="3"/>
+      <c r="J208" s="58"/>
+      <c r="K208" s="58"/>
+      <c r="L208" s="58"/>
+      <c r="M208" s="58"/>
+      <c r="N208" s="58"/>
+      <c r="O208" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P208" s="40"/>
+      <c r="Q208" s="23">
+        <v>42346</v>
+      </c>
+      <c r="R208" s="8">
+        <v>279</v>
+      </c>
+      <c r="S208" s="19">
+        <v>0</v>
+      </c>
+      <c r="T208" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U208" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V208" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W208" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X208" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y208" s="3"/>
+      <c r="Z208" s="3"/>
+      <c r="AA208" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A209" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B209" s="26">
+        <v>141741</v>
+      </c>
+      <c r="C209" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E209" s="33"/>
+      <c r="F209" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G209" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H209" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I209" s="3"/>
+      <c r="J209" s="16"/>
+      <c r="K209" s="16"/>
+      <c r="L209" s="16"/>
+      <c r="M209" s="16"/>
+      <c r="N209" s="16"/>
+      <c r="O209" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P209" s="18"/>
+      <c r="Q209" s="21">
+        <v>42107</v>
+      </c>
+      <c r="R209" s="20">
+        <v>76</v>
+      </c>
+      <c r="S209" s="22">
+        <v>0</v>
+      </c>
+      <c r="T209" s="37">
+        <v>5</v>
+      </c>
+      <c r="U209" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="V209" s="16">
+        <v>0</v>
+      </c>
+      <c r="W209" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="X209" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y209" s="16"/>
+      <c r="Z209" s="16"/>
+      <c r="AA209" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A210" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B210" s="15">
+        <v>145819</v>
+      </c>
+      <c r="C210" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E210" s="15"/>
+      <c r="F210" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G210" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H210" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="I210" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="J210" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="K210" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="L210" s="45"/>
+      <c r="M210" s="45"/>
+      <c r="N210" s="45">
+        <v>2</v>
+      </c>
+      <c r="O210" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="P210" s="45"/>
+      <c r="Q210" s="41">
+        <v>42278</v>
+      </c>
+      <c r="R210" s="43">
+        <v>167</v>
+      </c>
+      <c r="S210" s="7">
+        <v>1</v>
+      </c>
+      <c r="T210" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U210" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="V210" s="16"/>
+      <c r="W210" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="X210" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y210" s="16"/>
+      <c r="Z210" s="16"/>
+      <c r="AA210" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A211" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B211" s="13">
+        <v>146101</v>
+      </c>
+      <c r="C211" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E211" s="13"/>
+      <c r="F211" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G211" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H211" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I211" s="3"/>
+      <c r="J211" s="46"/>
+      <c r="K211" s="46"/>
+      <c r="L211" s="46"/>
+      <c r="M211" s="46"/>
+      <c r="N211" s="46">
+        <v>2</v>
+      </c>
+      <c r="O211" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="P211" s="29"/>
+      <c r="Q211" s="21">
+        <v>42278</v>
+      </c>
+      <c r="R211" s="14">
+        <v>55</v>
+      </c>
+      <c r="S211" s="22">
+        <v>0</v>
+      </c>
+      <c r="T211" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U211" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V211" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="W211" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="X211" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y211" s="27"/>
+      <c r="Z211" s="27"/>
+      <c r="AA211" s="15" t="s">
         <v>0</v>
       </c>
     </row>

--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2695" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="354">
   <si>
     <t>Work in progress</t>
   </si>
@@ -1092,6 +1092,9 @@
   </si>
   <si>
     <t>Eurovoc</t>
+  </si>
+  <si>
+    <t>acme.jpg</t>
   </si>
 </sst>
 </file>
@@ -1402,6 +1405,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1426,12 +1435,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -2132,37 +2135,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="64" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="66"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="70"/>
       <c r="P1" s="57"/>
-      <c r="Q1" s="62" t="s">
+      <c r="Q1" s="66" t="s">
         <v>219</v>
       </c>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
     </row>
     <row r="2" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="56" t="s">
@@ -2553,7 +2556,9 @@
       <c r="I7" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="J7" s="29"/>
+      <c r="J7" s="46" t="s">
+        <v>353</v>
+      </c>
       <c r="K7" s="29" t="s">
         <v>222</v>
       </c>
@@ -9059,7 +9064,7 @@
       <c r="Q109" s="44">
         <v>41977</v>
       </c>
-      <c r="R109" s="67">
+      <c r="R109" s="59">
         <v>4463</v>
       </c>
       <c r="S109" s="7">
@@ -9210,7 +9215,7 @@
       <c r="A112" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B112" s="68">
+      <c r="B112" s="60">
         <v>59183</v>
       </c>
       <c r="C112" s="13" t="s">
@@ -9515,7 +9520,7 @@
       <c r="A117" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B117" s="68">
+      <c r="B117" s="60">
         <v>59228</v>
       </c>
       <c r="C117" s="13" t="s">
@@ -9820,7 +9825,7 @@
       <c r="A122" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B122" s="68">
+      <c r="B122" s="60">
         <v>59264</v>
       </c>
       <c r="C122" s="13" t="s">
@@ -9881,7 +9886,7 @@
       <c r="A123" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B123" s="69">
+      <c r="B123" s="61">
         <v>59271</v>
       </c>
       <c r="C123" s="13" t="s">
@@ -11137,7 +11142,7 @@
       <c r="S143" s="37">
         <v>0</v>
       </c>
-      <c r="T143" s="70">
+      <c r="T143" s="62">
         <v>2</v>
       </c>
       <c r="U143" s="28" t="s">
@@ -11564,7 +11569,7 @@
       <c r="S150" s="37">
         <v>0</v>
       </c>
-      <c r="T150" s="70">
+      <c r="T150" s="62">
         <v>11</v>
       </c>
       <c r="U150" s="28" t="s">

--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400"/>
   </bookViews>
   <sheets>
     <sheet name="1. Content items" sheetId="2" r:id="rId1"/>
@@ -647,18 +647,12 @@
     <t>Most recent update</t>
   </si>
   <si>
-    <t>Collection State</t>
-  </si>
-  <si>
     <t>Pre Moderation</t>
   </si>
   <si>
     <t>Elibrary Creation</t>
   </si>
   <si>
-    <t>Administration User</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -668,9 +662,6 @@
     <t>Abstract</t>
   </si>
   <si>
-    <t>Delete</t>
-  </si>
-  <si>
     <t>New collection</t>
   </si>
   <si>
@@ -1095,6 +1086,15 @@
   </si>
   <si>
     <t>acme.jpg</t>
+  </si>
+  <si>
+    <t>Collection Status</t>
+  </si>
+  <si>
+    <t>Content item status</t>
+  </si>
+  <si>
+    <t>Migrate</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1364,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1411,6 +1410,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1568,7 +1570,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1712,6 +1713,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1814,15 +1816,15 @@
     <tableColumn id="3" name="Policy domain 1" dataDxfId="20"/>
     <tableColumn id="27" name="Policy domain 2" dataDxfId="19" dataCellStyle="Normale 2"/>
     <tableColumn id="22" name="New collection" dataDxfId="18"/>
-    <tableColumn id="24" name="Delete" dataDxfId="17"/>
+    <tableColumn id="30" name="Migrate" dataDxfId="17" dataCellStyle="Normale 2"/>
     <tableColumn id="12" name="Abstract" dataDxfId="16"/>
     <tableColumn id="8" name="Logo" dataDxfId="15"/>
     <tableColumn id="2" name="Banner" dataDxfId="14"/>
     <tableColumn id="15" name="Owner" dataDxfId="13"/>
-    <tableColumn id="9" name="Administration User" dataDxfId="12"/>
-    <tableColumn id="25" name="Elibrary Creation" dataDxfId="11"/>
-    <tableColumn id="26" name="Pre Moderation" dataDxfId="10"/>
-    <tableColumn id="13" name="Collection State" dataDxfId="9"/>
+    <tableColumn id="25" name="Elibrary Creation" dataDxfId="12"/>
+    <tableColumn id="26" name="Pre Moderation" dataDxfId="11"/>
+    <tableColumn id="13" name="Collection Status" dataDxfId="10"/>
+    <tableColumn id="28" name="Content item status" dataDxfId="9" dataCellStyle="Normale 2"/>
     <tableColumn id="14" name="Most recent update" dataDxfId="8"/>
     <tableColumn id="6" name="Views" dataDxfId="7"/>
     <tableColumn id="11" name="Number of solutions" dataDxfId="6"/>
@@ -2119,7 +2121,7 @@
     <col min="4" max="4" width="59.5" style="1" customWidth="1"/>
     <col min="5" max="6" width="33.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="52.1640625" style="1" customWidth="1"/>
     <col min="10" max="16" width="18.5" style="1" customWidth="1"/>
     <col min="17" max="17" width="17.5" style="1" customWidth="1"/>
@@ -2136,12 +2138,12 @@
   <sheetData>
     <row r="1" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="63" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B1" s="64"/>
       <c r="C1" s="65"/>
       <c r="D1" s="68" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E1" s="69"/>
       <c r="F1" s="69"/>
@@ -2152,11 +2154,11 @@
       <c r="K1" s="69"/>
       <c r="L1" s="69"/>
       <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="57"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="62"/>
       <c r="Q1" s="66" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="R1" s="67"/>
       <c r="S1" s="67"/>
@@ -2168,85 +2170,85 @@
       <c r="Y1" s="67"/>
     </row>
     <row r="2" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="56" t="s">
-        <v>218</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="D2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="B2" s="55" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="C2" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="D2" s="53" t="s">
         <v>212</v>
       </c>
+      <c r="E2" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>209</v>
+      </c>
       <c r="H2" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="I2" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="J2" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="J2" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="L2" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="M2" s="54" t="s">
+      <c r="K2" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="N2" s="54" t="s">
+      <c r="L2" s="53" t="s">
         <v>206</v>
       </c>
+      <c r="M2" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="N2" s="53" t="s">
+        <v>204</v>
+      </c>
       <c r="O2" s="54" t="s">
-        <v>205</v>
+        <v>351</v>
       </c>
       <c r="P2" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q2" s="53" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q2" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="R2" s="52" t="s">
+      <c r="R2" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="S2" s="52" t="s">
+      <c r="S2" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="T2" s="53" t="s">
+      <c r="T2" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="U2" s="52" t="s">
+      <c r="U2" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="V2" s="53" t="s">
+      <c r="V2" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="W2" s="52" t="s">
+      <c r="W2" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="X2" s="52" t="s">
+      <c r="X2" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="Y2" s="52" t="s">
+      <c r="Y2" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="Z2" s="51" t="s">
+      <c r="Z2" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="AA2" s="50" t="s">
+      <c r="AA2" s="49" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2264,7 +2266,7 @@
         <v>172</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>96</v>
@@ -2272,28 +2274,28 @@
       <c r="G3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>2</v>
+      <c r="H3" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16">
-        <v>2</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="M3" s="16">
+        <v>2</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="16"/>
       <c r="P3" s="16"/>
       <c r="Q3" s="41">
         <v>41905</v>
@@ -2337,7 +2339,7 @@
         <v>172</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>96</v>
@@ -2345,22 +2347,22 @@
       <c r="G4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>2</v>
+      <c r="H4" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18">
-        <v>2</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="M4" s="18">
+        <v>2</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="18"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="21">
         <v>42417</v>
@@ -2406,7 +2408,7 @@
         <v>172</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>96</v>
@@ -2414,22 +2416,22 @@
       <c r="G5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="18" t="s">
-        <v>2</v>
+      <c r="H5" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18">
-        <v>2</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="M5" s="18">
+        <v>2</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="18"/>
       <c r="P5" s="18"/>
       <c r="Q5" s="21">
         <v>41065</v>
@@ -2475,7 +2477,7 @@
         <v>172</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>96</v>
@@ -2483,22 +2485,22 @@
       <c r="G6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>2</v>
+      <c r="H6" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16">
-        <v>2</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="M6" s="16">
+        <v>2</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="16"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="41">
         <v>41407</v>
@@ -2542,7 +2544,7 @@
         <v>172</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>96</v>
@@ -2550,26 +2552,26 @@
       <c r="G7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="29" t="s">
-        <v>2</v>
+      <c r="H7" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="J7" s="46" t="s">
-        <v>353</v>
+        <v>223</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>350</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29">
-        <v>2</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="M7" s="29">
+        <v>2</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="29"/>
       <c r="P7" s="29"/>
       <c r="Q7" s="21">
         <v>42345</v>
@@ -2615,7 +2617,7 @@
         <v>172</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>96</v>
@@ -2623,27 +2625,27 @@
       <c r="G8" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="29" t="s">
-        <v>2</v>
+      <c r="H8" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29">
-        <v>2</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="M8" s="29">
+        <v>2</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="29"/>
       <c r="P8" s="29"/>
       <c r="Q8" s="21">
         <v>42342</v>
       </c>
-      <c r="R8" s="49">
+      <c r="R8" s="48">
         <v>369</v>
       </c>
       <c r="S8" s="22">
@@ -2684,7 +2686,7 @@
         <v>172</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>96</v>
@@ -2692,22 +2694,22 @@
       <c r="G9" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="29" t="s">
-        <v>2</v>
+      <c r="H9" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29">
-        <v>2</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="M9" s="29">
+        <v>2</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="29"/>
       <c r="P9" s="29"/>
       <c r="Q9" s="21">
         <v>42345</v>
@@ -2753,7 +2755,7 @@
         <v>172</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>96</v>
@@ -2761,22 +2763,22 @@
       <c r="G10" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="29" t="s">
-        <v>2</v>
+      <c r="H10" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29">
-        <v>2</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="M10" s="29">
+        <v>2</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="29"/>
       <c r="P10" s="29"/>
       <c r="Q10" s="21">
         <v>42342</v>
@@ -2822,7 +2824,7 @@
         <v>172</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>96</v>
@@ -2830,22 +2832,22 @@
       <c r="G11" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="29" t="s">
-        <v>2</v>
+      <c r="H11" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29">
-        <v>2</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="M11" s="29">
+        <v>2</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="29"/>
       <c r="P11" s="29"/>
       <c r="Q11" s="21">
         <v>42342</v>
@@ -2891,7 +2893,7 @@
         <v>172</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>96</v>
@@ -2899,22 +2901,22 @@
       <c r="G12" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="29" t="s">
-        <v>2</v>
+      <c r="H12" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29">
-        <v>2</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="M12" s="29">
+        <v>2</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="29"/>
       <c r="P12" s="29"/>
       <c r="Q12" s="21">
         <v>42345</v>
@@ -2960,7 +2962,7 @@
         <v>172</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>96</v>
@@ -2968,22 +2970,22 @@
       <c r="G13" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="29" t="s">
-        <v>2</v>
+      <c r="H13" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29">
-        <v>2</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="M13" s="29">
+        <v>2</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" s="29"/>
       <c r="P13" s="29"/>
       <c r="Q13" s="21">
         <v>42345</v>
@@ -3029,7 +3031,7 @@
         <v>172</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>96</v>
@@ -3037,22 +3039,22 @@
       <c r="G14" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="18" t="s">
-        <v>2</v>
+      <c r="H14" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18">
-        <v>2</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="M14" s="18">
+        <v>2</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="18"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="21">
         <v>42081</v>
@@ -3098,7 +3100,7 @@
         <v>172</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>96</v>
@@ -3106,22 +3108,22 @@
       <c r="G15" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="18" t="s">
-        <v>2</v>
+      <c r="H15" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18">
-        <v>2</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="M15" s="18">
+        <v>2</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="18"/>
       <c r="P15" s="18"/>
       <c r="Q15" s="21">
         <v>42086</v>
@@ -3154,7 +3156,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="44" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="38">
@@ -3166,41 +3168,41 @@
       <c r="D16" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47" t="s">
+      <c r="E16" s="46"/>
+      <c r="F16" s="46" t="s">
         <v>23</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="45" t="s">
-        <v>2</v>
+      <c r="H16" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="L16" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="44">
+        <v>226</v>
+      </c>
+      <c r="L16" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="43">
         <v>42416</v>
       </c>
-      <c r="R16" s="48">
+      <c r="R16" s="47">
         <v>4952</v>
       </c>
-      <c r="S16" s="43">
+      <c r="S16" s="42">
         <v>0</v>
       </c>
       <c r="T16" s="37">
@@ -3244,18 +3246,18 @@
       <c r="G17" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="16" t="s">
-        <v>2</v>
+      <c r="H17" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="45" t="s">
-        <v>2</v>
-      </c>
+      <c r="N17" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="16"/>
       <c r="P17" s="16"/>
       <c r="Q17" s="41">
         <v>42416</v>
@@ -3307,18 +3309,18 @@
       <c r="G18" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="40" t="s">
-        <v>2</v>
+      <c r="H18" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="40"/>
       <c r="K18" s="40"/>
       <c r="L18" s="40"/>
       <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="45" t="s">
-        <v>2</v>
-      </c>
+      <c r="N18" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18" s="40"/>
       <c r="P18" s="40"/>
       <c r="Q18" s="23">
         <v>42342</v>
@@ -3370,18 +3372,18 @@
       <c r="G19" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="40" t="s">
-        <v>2</v>
+      <c r="H19" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="40"/>
       <c r="K19" s="40"/>
       <c r="L19" s="40"/>
       <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="45" t="s">
-        <v>2</v>
-      </c>
+      <c r="N19" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" s="40"/>
       <c r="P19" s="40"/>
       <c r="Q19" s="23">
         <v>42342</v>
@@ -3433,18 +3435,18 @@
       <c r="G20" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="29" t="s">
-        <v>2</v>
+      <c r="H20" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="45" t="s">
-        <v>2</v>
-      </c>
+      <c r="N20" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" s="29"/>
       <c r="P20" s="29"/>
       <c r="Q20" s="21">
         <v>42342</v>
@@ -3496,18 +3498,18 @@
       <c r="G21" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="16" t="s">
-        <v>2</v>
+      <c r="H21" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="45" t="s">
-        <v>2</v>
-      </c>
+      <c r="N21" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O21" s="16"/>
       <c r="P21" s="16"/>
       <c r="Q21" s="41">
         <v>42416</v>
@@ -3559,18 +3561,18 @@
       <c r="G22" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="29" t="s">
-        <v>2</v>
+      <c r="H22" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="45" t="s">
-        <v>2</v>
-      </c>
+      <c r="N22" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O22" s="29"/>
       <c r="P22" s="29"/>
       <c r="Q22" s="21">
         <v>42346</v>
@@ -3622,18 +3624,18 @@
       <c r="G23" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="18" t="s">
-        <v>2</v>
+      <c r="H23" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="45" t="s">
-        <v>2</v>
-      </c>
+      <c r="N23" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O23" s="18"/>
       <c r="P23" s="18"/>
       <c r="Q23" s="21">
         <v>42051</v>
@@ -3685,18 +3687,18 @@
       <c r="G24" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="18" t="s">
-        <v>2</v>
+      <c r="H24" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="45" t="s">
-        <v>2</v>
-      </c>
+      <c r="N24" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24" s="18"/>
       <c r="P24" s="18"/>
       <c r="Q24" s="21">
         <v>42051</v>
@@ -3748,18 +3750,18 @@
       <c r="G25" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="18" t="s">
-        <v>2</v>
+      <c r="H25" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="45" t="s">
-        <v>2</v>
-      </c>
+      <c r="N25" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O25" s="18"/>
       <c r="P25" s="18"/>
       <c r="Q25" s="21">
         <v>42090</v>
@@ -3811,18 +3813,18 @@
       <c r="G26" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="24" t="s">
-        <v>2</v>
+      <c r="H26" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="45" t="s">
-        <v>2</v>
-      </c>
+      <c r="N26" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O26" s="24"/>
       <c r="P26" s="24"/>
       <c r="Q26" s="23">
         <v>42090</v>
@@ -3872,18 +3874,18 @@
       <c r="G27" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="24" t="s">
-        <v>2</v>
+      <c r="H27" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
       <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="45" t="s">
-        <v>2</v>
-      </c>
+      <c r="N27" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O27" s="24"/>
       <c r="P27" s="24"/>
       <c r="Q27" s="23">
         <v>42090</v>
@@ -3933,18 +3935,18 @@
       <c r="G28" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="24" t="s">
-        <v>2</v>
+      <c r="H28" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
       <c r="L28" s="24"/>
       <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="45" t="s">
-        <v>2</v>
-      </c>
+      <c r="N28" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O28" s="24"/>
       <c r="P28" s="24"/>
       <c r="Q28" s="23">
         <v>42108</v>
@@ -3994,18 +3996,18 @@
       <c r="G29" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="29" t="s">
-        <v>2</v>
+      <c r="H29" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="29"/>
       <c r="K29" s="29"/>
       <c r="L29" s="29"/>
       <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="45" t="s">
-        <v>2</v>
-      </c>
+      <c r="N29" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O29" s="29"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="21">
         <v>42181</v>
@@ -4057,18 +4059,18 @@
       <c r="G30" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="16" t="s">
-        <v>2</v>
+      <c r="H30" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="45" t="s">
-        <v>2</v>
-      </c>
+      <c r="N30" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O30" s="16"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="41">
         <v>42416</v>
@@ -4120,18 +4122,18 @@
       <c r="G31" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H31" s="40" t="s">
-        <v>2</v>
+      <c r="H31" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="40"/>
       <c r="K31" s="40"/>
       <c r="L31" s="40"/>
       <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="45" t="s">
-        <v>2</v>
-      </c>
+      <c r="N31" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O31" s="40"/>
       <c r="P31" s="40"/>
       <c r="Q31" s="23">
         <v>42335</v>
@@ -4183,18 +4185,18 @@
       <c r="G32" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="29" t="s">
-        <v>2</v>
+      <c r="H32" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="29"/>
       <c r="K32" s="29"/>
       <c r="L32" s="29"/>
       <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="45" t="s">
-        <v>2</v>
-      </c>
+      <c r="N32" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O32" s="29"/>
       <c r="P32" s="29"/>
       <c r="Q32" s="21">
         <v>42307</v>
@@ -4246,18 +4248,18 @@
       <c r="G33" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="18" t="s">
-        <v>2</v>
+      <c r="H33" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="45" t="s">
-        <v>2</v>
-      </c>
+      <c r="N33" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O33" s="18"/>
       <c r="P33" s="18"/>
       <c r="Q33" s="21">
         <v>42389</v>
@@ -4309,18 +4311,18 @@
       <c r="G34" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H34" s="18" t="s">
-        <v>2</v>
+      <c r="H34" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="18"/>
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="45" t="s">
-        <v>2</v>
-      </c>
+      <c r="N34" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O34" s="18"/>
       <c r="P34" s="18"/>
       <c r="Q34" s="21">
         <v>42389</v>
@@ -4372,18 +4374,18 @@
       <c r="G35" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="18" t="s">
-        <v>2</v>
+      <c r="H35" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="18"/>
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="45" t="s">
-        <v>2</v>
-      </c>
+      <c r="N35" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O35" s="18"/>
       <c r="P35" s="18"/>
       <c r="Q35" s="21">
         <v>42389</v>
@@ -4435,18 +4437,18 @@
       <c r="G36" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H36" s="18" t="s">
-        <v>2</v>
+      <c r="H36" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="45" t="s">
-        <v>2</v>
-      </c>
+      <c r="N36" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O36" s="18"/>
       <c r="P36" s="18"/>
       <c r="Q36" s="21">
         <v>42389</v>
@@ -4498,18 +4500,18 @@
       <c r="G37" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H37" s="18" t="s">
-        <v>2</v>
+      <c r="H37" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="18"/>
       <c r="K37" s="18"/>
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="45" t="s">
-        <v>2</v>
-      </c>
+      <c r="N37" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O37" s="18"/>
       <c r="P37" s="18"/>
       <c r="Q37" s="21">
         <v>42389</v>
@@ -4561,18 +4563,18 @@
       <c r="G38" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H38" s="18" t="s">
-        <v>2</v>
+      <c r="H38" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="18"/>
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="45" t="s">
-        <v>2</v>
-      </c>
+      <c r="N38" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O38" s="18"/>
       <c r="P38" s="18"/>
       <c r="Q38" s="21">
         <v>42389</v>
@@ -4624,18 +4626,18 @@
       <c r="G39" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H39" s="18" t="s">
-        <v>2</v>
+      <c r="H39" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="18"/>
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="45" t="s">
-        <v>2</v>
-      </c>
+      <c r="N39" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O39" s="18"/>
       <c r="P39" s="18"/>
       <c r="Q39" s="21">
         <v>42389</v>
@@ -4687,18 +4689,18 @@
       <c r="G40" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H40" s="18" t="s">
-        <v>2</v>
+      <c r="H40" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="18"/>
       <c r="K40" s="18"/>
       <c r="L40" s="18"/>
       <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="45" t="s">
-        <v>2</v>
-      </c>
+      <c r="N40" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O40" s="18"/>
       <c r="P40" s="18"/>
       <c r="Q40" s="21">
         <v>42389</v>
@@ -4750,18 +4752,18 @@
       <c r="G41" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H41" s="16" t="s">
-        <v>2</v>
+      <c r="H41" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="16"/>
       <c r="K41" s="16"/>
       <c r="L41" s="16"/>
       <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="45" t="s">
-        <v>2</v>
-      </c>
+      <c r="N41" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O41" s="16"/>
       <c r="P41" s="16"/>
       <c r="Q41" s="41">
         <v>42467</v>
@@ -4813,18 +4815,18 @@
       <c r="G42" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H42" s="16" t="s">
-        <v>2</v>
+      <c r="H42" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="16"/>
       <c r="K42" s="16"/>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="45" t="s">
-        <v>2</v>
-      </c>
+      <c r="N42" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O42" s="16"/>
       <c r="P42" s="16"/>
       <c r="Q42" s="41">
         <v>42416</v>
@@ -4876,18 +4878,18 @@
       <c r="G43" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="24" t="s">
-        <v>2</v>
+      <c r="H43" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="24"/>
       <c r="K43" s="24"/>
       <c r="L43" s="24"/>
       <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="45" t="s">
-        <v>2</v>
-      </c>
+      <c r="N43" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O43" s="24"/>
       <c r="P43" s="24"/>
       <c r="Q43" s="23">
         <v>42408</v>
@@ -4937,18 +4939,18 @@
       <c r="G44" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="24" t="s">
-        <v>2</v>
+      <c r="H44" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
       <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="45" t="s">
-        <v>2</v>
-      </c>
+      <c r="N44" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O44" s="24"/>
       <c r="P44" s="24"/>
       <c r="Q44" s="23">
         <v>42408</v>
@@ -4998,18 +5000,18 @@
       <c r="G45" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="24" t="s">
-        <v>2</v>
+      <c r="H45" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
       <c r="L45" s="24"/>
       <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="45" t="s">
-        <v>2</v>
-      </c>
+      <c r="N45" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O45" s="24"/>
       <c r="P45" s="24"/>
       <c r="Q45" s="23">
         <v>42408</v>
@@ -5059,18 +5061,18 @@
       <c r="G46" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H46" s="24" t="s">
-        <v>2</v>
+      <c r="H46" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="24"/>
       <c r="K46" s="24"/>
       <c r="L46" s="24"/>
       <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="45" t="s">
-        <v>2</v>
-      </c>
+      <c r="N46" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O46" s="24"/>
       <c r="P46" s="24"/>
       <c r="Q46" s="23">
         <v>42467</v>
@@ -5120,24 +5122,24 @@
       <c r="G47" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="16" t="s">
-        <v>2</v>
+      <c r="H47" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J47" s="16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K47" s="16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L47" s="16"/>
       <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N47" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="16"/>
       <c r="P47" s="16"/>
       <c r="Q47" s="41">
         <v>42144</v>
@@ -5187,20 +5189,20 @@
       <c r="G48" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="29" t="s">
-        <v>2</v>
+      <c r="H48" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="29"/>
       <c r="K48" s="29"/>
-      <c r="L48" s="46" t="s">
+      <c r="L48" s="45" t="s">
         <v>4</v>
       </c>
       <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="46" t="s">
-        <v>4</v>
-      </c>
+      <c r="N48" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="29"/>
       <c r="P48" s="29"/>
       <c r="Q48" s="21">
         <v>42054</v>
@@ -5243,7 +5245,7 @@
         <v>131</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="15" t="s">
@@ -5252,26 +5254,26 @@
       <c r="G49" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H49" s="16" t="s">
-        <v>2</v>
+      <c r="H49" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K49" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16">
-        <v>2</v>
-      </c>
-      <c r="O49" s="16" t="s">
-        <v>2</v>
-      </c>
+      <c r="M49" s="16">
+        <v>2</v>
+      </c>
+      <c r="N49" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O49" s="16"/>
       <c r="P49" s="16"/>
       <c r="Q49" s="41">
         <v>42293</v>
@@ -5323,24 +5325,24 @@
       <c r="G50" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H50" s="16" t="s">
-        <v>2</v>
+      <c r="H50" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J50" s="16" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K50" s="16" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L50" s="16"/>
       <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N50" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O50" s="16"/>
       <c r="P50" s="16"/>
       <c r="Q50" s="41">
         <v>41458</v>
@@ -5392,18 +5394,18 @@
       <c r="G51" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H51" s="29" t="s">
-        <v>2</v>
+      <c r="H51" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="29"/>
       <c r="K51" s="29"/>
       <c r="L51" s="29"/>
       <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N51" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O51" s="29"/>
       <c r="P51" s="29"/>
       <c r="Q51" s="21">
         <v>42347</v>
@@ -5455,18 +5457,18 @@
       <c r="G52" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H52" s="29" t="s">
-        <v>2</v>
+      <c r="H52" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="29"/>
       <c r="K52" s="29"/>
       <c r="L52" s="29"/>
       <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N52" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="29"/>
       <c r="P52" s="29"/>
       <c r="Q52" s="21">
         <v>42347</v>
@@ -5518,18 +5520,18 @@
       <c r="G53" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H53" s="29" t="s">
-        <v>2</v>
+      <c r="H53" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="29"/>
       <c r="K53" s="29"/>
       <c r="L53" s="29"/>
       <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N53" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O53" s="29"/>
       <c r="P53" s="29"/>
       <c r="Q53" s="21">
         <v>42347</v>
@@ -5581,18 +5583,18 @@
       <c r="G54" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H54" s="29" t="s">
-        <v>2</v>
+      <c r="H54" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="29"/>
       <c r="K54" s="29"/>
       <c r="L54" s="29"/>
       <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N54" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O54" s="29"/>
       <c r="P54" s="29"/>
       <c r="Q54" s="21">
         <v>42342</v>
@@ -5644,18 +5646,18 @@
       <c r="G55" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H55" s="29" t="s">
-        <v>2</v>
+      <c r="H55" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="29"/>
       <c r="K55" s="29"/>
       <c r="L55" s="29"/>
       <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
-      <c r="O55" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N55" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O55" s="29"/>
       <c r="P55" s="29"/>
       <c r="Q55" s="21">
         <v>42342</v>
@@ -5707,18 +5709,18 @@
       <c r="G56" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H56" s="29" t="s">
-        <v>2</v>
+      <c r="H56" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="29"/>
       <c r="K56" s="29"/>
       <c r="L56" s="29"/>
       <c r="M56" s="29"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N56" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O56" s="29"/>
       <c r="P56" s="29"/>
       <c r="Q56" s="21">
         <v>42342</v>
@@ -5770,18 +5772,18 @@
       <c r="G57" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H57" s="29" t="s">
-        <v>2</v>
+      <c r="H57" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="29"/>
       <c r="K57" s="29"/>
       <c r="L57" s="29"/>
       <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N57" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="29"/>
       <c r="P57" s="29"/>
       <c r="Q57" s="21">
         <v>42342</v>
@@ -5833,18 +5835,18 @@
       <c r="G58" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H58" s="29" t="s">
-        <v>2</v>
+      <c r="H58" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="29"/>
       <c r="K58" s="29"/>
       <c r="L58" s="29"/>
       <c r="M58" s="29"/>
-      <c r="N58" s="29"/>
-      <c r="O58" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N58" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="29"/>
       <c r="P58" s="29"/>
       <c r="Q58" s="21">
         <v>42342</v>
@@ -5896,18 +5898,18 @@
       <c r="G59" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H59" s="29" t="s">
-        <v>2</v>
+      <c r="H59" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="29"/>
       <c r="K59" s="29"/>
       <c r="L59" s="29"/>
       <c r="M59" s="29"/>
-      <c r="N59" s="29"/>
-      <c r="O59" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N59" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="29"/>
       <c r="P59" s="29"/>
       <c r="Q59" s="21">
         <v>42342</v>
@@ -5959,18 +5961,18 @@
       <c r="G60" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H60" s="29" t="s">
-        <v>2</v>
+      <c r="H60" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="29"/>
       <c r="K60" s="29"/>
       <c r="L60" s="29"/>
       <c r="M60" s="29"/>
-      <c r="N60" s="29"/>
-      <c r="O60" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N60" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O60" s="29"/>
       <c r="P60" s="29"/>
       <c r="Q60" s="21">
         <v>42342</v>
@@ -6022,18 +6024,18 @@
       <c r="G61" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H61" s="29" t="s">
-        <v>2</v>
+      <c r="H61" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="29"/>
       <c r="K61" s="29"/>
       <c r="L61" s="29"/>
       <c r="M61" s="29"/>
-      <c r="N61" s="29"/>
-      <c r="O61" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N61" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O61" s="29"/>
       <c r="P61" s="29"/>
       <c r="Q61" s="21">
         <v>42342</v>
@@ -6085,18 +6087,18 @@
       <c r="G62" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H62" s="29" t="s">
-        <v>2</v>
+      <c r="H62" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="29"/>
       <c r="K62" s="29"/>
       <c r="L62" s="29"/>
       <c r="M62" s="29"/>
-      <c r="N62" s="29"/>
-      <c r="O62" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N62" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="29"/>
       <c r="P62" s="29"/>
       <c r="Q62" s="21">
         <v>42342</v>
@@ -6148,18 +6150,18 @@
       <c r="G63" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H63" s="29" t="s">
-        <v>2</v>
+      <c r="H63" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="29"/>
       <c r="K63" s="29"/>
       <c r="L63" s="29"/>
       <c r="M63" s="29"/>
-      <c r="N63" s="29"/>
-      <c r="O63" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N63" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O63" s="29"/>
       <c r="P63" s="29"/>
       <c r="Q63" s="21">
         <v>42342</v>
@@ -6211,18 +6213,18 @@
       <c r="G64" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H64" s="29" t="s">
-        <v>2</v>
+      <c r="H64" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="29"/>
       <c r="K64" s="29"/>
       <c r="L64" s="29"/>
       <c r="M64" s="29"/>
-      <c r="N64" s="29"/>
-      <c r="O64" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N64" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O64" s="29"/>
       <c r="P64" s="29"/>
       <c r="Q64" s="21">
         <v>42272</v>
@@ -6274,18 +6276,18 @@
       <c r="G65" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H65" s="29" t="s">
-        <v>2</v>
+      <c r="H65" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="29"/>
       <c r="K65" s="29"/>
       <c r="L65" s="29"/>
       <c r="M65" s="29"/>
-      <c r="N65" s="29"/>
-      <c r="O65" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N65" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O65" s="29"/>
       <c r="P65" s="29"/>
       <c r="Q65" s="21">
         <v>42342</v>
@@ -6337,18 +6339,18 @@
       <c r="G66" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H66" s="29" t="s">
-        <v>2</v>
+      <c r="H66" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="29"/>
       <c r="K66" s="29"/>
       <c r="L66" s="29"/>
       <c r="M66" s="29"/>
-      <c r="N66" s="29"/>
-      <c r="O66" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N66" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O66" s="29"/>
       <c r="P66" s="29"/>
       <c r="Q66" s="21">
         <v>42342</v>
@@ -6400,18 +6402,18 @@
       <c r="G67" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H67" s="29" t="s">
-        <v>2</v>
+      <c r="H67" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="29"/>
       <c r="K67" s="29"/>
       <c r="L67" s="29"/>
       <c r="M67" s="29"/>
-      <c r="N67" s="29"/>
-      <c r="O67" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N67" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O67" s="29"/>
       <c r="P67" s="29"/>
       <c r="Q67" s="21">
         <v>42342</v>
@@ -6463,18 +6465,18 @@
       <c r="G68" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H68" s="29" t="s">
-        <v>2</v>
+      <c r="H68" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="29"/>
       <c r="K68" s="29"/>
       <c r="L68" s="29"/>
       <c r="M68" s="29"/>
-      <c r="N68" s="29"/>
-      <c r="O68" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N68" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O68" s="29"/>
       <c r="P68" s="29"/>
       <c r="Q68" s="21">
         <v>42342</v>
@@ -6526,18 +6528,18 @@
       <c r="G69" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H69" s="29" t="s">
-        <v>2</v>
+      <c r="H69" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="29"/>
       <c r="K69" s="29"/>
       <c r="L69" s="29"/>
       <c r="M69" s="29"/>
-      <c r="N69" s="29"/>
-      <c r="O69" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N69" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O69" s="29"/>
       <c r="P69" s="29"/>
       <c r="Q69" s="21">
         <v>42342</v>
@@ -6589,18 +6591,18 @@
       <c r="G70" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H70" s="29" t="s">
-        <v>2</v>
+      <c r="H70" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="29"/>
       <c r="K70" s="29"/>
       <c r="L70" s="29"/>
       <c r="M70" s="29"/>
-      <c r="N70" s="29"/>
-      <c r="O70" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N70" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O70" s="29"/>
       <c r="P70" s="29"/>
       <c r="Q70" s="21">
         <v>42342</v>
@@ -6652,18 +6654,18 @@
       <c r="G71" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H71" s="29" t="s">
-        <v>2</v>
+      <c r="H71" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="29"/>
       <c r="K71" s="29"/>
       <c r="L71" s="29"/>
       <c r="M71" s="29"/>
-      <c r="N71" s="29"/>
-      <c r="O71" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N71" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O71" s="29"/>
       <c r="P71" s="29"/>
       <c r="Q71" s="21">
         <v>42342</v>
@@ -6715,18 +6717,18 @@
       <c r="G72" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H72" s="29" t="s">
-        <v>2</v>
+      <c r="H72" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="29"/>
       <c r="K72" s="29"/>
       <c r="L72" s="29"/>
       <c r="M72" s="29"/>
-      <c r="N72" s="29"/>
-      <c r="O72" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N72" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="29"/>
       <c r="P72" s="29"/>
       <c r="Q72" s="21">
         <v>42342</v>
@@ -6778,18 +6780,18 @@
       <c r="G73" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H73" s="29" t="s">
-        <v>2</v>
+      <c r="H73" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="29"/>
       <c r="K73" s="29"/>
       <c r="L73" s="29"/>
       <c r="M73" s="29"/>
-      <c r="N73" s="29"/>
-      <c r="O73" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N73" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O73" s="29"/>
       <c r="P73" s="29"/>
       <c r="Q73" s="21">
         <v>42342</v>
@@ -6841,18 +6843,18 @@
       <c r="G74" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H74" s="29" t="s">
-        <v>2</v>
+      <c r="H74" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="29"/>
       <c r="K74" s="29"/>
       <c r="L74" s="29"/>
       <c r="M74" s="29"/>
-      <c r="N74" s="29"/>
-      <c r="O74" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N74" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O74" s="29"/>
       <c r="P74" s="29"/>
       <c r="Q74" s="21">
         <v>42346</v>
@@ -6904,18 +6906,18 @@
       <c r="G75" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H75" s="29" t="s">
-        <v>2</v>
+      <c r="H75" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="29"/>
       <c r="K75" s="29"/>
       <c r="L75" s="29"/>
       <c r="M75" s="29"/>
-      <c r="N75" s="29"/>
-      <c r="O75" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N75" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O75" s="29"/>
       <c r="P75" s="29"/>
       <c r="Q75" s="21">
         <v>42346</v>
@@ -6967,18 +6969,18 @@
       <c r="G76" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H76" s="29" t="s">
-        <v>2</v>
+      <c r="H76" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="29"/>
       <c r="K76" s="29"/>
       <c r="L76" s="29"/>
       <c r="M76" s="29"/>
-      <c r="N76" s="29"/>
-      <c r="O76" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N76" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O76" s="29"/>
       <c r="P76" s="29"/>
       <c r="Q76" s="21">
         <v>42346</v>
@@ -7030,18 +7032,18 @@
       <c r="G77" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H77" s="29" t="s">
-        <v>2</v>
+      <c r="H77" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="29"/>
       <c r="K77" s="29"/>
       <c r="L77" s="29"/>
       <c r="M77" s="29"/>
-      <c r="N77" s="29"/>
-      <c r="O77" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N77" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O77" s="29"/>
       <c r="P77" s="29"/>
       <c r="Q77" s="21">
         <v>42346</v>
@@ -7093,18 +7095,18 @@
       <c r="G78" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H78" s="29" t="s">
-        <v>2</v>
+      <c r="H78" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="29"/>
       <c r="K78" s="29"/>
       <c r="L78" s="29"/>
       <c r="M78" s="29"/>
-      <c r="N78" s="29"/>
-      <c r="O78" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N78" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O78" s="29"/>
       <c r="P78" s="29"/>
       <c r="Q78" s="21">
         <v>42346</v>
@@ -7156,18 +7158,18 @@
       <c r="G79" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H79" s="29" t="s">
-        <v>2</v>
+      <c r="H79" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="29"/>
       <c r="K79" s="29"/>
       <c r="L79" s="29"/>
       <c r="M79" s="29"/>
-      <c r="N79" s="29"/>
-      <c r="O79" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N79" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O79" s="29"/>
       <c r="P79" s="29"/>
       <c r="Q79" s="21">
         <v>42346</v>
@@ -7219,18 +7221,18 @@
       <c r="G80" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H80" s="29" t="s">
-        <v>2</v>
+      <c r="H80" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="29"/>
       <c r="K80" s="29"/>
       <c r="L80" s="29"/>
       <c r="M80" s="29"/>
-      <c r="N80" s="29"/>
-      <c r="O80" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N80" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O80" s="29"/>
       <c r="P80" s="29"/>
       <c r="Q80" s="21">
         <v>42346</v>
@@ -7282,18 +7284,18 @@
       <c r="G81" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H81" s="29" t="s">
-        <v>2</v>
+      <c r="H81" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="29"/>
       <c r="K81" s="29"/>
       <c r="L81" s="29"/>
       <c r="M81" s="29"/>
-      <c r="N81" s="29"/>
-      <c r="O81" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="N81" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O81" s="29"/>
       <c r="P81" s="29"/>
       <c r="Q81" s="21">
         <v>42346</v>
@@ -7326,7 +7328,7 @@
       </c>
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A82" s="45" t="s">
+      <c r="A82" s="44" t="s">
         <v>29</v>
       </c>
       <c r="B82" s="38">
@@ -7345,29 +7347,29 @@
       <c r="G82" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H82" s="45" t="s">
-        <v>2</v>
+      <c r="H82" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J82" s="16" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K82" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="L82" s="45"/>
-      <c r="M82" s="45"/>
-      <c r="N82" s="45"/>
-      <c r="O82" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="P82" s="45"/>
-      <c r="Q82" s="44">
+        <v>239</v>
+      </c>
+      <c r="L82" s="44"/>
+      <c r="M82" s="44"/>
+      <c r="N82" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O82" s="44"/>
+      <c r="P82" s="44"/>
+      <c r="Q82" s="43">
         <v>41306</v>
       </c>
-      <c r="R82" s="43">
+      <c r="R82" s="42">
         <v>996</v>
       </c>
       <c r="S82" s="37">
@@ -7412,18 +7414,18 @@
       <c r="G83" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H83" s="40" t="s">
-        <v>2</v>
+      <c r="H83" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I83" s="3"/>
-      <c r="J83" s="58"/>
-      <c r="K83" s="58"/>
+      <c r="J83" s="57"/>
+      <c r="K83" s="57"/>
       <c r="L83" s="40"/>
       <c r="M83" s="40"/>
-      <c r="N83" s="40"/>
-      <c r="O83" s="45" t="s">
-        <v>4</v>
-      </c>
+      <c r="N83" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="40"/>
       <c r="P83" s="40"/>
       <c r="Q83" s="23">
         <v>42342</v>
@@ -7475,18 +7477,18 @@
       <c r="G84" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H84" s="29" t="s">
-        <v>2</v>
+      <c r="H84" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I84" s="3"/>
-      <c r="J84" s="46"/>
-      <c r="K84" s="46"/>
+      <c r="J84" s="45"/>
+      <c r="K84" s="45"/>
       <c r="L84" s="29"/>
       <c r="M84" s="29"/>
-      <c r="N84" s="29"/>
-      <c r="O84" s="45" t="s">
-        <v>4</v>
-      </c>
+      <c r="N84" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O84" s="29"/>
       <c r="P84" s="29"/>
       <c r="Q84" s="23">
         <v>42342</v>
@@ -7538,18 +7540,18 @@
       <c r="G85" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H85" s="29" t="s">
-        <v>2</v>
+      <c r="H85" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I85" s="3"/>
-      <c r="J85" s="46"/>
-      <c r="K85" s="46"/>
+      <c r="J85" s="45"/>
+      <c r="K85" s="45"/>
       <c r="L85" s="29"/>
       <c r="M85" s="29"/>
-      <c r="N85" s="29"/>
-      <c r="O85" s="45" t="s">
-        <v>4</v>
-      </c>
+      <c r="N85" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O85" s="29"/>
       <c r="P85" s="29"/>
       <c r="Q85" s="21">
         <v>42342</v>
@@ -7601,18 +7603,18 @@
       <c r="G86" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H86" s="29" t="s">
-        <v>2</v>
+      <c r="H86" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I86" s="3"/>
-      <c r="J86" s="46"/>
-      <c r="K86" s="46"/>
+      <c r="J86" s="45"/>
+      <c r="K86" s="45"/>
       <c r="L86" s="29"/>
       <c r="M86" s="29"/>
-      <c r="N86" s="29"/>
-      <c r="O86" s="45" t="s">
-        <v>4</v>
-      </c>
+      <c r="N86" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O86" s="29"/>
       <c r="P86" s="29"/>
       <c r="Q86" s="21">
         <v>42342</v>
@@ -7664,18 +7666,18 @@
       <c r="G87" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H87" s="42" t="s">
-        <v>2</v>
+      <c r="H87" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I87" s="3"/>
-      <c r="J87" s="58"/>
-      <c r="K87" s="58"/>
+      <c r="J87" s="57"/>
+      <c r="K87" s="57"/>
       <c r="L87" s="40"/>
       <c r="M87" s="40"/>
-      <c r="N87" s="40"/>
-      <c r="O87" s="45" t="s">
-        <v>4</v>
-      </c>
+      <c r="N87" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O87" s="40"/>
       <c r="P87" s="40"/>
       <c r="Q87" s="23">
         <v>42342</v>
@@ -7727,18 +7729,18 @@
       <c r="G88" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H88" s="40" t="s">
-        <v>2</v>
+      <c r="H88" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I88" s="3"/>
-      <c r="J88" s="58"/>
-      <c r="K88" s="58"/>
+      <c r="J88" s="57"/>
+      <c r="K88" s="57"/>
       <c r="L88" s="40"/>
       <c r="M88" s="40"/>
-      <c r="N88" s="40"/>
-      <c r="O88" s="45" t="s">
-        <v>4</v>
-      </c>
+      <c r="N88" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O88" s="40"/>
       <c r="P88" s="40"/>
       <c r="Q88" s="23">
         <v>42342</v>
@@ -7790,18 +7792,18 @@
       <c r="G89" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H89" s="29" t="s">
-        <v>2</v>
+      <c r="H89" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I89" s="3"/>
-      <c r="J89" s="46"/>
-      <c r="K89" s="46"/>
+      <c r="J89" s="45"/>
+      <c r="K89" s="45"/>
       <c r="L89" s="29"/>
       <c r="M89" s="29"/>
-      <c r="N89" s="29"/>
-      <c r="O89" s="45" t="s">
-        <v>4</v>
-      </c>
+      <c r="N89" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O89" s="29"/>
       <c r="P89" s="29"/>
       <c r="Q89" s="21">
         <v>42342</v>
@@ -7853,18 +7855,18 @@
       <c r="G90" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H90" s="40" t="s">
-        <v>2</v>
+      <c r="H90" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I90" s="3"/>
-      <c r="J90" s="58"/>
-      <c r="K90" s="58"/>
+      <c r="J90" s="57"/>
+      <c r="K90" s="57"/>
       <c r="L90" s="40"/>
       <c r="M90" s="40"/>
-      <c r="N90" s="40"/>
-      <c r="O90" s="45" t="s">
-        <v>4</v>
-      </c>
+      <c r="N90" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O90" s="40"/>
       <c r="P90" s="40"/>
       <c r="Q90" s="23">
         <v>42342</v>
@@ -7916,18 +7918,18 @@
       <c r="G91" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H91" s="40" t="s">
-        <v>2</v>
+      <c r="H91" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3"/>
-      <c r="J91" s="58"/>
-      <c r="K91" s="58"/>
+      <c r="J91" s="57"/>
+      <c r="K91" s="57"/>
       <c r="L91" s="40"/>
       <c r="M91" s="40"/>
-      <c r="N91" s="40"/>
-      <c r="O91" s="45" t="s">
-        <v>4</v>
-      </c>
+      <c r="N91" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="40"/>
       <c r="P91" s="40"/>
       <c r="Q91" s="23">
         <v>42342</v>
@@ -7979,18 +7981,18 @@
       <c r="G92" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H92" s="29" t="s">
-        <v>2</v>
+      <c r="H92" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I92" s="3"/>
-      <c r="J92" s="46"/>
-      <c r="K92" s="46"/>
+      <c r="J92" s="45"/>
+      <c r="K92" s="45"/>
       <c r="L92" s="29"/>
       <c r="M92" s="29"/>
-      <c r="N92" s="29"/>
-      <c r="O92" s="45" t="s">
-        <v>4</v>
-      </c>
+      <c r="N92" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O92" s="29"/>
       <c r="P92" s="29"/>
       <c r="Q92" s="21">
         <v>42342</v>
@@ -8042,18 +8044,18 @@
       <c r="G93" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H93" s="40" t="s">
-        <v>2</v>
+      <c r="H93" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I93" s="3"/>
-      <c r="J93" s="58"/>
-      <c r="K93" s="58"/>
+      <c r="J93" s="57"/>
+      <c r="K93" s="57"/>
       <c r="L93" s="40"/>
       <c r="M93" s="40"/>
-      <c r="N93" s="40"/>
-      <c r="O93" s="45" t="s">
-        <v>4</v>
-      </c>
+      <c r="N93" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O93" s="40"/>
       <c r="P93" s="40"/>
       <c r="Q93" s="23">
         <v>42342</v>
@@ -8105,18 +8107,18 @@
       <c r="G94" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H94" s="40" t="s">
-        <v>2</v>
+      <c r="H94" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3"/>
-      <c r="J94" s="58"/>
-      <c r="K94" s="58"/>
+      <c r="J94" s="57"/>
+      <c r="K94" s="57"/>
       <c r="L94" s="40"/>
       <c r="M94" s="40"/>
-      <c r="N94" s="40"/>
-      <c r="O94" s="45" t="s">
-        <v>4</v>
-      </c>
+      <c r="N94" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="40"/>
       <c r="P94" s="40"/>
       <c r="Q94" s="23">
         <v>42342</v>
@@ -8168,18 +8170,18 @@
       <c r="G95" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H95" s="29" t="s">
-        <v>2</v>
+      <c r="H95" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I95" s="3"/>
-      <c r="J95" s="46"/>
-      <c r="K95" s="46"/>
+      <c r="J95" s="45"/>
+      <c r="K95" s="45"/>
       <c r="L95" s="29"/>
       <c r="M95" s="29"/>
-      <c r="N95" s="29"/>
-      <c r="O95" s="45" t="s">
-        <v>4</v>
-      </c>
+      <c r="N95" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O95" s="29"/>
       <c r="P95" s="29"/>
       <c r="Q95" s="21">
         <v>42342</v>
@@ -8231,18 +8233,18 @@
       <c r="G96" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H96" s="40" t="s">
-        <v>2</v>
+      <c r="H96" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I96" s="3"/>
-      <c r="J96" s="58"/>
-      <c r="K96" s="58"/>
+      <c r="J96" s="57"/>
+      <c r="K96" s="57"/>
       <c r="L96" s="40"/>
       <c r="M96" s="40"/>
-      <c r="N96" s="40"/>
-      <c r="O96" s="45" t="s">
-        <v>4</v>
-      </c>
+      <c r="N96" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O96" s="40"/>
       <c r="P96" s="40"/>
       <c r="Q96" s="23">
         <v>42342</v>
@@ -8294,18 +8296,18 @@
       <c r="G97" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H97" s="29" t="s">
-        <v>2</v>
+      <c r="H97" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I97" s="3"/>
-      <c r="J97" s="46"/>
-      <c r="K97" s="46"/>
+      <c r="J97" s="45"/>
+      <c r="K97" s="45"/>
       <c r="L97" s="29"/>
       <c r="M97" s="29"/>
-      <c r="N97" s="29"/>
-      <c r="O97" s="45" t="s">
-        <v>4</v>
-      </c>
+      <c r="N97" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O97" s="29"/>
       <c r="P97" s="29"/>
       <c r="Q97" s="21">
         <v>42342</v>
@@ -8357,18 +8359,18 @@
       <c r="G98" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H98" s="29" t="s">
-        <v>2</v>
+      <c r="H98" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I98" s="3"/>
-      <c r="J98" s="46"/>
-      <c r="K98" s="46"/>
+      <c r="J98" s="45"/>
+      <c r="K98" s="45"/>
       <c r="L98" s="29"/>
       <c r="M98" s="29"/>
-      <c r="N98" s="29"/>
-      <c r="O98" s="45" t="s">
-        <v>4</v>
-      </c>
+      <c r="N98" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O98" s="29"/>
       <c r="P98" s="29"/>
       <c r="Q98" s="23">
         <v>42342</v>
@@ -8420,18 +8422,18 @@
       <c r="G99" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H99" s="29" t="s">
-        <v>2</v>
+      <c r="H99" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I99" s="3"/>
-      <c r="J99" s="46"/>
-      <c r="K99" s="46"/>
+      <c r="J99" s="45"/>
+      <c r="K99" s="45"/>
       <c r="L99" s="29"/>
       <c r="M99" s="29"/>
-      <c r="N99" s="29"/>
-      <c r="O99" s="45" t="s">
-        <v>4</v>
-      </c>
+      <c r="N99" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O99" s="29"/>
       <c r="P99" s="29"/>
       <c r="Q99" s="23">
         <v>42342</v>
@@ -8483,18 +8485,18 @@
       <c r="G100" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H100" s="29" t="s">
-        <v>2</v>
+      <c r="H100" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3"/>
-      <c r="J100" s="46"/>
-      <c r="K100" s="46"/>
+      <c r="J100" s="45"/>
+      <c r="K100" s="45"/>
       <c r="L100" s="29"/>
       <c r="M100" s="29"/>
-      <c r="N100" s="29"/>
-      <c r="O100" s="45" t="s">
-        <v>4</v>
-      </c>
+      <c r="N100" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="29"/>
       <c r="P100" s="29"/>
       <c r="Q100" s="21">
         <v>42020</v>
@@ -8546,18 +8548,18 @@
       <c r="G101" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H101" s="29" t="s">
-        <v>2</v>
+      <c r="H101" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I101" s="3"/>
-      <c r="J101" s="46"/>
-      <c r="K101" s="46"/>
+      <c r="J101" s="45"/>
+      <c r="K101" s="45"/>
       <c r="L101" s="29"/>
       <c r="M101" s="29"/>
-      <c r="N101" s="29"/>
-      <c r="O101" s="45" t="s">
-        <v>4</v>
-      </c>
+      <c r="N101" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101" s="29"/>
       <c r="P101" s="29"/>
       <c r="Q101" s="21">
         <v>42342</v>
@@ -8609,18 +8611,18 @@
       <c r="G102" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H102" s="29" t="s">
-        <v>2</v>
+      <c r="H102" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I102" s="3"/>
-      <c r="J102" s="46"/>
-      <c r="K102" s="46"/>
+      <c r="J102" s="45"/>
+      <c r="K102" s="45"/>
       <c r="L102" s="29"/>
       <c r="M102" s="29"/>
-      <c r="N102" s="29"/>
-      <c r="O102" s="45" t="s">
-        <v>4</v>
-      </c>
+      <c r="N102" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="29"/>
       <c r="P102" s="29"/>
       <c r="Q102" s="23">
         <v>42342</v>
@@ -8672,18 +8674,18 @@
       <c r="G103" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H103" s="40" t="s">
-        <v>2</v>
+      <c r="H103" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I103" s="3"/>
-      <c r="J103" s="58"/>
-      <c r="K103" s="58"/>
+      <c r="J103" s="57"/>
+      <c r="K103" s="57"/>
       <c r="L103" s="40"/>
       <c r="M103" s="40"/>
-      <c r="N103" s="40"/>
-      <c r="O103" s="45" t="s">
-        <v>4</v>
-      </c>
+      <c r="N103" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O103" s="40"/>
       <c r="P103" s="40"/>
       <c r="Q103" s="23">
         <v>42342</v>
@@ -8735,18 +8737,18 @@
       <c r="G104" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H104" s="29" t="s">
-        <v>2</v>
+      <c r="H104" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I104" s="3"/>
-      <c r="J104" s="46"/>
-      <c r="K104" s="46"/>
+      <c r="J104" s="45"/>
+      <c r="K104" s="45"/>
       <c r="L104" s="29"/>
       <c r="M104" s="29"/>
-      <c r="N104" s="29"/>
-      <c r="O104" s="45" t="s">
-        <v>4</v>
-      </c>
+      <c r="N104" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O104" s="29"/>
       <c r="P104" s="29"/>
       <c r="Q104" s="21">
         <v>42342</v>
@@ -8798,18 +8800,18 @@
       <c r="G105" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H105" s="40" t="s">
-        <v>2</v>
+      <c r="H105" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I105" s="3"/>
-      <c r="J105" s="58"/>
-      <c r="K105" s="58"/>
+      <c r="J105" s="57"/>
+      <c r="K105" s="57"/>
       <c r="L105" s="40"/>
       <c r="M105" s="40"/>
-      <c r="N105" s="40"/>
-      <c r="O105" s="45" t="s">
-        <v>4</v>
-      </c>
+      <c r="N105" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O105" s="40"/>
       <c r="P105" s="40"/>
       <c r="Q105" s="23">
         <v>42342</v>
@@ -8861,18 +8863,18 @@
       <c r="G106" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H106" s="29" t="s">
-        <v>2</v>
+      <c r="H106" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I106" s="3"/>
-      <c r="J106" s="46"/>
-      <c r="K106" s="46"/>
+      <c r="J106" s="45"/>
+      <c r="K106" s="45"/>
       <c r="L106" s="29"/>
       <c r="M106" s="29"/>
-      <c r="N106" s="29"/>
-      <c r="O106" s="45" t="s">
-        <v>4</v>
-      </c>
+      <c r="N106" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O106" s="29"/>
       <c r="P106" s="29"/>
       <c r="Q106" s="21">
         <v>42342</v>
@@ -8924,18 +8926,18 @@
       <c r="G107" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H107" s="40" t="s">
-        <v>2</v>
+      <c r="H107" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I107" s="3"/>
-      <c r="J107" s="58"/>
-      <c r="K107" s="58"/>
+      <c r="J107" s="57"/>
+      <c r="K107" s="57"/>
       <c r="L107" s="40"/>
       <c r="M107" s="40"/>
-      <c r="N107" s="40"/>
-      <c r="O107" s="45" t="s">
-        <v>4</v>
-      </c>
+      <c r="N107" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O107" s="40"/>
       <c r="P107" s="40"/>
       <c r="Q107" s="23">
         <v>42342</v>
@@ -8987,18 +8989,18 @@
       <c r="G108" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H108" s="40" t="s">
-        <v>2</v>
+      <c r="H108" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I108" s="3"/>
-      <c r="J108" s="58"/>
-      <c r="K108" s="58"/>
+      <c r="J108" s="57"/>
+      <c r="K108" s="57"/>
       <c r="L108" s="40"/>
       <c r="M108" s="40"/>
-      <c r="N108" s="40"/>
-      <c r="O108" s="45" t="s">
-        <v>4</v>
-      </c>
+      <c r="N108" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O108" s="40"/>
       <c r="P108" s="40"/>
       <c r="Q108" s="23">
         <v>42342</v>
@@ -9031,17 +9033,17 @@
       </c>
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A109" s="45" t="s">
+      <c r="A109" s="44" t="s">
         <v>29</v>
       </c>
       <c r="B109" s="15">
         <v>59110</v>
       </c>
       <c r="C109" s="38" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E109" s="38"/>
       <c r="F109" s="38" t="s">
@@ -9050,21 +9052,21 @@
       <c r="G109" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H109" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="I109" s="45"/>
-      <c r="J109" s="45"/>
-      <c r="K109" s="45"/>
-      <c r="L109" s="45"/>
-      <c r="M109" s="45"/>
-      <c r="N109" s="45"/>
-      <c r="O109" s="45"/>
-      <c r="P109" s="45"/>
-      <c r="Q109" s="44">
+      <c r="H109" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I109" s="44"/>
+      <c r="J109" s="44"/>
+      <c r="K109" s="44"/>
+      <c r="L109" s="44"/>
+      <c r="M109" s="44"/>
+      <c r="N109" s="44"/>
+      <c r="O109" s="44"/>
+      <c r="P109" s="44"/>
+      <c r="Q109" s="43">
         <v>41977</v>
       </c>
-      <c r="R109" s="59">
+      <c r="R109" s="58">
         <v>4463</v>
       </c>
       <c r="S109" s="7">
@@ -9097,10 +9099,10 @@
         <v>59178</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E110" s="13"/>
       <c r="F110" s="13" t="s">
@@ -9109,17 +9111,17 @@
       <c r="G110" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H110" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I110" s="46"/>
-      <c r="J110" s="46"/>
-      <c r="K110" s="46"/>
-      <c r="L110" s="46"/>
-      <c r="M110" s="46"/>
-      <c r="N110" s="46"/>
-      <c r="O110" s="46"/>
-      <c r="P110" s="46"/>
+      <c r="H110" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I110" s="45"/>
+      <c r="J110" s="45"/>
+      <c r="K110" s="45"/>
+      <c r="L110" s="45"/>
+      <c r="M110" s="45"/>
+      <c r="N110" s="45"/>
+      <c r="O110" s="45"/>
+      <c r="P110" s="45"/>
       <c r="Q110" s="41">
         <v>42347</v>
       </c>
@@ -9136,7 +9138,7 @@
         <v>5</v>
       </c>
       <c r="V110" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W110" s="27" t="s">
         <v>28</v>
@@ -9158,10 +9160,10 @@
         <v>59180</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E111" s="13"/>
       <c r="F111" s="13" t="s">
@@ -9170,17 +9172,17 @@
       <c r="G111" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H111" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I111" s="46"/>
-      <c r="J111" s="46"/>
-      <c r="K111" s="46"/>
-      <c r="L111" s="46"/>
-      <c r="M111" s="46"/>
-      <c r="N111" s="46"/>
-      <c r="O111" s="46"/>
-      <c r="P111" s="46"/>
+      <c r="H111" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I111" s="45"/>
+      <c r="J111" s="45"/>
+      <c r="K111" s="45"/>
+      <c r="L111" s="45"/>
+      <c r="M111" s="45"/>
+      <c r="N111" s="45"/>
+      <c r="O111" s="45"/>
+      <c r="P111" s="45"/>
       <c r="Q111" s="41">
         <v>42347</v>
       </c>
@@ -9197,7 +9199,7 @@
         <v>5</v>
       </c>
       <c r="V111" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W111" s="27" t="s">
         <v>28</v>
@@ -9215,14 +9217,14 @@
       <c r="A112" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B112" s="60">
+      <c r="B112" s="59">
         <v>59183</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E112" s="13"/>
       <c r="F112" s="13" t="s">
@@ -9231,17 +9233,17 @@
       <c r="G112" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H112" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I112" s="46"/>
-      <c r="J112" s="46"/>
-      <c r="K112" s="46"/>
-      <c r="L112" s="46"/>
-      <c r="M112" s="46"/>
-      <c r="N112" s="46"/>
-      <c r="O112" s="46"/>
-      <c r="P112" s="46"/>
+      <c r="H112" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I112" s="45"/>
+      <c r="J112" s="45"/>
+      <c r="K112" s="45"/>
+      <c r="L112" s="45"/>
+      <c r="M112" s="45"/>
+      <c r="N112" s="45"/>
+      <c r="O112" s="45"/>
+      <c r="P112" s="45"/>
       <c r="Q112" s="41">
         <v>42347</v>
       </c>
@@ -9258,7 +9260,7 @@
         <v>5</v>
       </c>
       <c r="V112" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W112" s="27" t="s">
         <v>28</v>
@@ -9280,10 +9282,10 @@
         <v>59189</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E113" s="13"/>
       <c r="F113" s="13" t="s">
@@ -9292,17 +9294,17 @@
       <c r="G113" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H113" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="I113" s="58"/>
-      <c r="J113" s="58"/>
-      <c r="K113" s="58"/>
-      <c r="L113" s="58"/>
-      <c r="M113" s="58"/>
-      <c r="N113" s="58"/>
-      <c r="O113" s="58"/>
-      <c r="P113" s="58"/>
+      <c r="H113" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I113" s="57"/>
+      <c r="J113" s="57"/>
+      <c r="K113" s="57"/>
+      <c r="L113" s="57"/>
+      <c r="M113" s="57"/>
+      <c r="N113" s="57"/>
+      <c r="O113" s="57"/>
+      <c r="P113" s="57"/>
       <c r="Q113" s="9">
         <v>41778</v>
       </c>
@@ -9319,7 +9321,7 @@
         <v>5</v>
       </c>
       <c r="V113" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W113" s="3" t="s">
         <v>28</v>
@@ -9341,10 +9343,10 @@
         <v>59192</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E114" s="13"/>
       <c r="F114" s="13" t="s">
@@ -9353,17 +9355,17 @@
       <c r="G114" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H114" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I114" s="46"/>
-      <c r="J114" s="46"/>
-      <c r="K114" s="46"/>
-      <c r="L114" s="46"/>
-      <c r="M114" s="46"/>
-      <c r="N114" s="46"/>
-      <c r="O114" s="46"/>
-      <c r="P114" s="46"/>
+      <c r="H114" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I114" s="45"/>
+      <c r="J114" s="45"/>
+      <c r="K114" s="45"/>
+      <c r="L114" s="45"/>
+      <c r="M114" s="45"/>
+      <c r="N114" s="45"/>
+      <c r="O114" s="45"/>
+      <c r="P114" s="45"/>
       <c r="Q114" s="41">
         <v>41913</v>
       </c>
@@ -9380,7 +9382,7 @@
         <v>5</v>
       </c>
       <c r="V114" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W114" s="27" t="s">
         <v>28</v>
@@ -9402,10 +9404,10 @@
         <v>59205</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E115" s="13"/>
       <c r="F115" s="13" t="s">
@@ -9414,17 +9416,17 @@
       <c r="G115" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H115" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I115" s="46"/>
-      <c r="J115" s="46"/>
-      <c r="K115" s="46"/>
-      <c r="L115" s="46"/>
-      <c r="M115" s="46"/>
-      <c r="N115" s="46"/>
-      <c r="O115" s="46"/>
-      <c r="P115" s="46"/>
+      <c r="H115" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I115" s="45"/>
+      <c r="J115" s="45"/>
+      <c r="K115" s="45"/>
+      <c r="L115" s="45"/>
+      <c r="M115" s="45"/>
+      <c r="N115" s="45"/>
+      <c r="O115" s="45"/>
+      <c r="P115" s="45"/>
       <c r="Q115" s="41">
         <v>42345</v>
       </c>
@@ -9441,7 +9443,7 @@
         <v>5</v>
       </c>
       <c r="V115" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W115" s="27" t="s">
         <v>28</v>
@@ -9463,10 +9465,10 @@
         <v>59217</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E116" s="13"/>
       <c r="F116" s="13" t="s">
@@ -9475,17 +9477,17 @@
       <c r="G116" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H116" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I116" s="46"/>
-      <c r="J116" s="46"/>
-      <c r="K116" s="46"/>
-      <c r="L116" s="46"/>
-      <c r="M116" s="46"/>
-      <c r="N116" s="46"/>
-      <c r="O116" s="46"/>
-      <c r="P116" s="46"/>
+      <c r="H116" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I116" s="45"/>
+      <c r="J116" s="45"/>
+      <c r="K116" s="45"/>
+      <c r="L116" s="45"/>
+      <c r="M116" s="45"/>
+      <c r="N116" s="45"/>
+      <c r="O116" s="45"/>
+      <c r="P116" s="45"/>
       <c r="Q116" s="41">
         <v>42345</v>
       </c>
@@ -9502,7 +9504,7 @@
         <v>5</v>
       </c>
       <c r="V116" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W116" s="27" t="s">
         <v>28</v>
@@ -9520,14 +9522,14 @@
       <c r="A117" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B117" s="60">
+      <c r="B117" s="59">
         <v>59228</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E117" s="13"/>
       <c r="F117" s="13" t="s">
@@ -9536,17 +9538,17 @@
       <c r="G117" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H117" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I117" s="46"/>
-      <c r="J117" s="46"/>
-      <c r="K117" s="46"/>
-      <c r="L117" s="46"/>
-      <c r="M117" s="46"/>
-      <c r="N117" s="46"/>
-      <c r="O117" s="46"/>
-      <c r="P117" s="46"/>
+      <c r="H117" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I117" s="45"/>
+      <c r="J117" s="45"/>
+      <c r="K117" s="45"/>
+      <c r="L117" s="45"/>
+      <c r="M117" s="45"/>
+      <c r="N117" s="45"/>
+      <c r="O117" s="45"/>
+      <c r="P117" s="45"/>
       <c r="Q117" s="41">
         <v>42345</v>
       </c>
@@ -9563,7 +9565,7 @@
         <v>5</v>
       </c>
       <c r="V117" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W117" s="27" t="s">
         <v>28</v>
@@ -9585,10 +9587,10 @@
         <v>59238</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E118" s="13"/>
       <c r="F118" s="13" t="s">
@@ -9597,17 +9599,17 @@
       <c r="G118" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H118" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I118" s="46"/>
-      <c r="J118" s="46"/>
-      <c r="K118" s="46"/>
-      <c r="L118" s="46"/>
-      <c r="M118" s="46"/>
-      <c r="N118" s="46"/>
-      <c r="O118" s="46"/>
-      <c r="P118" s="46"/>
+      <c r="H118" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I118" s="45"/>
+      <c r="J118" s="45"/>
+      <c r="K118" s="45"/>
+      <c r="L118" s="45"/>
+      <c r="M118" s="45"/>
+      <c r="N118" s="45"/>
+      <c r="O118" s="45"/>
+      <c r="P118" s="45"/>
       <c r="Q118" s="41">
         <v>42346</v>
       </c>
@@ -9624,7 +9626,7 @@
         <v>5</v>
       </c>
       <c r="V118" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W118" s="27" t="s">
         <v>28</v>
@@ -9646,10 +9648,10 @@
         <v>59249</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E119" s="13"/>
       <c r="F119" s="13" t="s">
@@ -9658,17 +9660,17 @@
       <c r="G119" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H119" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I119" s="46"/>
-      <c r="J119" s="46"/>
-      <c r="K119" s="46"/>
-      <c r="L119" s="46"/>
-      <c r="M119" s="46"/>
-      <c r="N119" s="46"/>
-      <c r="O119" s="46"/>
-      <c r="P119" s="46"/>
+      <c r="H119" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I119" s="45"/>
+      <c r="J119" s="45"/>
+      <c r="K119" s="45"/>
+      <c r="L119" s="45"/>
+      <c r="M119" s="45"/>
+      <c r="N119" s="45"/>
+      <c r="O119" s="45"/>
+      <c r="P119" s="45"/>
       <c r="Q119" s="41">
         <v>42346</v>
       </c>
@@ -9685,7 +9687,7 @@
         <v>5</v>
       </c>
       <c r="V119" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W119" s="27" t="s">
         <v>28</v>
@@ -9707,10 +9709,10 @@
         <v>59257</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E120" s="13"/>
       <c r="F120" s="13" t="s">
@@ -9719,17 +9721,17 @@
       <c r="G120" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H120" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I120" s="46"/>
-      <c r="J120" s="46"/>
-      <c r="K120" s="46"/>
-      <c r="L120" s="46"/>
-      <c r="M120" s="46"/>
-      <c r="N120" s="46"/>
-      <c r="O120" s="46"/>
-      <c r="P120" s="46"/>
+      <c r="H120" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I120" s="45"/>
+      <c r="J120" s="45"/>
+      <c r="K120" s="45"/>
+      <c r="L120" s="45"/>
+      <c r="M120" s="45"/>
+      <c r="N120" s="45"/>
+      <c r="O120" s="45"/>
+      <c r="P120" s="45"/>
       <c r="Q120" s="41">
         <v>42346</v>
       </c>
@@ -9746,7 +9748,7 @@
         <v>5</v>
       </c>
       <c r="V120" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W120" s="27" t="s">
         <v>28</v>
@@ -9768,10 +9770,10 @@
         <v>59259</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E121" s="13"/>
       <c r="F121" s="13" t="s">
@@ -9780,17 +9782,17 @@
       <c r="G121" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H121" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I121" s="46"/>
-      <c r="J121" s="46"/>
-      <c r="K121" s="46"/>
-      <c r="L121" s="46"/>
-      <c r="M121" s="46"/>
-      <c r="N121" s="46"/>
-      <c r="O121" s="46"/>
-      <c r="P121" s="46"/>
+      <c r="H121" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I121" s="45"/>
+      <c r="J121" s="45"/>
+      <c r="K121" s="45"/>
+      <c r="L121" s="45"/>
+      <c r="M121" s="45"/>
+      <c r="N121" s="45"/>
+      <c r="O121" s="45"/>
+      <c r="P121" s="45"/>
       <c r="Q121" s="41">
         <v>42346</v>
       </c>
@@ -9807,7 +9809,7 @@
         <v>5</v>
       </c>
       <c r="V121" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W121" s="27" t="s">
         <v>28</v>
@@ -9825,14 +9827,14 @@
       <c r="A122" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B122" s="60">
+      <c r="B122" s="59">
         <v>59264</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E122" s="13"/>
       <c r="F122" s="13" t="s">
@@ -9841,17 +9843,17 @@
       <c r="G122" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H122" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I122" s="46"/>
-      <c r="J122" s="46"/>
-      <c r="K122" s="46"/>
-      <c r="L122" s="46"/>
-      <c r="M122" s="46"/>
-      <c r="N122" s="46"/>
-      <c r="O122" s="46"/>
-      <c r="P122" s="46"/>
+      <c r="H122" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I122" s="45"/>
+      <c r="J122" s="45"/>
+      <c r="K122" s="45"/>
+      <c r="L122" s="45"/>
+      <c r="M122" s="45"/>
+      <c r="N122" s="45"/>
+      <c r="O122" s="45"/>
+      <c r="P122" s="45"/>
       <c r="Q122" s="41">
         <v>42346</v>
       </c>
@@ -9868,7 +9870,7 @@
         <v>5</v>
       </c>
       <c r="V122" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W122" s="27" t="s">
         <v>28</v>
@@ -9886,14 +9888,14 @@
       <c r="A123" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B123" s="61">
+      <c r="B123" s="60">
         <v>59271</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E123" s="13"/>
       <c r="F123" s="13" t="s">
@@ -9902,17 +9904,17 @@
       <c r="G123" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H123" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I123" s="46"/>
-      <c r="J123" s="46"/>
-      <c r="K123" s="46"/>
-      <c r="L123" s="46"/>
-      <c r="M123" s="46"/>
-      <c r="N123" s="46"/>
-      <c r="O123" s="46"/>
-      <c r="P123" s="46"/>
+      <c r="H123" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I123" s="45"/>
+      <c r="J123" s="45"/>
+      <c r="K123" s="45"/>
+      <c r="L123" s="45"/>
+      <c r="M123" s="45"/>
+      <c r="N123" s="45"/>
+      <c r="O123" s="45"/>
+      <c r="P123" s="45"/>
       <c r="Q123" s="41">
         <v>41913</v>
       </c>
@@ -9929,7 +9931,7 @@
         <v>5</v>
       </c>
       <c r="V123" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W123" s="27" t="s">
         <v>28</v>
@@ -9951,10 +9953,10 @@
         <v>59275</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="10" t="s">
@@ -9963,17 +9965,17 @@
       <c r="G124" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H124" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I124" s="46"/>
-      <c r="J124" s="46"/>
-      <c r="K124" s="46"/>
-      <c r="L124" s="46"/>
-      <c r="M124" s="46"/>
-      <c r="N124" s="46"/>
-      <c r="O124" s="46"/>
-      <c r="P124" s="46"/>
+      <c r="H124" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I124" s="45"/>
+      <c r="J124" s="45"/>
+      <c r="K124" s="45"/>
+      <c r="L124" s="45"/>
+      <c r="M124" s="45"/>
+      <c r="N124" s="45"/>
+      <c r="O124" s="45"/>
+      <c r="P124" s="45"/>
       <c r="Q124" s="41">
         <v>41778</v>
       </c>
@@ -9990,7 +9992,7 @@
         <v>5</v>
       </c>
       <c r="V124" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W124" s="27" t="s">
         <v>28</v>
@@ -10012,10 +10014,10 @@
         <v>59279</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E125" s="13"/>
       <c r="F125" s="13" t="s">
@@ -10024,17 +10026,17 @@
       <c r="G125" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H125" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I125" s="46"/>
-      <c r="J125" s="46"/>
-      <c r="K125" s="46"/>
-      <c r="L125" s="46"/>
-      <c r="M125" s="46"/>
-      <c r="N125" s="46"/>
-      <c r="O125" s="46"/>
-      <c r="P125" s="46"/>
+      <c r="H125" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I125" s="45"/>
+      <c r="J125" s="45"/>
+      <c r="K125" s="45"/>
+      <c r="L125" s="45"/>
+      <c r="M125" s="45"/>
+      <c r="N125" s="45"/>
+      <c r="O125" s="45"/>
+      <c r="P125" s="45"/>
       <c r="Q125" s="41">
         <v>41801</v>
       </c>
@@ -10051,7 +10053,7 @@
         <v>5</v>
       </c>
       <c r="V125" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W125" s="27" t="s">
         <v>28</v>
@@ -10073,10 +10075,10 @@
         <v>59284</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E126" s="13"/>
       <c r="F126" s="13" t="s">
@@ -10085,17 +10087,17 @@
       <c r="G126" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H126" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I126" s="46"/>
-      <c r="J126" s="46"/>
-      <c r="K126" s="46"/>
-      <c r="L126" s="46"/>
-      <c r="M126" s="46"/>
-      <c r="N126" s="46"/>
-      <c r="O126" s="46"/>
-      <c r="P126" s="46"/>
+      <c r="H126" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I126" s="45"/>
+      <c r="J126" s="45"/>
+      <c r="K126" s="45"/>
+      <c r="L126" s="45"/>
+      <c r="M126" s="45"/>
+      <c r="N126" s="45"/>
+      <c r="O126" s="45"/>
+      <c r="P126" s="45"/>
       <c r="Q126" s="41">
         <v>41778</v>
       </c>
@@ -10112,7 +10114,7 @@
         <v>5</v>
       </c>
       <c r="V126" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W126" s="27" t="s">
         <v>28</v>
@@ -10134,10 +10136,10 @@
         <v>59289</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E127" s="13"/>
       <c r="F127" s="13" t="s">
@@ -10146,17 +10148,17 @@
       <c r="G127" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H127" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I127" s="46"/>
-      <c r="J127" s="46"/>
-      <c r="K127" s="46"/>
-      <c r="L127" s="46"/>
-      <c r="M127" s="46"/>
-      <c r="N127" s="46"/>
-      <c r="O127" s="46"/>
-      <c r="P127" s="46"/>
+      <c r="H127" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I127" s="45"/>
+      <c r="J127" s="45"/>
+      <c r="K127" s="45"/>
+      <c r="L127" s="45"/>
+      <c r="M127" s="45"/>
+      <c r="N127" s="45"/>
+      <c r="O127" s="45"/>
+      <c r="P127" s="45"/>
       <c r="Q127" s="41">
         <v>41913</v>
       </c>
@@ -10173,7 +10175,7 @@
         <v>5</v>
       </c>
       <c r="V127" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W127" s="27" t="s">
         <v>28</v>
@@ -10195,10 +10197,10 @@
         <v>59292</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E128" s="13"/>
       <c r="F128" s="13" t="s">
@@ -10207,17 +10209,17 @@
       <c r="G128" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H128" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I128" s="46"/>
-      <c r="J128" s="46"/>
-      <c r="K128" s="46"/>
-      <c r="L128" s="46"/>
-      <c r="M128" s="46"/>
-      <c r="N128" s="46"/>
-      <c r="O128" s="46"/>
-      <c r="P128" s="46"/>
+      <c r="H128" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I128" s="45"/>
+      <c r="J128" s="45"/>
+      <c r="K128" s="45"/>
+      <c r="L128" s="45"/>
+      <c r="M128" s="45"/>
+      <c r="N128" s="45"/>
+      <c r="O128" s="45"/>
+      <c r="P128" s="45"/>
       <c r="Q128" s="41">
         <v>41778</v>
       </c>
@@ -10234,7 +10236,7 @@
         <v>5</v>
       </c>
       <c r="V128" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W128" s="27" t="s">
         <v>28</v>
@@ -10256,10 +10258,10 @@
         <v>59301</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E129" s="13"/>
       <c r="F129" s="13" t="s">
@@ -10268,17 +10270,17 @@
       <c r="G129" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H129" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I129" s="46"/>
-      <c r="J129" s="46"/>
-      <c r="K129" s="46"/>
-      <c r="L129" s="46"/>
-      <c r="M129" s="46"/>
-      <c r="N129" s="46"/>
-      <c r="O129" s="46"/>
-      <c r="P129" s="46"/>
+      <c r="H129" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I129" s="45"/>
+      <c r="J129" s="45"/>
+      <c r="K129" s="45"/>
+      <c r="L129" s="45"/>
+      <c r="M129" s="45"/>
+      <c r="N129" s="45"/>
+      <c r="O129" s="45"/>
+      <c r="P129" s="45"/>
       <c r="Q129" s="41">
         <v>41778</v>
       </c>
@@ -10295,7 +10297,7 @@
         <v>5</v>
       </c>
       <c r="V129" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W129" s="27" t="s">
         <v>28</v>
@@ -10317,10 +10319,10 @@
         <v>59304</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E130" s="13"/>
       <c r="F130" s="13" t="s">
@@ -10329,17 +10331,17 @@
       <c r="G130" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H130" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I130" s="46"/>
-      <c r="J130" s="46"/>
-      <c r="K130" s="46"/>
-      <c r="L130" s="46"/>
-      <c r="M130" s="46"/>
-      <c r="N130" s="46"/>
-      <c r="O130" s="46"/>
-      <c r="P130" s="46"/>
+      <c r="H130" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I130" s="45"/>
+      <c r="J130" s="45"/>
+      <c r="K130" s="45"/>
+      <c r="L130" s="45"/>
+      <c r="M130" s="45"/>
+      <c r="N130" s="45"/>
+      <c r="O130" s="45"/>
+      <c r="P130" s="45"/>
       <c r="Q130" s="41">
         <v>41778</v>
       </c>
@@ -10356,7 +10358,7 @@
         <v>5</v>
       </c>
       <c r="V130" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W130" s="27" t="s">
         <v>28</v>
@@ -10378,10 +10380,10 @@
         <v>59306</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E131" s="13"/>
       <c r="F131" s="13" t="s">
@@ -10390,17 +10392,17 @@
       <c r="G131" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H131" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I131" s="46"/>
-      <c r="J131" s="46"/>
-      <c r="K131" s="46"/>
-      <c r="L131" s="46"/>
-      <c r="M131" s="46"/>
-      <c r="N131" s="46"/>
-      <c r="O131" s="46"/>
-      <c r="P131" s="46"/>
+      <c r="H131" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I131" s="45"/>
+      <c r="J131" s="45"/>
+      <c r="K131" s="45"/>
+      <c r="L131" s="45"/>
+      <c r="M131" s="45"/>
+      <c r="N131" s="45"/>
+      <c r="O131" s="45"/>
+      <c r="P131" s="45"/>
       <c r="Q131" s="41">
         <v>41778</v>
       </c>
@@ -10417,7 +10419,7 @@
         <v>5</v>
       </c>
       <c r="V131" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W131" s="27" t="s">
         <v>28</v>
@@ -10439,10 +10441,10 @@
         <v>59309</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="10" t="s">
@@ -10451,17 +10453,17 @@
       <c r="G132" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H132" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I132" s="46"/>
-      <c r="J132" s="46"/>
-      <c r="K132" s="46"/>
-      <c r="L132" s="46"/>
-      <c r="M132" s="46"/>
-      <c r="N132" s="46"/>
-      <c r="O132" s="46"/>
-      <c r="P132" s="46"/>
+      <c r="H132" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I132" s="45"/>
+      <c r="J132" s="45"/>
+      <c r="K132" s="45"/>
+      <c r="L132" s="45"/>
+      <c r="M132" s="45"/>
+      <c r="N132" s="45"/>
+      <c r="O132" s="45"/>
+      <c r="P132" s="45"/>
       <c r="Q132" s="41">
         <v>42342</v>
       </c>
@@ -10478,7 +10480,7 @@
         <v>5</v>
       </c>
       <c r="V132" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W132" s="27" t="s">
         <v>28</v>
@@ -10500,10 +10502,10 @@
         <v>59313</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E133" s="13"/>
       <c r="F133" s="13" t="s">
@@ -10512,17 +10514,17 @@
       <c r="G133" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H133" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I133" s="46"/>
-      <c r="J133" s="46"/>
-      <c r="K133" s="46"/>
-      <c r="L133" s="46"/>
-      <c r="M133" s="46"/>
-      <c r="N133" s="46"/>
-      <c r="O133" s="46"/>
-      <c r="P133" s="46"/>
+      <c r="H133" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I133" s="45"/>
+      <c r="J133" s="45"/>
+      <c r="K133" s="45"/>
+      <c r="L133" s="45"/>
+      <c r="M133" s="45"/>
+      <c r="N133" s="45"/>
+      <c r="O133" s="45"/>
+      <c r="P133" s="45"/>
       <c r="Q133" s="41">
         <v>41778</v>
       </c>
@@ -10539,7 +10541,7 @@
         <v>5</v>
       </c>
       <c r="V133" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W133" s="27" t="s">
         <v>28</v>
@@ -10561,10 +10563,10 @@
         <v>59315</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E134" s="10"/>
       <c r="F134" s="10" t="s">
@@ -10573,17 +10575,17 @@
       <c r="G134" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H134" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="I134" s="58"/>
-      <c r="J134" s="58"/>
-      <c r="K134" s="58"/>
-      <c r="L134" s="58"/>
-      <c r="M134" s="58"/>
-      <c r="N134" s="58"/>
-      <c r="O134" s="58"/>
-      <c r="P134" s="58"/>
+      <c r="H134" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I134" s="57"/>
+      <c r="J134" s="57"/>
+      <c r="K134" s="57"/>
+      <c r="L134" s="57"/>
+      <c r="M134" s="57"/>
+      <c r="N134" s="57"/>
+      <c r="O134" s="57"/>
+      <c r="P134" s="57"/>
       <c r="Q134" s="9">
         <v>41778</v>
       </c>
@@ -10600,7 +10602,7 @@
         <v>5</v>
       </c>
       <c r="V134" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W134" s="3" t="s">
         <v>28</v>
@@ -10622,10 +10624,10 @@
         <v>59319</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E135" s="10"/>
       <c r="F135" s="10" t="s">
@@ -10634,17 +10636,17 @@
       <c r="G135" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H135" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="I135" s="58"/>
-      <c r="J135" s="58"/>
-      <c r="K135" s="58"/>
-      <c r="L135" s="58"/>
-      <c r="M135" s="58"/>
-      <c r="N135" s="58"/>
-      <c r="O135" s="58"/>
-      <c r="P135" s="58"/>
+      <c r="H135" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I135" s="57"/>
+      <c r="J135" s="57"/>
+      <c r="K135" s="57"/>
+      <c r="L135" s="57"/>
+      <c r="M135" s="57"/>
+      <c r="N135" s="57"/>
+      <c r="O135" s="57"/>
+      <c r="P135" s="57"/>
       <c r="Q135" s="9">
         <v>41778</v>
       </c>
@@ -10661,7 +10663,7 @@
         <v>5</v>
       </c>
       <c r="V135" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W135" s="3" t="s">
         <v>28</v>
@@ -10683,10 +10685,10 @@
         <v>59322</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="10" t="s">
@@ -10695,17 +10697,17 @@
       <c r="G136" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H136" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="I136" s="58"/>
-      <c r="J136" s="58"/>
-      <c r="K136" s="58"/>
-      <c r="L136" s="58"/>
-      <c r="M136" s="58"/>
-      <c r="N136" s="58"/>
-      <c r="O136" s="58"/>
-      <c r="P136" s="58"/>
+      <c r="H136" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I136" s="57"/>
+      <c r="J136" s="57"/>
+      <c r="K136" s="57"/>
+      <c r="L136" s="57"/>
+      <c r="M136" s="57"/>
+      <c r="N136" s="57"/>
+      <c r="O136" s="57"/>
+      <c r="P136" s="57"/>
       <c r="Q136" s="9">
         <v>41778</v>
       </c>
@@ -10722,7 +10724,7 @@
         <v>5</v>
       </c>
       <c r="V136" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W136" s="3" t="s">
         <v>28</v>
@@ -10744,10 +10746,10 @@
         <v>59326</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E137" s="13"/>
       <c r="F137" s="13" t="s">
@@ -10756,17 +10758,17 @@
       <c r="G137" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H137" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I137" s="46"/>
-      <c r="J137" s="46"/>
-      <c r="K137" s="46"/>
-      <c r="L137" s="46"/>
-      <c r="M137" s="46"/>
-      <c r="N137" s="46"/>
-      <c r="O137" s="46"/>
-      <c r="P137" s="46"/>
+      <c r="H137" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I137" s="45"/>
+      <c r="J137" s="45"/>
+      <c r="K137" s="45"/>
+      <c r="L137" s="45"/>
+      <c r="M137" s="45"/>
+      <c r="N137" s="45"/>
+      <c r="O137" s="45"/>
+      <c r="P137" s="45"/>
       <c r="Q137" s="41">
         <v>41778</v>
       </c>
@@ -10783,7 +10785,7 @@
         <v>5</v>
       </c>
       <c r="V137" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W137" s="27" t="s">
         <v>28</v>
@@ -10805,10 +10807,10 @@
         <v>59328</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E138" s="13"/>
       <c r="F138" s="13" t="s">
@@ -10817,17 +10819,17 @@
       <c r="G138" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H138" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I138" s="46"/>
-      <c r="J138" s="46"/>
-      <c r="K138" s="46"/>
-      <c r="L138" s="46"/>
-      <c r="M138" s="46"/>
-      <c r="N138" s="46"/>
-      <c r="O138" s="46"/>
-      <c r="P138" s="46"/>
+      <c r="H138" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I138" s="45"/>
+      <c r="J138" s="45"/>
+      <c r="K138" s="45"/>
+      <c r="L138" s="45"/>
+      <c r="M138" s="45"/>
+      <c r="N138" s="45"/>
+      <c r="O138" s="45"/>
+      <c r="P138" s="45"/>
       <c r="Q138" s="41">
         <v>41906</v>
       </c>
@@ -10844,7 +10846,7 @@
         <v>5</v>
       </c>
       <c r="V138" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W138" s="27" t="s">
         <v>28</v>
@@ -10866,10 +10868,10 @@
         <v>59330</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E139" s="39"/>
       <c r="F139" s="39" t="s">
@@ -10878,17 +10880,17 @@
       <c r="G139" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H139" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I139" s="46"/>
-      <c r="J139" s="46"/>
-      <c r="K139" s="46"/>
-      <c r="L139" s="46"/>
-      <c r="M139" s="46"/>
-      <c r="N139" s="46"/>
-      <c r="O139" s="46"/>
-      <c r="P139" s="46"/>
+      <c r="H139" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I139" s="45"/>
+      <c r="J139" s="45"/>
+      <c r="K139" s="45"/>
+      <c r="L139" s="45"/>
+      <c r="M139" s="45"/>
+      <c r="N139" s="45"/>
+      <c r="O139" s="45"/>
+      <c r="P139" s="45"/>
       <c r="Q139" s="41">
         <v>41913</v>
       </c>
@@ -10905,7 +10907,7 @@
         <v>5</v>
       </c>
       <c r="V139" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W139" s="27" t="s">
         <v>28</v>
@@ -10927,10 +10929,10 @@
         <v>59333</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E140" s="13"/>
       <c r="F140" s="13" t="s">
@@ -10939,17 +10941,17 @@
       <c r="G140" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H140" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I140" s="46"/>
-      <c r="J140" s="46"/>
-      <c r="K140" s="46"/>
-      <c r="L140" s="46"/>
-      <c r="M140" s="46"/>
-      <c r="N140" s="46"/>
-      <c r="O140" s="46"/>
-      <c r="P140" s="46"/>
+      <c r="H140" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I140" s="45"/>
+      <c r="J140" s="45"/>
+      <c r="K140" s="45"/>
+      <c r="L140" s="45"/>
+      <c r="M140" s="45"/>
+      <c r="N140" s="45"/>
+      <c r="O140" s="45"/>
+      <c r="P140" s="45"/>
       <c r="Q140" s="41">
         <v>41778</v>
       </c>
@@ -10966,7 +10968,7 @@
         <v>5</v>
       </c>
       <c r="V140" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W140" s="27" t="s">
         <v>28</v>
@@ -10988,10 +10990,10 @@
         <v>59340</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E141" s="10"/>
       <c r="F141" s="10" t="s">
@@ -11000,17 +11002,17 @@
       <c r="G141" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H141" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="I141" s="58"/>
-      <c r="J141" s="58"/>
-      <c r="K141" s="58"/>
-      <c r="L141" s="58"/>
-      <c r="M141" s="58"/>
-      <c r="N141" s="58"/>
-      <c r="O141" s="58"/>
-      <c r="P141" s="58"/>
+      <c r="H141" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I141" s="57"/>
+      <c r="J141" s="57"/>
+      <c r="K141" s="57"/>
+      <c r="L141" s="57"/>
+      <c r="M141" s="57"/>
+      <c r="N141" s="57"/>
+      <c r="O141" s="57"/>
+      <c r="P141" s="57"/>
       <c r="Q141" s="9">
         <v>42342</v>
       </c>
@@ -11027,7 +11029,7 @@
         <v>5</v>
       </c>
       <c r="V141" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W141" s="3" t="s">
         <v>28</v>
@@ -11049,10 +11051,10 @@
         <v>59350</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E142" s="13"/>
       <c r="F142" s="13" t="s">
@@ -11061,17 +11063,17 @@
       <c r="G142" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H142" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="I142" s="58"/>
-      <c r="J142" s="58"/>
-      <c r="K142" s="58"/>
-      <c r="L142" s="58"/>
-      <c r="M142" s="58"/>
-      <c r="N142" s="58"/>
-      <c r="O142" s="58"/>
-      <c r="P142" s="58"/>
+      <c r="H142" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I142" s="57"/>
+      <c r="J142" s="57"/>
+      <c r="K142" s="57"/>
+      <c r="L142" s="57"/>
+      <c r="M142" s="57"/>
+      <c r="N142" s="57"/>
+      <c r="O142" s="57"/>
+      <c r="P142" s="57"/>
       <c r="Q142" s="9">
         <v>42342</v>
       </c>
@@ -11088,13 +11090,13 @@
         <v>5</v>
       </c>
       <c r="V142" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W142" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="X142" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
@@ -11110,10 +11112,10 @@
         <v>59361</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E143" s="13"/>
       <c r="F143" s="13" t="s">
@@ -11122,17 +11124,17 @@
       <c r="G143" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H143" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I143" s="46"/>
-      <c r="J143" s="46"/>
-      <c r="K143" s="46"/>
-      <c r="L143" s="46"/>
-      <c r="M143" s="46"/>
-      <c r="N143" s="46"/>
-      <c r="O143" s="46"/>
-      <c r="P143" s="46"/>
+      <c r="H143" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I143" s="45"/>
+      <c r="J143" s="45"/>
+      <c r="K143" s="45"/>
+      <c r="L143" s="45"/>
+      <c r="M143" s="45"/>
+      <c r="N143" s="45"/>
+      <c r="O143" s="45"/>
+      <c r="P143" s="45"/>
       <c r="Q143" s="41">
         <v>42342</v>
       </c>
@@ -11142,20 +11144,20 @@
       <c r="S143" s="37">
         <v>0</v>
       </c>
-      <c r="T143" s="62">
+      <c r="T143" s="61">
         <v>2</v>
       </c>
       <c r="U143" s="28" t="s">
         <v>5</v>
       </c>
       <c r="V143" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W143" s="27" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="X143" s="27" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Y143" s="27"/>
       <c r="Z143" s="27"/>
@@ -11171,10 +11173,10 @@
         <v>59367</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E144" s="13"/>
       <c r="F144" s="13" t="s">
@@ -11183,17 +11185,17 @@
       <c r="G144" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H144" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I144" s="46"/>
-      <c r="J144" s="46"/>
-      <c r="K144" s="46"/>
-      <c r="L144" s="46"/>
-      <c r="M144" s="46"/>
-      <c r="N144" s="46"/>
-      <c r="O144" s="46"/>
-      <c r="P144" s="46"/>
+      <c r="H144" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I144" s="45"/>
+      <c r="J144" s="45"/>
+      <c r="K144" s="45"/>
+      <c r="L144" s="45"/>
+      <c r="M144" s="45"/>
+      <c r="N144" s="45"/>
+      <c r="O144" s="45"/>
+      <c r="P144" s="45"/>
       <c r="Q144" s="41">
         <v>42306</v>
       </c>
@@ -11210,13 +11212,13 @@
         <v>5</v>
       </c>
       <c r="V144" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W144" s="27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="X144" s="27" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Y144" s="27"/>
       <c r="Z144" s="27"/>
@@ -11232,10 +11234,10 @@
         <v>59374</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E145" s="13"/>
       <c r="F145" s="13" t="s">
@@ -11244,17 +11246,17 @@
       <c r="G145" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H145" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I145" s="46"/>
-      <c r="J145" s="46"/>
-      <c r="K145" s="46"/>
-      <c r="L145" s="46"/>
-      <c r="M145" s="46"/>
-      <c r="N145" s="46"/>
-      <c r="O145" s="46"/>
-      <c r="P145" s="46"/>
+      <c r="H145" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I145" s="45"/>
+      <c r="J145" s="45"/>
+      <c r="K145" s="45"/>
+      <c r="L145" s="45"/>
+      <c r="M145" s="45"/>
+      <c r="N145" s="45"/>
+      <c r="O145" s="45"/>
+      <c r="P145" s="45"/>
       <c r="Q145" s="41">
         <v>41778</v>
       </c>
@@ -11271,13 +11273,13 @@
         <v>5</v>
       </c>
       <c r="V145" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W145" s="27" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="X145" s="27" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Y145" s="27"/>
       <c r="Z145" s="27"/>
@@ -11293,10 +11295,10 @@
         <v>59383</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E146" s="13"/>
       <c r="F146" s="13" t="s">
@@ -11305,17 +11307,17 @@
       <c r="G146" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H146" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I146" s="46"/>
-      <c r="J146" s="46"/>
-      <c r="K146" s="46"/>
-      <c r="L146" s="46"/>
-      <c r="M146" s="46"/>
-      <c r="N146" s="46"/>
-      <c r="O146" s="46"/>
-      <c r="P146" s="46"/>
+      <c r="H146" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I146" s="45"/>
+      <c r="J146" s="45"/>
+      <c r="K146" s="45"/>
+      <c r="L146" s="45"/>
+      <c r="M146" s="45"/>
+      <c r="N146" s="45"/>
+      <c r="O146" s="45"/>
+      <c r="P146" s="45"/>
       <c r="Q146" s="41">
         <v>42346</v>
       </c>
@@ -11332,7 +11334,7 @@
         <v>5</v>
       </c>
       <c r="V146" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W146" s="27" t="s">
         <v>28</v>
@@ -11354,10 +11356,10 @@
         <v>59389</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E147" s="13"/>
       <c r="F147" s="13" t="s">
@@ -11366,17 +11368,17 @@
       <c r="G147" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H147" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="I147" s="58"/>
-      <c r="J147" s="58"/>
-      <c r="K147" s="58"/>
-      <c r="L147" s="58"/>
-      <c r="M147" s="58"/>
-      <c r="N147" s="58"/>
-      <c r="O147" s="58"/>
-      <c r="P147" s="58"/>
+      <c r="H147" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I147" s="57"/>
+      <c r="J147" s="57"/>
+      <c r="K147" s="57"/>
+      <c r="L147" s="57"/>
+      <c r="M147" s="57"/>
+      <c r="N147" s="57"/>
+      <c r="O147" s="57"/>
+      <c r="P147" s="57"/>
       <c r="Q147" s="9">
         <v>42346</v>
       </c>
@@ -11393,7 +11395,7 @@
         <v>5</v>
       </c>
       <c r="V147" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W147" s="3" t="s">
         <v>28</v>
@@ -11415,10 +11417,10 @@
         <v>59398</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E148" s="13"/>
       <c r="F148" s="13" t="s">
@@ -11427,17 +11429,17 @@
       <c r="G148" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H148" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="I148" s="58"/>
-      <c r="J148" s="58"/>
-      <c r="K148" s="58"/>
-      <c r="L148" s="58"/>
-      <c r="M148" s="58"/>
-      <c r="N148" s="58"/>
-      <c r="O148" s="58"/>
-      <c r="P148" s="58"/>
+      <c r="H148" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I148" s="57"/>
+      <c r="J148" s="57"/>
+      <c r="K148" s="57"/>
+      <c r="L148" s="57"/>
+      <c r="M148" s="57"/>
+      <c r="N148" s="57"/>
+      <c r="O148" s="57"/>
+      <c r="P148" s="57"/>
       <c r="Q148" s="9">
         <v>42342</v>
       </c>
@@ -11454,7 +11456,7 @@
         <v>5</v>
       </c>
       <c r="V148" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W148" s="3" t="s">
         <v>28</v>
@@ -11476,10 +11478,10 @@
         <v>59493</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E149" s="13"/>
       <c r="F149" s="13" t="s">
@@ -11488,17 +11490,17 @@
       <c r="G149" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H149" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I149" s="46"/>
-      <c r="J149" s="46"/>
-      <c r="K149" s="46"/>
-      <c r="L149" s="46"/>
-      <c r="M149" s="46"/>
-      <c r="N149" s="46"/>
-      <c r="O149" s="46"/>
-      <c r="P149" s="46"/>
+      <c r="H149" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I149" s="45"/>
+      <c r="J149" s="45"/>
+      <c r="K149" s="45"/>
+      <c r="L149" s="45"/>
+      <c r="M149" s="45"/>
+      <c r="N149" s="45"/>
+      <c r="O149" s="45"/>
+      <c r="P149" s="45"/>
       <c r="Q149" s="41">
         <v>41778</v>
       </c>
@@ -11515,13 +11517,13 @@
         <v>5</v>
       </c>
       <c r="V149" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W149" s="27" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="X149" s="27" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Y149" s="27"/>
       <c r="Z149" s="27"/>
@@ -11537,10 +11539,10 @@
         <v>59501</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E150" s="13"/>
       <c r="F150" s="13" t="s">
@@ -11549,17 +11551,17 @@
       <c r="G150" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H150" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I150" s="46"/>
-      <c r="J150" s="46"/>
-      <c r="K150" s="46"/>
-      <c r="L150" s="46"/>
-      <c r="M150" s="46"/>
-      <c r="N150" s="46"/>
-      <c r="O150" s="46"/>
-      <c r="P150" s="46"/>
+      <c r="H150" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I150" s="45"/>
+      <c r="J150" s="45"/>
+      <c r="K150" s="45"/>
+      <c r="L150" s="45"/>
+      <c r="M150" s="45"/>
+      <c r="N150" s="45"/>
+      <c r="O150" s="45"/>
+      <c r="P150" s="45"/>
       <c r="Q150" s="41">
         <v>41778</v>
       </c>
@@ -11569,20 +11571,20 @@
       <c r="S150" s="37">
         <v>0</v>
       </c>
-      <c r="T150" s="62">
+      <c r="T150" s="61">
         <v>11</v>
       </c>
       <c r="U150" s="28" t="s">
         <v>5</v>
       </c>
       <c r="V150" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W150" s="27" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="X150" s="27" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Y150" s="27"/>
       <c r="Z150" s="27"/>
@@ -11598,10 +11600,10 @@
         <v>59503</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E151" s="13"/>
       <c r="F151" s="13" t="s">
@@ -11610,17 +11612,17 @@
       <c r="G151" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H151" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I151" s="46"/>
-      <c r="J151" s="46"/>
-      <c r="K151" s="46"/>
-      <c r="L151" s="46"/>
-      <c r="M151" s="46"/>
-      <c r="N151" s="46"/>
-      <c r="O151" s="46"/>
-      <c r="P151" s="46"/>
+      <c r="H151" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I151" s="45"/>
+      <c r="J151" s="45"/>
+      <c r="K151" s="45"/>
+      <c r="L151" s="45"/>
+      <c r="M151" s="45"/>
+      <c r="N151" s="45"/>
+      <c r="O151" s="45"/>
+      <c r="P151" s="45"/>
       <c r="Q151" s="41">
         <v>41913</v>
       </c>
@@ -11637,7 +11639,7 @@
         <v>5</v>
       </c>
       <c r="V151" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W151" s="27" t="s">
         <v>28</v>
@@ -11659,10 +11661,10 @@
         <v>59507</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E152" s="13"/>
       <c r="F152" s="13" t="s">
@@ -11671,17 +11673,17 @@
       <c r="G152" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H152" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I152" s="46"/>
-      <c r="J152" s="46"/>
-      <c r="K152" s="46"/>
-      <c r="L152" s="46"/>
-      <c r="M152" s="46"/>
-      <c r="N152" s="46"/>
-      <c r="O152" s="46"/>
-      <c r="P152" s="46"/>
+      <c r="H152" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I152" s="45"/>
+      <c r="J152" s="45"/>
+      <c r="K152" s="45"/>
+      <c r="L152" s="45"/>
+      <c r="M152" s="45"/>
+      <c r="N152" s="45"/>
+      <c r="O152" s="45"/>
+      <c r="P152" s="45"/>
       <c r="Q152" s="41">
         <v>42346</v>
       </c>
@@ -11698,7 +11700,7 @@
         <v>5</v>
       </c>
       <c r="V152" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W152" s="27" t="s">
         <v>28</v>
@@ -11720,10 +11722,10 @@
         <v>59509</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E153" s="13"/>
       <c r="F153" s="13" t="s">
@@ -11732,17 +11734,17 @@
       <c r="G153" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H153" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I153" s="46"/>
-      <c r="J153" s="46"/>
-      <c r="K153" s="46"/>
-      <c r="L153" s="46"/>
-      <c r="M153" s="46"/>
-      <c r="N153" s="46"/>
-      <c r="O153" s="46"/>
-      <c r="P153" s="46"/>
+      <c r="H153" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I153" s="45"/>
+      <c r="J153" s="45"/>
+      <c r="K153" s="45"/>
+      <c r="L153" s="45"/>
+      <c r="M153" s="45"/>
+      <c r="N153" s="45"/>
+      <c r="O153" s="45"/>
+      <c r="P153" s="45"/>
       <c r="Q153" s="41">
         <v>42346</v>
       </c>
@@ -11759,13 +11761,13 @@
         <v>5</v>
       </c>
       <c r="V153" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W153" s="27" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="X153" s="27" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Y153" s="27"/>
       <c r="Z153" s="27"/>
@@ -11781,10 +11783,10 @@
         <v>59513</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E154" s="13"/>
       <c r="F154" s="13" t="s">
@@ -11793,17 +11795,17 @@
       <c r="G154" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H154" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I154" s="46"/>
-      <c r="J154" s="46"/>
-      <c r="K154" s="46"/>
-      <c r="L154" s="46"/>
-      <c r="M154" s="46"/>
-      <c r="N154" s="46"/>
-      <c r="O154" s="46"/>
-      <c r="P154" s="46"/>
+      <c r="H154" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I154" s="45"/>
+      <c r="J154" s="45"/>
+      <c r="K154" s="45"/>
+      <c r="L154" s="45"/>
+      <c r="M154" s="45"/>
+      <c r="N154" s="45"/>
+      <c r="O154" s="45"/>
+      <c r="P154" s="45"/>
       <c r="Q154" s="41">
         <v>42346</v>
       </c>
@@ -11820,7 +11822,7 @@
         <v>5</v>
       </c>
       <c r="V154" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W154" s="27" t="s">
         <v>28</v>
@@ -11842,10 +11844,10 @@
         <v>59522</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E155" s="13"/>
       <c r="F155" s="13" t="s">
@@ -11854,17 +11856,17 @@
       <c r="G155" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H155" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I155" s="46"/>
-      <c r="J155" s="46"/>
-      <c r="K155" s="46"/>
-      <c r="L155" s="46"/>
-      <c r="M155" s="46"/>
-      <c r="N155" s="46"/>
-      <c r="O155" s="46"/>
-      <c r="P155" s="46"/>
+      <c r="H155" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I155" s="45"/>
+      <c r="J155" s="45"/>
+      <c r="K155" s="45"/>
+      <c r="L155" s="45"/>
+      <c r="M155" s="45"/>
+      <c r="N155" s="45"/>
+      <c r="O155" s="45"/>
+      <c r="P155" s="45"/>
       <c r="Q155" s="41">
         <v>41913</v>
       </c>
@@ -11881,7 +11883,7 @@
         <v>5</v>
       </c>
       <c r="V155" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W155" s="27" t="s">
         <v>28</v>
@@ -11903,10 +11905,10 @@
         <v>59526</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E156" s="10"/>
       <c r="F156" s="10" t="s">
@@ -11915,17 +11917,17 @@
       <c r="G156" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H156" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="I156" s="58"/>
-      <c r="J156" s="58"/>
-      <c r="K156" s="58"/>
-      <c r="L156" s="58"/>
-      <c r="M156" s="58"/>
-      <c r="N156" s="58"/>
-      <c r="O156" s="58"/>
-      <c r="P156" s="58"/>
+      <c r="H156" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I156" s="57"/>
+      <c r="J156" s="57"/>
+      <c r="K156" s="57"/>
+      <c r="L156" s="57"/>
+      <c r="M156" s="57"/>
+      <c r="N156" s="57"/>
+      <c r="O156" s="57"/>
+      <c r="P156" s="57"/>
       <c r="Q156" s="9">
         <v>41778</v>
       </c>
@@ -11942,7 +11944,7 @@
         <v>5</v>
       </c>
       <c r="V156" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W156" s="3" t="s">
         <v>28</v>
@@ -11964,10 +11966,10 @@
         <v>59529</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E157" s="13"/>
       <c r="F157" s="13" t="s">
@@ -11976,17 +11978,17 @@
       <c r="G157" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H157" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I157" s="46"/>
-      <c r="J157" s="46"/>
-      <c r="K157" s="46"/>
-      <c r="L157" s="46"/>
-      <c r="M157" s="46"/>
-      <c r="N157" s="46"/>
-      <c r="O157" s="46"/>
-      <c r="P157" s="46"/>
+      <c r="H157" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I157" s="45"/>
+      <c r="J157" s="45"/>
+      <c r="K157" s="45"/>
+      <c r="L157" s="45"/>
+      <c r="M157" s="45"/>
+      <c r="N157" s="45"/>
+      <c r="O157" s="45"/>
+      <c r="P157" s="45"/>
       <c r="Q157" s="41">
         <v>42346</v>
       </c>
@@ -12003,7 +12005,7 @@
         <v>5</v>
       </c>
       <c r="V157" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W157" s="27" t="s">
         <v>28</v>
@@ -12025,10 +12027,10 @@
         <v>59535</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E158" s="13"/>
       <c r="F158" s="13" t="s">
@@ -12037,17 +12039,17 @@
       <c r="G158" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H158" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="I158" s="58"/>
-      <c r="J158" s="58"/>
-      <c r="K158" s="58"/>
-      <c r="L158" s="58"/>
-      <c r="M158" s="58"/>
-      <c r="N158" s="58"/>
-      <c r="O158" s="58"/>
-      <c r="P158" s="58"/>
+      <c r="H158" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I158" s="57"/>
+      <c r="J158" s="57"/>
+      <c r="K158" s="57"/>
+      <c r="L158" s="57"/>
+      <c r="M158" s="57"/>
+      <c r="N158" s="57"/>
+      <c r="O158" s="57"/>
+      <c r="P158" s="57"/>
       <c r="Q158" s="9">
         <v>41913</v>
       </c>
@@ -12064,7 +12066,7 @@
         <v>5</v>
       </c>
       <c r="V158" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W158" s="3" t="s">
         <v>28</v>
@@ -12086,10 +12088,10 @@
         <v>59541</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E159" s="13"/>
       <c r="F159" s="13" t="s">
@@ -12098,17 +12100,17 @@
       <c r="G159" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H159" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I159" s="46"/>
-      <c r="J159" s="46"/>
-      <c r="K159" s="46"/>
-      <c r="L159" s="46"/>
-      <c r="M159" s="46"/>
-      <c r="N159" s="46"/>
-      <c r="O159" s="46"/>
-      <c r="P159" s="46"/>
+      <c r="H159" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I159" s="45"/>
+      <c r="J159" s="45"/>
+      <c r="K159" s="45"/>
+      <c r="L159" s="45"/>
+      <c r="M159" s="45"/>
+      <c r="N159" s="45"/>
+      <c r="O159" s="45"/>
+      <c r="P159" s="45"/>
       <c r="Q159" s="41">
         <v>42346</v>
       </c>
@@ -12125,7 +12127,7 @@
         <v>5</v>
       </c>
       <c r="V159" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W159" s="27" t="s">
         <v>28</v>
@@ -12147,10 +12149,10 @@
         <v>59544</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E160" s="13"/>
       <c r="F160" s="13" t="s">
@@ -12159,17 +12161,17 @@
       <c r="G160" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H160" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I160" s="46"/>
-      <c r="J160" s="46"/>
-      <c r="K160" s="46"/>
-      <c r="L160" s="46"/>
-      <c r="M160" s="46"/>
-      <c r="N160" s="46"/>
-      <c r="O160" s="46"/>
-      <c r="P160" s="46"/>
+      <c r="H160" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I160" s="45"/>
+      <c r="J160" s="45"/>
+      <c r="K160" s="45"/>
+      <c r="L160" s="45"/>
+      <c r="M160" s="45"/>
+      <c r="N160" s="45"/>
+      <c r="O160" s="45"/>
+      <c r="P160" s="45"/>
       <c r="Q160" s="41">
         <v>41778</v>
       </c>
@@ -12186,7 +12188,7 @@
         <v>5</v>
       </c>
       <c r="V160" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W160" s="27" t="s">
         <v>28</v>
@@ -12208,10 +12210,10 @@
         <v>59548</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E161" s="13"/>
       <c r="F161" s="13" t="s">
@@ -12220,17 +12222,17 @@
       <c r="G161" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H161" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I161" s="46"/>
-      <c r="J161" s="46"/>
-      <c r="K161" s="46"/>
-      <c r="L161" s="46"/>
-      <c r="M161" s="46"/>
-      <c r="N161" s="46"/>
-      <c r="O161" s="46"/>
-      <c r="P161" s="46"/>
+      <c r="H161" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I161" s="45"/>
+      <c r="J161" s="45"/>
+      <c r="K161" s="45"/>
+      <c r="L161" s="45"/>
+      <c r="M161" s="45"/>
+      <c r="N161" s="45"/>
+      <c r="O161" s="45"/>
+      <c r="P161" s="45"/>
       <c r="Q161" s="41">
         <v>41778</v>
       </c>
@@ -12247,7 +12249,7 @@
         <v>5</v>
       </c>
       <c r="V161" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W161" s="27" t="s">
         <v>28</v>
@@ -12269,10 +12271,10 @@
         <v>59554</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E162" s="13"/>
       <c r="F162" s="13" t="s">
@@ -12281,17 +12283,17 @@
       <c r="G162" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H162" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I162" s="46"/>
-      <c r="J162" s="46"/>
-      <c r="K162" s="46"/>
-      <c r="L162" s="46"/>
-      <c r="M162" s="46"/>
-      <c r="N162" s="46"/>
-      <c r="O162" s="46"/>
-      <c r="P162" s="46"/>
+      <c r="H162" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I162" s="45"/>
+      <c r="J162" s="45"/>
+      <c r="K162" s="45"/>
+      <c r="L162" s="45"/>
+      <c r="M162" s="45"/>
+      <c r="N162" s="45"/>
+      <c r="O162" s="45"/>
+      <c r="P162" s="45"/>
       <c r="Q162" s="41">
         <v>42346</v>
       </c>
@@ -12308,7 +12310,7 @@
         <v>5</v>
       </c>
       <c r="V162" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W162" s="27" t="s">
         <v>28</v>
@@ -12330,10 +12332,10 @@
         <v>59558</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E163" s="13"/>
       <c r="F163" s="13" t="s">
@@ -12342,17 +12344,17 @@
       <c r="G163" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H163" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I163" s="46"/>
-      <c r="J163" s="46"/>
-      <c r="K163" s="46"/>
-      <c r="L163" s="46"/>
-      <c r="M163" s="46"/>
-      <c r="N163" s="46"/>
-      <c r="O163" s="46"/>
-      <c r="P163" s="46"/>
+      <c r="H163" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I163" s="45"/>
+      <c r="J163" s="45"/>
+      <c r="K163" s="45"/>
+      <c r="L163" s="45"/>
+      <c r="M163" s="45"/>
+      <c r="N163" s="45"/>
+      <c r="O163" s="45"/>
+      <c r="P163" s="45"/>
       <c r="Q163" s="41">
         <v>42346</v>
       </c>
@@ -12369,7 +12371,7 @@
         <v>5</v>
       </c>
       <c r="V163" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W163" s="27" t="s">
         <v>28</v>
@@ -12391,10 +12393,10 @@
         <v>59561</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E164" s="13"/>
       <c r="F164" s="13" t="s">
@@ -12403,17 +12405,17 @@
       <c r="G164" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H164" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I164" s="46"/>
-      <c r="J164" s="46"/>
-      <c r="K164" s="46"/>
-      <c r="L164" s="46"/>
-      <c r="M164" s="46"/>
-      <c r="N164" s="46"/>
-      <c r="O164" s="46"/>
-      <c r="P164" s="46"/>
+      <c r="H164" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I164" s="45"/>
+      <c r="J164" s="45"/>
+      <c r="K164" s="45"/>
+      <c r="L164" s="45"/>
+      <c r="M164" s="45"/>
+      <c r="N164" s="45"/>
+      <c r="O164" s="45"/>
+      <c r="P164" s="45"/>
       <c r="Q164" s="41">
         <v>42346</v>
       </c>
@@ -12430,7 +12432,7 @@
         <v>5</v>
       </c>
       <c r="V164" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W164" s="27" t="s">
         <v>28</v>
@@ -12452,10 +12454,10 @@
         <v>59563</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E165" s="10"/>
       <c r="F165" s="10" t="s">
@@ -12464,17 +12466,17 @@
       <c r="G165" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H165" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I165" s="46"/>
-      <c r="J165" s="46"/>
-      <c r="K165" s="46"/>
-      <c r="L165" s="46"/>
-      <c r="M165" s="46"/>
-      <c r="N165" s="46"/>
-      <c r="O165" s="46"/>
-      <c r="P165" s="46"/>
+      <c r="H165" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I165" s="45"/>
+      <c r="J165" s="45"/>
+      <c r="K165" s="45"/>
+      <c r="L165" s="45"/>
+      <c r="M165" s="45"/>
+      <c r="N165" s="45"/>
+      <c r="O165" s="45"/>
+      <c r="P165" s="45"/>
       <c r="Q165" s="9">
         <v>41906</v>
       </c>
@@ -12491,7 +12493,7 @@
         <v>5</v>
       </c>
       <c r="V165" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W165" s="3" t="s">
         <v>28</v>
@@ -12513,10 +12515,10 @@
         <v>59565</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E166" s="13"/>
       <c r="F166" s="13" t="s">
@@ -12525,17 +12527,17 @@
       <c r="G166" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H166" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I166" s="46"/>
-      <c r="J166" s="46"/>
-      <c r="K166" s="46"/>
-      <c r="L166" s="46"/>
-      <c r="M166" s="46"/>
-      <c r="N166" s="46"/>
-      <c r="O166" s="46"/>
-      <c r="P166" s="46"/>
+      <c r="H166" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I166" s="45"/>
+      <c r="J166" s="45"/>
+      <c r="K166" s="45"/>
+      <c r="L166" s="45"/>
+      <c r="M166" s="45"/>
+      <c r="N166" s="45"/>
+      <c r="O166" s="45"/>
+      <c r="P166" s="45"/>
       <c r="Q166" s="41">
         <v>41913</v>
       </c>
@@ -12552,7 +12554,7 @@
         <v>5</v>
       </c>
       <c r="V166" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W166" s="27" t="s">
         <v>28</v>
@@ -12574,10 +12576,10 @@
         <v>59567</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E167" s="39"/>
       <c r="F167" s="39" t="s">
@@ -12586,17 +12588,17 @@
       <c r="G167" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H167" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I167" s="46"/>
-      <c r="J167" s="46"/>
-      <c r="K167" s="46"/>
-      <c r="L167" s="46"/>
-      <c r="M167" s="46"/>
-      <c r="N167" s="46"/>
-      <c r="O167" s="46"/>
-      <c r="P167" s="46"/>
+      <c r="H167" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I167" s="45"/>
+      <c r="J167" s="45"/>
+      <c r="K167" s="45"/>
+      <c r="L167" s="45"/>
+      <c r="M167" s="45"/>
+      <c r="N167" s="45"/>
+      <c r="O167" s="45"/>
+      <c r="P167" s="45"/>
       <c r="Q167" s="41">
         <v>41913</v>
       </c>
@@ -12613,7 +12615,7 @@
         <v>5</v>
       </c>
       <c r="V167" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W167" s="27" t="s">
         <v>28</v>
@@ -12635,10 +12637,10 @@
         <v>64607</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E168" s="13"/>
       <c r="F168" s="13" t="s">
@@ -12647,17 +12649,17 @@
       <c r="G168" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H168" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="I168" s="58"/>
-      <c r="J168" s="58"/>
-      <c r="K168" s="58"/>
-      <c r="L168" s="58"/>
-      <c r="M168" s="58"/>
-      <c r="N168" s="58"/>
-      <c r="O168" s="58"/>
-      <c r="P168" s="58"/>
+      <c r="H168" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I168" s="57"/>
+      <c r="J168" s="57"/>
+      <c r="K168" s="57"/>
+      <c r="L168" s="57"/>
+      <c r="M168" s="57"/>
+      <c r="N168" s="57"/>
+      <c r="O168" s="57"/>
+      <c r="P168" s="57"/>
       <c r="Q168" s="9">
         <v>42342</v>
       </c>
@@ -12674,7 +12676,7 @@
         <v>5</v>
       </c>
       <c r="V168" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W168" s="3" t="s">
         <v>28</v>
@@ -12696,10 +12698,10 @@
         <v>66898</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E169" s="13"/>
       <c r="F169" s="13" t="s">
@@ -12708,17 +12710,17 @@
       <c r="G169" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H169" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="I169" s="58"/>
-      <c r="J169" s="58"/>
-      <c r="K169" s="58"/>
-      <c r="L169" s="58"/>
-      <c r="M169" s="58"/>
-      <c r="N169" s="58"/>
-      <c r="O169" s="58"/>
-      <c r="P169" s="58"/>
+      <c r="H169" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I169" s="57"/>
+      <c r="J169" s="57"/>
+      <c r="K169" s="57"/>
+      <c r="L169" s="57"/>
+      <c r="M169" s="57"/>
+      <c r="N169" s="57"/>
+      <c r="O169" s="57"/>
+      <c r="P169" s="57"/>
       <c r="Q169" s="9">
         <v>42342</v>
       </c>
@@ -12735,7 +12737,7 @@
         <v>5</v>
       </c>
       <c r="V169" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W169" s="3" t="s">
         <v>28</v>
@@ -12757,10 +12759,10 @@
         <v>66899</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E170" s="10"/>
       <c r="F170" s="10" t="s">
@@ -12769,17 +12771,17 @@
       <c r="G170" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H170" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="I170" s="58"/>
-      <c r="J170" s="58"/>
-      <c r="K170" s="58"/>
-      <c r="L170" s="58"/>
-      <c r="M170" s="58"/>
-      <c r="N170" s="58"/>
-      <c r="O170" s="58"/>
-      <c r="P170" s="58"/>
+      <c r="H170" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I170" s="57"/>
+      <c r="J170" s="57"/>
+      <c r="K170" s="57"/>
+      <c r="L170" s="57"/>
+      <c r="M170" s="57"/>
+      <c r="N170" s="57"/>
+      <c r="O170" s="57"/>
+      <c r="P170" s="57"/>
       <c r="Q170" s="9">
         <v>42342</v>
       </c>
@@ -12796,7 +12798,7 @@
         <v>5</v>
       </c>
       <c r="V170" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W170" s="3" t="s">
         <v>28</v>
@@ -12818,10 +12820,10 @@
         <v>66908</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E171" s="13"/>
       <c r="F171" s="13" t="s">
@@ -12830,17 +12832,17 @@
       <c r="G171" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H171" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I171" s="46"/>
-      <c r="J171" s="46"/>
-      <c r="K171" s="46"/>
-      <c r="L171" s="46"/>
-      <c r="M171" s="46"/>
-      <c r="N171" s="46"/>
-      <c r="O171" s="46"/>
-      <c r="P171" s="46"/>
+      <c r="H171" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I171" s="45"/>
+      <c r="J171" s="45"/>
+      <c r="K171" s="45"/>
+      <c r="L171" s="45"/>
+      <c r="M171" s="45"/>
+      <c r="N171" s="45"/>
+      <c r="O171" s="45"/>
+      <c r="P171" s="45"/>
       <c r="Q171" s="41">
         <v>42346</v>
       </c>
@@ -12857,13 +12859,13 @@
         <v>5</v>
       </c>
       <c r="V171" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W171" s="27" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="X171" s="27" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="Y171" s="27"/>
       <c r="Z171" s="27"/>
@@ -12879,10 +12881,10 @@
         <v>66959</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E172" s="13"/>
       <c r="F172" s="13" t="s">
@@ -12891,17 +12893,17 @@
       <c r="G172" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H172" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I172" s="46"/>
-      <c r="J172" s="46"/>
-      <c r="K172" s="46"/>
-      <c r="L172" s="46"/>
-      <c r="M172" s="46"/>
-      <c r="N172" s="46"/>
-      <c r="O172" s="46"/>
-      <c r="P172" s="46"/>
+      <c r="H172" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I172" s="45"/>
+      <c r="J172" s="45"/>
+      <c r="K172" s="45"/>
+      <c r="L172" s="45"/>
+      <c r="M172" s="45"/>
+      <c r="N172" s="45"/>
+      <c r="O172" s="45"/>
+      <c r="P172" s="45"/>
       <c r="Q172" s="41">
         <v>41778</v>
       </c>
@@ -12918,7 +12920,7 @@
         <v>5</v>
       </c>
       <c r="V172" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W172" s="27" t="s">
         <v>28</v>
@@ -12940,10 +12942,10 @@
         <v>67000</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E173" s="13"/>
       <c r="F173" s="13" t="s">
@@ -12952,17 +12954,17 @@
       <c r="G173" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H173" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I173" s="46"/>
-      <c r="J173" s="46"/>
-      <c r="K173" s="46"/>
-      <c r="L173" s="46"/>
-      <c r="M173" s="46"/>
-      <c r="N173" s="46"/>
-      <c r="O173" s="46"/>
-      <c r="P173" s="46"/>
+      <c r="H173" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I173" s="45"/>
+      <c r="J173" s="45"/>
+      <c r="K173" s="45"/>
+      <c r="L173" s="45"/>
+      <c r="M173" s="45"/>
+      <c r="N173" s="45"/>
+      <c r="O173" s="45"/>
+      <c r="P173" s="45"/>
       <c r="Q173" s="41">
         <v>41778</v>
       </c>
@@ -12979,13 +12981,13 @@
         <v>5</v>
       </c>
       <c r="V173" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W173" s="27" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="X173" s="27" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y173" s="27"/>
       <c r="Z173" s="27"/>
@@ -13001,10 +13003,10 @@
         <v>67109</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E174" s="13"/>
       <c r="F174" s="13" t="s">
@@ -13013,17 +13015,17 @@
       <c r="G174" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H174" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I174" s="46"/>
-      <c r="J174" s="46"/>
-      <c r="K174" s="46"/>
-      <c r="L174" s="46"/>
-      <c r="M174" s="46"/>
-      <c r="N174" s="46"/>
-      <c r="O174" s="46"/>
-      <c r="P174" s="46"/>
+      <c r="H174" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I174" s="45"/>
+      <c r="J174" s="45"/>
+      <c r="K174" s="45"/>
+      <c r="L174" s="45"/>
+      <c r="M174" s="45"/>
+      <c r="N174" s="45"/>
+      <c r="O174" s="45"/>
+      <c r="P174" s="45"/>
       <c r="Q174" s="41">
         <v>41778</v>
       </c>
@@ -13040,13 +13042,13 @@
         <v>5</v>
       </c>
       <c r="V174" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W174" s="27" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="X174" s="27" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Y174" s="27"/>
       <c r="Z174" s="27"/>
@@ -13062,10 +13064,10 @@
         <v>67117</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E175" s="13"/>
       <c r="F175" s="13" t="s">
@@ -13074,17 +13076,17 @@
       <c r="G175" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H175" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I175" s="46"/>
-      <c r="J175" s="46"/>
-      <c r="K175" s="46"/>
-      <c r="L175" s="46"/>
-      <c r="M175" s="46"/>
-      <c r="N175" s="46"/>
-      <c r="O175" s="46"/>
-      <c r="P175" s="46"/>
+      <c r="H175" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I175" s="45"/>
+      <c r="J175" s="45"/>
+      <c r="K175" s="45"/>
+      <c r="L175" s="45"/>
+      <c r="M175" s="45"/>
+      <c r="N175" s="45"/>
+      <c r="O175" s="45"/>
+      <c r="P175" s="45"/>
       <c r="Q175" s="41">
         <v>41778</v>
       </c>
@@ -13101,13 +13103,13 @@
         <v>5</v>
       </c>
       <c r="V175" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W175" s="27" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="X175" s="27" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="Y175" s="27"/>
       <c r="Z175" s="27"/>
@@ -13123,10 +13125,10 @@
         <v>67122</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E176" s="13"/>
       <c r="F176" s="13" t="s">
@@ -13135,17 +13137,17 @@
       <c r="G176" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H176" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I176" s="46"/>
-      <c r="J176" s="46"/>
-      <c r="K176" s="46"/>
-      <c r="L176" s="46"/>
-      <c r="M176" s="46"/>
-      <c r="N176" s="46"/>
-      <c r="O176" s="46"/>
-      <c r="P176" s="46"/>
+      <c r="H176" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I176" s="45"/>
+      <c r="J176" s="45"/>
+      <c r="K176" s="45"/>
+      <c r="L176" s="45"/>
+      <c r="M176" s="45"/>
+      <c r="N176" s="45"/>
+      <c r="O176" s="45"/>
+      <c r="P176" s="45"/>
       <c r="Q176" s="41">
         <v>42306</v>
       </c>
@@ -13162,13 +13164,13 @@
         <v>5</v>
       </c>
       <c r="V176" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W176" s="27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="X176" s="27" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Y176" s="27"/>
       <c r="Z176" s="27"/>
@@ -13184,10 +13186,10 @@
         <v>67191</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E177" s="10"/>
       <c r="F177" s="10" t="s">
@@ -13196,17 +13198,17 @@
       <c r="G177" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H177" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="I177" s="58"/>
-      <c r="J177" s="58"/>
-      <c r="K177" s="58"/>
-      <c r="L177" s="58"/>
-      <c r="M177" s="58"/>
-      <c r="N177" s="58"/>
-      <c r="O177" s="58"/>
-      <c r="P177" s="58"/>
+      <c r="H177" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I177" s="57"/>
+      <c r="J177" s="57"/>
+      <c r="K177" s="57"/>
+      <c r="L177" s="57"/>
+      <c r="M177" s="57"/>
+      <c r="N177" s="57"/>
+      <c r="O177" s="57"/>
+      <c r="P177" s="57"/>
       <c r="Q177" s="9">
         <v>41778</v>
       </c>
@@ -13223,7 +13225,7 @@
         <v>5</v>
       </c>
       <c r="V177" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W177" s="3" t="s">
         <v>28</v>
@@ -13245,10 +13247,10 @@
         <v>67194</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E178" s="39"/>
       <c r="F178" s="39" t="s">
@@ -13257,17 +13259,17 @@
       <c r="G178" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H178" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="I178" s="58"/>
-      <c r="J178" s="58"/>
-      <c r="K178" s="58"/>
-      <c r="L178" s="58"/>
-      <c r="M178" s="58"/>
-      <c r="N178" s="58"/>
-      <c r="O178" s="58"/>
-      <c r="P178" s="58"/>
+      <c r="H178" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I178" s="57"/>
+      <c r="J178" s="57"/>
+      <c r="K178" s="57"/>
+      <c r="L178" s="57"/>
+      <c r="M178" s="57"/>
+      <c r="N178" s="57"/>
+      <c r="O178" s="57"/>
+      <c r="P178" s="57"/>
       <c r="Q178" s="9">
         <v>41778</v>
       </c>
@@ -13284,7 +13286,7 @@
         <v>5</v>
       </c>
       <c r="V178" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W178" s="3" t="s">
         <v>28</v>
@@ -13306,10 +13308,10 @@
         <v>67196</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E179" s="13"/>
       <c r="F179" s="13" t="s">
@@ -13318,17 +13320,17 @@
       <c r="G179" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H179" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="I179" s="58"/>
-      <c r="J179" s="58"/>
-      <c r="K179" s="58"/>
-      <c r="L179" s="58"/>
-      <c r="M179" s="58"/>
-      <c r="N179" s="58"/>
-      <c r="O179" s="58"/>
-      <c r="P179" s="58"/>
+      <c r="H179" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I179" s="57"/>
+      <c r="J179" s="57"/>
+      <c r="K179" s="57"/>
+      <c r="L179" s="57"/>
+      <c r="M179" s="57"/>
+      <c r="N179" s="57"/>
+      <c r="O179" s="57"/>
+      <c r="P179" s="57"/>
       <c r="Q179" s="9">
         <v>41778</v>
       </c>
@@ -13345,7 +13347,7 @@
         <v>5</v>
       </c>
       <c r="V179" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W179" s="3" t="s">
         <v>28</v>
@@ -13367,10 +13369,10 @@
         <v>67211</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E180" s="13"/>
       <c r="F180" s="13" t="s">
@@ -13379,17 +13381,17 @@
       <c r="G180" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H180" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I180" s="46"/>
-      <c r="J180" s="46"/>
-      <c r="K180" s="46"/>
-      <c r="L180" s="46"/>
-      <c r="M180" s="46"/>
-      <c r="N180" s="46"/>
-      <c r="O180" s="46"/>
-      <c r="P180" s="46"/>
+      <c r="H180" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I180" s="45"/>
+      <c r="J180" s="45"/>
+      <c r="K180" s="45"/>
+      <c r="L180" s="45"/>
+      <c r="M180" s="45"/>
+      <c r="N180" s="45"/>
+      <c r="O180" s="45"/>
+      <c r="P180" s="45"/>
       <c r="Q180" s="41">
         <v>41778</v>
       </c>
@@ -13406,13 +13408,13 @@
         <v>5</v>
       </c>
       <c r="V180" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W180" s="27" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="X180" s="27" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y180" s="27"/>
       <c r="Z180" s="27"/>
@@ -13428,10 +13430,10 @@
         <v>67219</v>
       </c>
       <c r="C181" s="13" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E181" s="13"/>
       <c r="F181" s="13" t="s">
@@ -13440,17 +13442,17 @@
       <c r="G181" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H181" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I181" s="46"/>
-      <c r="J181" s="46"/>
-      <c r="K181" s="46"/>
-      <c r="L181" s="46"/>
-      <c r="M181" s="46"/>
-      <c r="N181" s="46"/>
-      <c r="O181" s="46"/>
-      <c r="P181" s="46"/>
+      <c r="H181" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I181" s="45"/>
+      <c r="J181" s="45"/>
+      <c r="K181" s="45"/>
+      <c r="L181" s="45"/>
+      <c r="M181" s="45"/>
+      <c r="N181" s="45"/>
+      <c r="O181" s="45"/>
+      <c r="P181" s="45"/>
       <c r="Q181" s="41">
         <v>41778</v>
       </c>
@@ -13467,13 +13469,13 @@
         <v>5</v>
       </c>
       <c r="V181" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W181" s="27" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="X181" s="27" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y181" s="27"/>
       <c r="Z181" s="27"/>
@@ -13489,10 +13491,10 @@
         <v>67225</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E182" s="13"/>
       <c r="F182" s="13" t="s">
@@ -13501,17 +13503,17 @@
       <c r="G182" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H182" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="I182" s="58"/>
-      <c r="J182" s="58"/>
-      <c r="K182" s="58"/>
-      <c r="L182" s="58"/>
-      <c r="M182" s="58"/>
-      <c r="N182" s="58"/>
-      <c r="O182" s="58"/>
-      <c r="P182" s="58"/>
+      <c r="H182" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I182" s="57"/>
+      <c r="J182" s="57"/>
+      <c r="K182" s="57"/>
+      <c r="L182" s="57"/>
+      <c r="M182" s="57"/>
+      <c r="N182" s="57"/>
+      <c r="O182" s="57"/>
+      <c r="P182" s="57"/>
       <c r="Q182" s="9">
         <v>41778</v>
       </c>
@@ -13528,13 +13530,13 @@
         <v>5</v>
       </c>
       <c r="V182" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W182" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="X182" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
@@ -13550,10 +13552,10 @@
         <v>67232</v>
       </c>
       <c r="C183" s="13" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E183" s="39"/>
       <c r="F183" s="39" t="s">
@@ -13562,17 +13564,17 @@
       <c r="G183" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H183" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I183" s="46"/>
-      <c r="J183" s="46"/>
-      <c r="K183" s="46"/>
-      <c r="L183" s="46"/>
-      <c r="M183" s="46"/>
-      <c r="N183" s="46"/>
-      <c r="O183" s="46"/>
-      <c r="P183" s="46"/>
+      <c r="H183" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I183" s="45"/>
+      <c r="J183" s="45"/>
+      <c r="K183" s="45"/>
+      <c r="L183" s="45"/>
+      <c r="M183" s="45"/>
+      <c r="N183" s="45"/>
+      <c r="O183" s="45"/>
+      <c r="P183" s="45"/>
       <c r="Q183" s="41">
         <v>41778</v>
       </c>
@@ -13589,13 +13591,13 @@
         <v>5</v>
       </c>
       <c r="V183" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W183" s="27" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="X183" s="27" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y183" s="27"/>
       <c r="Z183" s="27"/>
@@ -13611,10 +13613,10 @@
         <v>67237</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E184" s="10"/>
       <c r="F184" s="10" t="s">
@@ -13623,17 +13625,17 @@
       <c r="G184" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H184" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="I184" s="58"/>
-      <c r="J184" s="58"/>
-      <c r="K184" s="58"/>
-      <c r="L184" s="58"/>
-      <c r="M184" s="58"/>
-      <c r="N184" s="58"/>
-      <c r="O184" s="58"/>
-      <c r="P184" s="58"/>
+      <c r="H184" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I184" s="57"/>
+      <c r="J184" s="57"/>
+      <c r="K184" s="57"/>
+      <c r="L184" s="57"/>
+      <c r="M184" s="57"/>
+      <c r="N184" s="57"/>
+      <c r="O184" s="57"/>
+      <c r="P184" s="57"/>
       <c r="Q184" s="9">
         <v>41778</v>
       </c>
@@ -13650,7 +13652,7 @@
         <v>5</v>
       </c>
       <c r="V184" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W184" s="3" t="s">
         <v>28</v>
@@ -13672,10 +13674,10 @@
         <v>67252</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E185" s="13"/>
       <c r="F185" s="13" t="s">
@@ -13684,17 +13686,17 @@
       <c r="G185" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H185" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I185" s="46"/>
-      <c r="J185" s="46"/>
-      <c r="K185" s="46"/>
-      <c r="L185" s="46"/>
-      <c r="M185" s="46"/>
-      <c r="N185" s="46"/>
-      <c r="O185" s="46"/>
-      <c r="P185" s="46"/>
+      <c r="H185" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I185" s="45"/>
+      <c r="J185" s="45"/>
+      <c r="K185" s="45"/>
+      <c r="L185" s="45"/>
+      <c r="M185" s="45"/>
+      <c r="N185" s="45"/>
+      <c r="O185" s="45"/>
+      <c r="P185" s="45"/>
       <c r="Q185" s="41">
         <v>41778</v>
       </c>
@@ -13711,7 +13713,7 @@
         <v>5</v>
       </c>
       <c r="V185" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W185" s="27" t="s">
         <v>28</v>
@@ -13733,10 +13735,10 @@
         <v>67257</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E186" s="10"/>
       <c r="F186" s="10" t="s">
@@ -13745,17 +13747,17 @@
       <c r="G186" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H186" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="I186" s="58"/>
-      <c r="J186" s="58"/>
-      <c r="K186" s="58"/>
-      <c r="L186" s="58"/>
-      <c r="M186" s="58"/>
-      <c r="N186" s="58"/>
-      <c r="O186" s="58"/>
-      <c r="P186" s="58"/>
+      <c r="H186" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I186" s="57"/>
+      <c r="J186" s="57"/>
+      <c r="K186" s="57"/>
+      <c r="L186" s="57"/>
+      <c r="M186" s="57"/>
+      <c r="N186" s="57"/>
+      <c r="O186" s="57"/>
+      <c r="P186" s="57"/>
       <c r="Q186" s="9">
         <v>41778</v>
       </c>
@@ -13772,7 +13774,7 @@
         <v>5</v>
       </c>
       <c r="V186" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W186" s="3" t="s">
         <v>28</v>
@@ -13794,10 +13796,10 @@
         <v>67267</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E187" s="13"/>
       <c r="F187" s="13" t="s">
@@ -13806,17 +13808,17 @@
       <c r="G187" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H187" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I187" s="46"/>
-      <c r="J187" s="46"/>
-      <c r="K187" s="46"/>
-      <c r="L187" s="46"/>
-      <c r="M187" s="46"/>
-      <c r="N187" s="46"/>
-      <c r="O187" s="46"/>
-      <c r="P187" s="46"/>
+      <c r="H187" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I187" s="45"/>
+      <c r="J187" s="45"/>
+      <c r="K187" s="45"/>
+      <c r="L187" s="45"/>
+      <c r="M187" s="45"/>
+      <c r="N187" s="45"/>
+      <c r="O187" s="45"/>
+      <c r="P187" s="45"/>
       <c r="Q187" s="41">
         <v>41778</v>
       </c>
@@ -13833,7 +13835,7 @@
         <v>5</v>
       </c>
       <c r="V187" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W187" s="27" t="s">
         <v>28</v>
@@ -13855,10 +13857,10 @@
         <v>67297</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E188" s="13"/>
       <c r="F188" s="13" t="s">
@@ -13867,17 +13869,17 @@
       <c r="G188" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H188" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I188" s="46"/>
-      <c r="J188" s="46"/>
-      <c r="K188" s="46"/>
-      <c r="L188" s="46"/>
-      <c r="M188" s="46"/>
-      <c r="N188" s="46"/>
-      <c r="O188" s="46"/>
-      <c r="P188" s="46"/>
+      <c r="H188" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I188" s="45"/>
+      <c r="J188" s="45"/>
+      <c r="K188" s="45"/>
+      <c r="L188" s="45"/>
+      <c r="M188" s="45"/>
+      <c r="N188" s="45"/>
+      <c r="O188" s="45"/>
+      <c r="P188" s="45"/>
       <c r="Q188" s="41">
         <v>41778</v>
       </c>
@@ -13894,7 +13896,7 @@
         <v>5</v>
       </c>
       <c r="V188" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W188" s="27" t="s">
         <v>28</v>
@@ -13916,10 +13918,10 @@
         <v>67300</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E189" s="13"/>
       <c r="F189" s="13" t="s">
@@ -13928,17 +13930,17 @@
       <c r="G189" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H189" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I189" s="46"/>
-      <c r="J189" s="46"/>
-      <c r="K189" s="46"/>
-      <c r="L189" s="46"/>
-      <c r="M189" s="46"/>
-      <c r="N189" s="46"/>
-      <c r="O189" s="46"/>
-      <c r="P189" s="46"/>
+      <c r="H189" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I189" s="45"/>
+      <c r="J189" s="45"/>
+      <c r="K189" s="45"/>
+      <c r="L189" s="45"/>
+      <c r="M189" s="45"/>
+      <c r="N189" s="45"/>
+      <c r="O189" s="45"/>
+      <c r="P189" s="45"/>
       <c r="Q189" s="41">
         <v>41778</v>
       </c>
@@ -13955,7 +13957,7 @@
         <v>5</v>
       </c>
       <c r="V189" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W189" s="27" t="s">
         <v>28</v>
@@ -13977,10 +13979,10 @@
         <v>76170</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E190" s="13"/>
       <c r="F190" s="13" t="s">
@@ -13989,17 +13991,17 @@
       <c r="G190" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H190" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I190" s="46"/>
-      <c r="J190" s="46"/>
-      <c r="K190" s="46"/>
-      <c r="L190" s="46"/>
-      <c r="M190" s="46"/>
-      <c r="N190" s="46"/>
-      <c r="O190" s="46"/>
-      <c r="P190" s="46"/>
+      <c r="H190" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I190" s="45"/>
+      <c r="J190" s="45"/>
+      <c r="K190" s="45"/>
+      <c r="L190" s="45"/>
+      <c r="M190" s="45"/>
+      <c r="N190" s="45"/>
+      <c r="O190" s="45"/>
+      <c r="P190" s="45"/>
       <c r="Q190" s="41">
         <v>41778</v>
       </c>
@@ -14016,7 +14018,7 @@
         <v>5</v>
       </c>
       <c r="V190" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W190" s="27" t="s">
         <v>14</v>
@@ -14038,10 +14040,10 @@
         <v>76777</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E191" s="13"/>
       <c r="F191" s="13" t="s">
@@ -14050,17 +14052,17 @@
       <c r="G191" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H191" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I191" s="46"/>
-      <c r="J191" s="46"/>
-      <c r="K191" s="46"/>
-      <c r="L191" s="46"/>
-      <c r="M191" s="46"/>
-      <c r="N191" s="46"/>
-      <c r="O191" s="46"/>
-      <c r="P191" s="46"/>
+      <c r="H191" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I191" s="45"/>
+      <c r="J191" s="45"/>
+      <c r="K191" s="45"/>
+      <c r="L191" s="45"/>
+      <c r="M191" s="45"/>
+      <c r="N191" s="45"/>
+      <c r="O191" s="45"/>
+      <c r="P191" s="45"/>
       <c r="Q191" s="41">
         <v>42346</v>
       </c>
@@ -14077,7 +14079,7 @@
         <v>5</v>
       </c>
       <c r="V191" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W191" s="27" t="s">
         <v>14</v>
@@ -14099,10 +14101,10 @@
         <v>98284</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E192" s="13"/>
       <c r="F192" s="13" t="s">
@@ -14111,17 +14113,17 @@
       <c r="G192" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H192" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I192" s="46"/>
-      <c r="J192" s="46"/>
-      <c r="K192" s="46"/>
-      <c r="L192" s="46"/>
-      <c r="M192" s="46"/>
-      <c r="N192" s="46"/>
-      <c r="O192" s="46"/>
-      <c r="P192" s="46"/>
+      <c r="H192" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I192" s="45"/>
+      <c r="J192" s="45"/>
+      <c r="K192" s="45"/>
+      <c r="L192" s="45"/>
+      <c r="M192" s="45"/>
+      <c r="N192" s="45"/>
+      <c r="O192" s="45"/>
+      <c r="P192" s="45"/>
       <c r="Q192" s="41">
         <v>41913</v>
       </c>
@@ -14138,7 +14140,7 @@
         <v>5</v>
       </c>
       <c r="V192" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W192" s="27" t="s">
         <v>14</v>
@@ -14160,10 +14162,10 @@
         <v>141775</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E193" s="13"/>
       <c r="F193" s="13" t="s">
@@ -14172,8 +14174,8 @@
       <c r="G193" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H193" s="16" t="s">
-        <v>2</v>
+      <c r="H193" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I193" s="16"/>
       <c r="J193" s="16"/>
@@ -14202,10 +14204,10 @@
         <v>0</v>
       </c>
       <c r="W193" s="16" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="X193" s="16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Y193" s="16"/>
       <c r="Z193" s="16"/>
@@ -14233,24 +14235,24 @@
       <c r="G194" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H194" s="16" t="s">
-        <v>2</v>
+      <c r="H194" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J194" s="16" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K194" s="16" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L194" s="16"/>
       <c r="M194" s="16"/>
-      <c r="N194" s="16"/>
-      <c r="O194" s="16" t="s">
-        <v>2</v>
-      </c>
+      <c r="N194" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O194" s="16"/>
       <c r="P194" s="16"/>
       <c r="Q194" s="41">
         <v>41676</v>
@@ -14300,18 +14302,18 @@
       <c r="G195" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H195" s="40" t="s">
-        <v>2</v>
+      <c r="H195" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I195" s="3"/>
-      <c r="J195" s="58"/>
-      <c r="K195" s="58"/>
-      <c r="L195" s="58"/>
-      <c r="M195" s="58"/>
-      <c r="N195" s="58"/>
-      <c r="O195" s="16" t="s">
-        <v>2</v>
-      </c>
+      <c r="J195" s="57"/>
+      <c r="K195" s="57"/>
+      <c r="L195" s="57"/>
+      <c r="M195" s="57"/>
+      <c r="N195" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O195" s="40"/>
       <c r="P195" s="40"/>
       <c r="Q195" s="23">
         <v>41913</v>
@@ -14363,18 +14365,18 @@
       <c r="G196" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H196" s="29" t="s">
-        <v>2</v>
+      <c r="H196" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I196" s="3"/>
-      <c r="J196" s="46"/>
-      <c r="K196" s="46"/>
-      <c r="L196" s="46"/>
-      <c r="M196" s="46"/>
-      <c r="N196" s="46"/>
-      <c r="O196" s="16" t="s">
-        <v>2</v>
-      </c>
+      <c r="J196" s="45"/>
+      <c r="K196" s="45"/>
+      <c r="L196" s="45"/>
+      <c r="M196" s="45"/>
+      <c r="N196" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O196" s="29"/>
       <c r="P196" s="29"/>
       <c r="Q196" s="21">
         <v>41778</v>
@@ -14426,18 +14428,18 @@
       <c r="G197" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H197" s="29" t="s">
-        <v>2</v>
+      <c r="H197" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I197" s="3"/>
-      <c r="J197" s="46"/>
-      <c r="K197" s="46"/>
-      <c r="L197" s="46"/>
-      <c r="M197" s="46"/>
-      <c r="N197" s="46"/>
-      <c r="O197" s="16" t="s">
-        <v>2</v>
-      </c>
+      <c r="J197" s="45"/>
+      <c r="K197" s="45"/>
+      <c r="L197" s="45"/>
+      <c r="M197" s="45"/>
+      <c r="N197" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O197" s="29"/>
       <c r="P197" s="29"/>
       <c r="Q197" s="23">
         <v>41778</v>
@@ -14489,24 +14491,24 @@
       <c r="G198" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H198" s="16" t="s">
-        <v>4</v>
+      <c r="H198" s="15" t="s">
+        <v>2</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J198" s="16" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K198" s="16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L198" s="16"/>
       <c r="M198" s="16"/>
-      <c r="N198" s="16"/>
-      <c r="O198" s="16" t="s">
-        <v>2</v>
-      </c>
+      <c r="N198" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O198" s="16"/>
       <c r="P198" s="16"/>
       <c r="Q198" s="41">
         <v>41794</v>
@@ -14558,18 +14560,18 @@
       <c r="G199" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H199" s="2" t="s">
-        <v>2</v>
+      <c r="H199" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I199" s="3"/>
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
       <c r="L199" s="2"/>
       <c r="M199" s="2"/>
-      <c r="N199" s="2"/>
-      <c r="O199" s="16" t="s">
-        <v>2</v>
-      </c>
+      <c r="N199" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O199" s="2"/>
       <c r="P199" s="2"/>
       <c r="Q199" s="9" t="s">
         <v>59</v>
@@ -14617,24 +14619,24 @@
       <c r="G200" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H200" s="16" t="s">
-        <v>2</v>
+      <c r="H200" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I200" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J200" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K200" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L200" s="16"/>
       <c r="M200" s="16"/>
-      <c r="N200" s="16"/>
-      <c r="O200" s="16" t="s">
-        <v>2</v>
-      </c>
+      <c r="N200" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O200" s="16"/>
       <c r="P200" s="16"/>
       <c r="Q200" s="41">
         <v>41687</v>
@@ -14684,18 +14686,18 @@
       <c r="G201" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H201" s="29" t="s">
-        <v>2</v>
+      <c r="H201" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I201" s="3"/>
-      <c r="J201" s="46"/>
-      <c r="K201" s="46"/>
-      <c r="L201" s="46"/>
-      <c r="M201" s="46"/>
-      <c r="N201" s="46"/>
-      <c r="O201" s="16" t="s">
-        <v>2</v>
-      </c>
+      <c r="J201" s="45"/>
+      <c r="K201" s="45"/>
+      <c r="L201" s="45"/>
+      <c r="M201" s="45"/>
+      <c r="N201" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O201" s="29"/>
       <c r="P201" s="29"/>
       <c r="Q201" s="21">
         <v>42054</v>
@@ -14747,18 +14749,18 @@
       <c r="G202" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H202" s="40" t="s">
-        <v>2</v>
+      <c r="H202" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I202" s="3"/>
-      <c r="J202" s="58"/>
-      <c r="K202" s="58"/>
-      <c r="L202" s="58"/>
-      <c r="M202" s="58"/>
-      <c r="N202" s="58"/>
-      <c r="O202" s="16" t="s">
-        <v>2</v>
-      </c>
+      <c r="J202" s="57"/>
+      <c r="K202" s="57"/>
+      <c r="L202" s="57"/>
+      <c r="M202" s="57"/>
+      <c r="N202" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O202" s="40"/>
       <c r="P202" s="40"/>
       <c r="Q202" s="23">
         <v>42346</v>
@@ -14810,18 +14812,18 @@
       <c r="G203" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="H203" s="40" t="s">
-        <v>2</v>
+      <c r="H203" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I203" s="3"/>
-      <c r="J203" s="58"/>
-      <c r="K203" s="58"/>
-      <c r="L203" s="58"/>
-      <c r="M203" s="58"/>
-      <c r="N203" s="58"/>
-      <c r="O203" s="16" t="s">
-        <v>2</v>
-      </c>
+      <c r="J203" s="57"/>
+      <c r="K203" s="57"/>
+      <c r="L203" s="57"/>
+      <c r="M203" s="57"/>
+      <c r="N203" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O203" s="40"/>
       <c r="P203" s="40"/>
       <c r="Q203" s="23">
         <v>42346</v>
@@ -14873,18 +14875,18 @@
       <c r="G204" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H204" s="40" t="s">
-        <v>2</v>
+      <c r="H204" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I204" s="3"/>
-      <c r="J204" s="58"/>
-      <c r="K204" s="58"/>
-      <c r="L204" s="58"/>
-      <c r="M204" s="58"/>
-      <c r="N204" s="58"/>
-      <c r="O204" s="16" t="s">
-        <v>2</v>
-      </c>
+      <c r="J204" s="57"/>
+      <c r="K204" s="57"/>
+      <c r="L204" s="57"/>
+      <c r="M204" s="57"/>
+      <c r="N204" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O204" s="40"/>
       <c r="P204" s="40"/>
       <c r="Q204" s="23">
         <v>42054</v>
@@ -14936,18 +14938,18 @@
       <c r="G205" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H205" s="40" t="s">
-        <v>2</v>
+      <c r="H205" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I205" s="3"/>
-      <c r="J205" s="58"/>
-      <c r="K205" s="58"/>
-      <c r="L205" s="58"/>
-      <c r="M205" s="58"/>
-      <c r="N205" s="58"/>
-      <c r="O205" s="16" t="s">
-        <v>2</v>
-      </c>
+      <c r="J205" s="57"/>
+      <c r="K205" s="57"/>
+      <c r="L205" s="57"/>
+      <c r="M205" s="57"/>
+      <c r="N205" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O205" s="40"/>
       <c r="P205" s="40"/>
       <c r="Q205" s="23">
         <v>41778</v>
@@ -14999,18 +15001,18 @@
       <c r="G206" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="H206" s="29" t="s">
-        <v>2</v>
+      <c r="H206" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I206" s="3"/>
-      <c r="J206" s="46"/>
-      <c r="K206" s="46"/>
-      <c r="L206" s="46"/>
-      <c r="M206" s="46"/>
-      <c r="N206" s="46"/>
-      <c r="O206" s="16" t="s">
-        <v>2</v>
-      </c>
+      <c r="J206" s="45"/>
+      <c r="K206" s="45"/>
+      <c r="L206" s="45"/>
+      <c r="M206" s="45"/>
+      <c r="N206" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O206" s="29"/>
       <c r="P206" s="29"/>
       <c r="Q206" s="21">
         <v>42054</v>
@@ -15062,18 +15064,18 @@
       <c r="G207" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="H207" s="40" t="s">
-        <v>2</v>
+      <c r="H207" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I207" s="3"/>
-      <c r="J207" s="58"/>
-      <c r="K207" s="58"/>
-      <c r="L207" s="58"/>
-      <c r="M207" s="58"/>
-      <c r="N207" s="58"/>
-      <c r="O207" s="16" t="s">
-        <v>2</v>
-      </c>
+      <c r="J207" s="57"/>
+      <c r="K207" s="57"/>
+      <c r="L207" s="57"/>
+      <c r="M207" s="57"/>
+      <c r="N207" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O207" s="40"/>
       <c r="P207" s="40"/>
       <c r="Q207" s="23">
         <v>42054</v>
@@ -15125,18 +15127,18 @@
       <c r="G208" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="H208" s="40" t="s">
-        <v>2</v>
+      <c r="H208" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I208" s="3"/>
-      <c r="J208" s="58"/>
-      <c r="K208" s="58"/>
-      <c r="L208" s="58"/>
-      <c r="M208" s="58"/>
-      <c r="N208" s="58"/>
-      <c r="O208" s="16" t="s">
-        <v>2</v>
-      </c>
+      <c r="J208" s="57"/>
+      <c r="K208" s="57"/>
+      <c r="L208" s="57"/>
+      <c r="M208" s="57"/>
+      <c r="N208" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O208" s="40"/>
       <c r="P208" s="40"/>
       <c r="Q208" s="23">
         <v>42346</v>
@@ -15188,18 +15190,18 @@
       <c r="G209" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="H209" s="18" t="s">
-        <v>2</v>
+      <c r="H209" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I209" s="3"/>
       <c r="J209" s="16"/>
       <c r="K209" s="16"/>
       <c r="L209" s="16"/>
       <c r="M209" s="16"/>
-      <c r="N209" s="16"/>
-      <c r="O209" s="16" t="s">
-        <v>2</v>
-      </c>
+      <c r="N209" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O209" s="18"/>
       <c r="P209" s="18"/>
       <c r="Q209" s="21">
         <v>42107</v>
@@ -15251,31 +15253,31 @@
       <c r="G210" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H210" s="45" t="s">
-        <v>2</v>
+      <c r="H210" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I210" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J210" s="16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K210" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="L210" s="45"/>
-      <c r="M210" s="45"/>
-      <c r="N210" s="45">
-        <v>2</v>
-      </c>
-      <c r="O210" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="P210" s="45"/>
+        <v>251</v>
+      </c>
+      <c r="L210" s="44"/>
+      <c r="M210" s="44">
+        <v>2</v>
+      </c>
+      <c r="N210" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O210" s="44"/>
+      <c r="P210" s="44"/>
       <c r="Q210" s="41">
         <v>42278</v>
       </c>
-      <c r="R210" s="43">
+      <c r="R210" s="42">
         <v>167</v>
       </c>
       <c r="S210" s="7">
@@ -15320,20 +15322,20 @@
       <c r="G211" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H211" s="29" t="s">
-        <v>2</v>
+      <c r="H211" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="I211" s="3"/>
-      <c r="J211" s="46"/>
-      <c r="K211" s="46"/>
-      <c r="L211" s="46"/>
-      <c r="M211" s="46"/>
-      <c r="N211" s="46">
-        <v>2</v>
-      </c>
-      <c r="O211" s="46" t="s">
-        <v>4</v>
-      </c>
+      <c r="J211" s="45"/>
+      <c r="K211" s="45"/>
+      <c r="L211" s="45"/>
+      <c r="M211" s="45">
+        <v>2</v>
+      </c>
+      <c r="N211" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="O211" s="29"/>
       <c r="P211" s="29"/>
       <c r="Q211" s="21">
         <v>42278</v>
@@ -15369,7 +15371,7 @@
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="Q1:Y1"/>
-    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="D1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -15,7 +15,7 @@
     <sheet name="1. Content items" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$2:$V$215</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$2:$V$216</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="363">
   <si>
     <t>Work in progress</t>
   </si>
@@ -1116,6 +1116,12 @@
   </si>
   <si>
     <t>DCAT application profile for data portals in Europe</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dublin ubuntu bug jam </t>
   </si>
 </sst>
 </file>
@@ -1825,8 +1831,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A2:AA215" totalsRowShown="0" headerRowDxfId="24">
-  <autoFilter ref="A2:AA215"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A2:AA216" totalsRowShown="0" headerRowDxfId="24">
+  <autoFilter ref="A2:AA216"/>
   <sortState ref="A13187:X13200">
     <sortCondition ref="D2:D13200"/>
   </sortState>
@@ -2129,7 +2135,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:AA215"/>
+  <dimension ref="A1:AA216"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -5251,18 +5257,18 @@
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B50" s="12">
-        <v>63578</v>
+        <v>30107</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E50" s="2"/>
+      <c r="E50" s="15"/>
       <c r="F50" s="15" t="s">
         <v>23</v>
       </c>
@@ -5277,236 +5283,206 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
-      <c r="N50" s="44" t="s">
-        <v>2</v>
-      </c>
+      <c r="N50" s="38"/>
       <c r="O50" s="2"/>
       <c r="P50" s="63"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="32"/>
       <c r="S50" s="7"/>
-      <c r="T50" s="7"/>
+      <c r="T50" s="37"/>
       <c r="U50" s="4"/>
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
       <c r="Y50" s="4"/>
-      <c r="AA50" s="2"/>
+      <c r="AA50" s="15"/>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B51" s="12">
+        <v>63578</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" s="63"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="AA51" s="2"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A52" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="27">
+      <c r="B52" s="27">
         <v>59642</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C52" s="27" t="s">
         <v>134</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="J51" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="K51" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="41">
-        <v>42144</v>
-      </c>
-      <c r="R51" s="37">
-        <v>647</v>
-      </c>
-      <c r="S51" s="37">
-        <v>1</v>
-      </c>
-      <c r="T51" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="U51" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="V51" s="16"/>
-      <c r="W51" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="X51" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y51" s="16"/>
-      <c r="Z51" s="16"/>
-      <c r="AA51" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A52" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="13">
-        <v>59679</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>135</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13" t="s">
+      <c r="E52" s="15"/>
+      <c r="F52" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="26" t="s">
+      <c r="G52" s="15" t="s">
         <v>4</v>
       </c>
       <c r="H52" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="29"/>
-      <c r="N52" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" s="29"/>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="21">
+      <c r="I52" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="J52" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="41">
+        <v>42144</v>
+      </c>
+      <c r="R52" s="37">
+        <v>647</v>
+      </c>
+      <c r="S52" s="37">
+        <v>1</v>
+      </c>
+      <c r="T52" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U52" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="16"/>
+      <c r="W52" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="X52" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y52" s="16"/>
+      <c r="Z52" s="16"/>
+      <c r="AA52" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A53" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="13">
+        <v>59679</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="M53" s="29"/>
+      <c r="N53" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="21">
         <v>42054</v>
       </c>
-      <c r="R52" s="14">
+      <c r="R53" s="14">
         <v>738</v>
       </c>
-      <c r="S52" s="22">
-        <v>0</v>
-      </c>
-      <c r="T52" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="U52" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="27" t="s">
+      <c r="S53" s="22">
+        <v>0</v>
+      </c>
+      <c r="T53" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U53" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V53" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="W52" s="27" t="s">
+      <c r="W53" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="X52" s="27" t="s">
+      <c r="X53" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="Y52" s="27"/>
-      <c r="Z52" s="27"/>
-      <c r="AA52" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A53" s="16" t="s">
+      <c r="Y53" s="27"/>
+      <c r="Z53" s="27"/>
+      <c r="AA53" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A54" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B54" s="15">
         <v>123556</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C54" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H53" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="J53" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="K53" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16">
-        <v>2</v>
-      </c>
-      <c r="N53" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="41">
-        <v>42293</v>
-      </c>
-      <c r="R53" s="20">
-        <v>132</v>
-      </c>
-      <c r="S53" s="37">
-        <v>0</v>
-      </c>
-      <c r="T53" s="37">
-        <v>41</v>
-      </c>
-      <c r="U53" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="V53" s="16"/>
-      <c r="W53" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="X53" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y53" s="16"/>
-      <c r="Z53" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA53" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" ht="26" x14ac:dyDescent="0.15">
-      <c r="A54" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" s="15">
-        <v>59073</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="E54" s="15"/>
       <c r="F54" s="15" t="s">
@@ -5519,110 +5495,118 @@
         <v>4</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J54" s="16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K54" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
+      <c r="M54" s="16">
+        <v>2</v>
+      </c>
       <c r="N54" s="16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O54" s="16"/>
       <c r="P54" s="16"/>
       <c r="Q54" s="41">
-        <v>41458</v>
-      </c>
-      <c r="R54" s="37">
-        <v>1624</v>
+        <v>42293</v>
+      </c>
+      <c r="R54" s="20">
+        <v>132</v>
       </c>
       <c r="S54" s="37">
-        <v>31</v>
-      </c>
-      <c r="T54" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="U54" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="V54" s="15"/>
-      <c r="W54" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="X54" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y54" s="15"/>
-      <c r="Z54" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="T54" s="37">
+        <v>41</v>
+      </c>
+      <c r="U54" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="16"/>
+      <c r="W54" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="X54" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y54" s="16"/>
+      <c r="Z54" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA54" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" ht="26" x14ac:dyDescent="0.15">
+      <c r="A55" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="15">
+        <v>59073</v>
+      </c>
+      <c r="C55" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="AA54" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A55" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" s="13">
-        <v>59098</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>130</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13" t="s">
+      <c r="E55" s="15"/>
+      <c r="F55" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G55" s="26" t="s">
+      <c r="G55" s="15" t="s">
         <v>2</v>
       </c>
       <c r="H55" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
+      <c r="I55" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="J55" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="K55" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
       <c r="N55" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="O55" s="29"/>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="21">
-        <v>42347</v>
-      </c>
-      <c r="R55" s="14">
-        <v>421</v>
-      </c>
-      <c r="S55" s="19">
-        <v>0</v>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="41">
+        <v>41458</v>
+      </c>
+      <c r="R55" s="37">
+        <v>1624</v>
+      </c>
+      <c r="S55" s="37">
+        <v>31</v>
       </c>
       <c r="T55" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="U55" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="V55" s="27" t="s">
+      <c r="U55" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="V55" s="15"/>
+      <c r="W55" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="X55" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y55" s="15"/>
+      <c r="Z55" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="W55" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="X55" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y55" s="27"/>
-      <c r="Z55" s="27"/>
       <c r="AA55" s="15" t="s">
         <v>0</v>
       </c>
@@ -5632,10 +5616,10 @@
         <v>10</v>
       </c>
       <c r="B56" s="13">
-        <v>59099</v>
+        <v>59098</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>99</v>
@@ -5664,7 +5648,7 @@
         <v>42347</v>
       </c>
       <c r="R56" s="14">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="S56" s="19">
         <v>0</v>
@@ -5695,10 +5679,10 @@
         <v>10</v>
       </c>
       <c r="B57" s="13">
-        <v>59101</v>
+        <v>59099</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>99</v>
@@ -5727,7 +5711,7 @@
         <v>42347</v>
       </c>
       <c r="R57" s="14">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="S57" s="19">
         <v>0</v>
@@ -5758,10 +5742,10 @@
         <v>10</v>
       </c>
       <c r="B58" s="13">
-        <v>63785</v>
+        <v>59101</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>99</v>
@@ -5787,12 +5771,12 @@
       <c r="O58" s="29"/>
       <c r="P58" s="29"/>
       <c r="Q58" s="21">
-        <v>42342</v>
+        <v>42347</v>
       </c>
       <c r="R58" s="14">
-        <v>302</v>
-      </c>
-      <c r="S58" s="22">
+        <v>335</v>
+      </c>
+      <c r="S58" s="19">
         <v>0</v>
       </c>
       <c r="T58" s="18" t="s">
@@ -5805,10 +5789,10 @@
         <v>99</v>
       </c>
       <c r="W58" s="27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="X58" s="27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y58" s="27"/>
       <c r="Z58" s="27"/>
@@ -5821,10 +5805,10 @@
         <v>10</v>
       </c>
       <c r="B59" s="13">
-        <v>63805</v>
+        <v>63785</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>99</v>
@@ -5853,7 +5837,7 @@
         <v>42342</v>
       </c>
       <c r="R59" s="14">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="S59" s="22">
         <v>0</v>
@@ -5884,10 +5868,10 @@
         <v>10</v>
       </c>
       <c r="B60" s="13">
-        <v>63807</v>
+        <v>63805</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>99</v>
@@ -5916,7 +5900,7 @@
         <v>42342</v>
       </c>
       <c r="R60" s="14">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="S60" s="22">
         <v>0</v>
@@ -5947,10 +5931,10 @@
         <v>10</v>
       </c>
       <c r="B61" s="13">
-        <v>63811</v>
+        <v>63807</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>99</v>
@@ -5979,7 +5963,7 @@
         <v>42342</v>
       </c>
       <c r="R61" s="14">
-        <v>210</v>
+        <v>302</v>
       </c>
       <c r="S61" s="22">
         <v>0</v>
@@ -6010,10 +5994,10 @@
         <v>10</v>
       </c>
       <c r="B62" s="13">
-        <v>63813</v>
+        <v>63811</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>99</v>
@@ -6042,7 +6026,7 @@
         <v>42342</v>
       </c>
       <c r="R62" s="14">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="S62" s="22">
         <v>0</v>
@@ -6073,10 +6057,10 @@
         <v>10</v>
       </c>
       <c r="B63" s="13">
-        <v>63816</v>
+        <v>63813</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>99</v>
@@ -6105,7 +6089,7 @@
         <v>42342</v>
       </c>
       <c r="R63" s="14">
-        <v>356</v>
+        <v>253</v>
       </c>
       <c r="S63" s="22">
         <v>0</v>
@@ -6136,10 +6120,10 @@
         <v>10</v>
       </c>
       <c r="B64" s="13">
-        <v>63818</v>
+        <v>63816</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>99</v>
@@ -6168,7 +6152,7 @@
         <v>42342</v>
       </c>
       <c r="R64" s="14">
-        <v>218</v>
+        <v>356</v>
       </c>
       <c r="S64" s="22">
         <v>0</v>
@@ -6199,10 +6183,10 @@
         <v>10</v>
       </c>
       <c r="B65" s="13">
-        <v>63820</v>
+        <v>63818</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>99</v>
@@ -6231,7 +6215,7 @@
         <v>42342</v>
       </c>
       <c r="R65" s="14">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="S65" s="22">
         <v>0</v>
@@ -6262,16 +6246,16 @@
         <v>10</v>
       </c>
       <c r="B66" s="13">
-        <v>63823</v>
+        <v>63820</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39" t="s">
+      <c r="E66" s="13"/>
+      <c r="F66" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G66" s="26" t="s">
@@ -6294,7 +6278,7 @@
         <v>42342</v>
       </c>
       <c r="R66" s="14">
-        <v>262</v>
+        <v>205</v>
       </c>
       <c r="S66" s="22">
         <v>0</v>
@@ -6325,16 +6309,16 @@
         <v>10</v>
       </c>
       <c r="B67" s="13">
-        <v>63834</v>
+        <v>63823</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13" t="s">
+      <c r="E67" s="39"/>
+      <c r="F67" s="39" t="s">
         <v>9</v>
       </c>
       <c r="G67" s="26" t="s">
@@ -6357,7 +6341,7 @@
         <v>42342</v>
       </c>
       <c r="R67" s="14">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="S67" s="22">
         <v>0</v>
@@ -6388,10 +6372,10 @@
         <v>10</v>
       </c>
       <c r="B68" s="13">
-        <v>63836</v>
+        <v>63834</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>99</v>
@@ -6417,10 +6401,10 @@
       <c r="O68" s="29"/>
       <c r="P68" s="29"/>
       <c r="Q68" s="21">
-        <v>42272</v>
+        <v>42342</v>
       </c>
       <c r="R68" s="14">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="S68" s="22">
         <v>0</v>
@@ -6451,10 +6435,10 @@
         <v>10</v>
       </c>
       <c r="B69" s="13">
-        <v>63838</v>
+        <v>63836</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>99</v>
@@ -6480,10 +6464,10 @@
       <c r="O69" s="29"/>
       <c r="P69" s="29"/>
       <c r="Q69" s="21">
-        <v>42342</v>
+        <v>42272</v>
       </c>
       <c r="R69" s="14">
-        <v>299</v>
+        <v>208</v>
       </c>
       <c r="S69" s="22">
         <v>0</v>
@@ -6514,10 +6498,10 @@
         <v>10</v>
       </c>
       <c r="B70" s="13">
-        <v>63840</v>
+        <v>63838</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>99</v>
@@ -6546,7 +6530,7 @@
         <v>42342</v>
       </c>
       <c r="R70" s="14">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="S70" s="22">
         <v>0</v>
@@ -6577,10 +6561,10 @@
         <v>10</v>
       </c>
       <c r="B71" s="13">
-        <v>63842</v>
+        <v>63840</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>99</v>
@@ -6609,7 +6593,7 @@
         <v>42342</v>
       </c>
       <c r="R71" s="14">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="S71" s="22">
         <v>0</v>
@@ -6640,10 +6624,10 @@
         <v>10</v>
       </c>
       <c r="B72" s="13">
-        <v>63849</v>
+        <v>63842</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>99</v>
@@ -6672,7 +6656,7 @@
         <v>42342</v>
       </c>
       <c r="R72" s="14">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="S72" s="22">
         <v>0</v>
@@ -6703,10 +6687,10 @@
         <v>10</v>
       </c>
       <c r="B73" s="13">
-        <v>63852</v>
+        <v>63849</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>99</v>
@@ -6735,7 +6719,7 @@
         <v>42342</v>
       </c>
       <c r="R73" s="14">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="S73" s="22">
         <v>0</v>
@@ -6766,10 +6750,10 @@
         <v>10</v>
       </c>
       <c r="B74" s="13">
-        <v>63855</v>
+        <v>63852</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>99</v>
@@ -6798,7 +6782,7 @@
         <v>42342</v>
       </c>
       <c r="R74" s="14">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="S74" s="22">
         <v>0</v>
@@ -6829,10 +6813,10 @@
         <v>10</v>
       </c>
       <c r="B75" s="13">
-        <v>63859</v>
+        <v>63855</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>99</v>
@@ -6861,7 +6845,7 @@
         <v>42342</v>
       </c>
       <c r="R75" s="14">
-        <v>283</v>
+        <v>211</v>
       </c>
       <c r="S75" s="22">
         <v>0</v>
@@ -6892,10 +6876,10 @@
         <v>10</v>
       </c>
       <c r="B76" s="13">
-        <v>63862</v>
+        <v>63859</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>99</v>
@@ -6924,7 +6908,7 @@
         <v>42342</v>
       </c>
       <c r="R76" s="14">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="S76" s="22">
         <v>0</v>
@@ -6955,10 +6939,10 @@
         <v>10</v>
       </c>
       <c r="B77" s="13">
-        <v>63873</v>
+        <v>63862</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>99</v>
@@ -6987,7 +6971,7 @@
         <v>42342</v>
       </c>
       <c r="R77" s="14">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="S77" s="22">
         <v>0</v>
@@ -7018,10 +7002,10 @@
         <v>10</v>
       </c>
       <c r="B78" s="13">
-        <v>75375</v>
+        <v>63873</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>99</v>
@@ -7047,12 +7031,12 @@
       <c r="O78" s="29"/>
       <c r="P78" s="29"/>
       <c r="Q78" s="21">
-        <v>42346</v>
+        <v>42342</v>
       </c>
       <c r="R78" s="14">
-        <v>240</v>
-      </c>
-      <c r="S78" s="19">
+        <v>285</v>
+      </c>
+      <c r="S78" s="22">
         <v>0</v>
       </c>
       <c r="T78" s="18" t="s">
@@ -7065,10 +7049,10 @@
         <v>99</v>
       </c>
       <c r="W78" s="27" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="X78" s="27" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="Y78" s="27"/>
       <c r="Z78" s="27"/>
@@ -7081,10 +7065,10 @@
         <v>10</v>
       </c>
       <c r="B79" s="13">
-        <v>75377</v>
+        <v>75375</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>99</v>
@@ -7113,7 +7097,7 @@
         <v>42346</v>
       </c>
       <c r="R79" s="14">
-        <v>184</v>
+        <v>240</v>
       </c>
       <c r="S79" s="19">
         <v>0</v>
@@ -7144,10 +7128,10 @@
         <v>10</v>
       </c>
       <c r="B80" s="13">
-        <v>75379</v>
+        <v>75377</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>99</v>
@@ -7176,7 +7160,7 @@
         <v>42346</v>
       </c>
       <c r="R80" s="14">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="S80" s="19">
         <v>0</v>
@@ -7207,10 +7191,10 @@
         <v>10</v>
       </c>
       <c r="B81" s="13">
-        <v>75381</v>
+        <v>75379</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>99</v>
@@ -7239,7 +7223,7 @@
         <v>42346</v>
       </c>
       <c r="R81" s="14">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="S81" s="19">
         <v>0</v>
@@ -7270,10 +7254,10 @@
         <v>10</v>
       </c>
       <c r="B82" s="13">
-        <v>75383</v>
+        <v>75381</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>99</v>
@@ -7302,9 +7286,9 @@
         <v>42346</v>
       </c>
       <c r="R82" s="14">
-        <v>178</v>
-      </c>
-      <c r="S82" s="22">
+        <v>251</v>
+      </c>
+      <c r="S82" s="19">
         <v>0</v>
       </c>
       <c r="T82" s="18" t="s">
@@ -7333,10 +7317,10 @@
         <v>10</v>
       </c>
       <c r="B83" s="13">
-        <v>75385</v>
+        <v>75383</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>99</v>
@@ -7365,9 +7349,9 @@
         <v>42346</v>
       </c>
       <c r="R83" s="14">
-        <v>227</v>
-      </c>
-      <c r="S83" s="19">
+        <v>178</v>
+      </c>
+      <c r="S83" s="22">
         <v>0</v>
       </c>
       <c r="T83" s="18" t="s">
@@ -7396,10 +7380,10 @@
         <v>10</v>
       </c>
       <c r="B84" s="13">
-        <v>75387</v>
+        <v>75385</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>99</v>
@@ -7428,9 +7412,9 @@
         <v>42346</v>
       </c>
       <c r="R84" s="14">
-        <v>160</v>
-      </c>
-      <c r="S84" s="22">
+        <v>227</v>
+      </c>
+      <c r="S84" s="19">
         <v>0</v>
       </c>
       <c r="T84" s="18" t="s">
@@ -7459,16 +7443,16 @@
         <v>10</v>
       </c>
       <c r="B85" s="13">
-        <v>75389</v>
+        <v>75387</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E85" s="39"/>
-      <c r="F85" s="39" t="s">
+      <c r="E85" s="13"/>
+      <c r="F85" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G85" s="26" t="s">
@@ -7491,7 +7475,7 @@
         <v>42346</v>
       </c>
       <c r="R85" s="14">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="S85" s="22">
         <v>0</v>
@@ -7518,131 +7502,131 @@
       </c>
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A86" s="44" t="s">
+      <c r="A86" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" s="13">
+        <v>75389</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E86" s="39"/>
+      <c r="F86" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H86" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I86" s="3"/>
+      <c r="J86" s="29"/>
+      <c r="K86" s="29"/>
+      <c r="L86" s="29"/>
+      <c r="M86" s="29"/>
+      <c r="N86" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O86" s="29"/>
+      <c r="P86" s="29"/>
+      <c r="Q86" s="21">
+        <v>42346</v>
+      </c>
+      <c r="R86" s="14">
+        <v>194</v>
+      </c>
+      <c r="S86" s="22">
+        <v>0</v>
+      </c>
+      <c r="T86" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U86" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V86" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="W86" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="X86" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y86" s="27"/>
+      <c r="Z86" s="27"/>
+      <c r="AA86" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A87" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B86" s="38">
+      <c r="B87" s="38">
         <v>61151</v>
       </c>
-      <c r="C86" s="38" t="s">
+      <c r="C87" s="38" t="s">
         <v>67</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="H86" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="J86" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="K86" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="L86" s="44"/>
-      <c r="M86" s="44"/>
-      <c r="N86" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="O86" s="44"/>
-      <c r="P86" s="44"/>
-      <c r="Q86" s="43">
-        <v>41306</v>
-      </c>
-      <c r="R86" s="42">
-        <v>996</v>
-      </c>
-      <c r="S86" s="37">
-        <v>26</v>
-      </c>
-      <c r="T86" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="U86" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="V86" s="16"/>
-      <c r="W86" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="X86" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y86" s="16"/>
-      <c r="Z86" s="16"/>
-      <c r="AA86" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A87" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B87" s="10">
-        <v>61158</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13" t="s">
+      <c r="E87" s="38"/>
+      <c r="F87" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G87" s="30" t="s">
+      <c r="G87" s="38" t="s">
         <v>2</v>
       </c>
       <c r="H87" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I87" s="3"/>
-      <c r="J87" s="57"/>
-      <c r="K87" s="57"/>
-      <c r="L87" s="40"/>
-      <c r="M87" s="40"/>
+      <c r="I87" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="J87" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="K87" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="L87" s="44"/>
+      <c r="M87" s="44"/>
       <c r="N87" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="O87" s="40"/>
-      <c r="P87" s="40"/>
-      <c r="Q87" s="23">
-        <v>42342</v>
-      </c>
-      <c r="R87" s="8">
-        <v>290</v>
-      </c>
-      <c r="S87" s="19">
-        <v>0</v>
+      <c r="O87" s="44"/>
+      <c r="P87" s="44"/>
+      <c r="Q87" s="43">
+        <v>41306</v>
+      </c>
+      <c r="R87" s="42">
+        <v>996</v>
+      </c>
+      <c r="S87" s="37">
+        <v>26</v>
       </c>
       <c r="T87" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="U87" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V87" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="W87" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="X87" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y87" s="3"/>
-      <c r="Z87" s="3"/>
+      <c r="U87" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="V87" s="16"/>
+      <c r="W87" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="X87" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y87" s="16"/>
+      <c r="Z87" s="16"/>
       <c r="AA87" s="15" t="s">
         <v>0</v>
       </c>
@@ -7652,10 +7636,10 @@
         <v>10</v>
       </c>
       <c r="B88" s="10">
-        <v>61165</v>
+        <v>61158</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>67</v>
@@ -7671,20 +7655,20 @@
         <v>4</v>
       </c>
       <c r="I88" s="3"/>
-      <c r="J88" s="45"/>
-      <c r="K88" s="45"/>
-      <c r="L88" s="29"/>
-      <c r="M88" s="29"/>
+      <c r="J88" s="57"/>
+      <c r="K88" s="57"/>
+      <c r="L88" s="40"/>
+      <c r="M88" s="40"/>
       <c r="N88" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="O88" s="29"/>
-      <c r="P88" s="29"/>
+      <c r="O88" s="40"/>
+      <c r="P88" s="40"/>
       <c r="Q88" s="23">
         <v>42342</v>
       </c>
       <c r="R88" s="8">
-        <v>231</v>
+        <v>290</v>
       </c>
       <c r="S88" s="19">
         <v>0</v>
@@ -7711,14 +7695,14 @@
       </c>
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A89" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B89" s="13">
-        <v>61171</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>91</v>
+      <c r="A89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" s="10">
+        <v>61165</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>67</v>
@@ -7727,7 +7711,7 @@
       <c r="F89" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G89" s="26" t="s">
+      <c r="G89" s="30" t="s">
         <v>2</v>
       </c>
       <c r="H89" s="15" t="s">
@@ -7743,32 +7727,32 @@
       </c>
       <c r="O89" s="29"/>
       <c r="P89" s="29"/>
-      <c r="Q89" s="21">
+      <c r="Q89" s="23">
         <v>42342</v>
       </c>
-      <c r="R89" s="14">
-        <v>193</v>
-      </c>
-      <c r="S89" s="22">
+      <c r="R89" s="8">
+        <v>231</v>
+      </c>
+      <c r="S89" s="19">
         <v>0</v>
       </c>
       <c r="T89" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="U89" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="V89" s="27" t="s">
+      <c r="U89" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="W89" s="27" t="s">
+      <c r="W89" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="X89" s="27" t="s">
+      <c r="X89" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Y89" s="27"/>
-      <c r="Z89" s="27"/>
+      <c r="Y89" s="3"/>
+      <c r="Z89" s="3"/>
       <c r="AA89" s="15" t="s">
         <v>0</v>
       </c>
@@ -7777,11 +7761,11 @@
       <c r="A90" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="10">
-        <v>61177</v>
+      <c r="B90" s="13">
+        <v>61171</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>67</v>
@@ -7810,9 +7794,9 @@
         <v>42342</v>
       </c>
       <c r="R90" s="14">
-        <v>674</v>
-      </c>
-      <c r="S90" s="19">
+        <v>193</v>
+      </c>
+      <c r="S90" s="22">
         <v>0</v>
       </c>
       <c r="T90" s="18" t="s">
@@ -7837,14 +7821,14 @@
       </c>
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B91" s="10">
-        <v>61183</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>89</v>
+        <v>61177</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>67</v>
@@ -7860,20 +7844,20 @@
         <v>4</v>
       </c>
       <c r="I91" s="3"/>
-      <c r="J91" s="57"/>
-      <c r="K91" s="57"/>
-      <c r="L91" s="40"/>
-      <c r="M91" s="40"/>
+      <c r="J91" s="45"/>
+      <c r="K91" s="45"/>
+      <c r="L91" s="29"/>
+      <c r="M91" s="29"/>
       <c r="N91" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="40"/>
-      <c r="P91" s="40"/>
-      <c r="Q91" s="23">
+      <c r="O91" s="29"/>
+      <c r="P91" s="29"/>
+      <c r="Q91" s="21">
         <v>42342</v>
       </c>
-      <c r="R91" s="8">
-        <v>248</v>
+      <c r="R91" s="14">
+        <v>674</v>
       </c>
       <c r="S91" s="19">
         <v>0</v>
@@ -7881,20 +7865,20 @@
       <c r="T91" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="U91" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3" t="s">
+      <c r="U91" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="W91" s="3" t="s">
+      <c r="W91" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="X91" s="3" t="s">
+      <c r="X91" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="Y91" s="3"/>
-      <c r="Z91" s="3"/>
+      <c r="Y91" s="27"/>
+      <c r="Z91" s="27"/>
       <c r="AA91" s="15" t="s">
         <v>0</v>
       </c>
@@ -7904,16 +7888,16 @@
         <v>10</v>
       </c>
       <c r="B92" s="10">
-        <v>61189</v>
+        <v>61183</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10" t="s">
+      <c r="E92" s="13"/>
+      <c r="F92" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G92" s="26" t="s">
@@ -7936,7 +7920,7 @@
         <v>42342</v>
       </c>
       <c r="R92" s="8">
-        <v>373</v>
+        <v>248</v>
       </c>
       <c r="S92" s="19">
         <v>0</v>
@@ -7963,20 +7947,20 @@
       </c>
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A93" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B93" s="13">
-        <v>61195</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>87</v>
+      <c r="A93" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" s="10">
+        <v>61189</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13" t="s">
+      <c r="E93" s="10"/>
+      <c r="F93" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G93" s="26" t="s">
@@ -7986,104 +7970,104 @@
         <v>4</v>
       </c>
       <c r="I93" s="3"/>
-      <c r="J93" s="45"/>
-      <c r="K93" s="45"/>
-      <c r="L93" s="29"/>
-      <c r="M93" s="29"/>
+      <c r="J93" s="57"/>
+      <c r="K93" s="57"/>
+      <c r="L93" s="40"/>
+      <c r="M93" s="40"/>
       <c r="N93" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="O93" s="29"/>
-      <c r="P93" s="29"/>
-      <c r="Q93" s="21">
+      <c r="O93" s="40"/>
+      <c r="P93" s="40"/>
+      <c r="Q93" s="23">
         <v>42342</v>
       </c>
-      <c r="R93" s="14">
-        <v>365</v>
-      </c>
-      <c r="S93" s="22">
+      <c r="R93" s="8">
+        <v>373</v>
+      </c>
+      <c r="S93" s="19">
         <v>0</v>
       </c>
       <c r="T93" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="U93" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="V93" s="27" t="s">
+      <c r="U93" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V93" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="W93" s="27" t="s">
+      <c r="W93" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="X93" s="27" t="s">
+      <c r="X93" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Y93" s="27"/>
-      <c r="Z93" s="27"/>
+      <c r="Y93" s="3"/>
+      <c r="Z93" s="3"/>
       <c r="AA93" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B94" s="10">
-        <v>61201</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>86</v>
+      <c r="A94" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="13">
+        <v>61195</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10" t="s">
+      <c r="E94" s="13"/>
+      <c r="F94" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G94" s="30" t="s">
+      <c r="G94" s="26" t="s">
         <v>2</v>
       </c>
       <c r="H94" s="15" t="s">
         <v>4</v>
       </c>
       <c r="I94" s="3"/>
-      <c r="J94" s="57"/>
-      <c r="K94" s="57"/>
-      <c r="L94" s="40"/>
-      <c r="M94" s="40"/>
+      <c r="J94" s="45"/>
+      <c r="K94" s="45"/>
+      <c r="L94" s="29"/>
+      <c r="M94" s="29"/>
       <c r="N94" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="40"/>
-      <c r="P94" s="40"/>
-      <c r="Q94" s="23">
+      <c r="O94" s="29"/>
+      <c r="P94" s="29"/>
+      <c r="Q94" s="21">
         <v>42342</v>
       </c>
-      <c r="R94" s="8">
-        <v>271</v>
-      </c>
-      <c r="S94" s="19">
+      <c r="R94" s="14">
+        <v>365</v>
+      </c>
+      <c r="S94" s="22">
         <v>0</v>
       </c>
       <c r="T94" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="U94" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3" t="s">
+      <c r="U94" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="W94" s="3" t="s">
+      <c r="W94" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="X94" s="3" t="s">
+      <c r="X94" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="Y94" s="3"/>
-      <c r="Z94" s="3"/>
+      <c r="Y94" s="27"/>
+      <c r="Z94" s="27"/>
       <c r="AA94" s="15" t="s">
         <v>0</v>
       </c>
@@ -8093,10 +8077,10 @@
         <v>10</v>
       </c>
       <c r="B95" s="10">
-        <v>61207</v>
+        <v>61201</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>67</v>
@@ -8125,7 +8109,7 @@
         <v>42342</v>
       </c>
       <c r="R95" s="8">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="S95" s="19">
         <v>0</v>
@@ -8152,127 +8136,127 @@
       </c>
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A96" s="27" t="s">
+      <c r="A96" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B96" s="10">
-        <v>61213</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>84</v>
+        <v>61207</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13" t="s">
+      <c r="E96" s="10"/>
+      <c r="F96" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G96" s="26" t="s">
+      <c r="G96" s="30" t="s">
         <v>2</v>
       </c>
       <c r="H96" s="15" t="s">
         <v>4</v>
       </c>
       <c r="I96" s="3"/>
-      <c r="J96" s="45"/>
-      <c r="K96" s="45"/>
-      <c r="L96" s="29"/>
-      <c r="M96" s="29"/>
+      <c r="J96" s="57"/>
+      <c r="K96" s="57"/>
+      <c r="L96" s="40"/>
+      <c r="M96" s="40"/>
       <c r="N96" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="O96" s="29"/>
-      <c r="P96" s="29"/>
-      <c r="Q96" s="21">
+      <c r="O96" s="40"/>
+      <c r="P96" s="40"/>
+      <c r="Q96" s="23">
         <v>42342</v>
       </c>
-      <c r="R96" s="14">
-        <v>528</v>
-      </c>
-      <c r="S96" s="22">
+      <c r="R96" s="8">
+        <v>262</v>
+      </c>
+      <c r="S96" s="19">
         <v>0</v>
       </c>
       <c r="T96" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="U96" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="V96" s="27" t="s">
+      <c r="U96" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V96" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="W96" s="27" t="s">
+      <c r="W96" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="X96" s="27" t="s">
+      <c r="X96" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Y96" s="27"/>
-      <c r="Z96" s="27"/>
+      <c r="Y96" s="3"/>
+      <c r="Z96" s="3"/>
       <c r="AA96" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B97" s="10">
-        <v>61219</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>83</v>
+        <v>61213</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10" t="s">
+      <c r="E97" s="13"/>
+      <c r="F97" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G97" s="30" t="s">
+      <c r="G97" s="26" t="s">
         <v>2</v>
       </c>
       <c r="H97" s="15" t="s">
         <v>4</v>
       </c>
       <c r="I97" s="3"/>
-      <c r="J97" s="57"/>
-      <c r="K97" s="57"/>
-      <c r="L97" s="40"/>
-      <c r="M97" s="40"/>
+      <c r="J97" s="45"/>
+      <c r="K97" s="45"/>
+      <c r="L97" s="29"/>
+      <c r="M97" s="29"/>
       <c r="N97" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="O97" s="40"/>
-      <c r="P97" s="40"/>
-      <c r="Q97" s="23">
+      <c r="O97" s="29"/>
+      <c r="P97" s="29"/>
+      <c r="Q97" s="21">
         <v>42342</v>
       </c>
-      <c r="R97" s="8">
-        <v>241</v>
-      </c>
-      <c r="S97" s="19">
+      <c r="R97" s="14">
+        <v>528</v>
+      </c>
+      <c r="S97" s="22">
         <v>0</v>
       </c>
       <c r="T97" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="U97" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V97" s="3" t="s">
+      <c r="U97" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V97" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="W97" s="3" t="s">
+      <c r="W97" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="X97" s="3" t="s">
+      <c r="X97" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="Y97" s="3"/>
-      <c r="Z97" s="3"/>
+      <c r="Y97" s="27"/>
+      <c r="Z97" s="27"/>
       <c r="AA97" s="15" t="s">
         <v>0</v>
       </c>
@@ -8282,16 +8266,16 @@
         <v>10</v>
       </c>
       <c r="B98" s="10">
-        <v>61225</v>
+        <v>61219</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13" t="s">
+      <c r="E98" s="10"/>
+      <c r="F98" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G98" s="30" t="s">
@@ -8314,7 +8298,7 @@
         <v>42342</v>
       </c>
       <c r="R98" s="8">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="S98" s="19">
         <v>0</v>
@@ -8341,14 +8325,14 @@
       </c>
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A99" s="27" t="s">
+      <c r="A99" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B99" s="10">
-        <v>61231</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>81</v>
+        <v>61225</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>67</v>
@@ -8357,61 +8341,61 @@
       <c r="F99" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G99" s="26" t="s">
+      <c r="G99" s="30" t="s">
         <v>2</v>
       </c>
       <c r="H99" s="15" t="s">
         <v>4</v>
       </c>
       <c r="I99" s="3"/>
-      <c r="J99" s="45"/>
-      <c r="K99" s="45"/>
-      <c r="L99" s="29"/>
-      <c r="M99" s="29"/>
+      <c r="J99" s="57"/>
+      <c r="K99" s="57"/>
+      <c r="L99" s="40"/>
+      <c r="M99" s="40"/>
       <c r="N99" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="O99" s="29"/>
-      <c r="P99" s="29"/>
-      <c r="Q99" s="21">
+      <c r="O99" s="40"/>
+      <c r="P99" s="40"/>
+      <c r="Q99" s="23">
         <v>42342</v>
       </c>
-      <c r="R99" s="14">
-        <v>621</v>
-      </c>
-      <c r="S99" s="22">
+      <c r="R99" s="8">
+        <v>237</v>
+      </c>
+      <c r="S99" s="19">
         <v>0</v>
       </c>
       <c r="T99" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="U99" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="V99" s="27" t="s">
+      <c r="U99" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V99" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="W99" s="27" t="s">
+      <c r="W99" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="X99" s="27" t="s">
+      <c r="X99" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Y99" s="27"/>
-      <c r="Z99" s="27"/>
+      <c r="Y99" s="3"/>
+      <c r="Z99" s="3"/>
       <c r="AA99" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B100" s="10">
-        <v>61237</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>80</v>
+        <v>61231</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>67</v>
@@ -8427,54 +8411,54 @@
         <v>4</v>
       </c>
       <c r="I100" s="3"/>
-      <c r="J100" s="57"/>
-      <c r="K100" s="57"/>
-      <c r="L100" s="40"/>
-      <c r="M100" s="40"/>
+      <c r="J100" s="45"/>
+      <c r="K100" s="45"/>
+      <c r="L100" s="29"/>
+      <c r="M100" s="29"/>
       <c r="N100" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="O100" s="40"/>
-      <c r="P100" s="40"/>
-      <c r="Q100" s="23">
+      <c r="O100" s="29"/>
+      <c r="P100" s="29"/>
+      <c r="Q100" s="21">
         <v>42342</v>
       </c>
       <c r="R100" s="14">
-        <v>177</v>
-      </c>
-      <c r="S100" s="19">
+        <v>621</v>
+      </c>
+      <c r="S100" s="22">
         <v>0</v>
       </c>
       <c r="T100" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="U100" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3" t="s">
+      <c r="U100" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="W100" s="3" t="s">
+      <c r="W100" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="X100" s="3" t="s">
+      <c r="X100" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="Y100" s="3"/>
-      <c r="Z100" s="3"/>
+      <c r="Y100" s="27"/>
+      <c r="Z100" s="27"/>
       <c r="AA100" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A101" s="27" t="s">
+      <c r="A101" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B101" s="10">
-        <v>61243</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>79</v>
+        <v>61237</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>67</v>
@@ -8490,63 +8474,63 @@
         <v>4</v>
       </c>
       <c r="I101" s="3"/>
-      <c r="J101" s="45"/>
-      <c r="K101" s="45"/>
-      <c r="L101" s="29"/>
-      <c r="M101" s="29"/>
+      <c r="J101" s="57"/>
+      <c r="K101" s="57"/>
+      <c r="L101" s="40"/>
+      <c r="M101" s="40"/>
       <c r="N101" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="O101" s="29"/>
-      <c r="P101" s="29"/>
-      <c r="Q101" s="21">
+      <c r="O101" s="40"/>
+      <c r="P101" s="40"/>
+      <c r="Q101" s="23">
         <v>42342</v>
       </c>
-      <c r="R101" s="25">
-        <v>1129</v>
-      </c>
-      <c r="S101" s="22">
+      <c r="R101" s="14">
+        <v>177</v>
+      </c>
+      <c r="S101" s="19">
         <v>0</v>
       </c>
       <c r="T101" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="U101" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="V101" s="27" t="s">
+      <c r="U101" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V101" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="W101" s="27" t="s">
+      <c r="W101" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="X101" s="27" t="s">
+      <c r="X101" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Y101" s="27"/>
-      <c r="Z101" s="27"/>
+      <c r="Y101" s="3"/>
+      <c r="Z101" s="3"/>
       <c r="AA101" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B102" s="10">
-        <v>61249</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>78</v>
+        <v>61243</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10" t="s">
+      <c r="E102" s="13"/>
+      <c r="F102" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G102" s="30" t="s">
+      <c r="G102" s="26" t="s">
         <v>2</v>
       </c>
       <c r="H102" s="15" t="s">
@@ -8562,32 +8546,32 @@
       </c>
       <c r="O102" s="29"/>
       <c r="P102" s="29"/>
-      <c r="Q102" s="23">
+      <c r="Q102" s="21">
         <v>42342</v>
       </c>
-      <c r="R102" s="8">
-        <v>346</v>
-      </c>
-      <c r="S102" s="19">
+      <c r="R102" s="25">
+        <v>1129</v>
+      </c>
+      <c r="S102" s="22">
         <v>0</v>
       </c>
       <c r="T102" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="U102" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3" t="s">
+      <c r="U102" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="W102" s="3" t="s">
+      <c r="W102" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="X102" s="3" t="s">
+      <c r="X102" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="Y102" s="3"/>
-      <c r="Z102" s="3"/>
+      <c r="Y102" s="27"/>
+      <c r="Z102" s="27"/>
       <c r="AA102" s="15" t="s">
         <v>0</v>
       </c>
@@ -8597,10 +8581,10 @@
         <v>10</v>
       </c>
       <c r="B103" s="10">
-        <v>61255</v>
+        <v>61249</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>67</v>
@@ -8628,8 +8612,8 @@
       <c r="Q103" s="23">
         <v>42342</v>
       </c>
-      <c r="R103" s="14">
-        <v>367</v>
+      <c r="R103" s="8">
+        <v>346</v>
       </c>
       <c r="S103" s="19">
         <v>0</v>
@@ -8656,23 +8640,23 @@
       </c>
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A104" s="27" t="s">
+      <c r="A104" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B104" s="10">
-        <v>61262</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>76</v>
+        <v>61255</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E104" s="13"/>
-      <c r="F104" s="13" t="s">
+      <c r="E104" s="10"/>
+      <c r="F104" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G104" s="26" t="s">
+      <c r="G104" s="30" t="s">
         <v>2</v>
       </c>
       <c r="H104" s="15" t="s">
@@ -8688,11 +8672,11 @@
       </c>
       <c r="O104" s="29"/>
       <c r="P104" s="29"/>
-      <c r="Q104" s="21">
-        <v>42020</v>
-      </c>
-      <c r="R104" s="25">
-        <v>2155</v>
+      <c r="Q104" s="23">
+        <v>42342</v>
+      </c>
+      <c r="R104" s="14">
+        <v>367</v>
       </c>
       <c r="S104" s="19">
         <v>0</v>
@@ -8700,20 +8684,20 @@
       <c r="T104" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="U104" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="V104" s="27" t="s">
+      <c r="U104" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V104" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="W104" s="27" t="s">
+      <c r="W104" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="X104" s="27" t="s">
+      <c r="X104" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Y104" s="27"/>
-      <c r="Z104" s="27"/>
+      <c r="Y104" s="3"/>
+      <c r="Z104" s="3"/>
       <c r="AA104" s="15" t="s">
         <v>0</v>
       </c>
@@ -8722,11 +8706,11 @@
       <c r="A105" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B105" s="13">
-        <v>61268</v>
+      <c r="B105" s="10">
+        <v>61262</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>67</v>
@@ -8752,12 +8736,12 @@
       <c r="O105" s="29"/>
       <c r="P105" s="29"/>
       <c r="Q105" s="21">
-        <v>42342</v>
-      </c>
-      <c r="R105" s="14">
-        <v>352</v>
-      </c>
-      <c r="S105" s="22">
+        <v>42020</v>
+      </c>
+      <c r="R105" s="25">
+        <v>2155</v>
+      </c>
+      <c r="S105" s="19">
         <v>0</v>
       </c>
       <c r="T105" s="18" t="s">
@@ -8782,14 +8766,14 @@
       </c>
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A106" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B106" s="10">
-        <v>61274</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>74</v>
+      <c r="A106" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" s="13">
+        <v>61268</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>67</v>
@@ -8798,7 +8782,7 @@
       <c r="F106" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G106" s="30" t="s">
+      <c r="G106" s="26" t="s">
         <v>2</v>
       </c>
       <c r="H106" s="15" t="s">
@@ -8814,32 +8798,32 @@
       </c>
       <c r="O106" s="29"/>
       <c r="P106" s="29"/>
-      <c r="Q106" s="23">
+      <c r="Q106" s="21">
         <v>42342</v>
       </c>
-      <c r="R106" s="8">
-        <v>339</v>
-      </c>
-      <c r="S106" s="19">
+      <c r="R106" s="14">
+        <v>352</v>
+      </c>
+      <c r="S106" s="22">
         <v>0</v>
       </c>
       <c r="T106" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="U106" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V106" s="3" t="s">
+      <c r="U106" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V106" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="W106" s="3" t="s">
+      <c r="W106" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="X106" s="3" t="s">
+      <c r="X106" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="Y106" s="3"/>
-      <c r="Z106" s="3"/>
+      <c r="Y106" s="27"/>
+      <c r="Z106" s="27"/>
       <c r="AA106" s="15" t="s">
         <v>0</v>
       </c>
@@ -8849,16 +8833,16 @@
         <v>10</v>
       </c>
       <c r="B107" s="10">
-        <v>61280</v>
+        <v>61274</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10" t="s">
+      <c r="E107" s="13"/>
+      <c r="F107" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G107" s="30" t="s">
@@ -8868,20 +8852,20 @@
         <v>4</v>
       </c>
       <c r="I107" s="3"/>
-      <c r="J107" s="57"/>
-      <c r="K107" s="57"/>
-      <c r="L107" s="40"/>
-      <c r="M107" s="40"/>
+      <c r="J107" s="45"/>
+      <c r="K107" s="45"/>
+      <c r="L107" s="29"/>
+      <c r="M107" s="29"/>
       <c r="N107" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="O107" s="40"/>
-      <c r="P107" s="40"/>
+      <c r="O107" s="29"/>
+      <c r="P107" s="29"/>
       <c r="Q107" s="23">
         <v>42342</v>
       </c>
       <c r="R107" s="8">
-        <v>385</v>
+        <v>339</v>
       </c>
       <c r="S107" s="19">
         <v>0</v>
@@ -8908,253 +8892,253 @@
       </c>
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A108" s="27" t="s">
+      <c r="A108" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B108" s="10">
-        <v>61287</v>
-      </c>
-      <c r="C108" s="13" t="s">
-        <v>72</v>
+        <v>61280</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13" t="s">
+      <c r="E108" s="10"/>
+      <c r="F108" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G108" s="26" t="s">
+      <c r="G108" s="30" t="s">
         <v>2</v>
       </c>
       <c r="H108" s="15" t="s">
         <v>4</v>
       </c>
       <c r="I108" s="3"/>
-      <c r="J108" s="45"/>
-      <c r="K108" s="45"/>
-      <c r="L108" s="29"/>
-      <c r="M108" s="29"/>
+      <c r="J108" s="57"/>
+      <c r="K108" s="57"/>
+      <c r="L108" s="40"/>
+      <c r="M108" s="40"/>
       <c r="N108" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="O108" s="29"/>
-      <c r="P108" s="29"/>
-      <c r="Q108" s="21">
+      <c r="O108" s="40"/>
+      <c r="P108" s="40"/>
+      <c r="Q108" s="23">
         <v>42342</v>
       </c>
-      <c r="R108" s="14">
-        <v>786</v>
-      </c>
-      <c r="S108" s="22">
+      <c r="R108" s="8">
+        <v>385</v>
+      </c>
+      <c r="S108" s="19">
         <v>0</v>
       </c>
       <c r="T108" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="U108" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="V108" s="27" t="s">
+      <c r="U108" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V108" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="W108" s="27" t="s">
+      <c r="W108" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="X108" s="27" t="s">
+      <c r="X108" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Y108" s="27"/>
-      <c r="Z108" s="27"/>
+      <c r="Y108" s="3"/>
+      <c r="Z108" s="3"/>
       <c r="AA108" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B109" s="10">
-        <v>61293</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>71</v>
+        <v>61287</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10" t="s">
+      <c r="E109" s="13"/>
+      <c r="F109" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G109" s="30" t="s">
+      <c r="G109" s="26" t="s">
         <v>2</v>
       </c>
       <c r="H109" s="15" t="s">
         <v>4</v>
       </c>
       <c r="I109" s="3"/>
-      <c r="J109" s="57"/>
-      <c r="K109" s="57"/>
-      <c r="L109" s="40"/>
-      <c r="M109" s="40"/>
+      <c r="J109" s="45"/>
+      <c r="K109" s="45"/>
+      <c r="L109" s="29"/>
+      <c r="M109" s="29"/>
       <c r="N109" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="O109" s="40"/>
-      <c r="P109" s="40"/>
-      <c r="Q109" s="23">
+      <c r="O109" s="29"/>
+      <c r="P109" s="29"/>
+      <c r="Q109" s="21">
         <v>42342</v>
       </c>
-      <c r="R109" s="8">
-        <v>379</v>
-      </c>
-      <c r="S109" s="19">
+      <c r="R109" s="14">
+        <v>786</v>
+      </c>
+      <c r="S109" s="22">
         <v>0</v>
       </c>
       <c r="T109" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="U109" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V109" s="3" t="s">
+      <c r="U109" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V109" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="W109" s="3" t="s">
+      <c r="W109" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="X109" s="3" t="s">
+      <c r="X109" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="Y109" s="3"/>
-      <c r="Z109" s="3"/>
+      <c r="Y109" s="27"/>
+      <c r="Z109" s="27"/>
       <c r="AA109" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A110" s="27" t="s">
+      <c r="A110" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B110" s="10">
-        <v>61299</v>
-      </c>
-      <c r="C110" s="13" t="s">
-        <v>70</v>
+        <v>61293</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13" t="s">
+      <c r="E110" s="10"/>
+      <c r="F110" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G110" s="26" t="s">
+      <c r="G110" s="30" t="s">
         <v>2</v>
       </c>
       <c r="H110" s="15" t="s">
         <v>4</v>
       </c>
       <c r="I110" s="3"/>
-      <c r="J110" s="45"/>
-      <c r="K110" s="45"/>
-      <c r="L110" s="29"/>
-      <c r="M110" s="29"/>
+      <c r="J110" s="57"/>
+      <c r="K110" s="57"/>
+      <c r="L110" s="40"/>
+      <c r="M110" s="40"/>
       <c r="N110" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="O110" s="29"/>
-      <c r="P110" s="29"/>
-      <c r="Q110" s="21">
+      <c r="O110" s="40"/>
+      <c r="P110" s="40"/>
+      <c r="Q110" s="23">
         <v>42342</v>
       </c>
-      <c r="R110" s="14">
-        <v>580</v>
-      </c>
-      <c r="S110" s="22">
+      <c r="R110" s="8">
+        <v>379</v>
+      </c>
+      <c r="S110" s="19">
         <v>0</v>
       </c>
       <c r="T110" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="U110" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="V110" s="27" t="s">
+      <c r="U110" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V110" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="W110" s="27" t="s">
+      <c r="W110" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="X110" s="27" t="s">
+      <c r="X110" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Y110" s="27"/>
-      <c r="Z110" s="27"/>
+      <c r="Y110" s="3"/>
+      <c r="Z110" s="3"/>
       <c r="AA110" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B111" s="10">
-        <v>61305</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>69</v>
+        <v>61299</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10" t="s">
+      <c r="E111" s="13"/>
+      <c r="F111" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G111" s="30" t="s">
+      <c r="G111" s="26" t="s">
         <v>2</v>
       </c>
       <c r="H111" s="15" t="s">
         <v>4</v>
       </c>
       <c r="I111" s="3"/>
-      <c r="J111" s="57"/>
-      <c r="K111" s="57"/>
-      <c r="L111" s="40"/>
-      <c r="M111" s="40"/>
+      <c r="J111" s="45"/>
+      <c r="K111" s="45"/>
+      <c r="L111" s="29"/>
+      <c r="M111" s="29"/>
       <c r="N111" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="O111" s="40"/>
-      <c r="P111" s="40"/>
-      <c r="Q111" s="23">
+      <c r="O111" s="29"/>
+      <c r="P111" s="29"/>
+      <c r="Q111" s="21">
         <v>42342</v>
       </c>
-      <c r="R111" s="8">
-        <v>351</v>
-      </c>
-      <c r="S111" s="19">
+      <c r="R111" s="14">
+        <v>580</v>
+      </c>
+      <c r="S111" s="22">
         <v>0</v>
       </c>
       <c r="T111" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="U111" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V111" s="3" t="s">
+      <c r="U111" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V111" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="W111" s="3" t="s">
+      <c r="W111" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="X111" s="3" t="s">
+      <c r="X111" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="Y111" s="3"/>
-      <c r="Z111" s="3"/>
+      <c r="Y111" s="27"/>
+      <c r="Z111" s="27"/>
       <c r="AA111" s="15" t="s">
         <v>0</v>
       </c>
@@ -9164,10 +9148,10 @@
         <v>10</v>
       </c>
       <c r="B112" s="10">
-        <v>61311</v>
+        <v>61305</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>67</v>
@@ -9196,7 +9180,7 @@
         <v>42342</v>
       </c>
       <c r="R112" s="8">
-        <v>407</v>
+        <v>351</v>
       </c>
       <c r="S112" s="19">
         <v>0</v>
@@ -9223,121 +9207,123 @@
       </c>
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A113" s="44" t="s">
+      <c r="A113" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" s="10">
+        <v>61311</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H113" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I113" s="3"/>
+      <c r="J113" s="57"/>
+      <c r="K113" s="57"/>
+      <c r="L113" s="40"/>
+      <c r="M113" s="40"/>
+      <c r="N113" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O113" s="40"/>
+      <c r="P113" s="40"/>
+      <c r="Q113" s="23">
+        <v>42342</v>
+      </c>
+      <c r="R113" s="8">
+        <v>407</v>
+      </c>
+      <c r="S113" s="19">
+        <v>0</v>
+      </c>
+      <c r="T113" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U113" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V113" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="W113" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X113" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y113" s="3"/>
+      <c r="Z113" s="3"/>
+      <c r="AA113" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A114" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B113" s="15">
+      <c r="B114" s="15">
         <v>59110</v>
       </c>
-      <c r="C113" s="38" t="s">
-        <v>252</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E113" s="38"/>
-      <c r="F113" s="38" t="s">
+      <c r="C114" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E114" s="38"/>
+      <c r="F114" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G113" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H113" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I113" s="44"/>
-      <c r="J113" s="44"/>
-      <c r="K113" s="44"/>
-      <c r="L113" s="44"/>
-      <c r="M113" s="44"/>
-      <c r="N113" s="44"/>
-      <c r="O113" s="44"/>
-      <c r="P113" s="44"/>
-      <c r="Q113" s="43">
+      <c r="G114" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H114" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I114" s="44"/>
+      <c r="J114" s="44"/>
+      <c r="K114" s="44"/>
+      <c r="L114" s="44"/>
+      <c r="M114" s="44"/>
+      <c r="N114" s="44"/>
+      <c r="O114" s="44"/>
+      <c r="P114" s="44"/>
+      <c r="Q114" s="43">
         <v>41977</v>
       </c>
-      <c r="R113" s="58">
+      <c r="R114" s="58">
         <v>4463</v>
       </c>
-      <c r="S113" s="7">
+      <c r="S114" s="7">
         <v>83</v>
       </c>
-      <c r="T113" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="U113" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="V113" s="16"/>
-      <c r="W113" s="16" t="s">
+      <c r="T114" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U114" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="V114" s="16"/>
+      <c r="W114" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="X113" s="16" t="s">
+      <c r="X114" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="Y113" s="16"/>
-      <c r="Z113" s="16"/>
-      <c r="AA113" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A114" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B114" s="13">
-        <v>59178</v>
-      </c>
-      <c r="C114" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H114" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I114" s="45"/>
-      <c r="J114" s="45"/>
-      <c r="K114" s="45"/>
-      <c r="L114" s="45"/>
-      <c r="M114" s="45"/>
-      <c r="N114" s="45"/>
-      <c r="O114" s="45"/>
-      <c r="P114" s="45"/>
-      <c r="Q114" s="41">
-        <v>42347</v>
-      </c>
-      <c r="R114" s="14">
-        <v>484</v>
-      </c>
-      <c r="S114" s="37">
-        <v>0</v>
-      </c>
-      <c r="T114" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="U114" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="V114" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="W114" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="X114" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y114" s="27"/>
-      <c r="Z114" s="27"/>
+      <c r="Y114" s="16"/>
+      <c r="Z114" s="16"/>
       <c r="AA114" s="15" t="s">
         <v>0</v>
       </c>
@@ -9347,7 +9333,7 @@
         <v>10</v>
       </c>
       <c r="B115" s="13">
-        <v>59180</v>
+        <v>59178</v>
       </c>
       <c r="C115" s="13" t="s">
         <v>253</v>
@@ -9407,8 +9393,8 @@
       <c r="A116" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B116" s="59">
-        <v>59183</v>
+      <c r="B116" s="13">
+        <v>59180</v>
       </c>
       <c r="C116" s="13" t="s">
         <v>253</v>
@@ -9465,14 +9451,14 @@
       </c>
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A117" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B117" s="2">
-        <v>59189</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>254</v>
+      <c r="A117" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="59">
+        <v>59183</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>253</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>252</v>
@@ -9487,53 +9473,53 @@
       <c r="H117" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I117" s="57"/>
-      <c r="J117" s="57"/>
-      <c r="K117" s="57"/>
-      <c r="L117" s="57"/>
-      <c r="M117" s="57"/>
-      <c r="N117" s="57"/>
-      <c r="O117" s="57"/>
-      <c r="P117" s="57"/>
-      <c r="Q117" s="9">
-        <v>41778</v>
-      </c>
-      <c r="R117" s="8">
-        <v>396</v>
-      </c>
-      <c r="S117" s="7">
+      <c r="I117" s="45"/>
+      <c r="J117" s="45"/>
+      <c r="K117" s="45"/>
+      <c r="L117" s="45"/>
+      <c r="M117" s="45"/>
+      <c r="N117" s="45"/>
+      <c r="O117" s="45"/>
+      <c r="P117" s="45"/>
+      <c r="Q117" s="41">
+        <v>42347</v>
+      </c>
+      <c r="R117" s="14">
+        <v>484</v>
+      </c>
+      <c r="S117" s="37">
         <v>0</v>
       </c>
       <c r="T117" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="U117" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V117" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="W117" s="3" t="s">
+      <c r="U117" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V117" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="W117" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="X117" s="3" t="s">
+      <c r="X117" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="Y117" s="3"/>
-      <c r="Z117" s="3"/>
+      <c r="Y117" s="27"/>
+      <c r="Z117" s="27"/>
       <c r="AA117" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A118" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B118" s="10">
-        <v>59192</v>
-      </c>
-      <c r="C118" s="13" t="s">
-        <v>255</v>
+      <c r="A118" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" s="2">
+        <v>59189</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>252</v>
@@ -9548,40 +9534,40 @@
       <c r="H118" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I118" s="45"/>
-      <c r="J118" s="45"/>
-      <c r="K118" s="45"/>
-      <c r="L118" s="45"/>
-      <c r="M118" s="45"/>
-      <c r="N118" s="45"/>
-      <c r="O118" s="45"/>
-      <c r="P118" s="45"/>
-      <c r="Q118" s="41">
-        <v>41913</v>
-      </c>
-      <c r="R118" s="14">
-        <v>501</v>
-      </c>
-      <c r="S118" s="37">
+      <c r="I118" s="57"/>
+      <c r="J118" s="57"/>
+      <c r="K118" s="57"/>
+      <c r="L118" s="57"/>
+      <c r="M118" s="57"/>
+      <c r="N118" s="57"/>
+      <c r="O118" s="57"/>
+      <c r="P118" s="57"/>
+      <c r="Q118" s="9">
+        <v>41778</v>
+      </c>
+      <c r="R118" s="8">
+        <v>396</v>
+      </c>
+      <c r="S118" s="7">
         <v>0</v>
       </c>
       <c r="T118" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="U118" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="V118" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="W118" s="27" t="s">
+      <c r="U118" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V118" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="W118" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="X118" s="27" t="s">
+      <c r="X118" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Y118" s="27"/>
-      <c r="Z118" s="27"/>
+      <c r="Y118" s="3"/>
+      <c r="Z118" s="3"/>
       <c r="AA118" s="15" t="s">
         <v>0</v>
       </c>
@@ -9590,11 +9576,11 @@
       <c r="A119" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B119" s="13">
-        <v>59205</v>
+      <c r="B119" s="10">
+        <v>59192</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>252</v>
@@ -9618,12 +9604,12 @@
       <c r="O119" s="45"/>
       <c r="P119" s="45"/>
       <c r="Q119" s="41">
-        <v>42345</v>
+        <v>41913</v>
       </c>
       <c r="R119" s="14">
-        <v>307</v>
-      </c>
-      <c r="S119" s="7">
+        <v>501</v>
+      </c>
+      <c r="S119" s="37">
         <v>0</v>
       </c>
       <c r="T119" s="16" t="s">
@@ -9652,7 +9638,7 @@
         <v>10</v>
       </c>
       <c r="B120" s="13">
-        <v>59217</v>
+        <v>59205</v>
       </c>
       <c r="C120" s="13" t="s">
         <v>256</v>
@@ -9684,7 +9670,7 @@
       <c r="R120" s="14">
         <v>307</v>
       </c>
-      <c r="S120" s="37">
+      <c r="S120" s="7">
         <v>0</v>
       </c>
       <c r="T120" s="16" t="s">
@@ -9712,8 +9698,8 @@
       <c r="A121" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B121" s="59">
-        <v>59228</v>
+      <c r="B121" s="13">
+        <v>59217</v>
       </c>
       <c r="C121" s="13" t="s">
         <v>256</v>
@@ -9773,11 +9759,11 @@
       <c r="A122" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B122" s="10">
-        <v>59238</v>
+      <c r="B122" s="59">
+        <v>59228</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>252</v>
@@ -9801,10 +9787,10 @@
       <c r="O122" s="45"/>
       <c r="P122" s="45"/>
       <c r="Q122" s="41">
-        <v>42346</v>
+        <v>42345</v>
       </c>
       <c r="R122" s="14">
-        <v>496</v>
+        <v>307</v>
       </c>
       <c r="S122" s="37">
         <v>0</v>
@@ -9834,11 +9820,11 @@
       <c r="A123" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B123" s="13">
-        <v>59249</v>
+      <c r="B123" s="10">
+        <v>59238</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>252</v>
@@ -9865,7 +9851,7 @@
         <v>42346</v>
       </c>
       <c r="R123" s="14">
-        <v>381</v>
+        <v>496</v>
       </c>
       <c r="S123" s="37">
         <v>0</v>
@@ -9896,10 +9882,10 @@
         <v>10</v>
       </c>
       <c r="B124" s="13">
-        <v>59257</v>
+        <v>59249</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>252</v>
@@ -9926,7 +9912,7 @@
         <v>42346</v>
       </c>
       <c r="R124" s="14">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="S124" s="37">
         <v>0</v>
@@ -9957,7 +9943,7 @@
         <v>10</v>
       </c>
       <c r="B125" s="13">
-        <v>59259</v>
+        <v>59257</v>
       </c>
       <c r="C125" s="13" t="s">
         <v>259</v>
@@ -10017,8 +10003,8 @@
       <c r="A126" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B126" s="59">
-        <v>59264</v>
+      <c r="B126" s="13">
+        <v>59259</v>
       </c>
       <c r="C126" s="13" t="s">
         <v>259</v>
@@ -10078,11 +10064,11 @@
       <c r="A127" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B127" s="60">
-        <v>59271</v>
+      <c r="B127" s="59">
+        <v>59264</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>252</v>
@@ -10106,10 +10092,10 @@
       <c r="O127" s="45"/>
       <c r="P127" s="45"/>
       <c r="Q127" s="41">
-        <v>41913</v>
-      </c>
-      <c r="R127" s="25">
-        <v>1006</v>
+        <v>42346</v>
+      </c>
+      <c r="R127" s="14">
+        <v>341</v>
       </c>
       <c r="S127" s="37">
         <v>0</v>
@@ -10139,17 +10125,17 @@
       <c r="A128" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B128" s="10">
-        <v>59275</v>
+      <c r="B128" s="60">
+        <v>59271</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10" t="s">
+      <c r="E128" s="13"/>
+      <c r="F128" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G128" s="15" t="s">
@@ -10167,12 +10153,12 @@
       <c r="O128" s="45"/>
       <c r="P128" s="45"/>
       <c r="Q128" s="41">
-        <v>41778</v>
-      </c>
-      <c r="R128" s="14">
-        <v>336</v>
-      </c>
-      <c r="S128" s="7">
+        <v>41913</v>
+      </c>
+      <c r="R128" s="25">
+        <v>1006</v>
+      </c>
+      <c r="S128" s="37">
         <v>0</v>
       </c>
       <c r="T128" s="16" t="s">
@@ -10200,17 +10186,17 @@
       <c r="A129" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B129" s="13">
-        <v>59279</v>
+      <c r="B129" s="10">
+        <v>59275</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13" t="s">
+      <c r="E129" s="10"/>
+      <c r="F129" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G129" s="15" t="s">
@@ -10228,12 +10214,12 @@
       <c r="O129" s="45"/>
       <c r="P129" s="45"/>
       <c r="Q129" s="41">
-        <v>41801</v>
+        <v>41778</v>
       </c>
       <c r="R129" s="14">
-        <v>935</v>
-      </c>
-      <c r="S129" s="37">
+        <v>336</v>
+      </c>
+      <c r="S129" s="7">
         <v>0</v>
       </c>
       <c r="T129" s="16" t="s">
@@ -10261,11 +10247,11 @@
       <c r="A130" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B130" s="10">
-        <v>59284</v>
+      <c r="B130" s="13">
+        <v>59279</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>252</v>
@@ -10289,10 +10275,10 @@
       <c r="O130" s="45"/>
       <c r="P130" s="45"/>
       <c r="Q130" s="41">
-        <v>41778</v>
+        <v>41801</v>
       </c>
       <c r="R130" s="14">
-        <v>636</v>
+        <v>935</v>
       </c>
       <c r="S130" s="37">
         <v>0</v>
@@ -10323,10 +10309,10 @@
         <v>10</v>
       </c>
       <c r="B131" s="10">
-        <v>59289</v>
+        <v>59284</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>252</v>
@@ -10350,10 +10336,10 @@
       <c r="O131" s="45"/>
       <c r="P131" s="45"/>
       <c r="Q131" s="41">
-        <v>41913</v>
+        <v>41778</v>
       </c>
       <c r="R131" s="14">
-        <v>602</v>
+        <v>636</v>
       </c>
       <c r="S131" s="37">
         <v>0</v>
@@ -10384,10 +10370,10 @@
         <v>10</v>
       </c>
       <c r="B132" s="10">
-        <v>59292</v>
+        <v>59289</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>252</v>
@@ -10411,10 +10397,10 @@
       <c r="O132" s="45"/>
       <c r="P132" s="45"/>
       <c r="Q132" s="41">
-        <v>41778</v>
+        <v>41913</v>
       </c>
       <c r="R132" s="14">
-        <v>288</v>
+        <v>602</v>
       </c>
       <c r="S132" s="37">
         <v>0</v>
@@ -10444,11 +10430,11 @@
       <c r="A133" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B133" s="13">
-        <v>59301</v>
+      <c r="B133" s="10">
+        <v>59292</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>252</v>
@@ -10475,7 +10461,7 @@
         <v>41778</v>
       </c>
       <c r="R133" s="14">
-        <v>346</v>
+        <v>288</v>
       </c>
       <c r="S133" s="37">
         <v>0</v>
@@ -10505,11 +10491,11 @@
       <c r="A134" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B134" s="10">
-        <v>59304</v>
+      <c r="B134" s="13">
+        <v>59301</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>252</v>
@@ -10536,7 +10522,7 @@
         <v>41778</v>
       </c>
       <c r="R134" s="14">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="S134" s="37">
         <v>0</v>
@@ -10567,10 +10553,10 @@
         <v>10</v>
       </c>
       <c r="B135" s="10">
-        <v>59306</v>
+        <v>59304</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>252</v>
@@ -10597,7 +10583,7 @@
         <v>41778</v>
       </c>
       <c r="R135" s="14">
-        <v>484</v>
+        <v>385</v>
       </c>
       <c r="S135" s="37">
         <v>0</v>
@@ -10628,16 +10614,16 @@
         <v>10</v>
       </c>
       <c r="B136" s="10">
-        <v>59309</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>269</v>
+        <v>59306</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>268</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10" t="s">
+      <c r="E136" s="13"/>
+      <c r="F136" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G136" s="15" t="s">
@@ -10655,10 +10641,10 @@
       <c r="O136" s="45"/>
       <c r="P136" s="45"/>
       <c r="Q136" s="41">
-        <v>42342</v>
+        <v>41778</v>
       </c>
       <c r="R136" s="14">
-        <v>188</v>
+        <v>484</v>
       </c>
       <c r="S136" s="37">
         <v>0</v>
@@ -10689,16 +10675,16 @@
         <v>10</v>
       </c>
       <c r="B137" s="10">
-        <v>59313</v>
-      </c>
-      <c r="C137" s="13" t="s">
-        <v>270</v>
+        <v>59309</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>269</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E137" s="13"/>
-      <c r="F137" s="13" t="s">
+      <c r="E137" s="10"/>
+      <c r="F137" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G137" s="15" t="s">
@@ -10716,12 +10702,12 @@
       <c r="O137" s="45"/>
       <c r="P137" s="45"/>
       <c r="Q137" s="41">
-        <v>41778</v>
+        <v>42342</v>
       </c>
       <c r="R137" s="14">
-        <v>543</v>
-      </c>
-      <c r="S137" s="7">
+        <v>188</v>
+      </c>
+      <c r="S137" s="37">
         <v>0</v>
       </c>
       <c r="T137" s="16" t="s">
@@ -10746,20 +10732,20 @@
       </c>
     </row>
     <row r="138" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B138" s="10">
-        <v>59315</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>271</v>
+        <v>59313</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>270</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E138" s="10"/>
-      <c r="F138" s="10" t="s">
+      <c r="E138" s="13"/>
+      <c r="F138" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G138" s="15" t="s">
@@ -10768,19 +10754,19 @@
       <c r="H138" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I138" s="57"/>
-      <c r="J138" s="57"/>
-      <c r="K138" s="57"/>
-      <c r="L138" s="57"/>
-      <c r="M138" s="57"/>
-      <c r="N138" s="57"/>
-      <c r="O138" s="57"/>
-      <c r="P138" s="57"/>
-      <c r="Q138" s="9">
+      <c r="I138" s="45"/>
+      <c r="J138" s="45"/>
+      <c r="K138" s="45"/>
+      <c r="L138" s="45"/>
+      <c r="M138" s="45"/>
+      <c r="N138" s="45"/>
+      <c r="O138" s="45"/>
+      <c r="P138" s="45"/>
+      <c r="Q138" s="41">
         <v>41778</v>
       </c>
-      <c r="R138" s="8">
-        <v>417</v>
+      <c r="R138" s="14">
+        <v>543</v>
       </c>
       <c r="S138" s="7">
         <v>0</v>
@@ -10788,20 +10774,20 @@
       <c r="T138" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="U138" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V138" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="W138" s="3" t="s">
+      <c r="U138" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V138" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="W138" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="X138" s="3" t="s">
+      <c r="X138" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="Y138" s="3"/>
-      <c r="Z138" s="3"/>
+      <c r="Y138" s="27"/>
+      <c r="Z138" s="27"/>
       <c r="AA138" s="15" t="s">
         <v>0</v>
       </c>
@@ -10811,10 +10797,10 @@
         <v>10</v>
       </c>
       <c r="B139" s="10">
-        <v>59319</v>
+        <v>59315</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>252</v>
@@ -10841,7 +10827,7 @@
         <v>41778</v>
       </c>
       <c r="R139" s="8">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="S139" s="7">
         <v>0</v>
@@ -10872,10 +10858,10 @@
         <v>10</v>
       </c>
       <c r="B140" s="10">
-        <v>59322</v>
+        <v>59319</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>252</v>
@@ -10902,7 +10888,7 @@
         <v>41778</v>
       </c>
       <c r="R140" s="8">
-        <v>278</v>
+        <v>402</v>
       </c>
       <c r="S140" s="7">
         <v>0</v>
@@ -10928,76 +10914,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:27" ht="26" x14ac:dyDescent="0.15">
-      <c r="A141" s="27" t="s">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A141" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B141" s="10">
+        <v>59322</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G141" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H141" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I141" s="57"/>
+      <c r="J141" s="57"/>
+      <c r="K141" s="57"/>
+      <c r="L141" s="57"/>
+      <c r="M141" s="57"/>
+      <c r="N141" s="57"/>
+      <c r="O141" s="57"/>
+      <c r="P141" s="57"/>
+      <c r="Q141" s="9">
+        <v>41778</v>
+      </c>
+      <c r="R141" s="8">
+        <v>278</v>
+      </c>
+      <c r="S141" s="7">
+        <v>0</v>
+      </c>
+      <c r="T141" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U141" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V141" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="W141" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X141" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y141" s="3"/>
+      <c r="Z141" s="3"/>
+      <c r="AA141" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27" ht="26" x14ac:dyDescent="0.15">
+      <c r="A142" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" s="10">
         <v>59326</v>
       </c>
-      <c r="C141" s="13" t="s">
+      <c r="C142" s="13" t="s">
         <v>274</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E141" s="13"/>
-      <c r="F141" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G141" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H141" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I141" s="45"/>
-      <c r="J141" s="45"/>
-      <c r="K141" s="45"/>
-      <c r="L141" s="45"/>
-      <c r="M141" s="45"/>
-      <c r="N141" s="45"/>
-      <c r="O141" s="45"/>
-      <c r="P141" s="45"/>
-      <c r="Q141" s="41">
-        <v>41778</v>
-      </c>
-      <c r="R141" s="14">
-        <v>476</v>
-      </c>
-      <c r="S141" s="37">
-        <v>0</v>
-      </c>
-      <c r="T141" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="U141" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="V141" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="W141" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="X141" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y141" s="27"/>
-      <c r="Z141" s="27"/>
-      <c r="AA141" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A142" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B142" s="10">
-        <v>59328</v>
-      </c>
-      <c r="C142" s="13" t="s">
-        <v>275</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>252</v>
@@ -11021,10 +11007,10 @@
       <c r="O142" s="45"/>
       <c r="P142" s="45"/>
       <c r="Q142" s="41">
-        <v>41906</v>
-      </c>
-      <c r="R142" s="25">
-        <v>1575</v>
+        <v>41778</v>
+      </c>
+      <c r="R142" s="14">
+        <v>476</v>
       </c>
       <c r="S142" s="37">
         <v>0</v>
@@ -11055,16 +11041,16 @@
         <v>10</v>
       </c>
       <c r="B143" s="10">
-        <v>59330</v>
+        <v>59328</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E143" s="39"/>
-      <c r="F143" s="39" t="s">
+      <c r="E143" s="13"/>
+      <c r="F143" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G143" s="15" t="s">
@@ -11082,10 +11068,10 @@
       <c r="O143" s="45"/>
       <c r="P143" s="45"/>
       <c r="Q143" s="41">
-        <v>41913</v>
-      </c>
-      <c r="R143" s="14">
-        <v>977</v>
+        <v>41906</v>
+      </c>
+      <c r="R143" s="25">
+        <v>1575</v>
       </c>
       <c r="S143" s="37">
         <v>0</v>
@@ -11115,17 +11101,17 @@
       <c r="A144" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B144" s="13">
-        <v>59333</v>
+      <c r="B144" s="10">
+        <v>59330</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E144" s="13"/>
-      <c r="F144" s="13" t="s">
+      <c r="E144" s="39"/>
+      <c r="F144" s="39" t="s">
         <v>12</v>
       </c>
       <c r="G144" s="15" t="s">
@@ -11143,10 +11129,10 @@
       <c r="O144" s="45"/>
       <c r="P144" s="45"/>
       <c r="Q144" s="41">
-        <v>41778</v>
+        <v>41913</v>
       </c>
       <c r="R144" s="14">
-        <v>444</v>
+        <v>977</v>
       </c>
       <c r="S144" s="37">
         <v>0</v>
@@ -11173,20 +11159,20 @@
       </c>
     </row>
     <row r="145" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B145" s="10">
-        <v>59340</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>278</v>
+      <c r="A145" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" s="13">
+        <v>59333</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>277</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10" t="s">
+      <c r="E145" s="13"/>
+      <c r="F145" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G145" s="15" t="s">
@@ -11195,40 +11181,40 @@
       <c r="H145" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I145" s="57"/>
-      <c r="J145" s="57"/>
-      <c r="K145" s="57"/>
-      <c r="L145" s="57"/>
-      <c r="M145" s="57"/>
-      <c r="N145" s="57"/>
-      <c r="O145" s="57"/>
-      <c r="P145" s="57"/>
-      <c r="Q145" s="9">
-        <v>42342</v>
+      <c r="I145" s="45"/>
+      <c r="J145" s="45"/>
+      <c r="K145" s="45"/>
+      <c r="L145" s="45"/>
+      <c r="M145" s="45"/>
+      <c r="N145" s="45"/>
+      <c r="O145" s="45"/>
+      <c r="P145" s="45"/>
+      <c r="Q145" s="41">
+        <v>41778</v>
       </c>
       <c r="R145" s="14">
-        <v>376</v>
-      </c>
-      <c r="S145" s="7">
+        <v>444</v>
+      </c>
+      <c r="S145" s="37">
         <v>0</v>
       </c>
       <c r="T145" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="U145" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V145" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="W145" s="3" t="s">
+      <c r="U145" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V145" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="W145" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="X145" s="3" t="s">
+      <c r="X145" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="Y145" s="3"/>
-      <c r="Z145" s="3"/>
+      <c r="Y145" s="27"/>
+      <c r="Z145" s="27"/>
       <c r="AA145" s="15" t="s">
         <v>0</v>
       </c>
@@ -11238,16 +11224,16 @@
         <v>10</v>
       </c>
       <c r="B146" s="10">
-        <v>59350</v>
+        <v>59340</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E146" s="13"/>
-      <c r="F146" s="13" t="s">
+      <c r="E146" s="10"/>
+      <c r="F146" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G146" s="15" t="s">
@@ -11268,7 +11254,7 @@
         <v>42342</v>
       </c>
       <c r="R146" s="14">
-        <v>325</v>
+        <v>376</v>
       </c>
       <c r="S146" s="7">
         <v>0</v>
@@ -11283,10 +11269,10 @@
         <v>252</v>
       </c>
       <c r="W146" s="3" t="s">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="X146" s="3" t="s">
-        <v>281</v>
+        <v>27</v>
       </c>
       <c r="Y146" s="3"/>
       <c r="Z146" s="3"/>
@@ -11295,14 +11281,14 @@
       </c>
     </row>
     <row r="147" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A147" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B147" s="13">
-        <v>59361</v>
-      </c>
-      <c r="C147" s="13" t="s">
-        <v>282</v>
+      <c r="A147" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B147" s="10">
+        <v>59350</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>279</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>252</v>
@@ -11317,40 +11303,40 @@
       <c r="H147" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I147" s="45"/>
-      <c r="J147" s="45"/>
-      <c r="K147" s="45"/>
-      <c r="L147" s="45"/>
-      <c r="M147" s="45"/>
-      <c r="N147" s="45"/>
-      <c r="O147" s="45"/>
-      <c r="P147" s="45"/>
-      <c r="Q147" s="41">
+      <c r="I147" s="57"/>
+      <c r="J147" s="57"/>
+      <c r="K147" s="57"/>
+      <c r="L147" s="57"/>
+      <c r="M147" s="57"/>
+      <c r="N147" s="57"/>
+      <c r="O147" s="57"/>
+      <c r="P147" s="57"/>
+      <c r="Q147" s="9">
         <v>42342</v>
       </c>
       <c r="R147" s="14">
-        <v>359</v>
-      </c>
-      <c r="S147" s="37">
-        <v>0</v>
-      </c>
-      <c r="T147" s="61">
-        <v>2</v>
-      </c>
-      <c r="U147" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="V147" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="W147" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="X147" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y147" s="27"/>
-      <c r="Z147" s="27"/>
+        <v>325</v>
+      </c>
+      <c r="S147" s="7">
+        <v>0</v>
+      </c>
+      <c r="T147" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U147" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V147" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="W147" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="X147" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y147" s="3"/>
+      <c r="Z147" s="3"/>
       <c r="AA147" s="15" t="s">
         <v>0</v>
       </c>
@@ -11360,10 +11346,10 @@
         <v>10</v>
       </c>
       <c r="B148" s="13">
-        <v>59367</v>
+        <v>59361</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>252</v>
@@ -11387,16 +11373,16 @@
       <c r="O148" s="45"/>
       <c r="P148" s="45"/>
       <c r="Q148" s="41">
-        <v>42306</v>
+        <v>42342</v>
       </c>
       <c r="R148" s="14">
-        <v>496</v>
+        <v>359</v>
       </c>
       <c r="S148" s="37">
         <v>0</v>
       </c>
-      <c r="T148" s="16" t="s">
-        <v>1</v>
+      <c r="T148" s="61">
+        <v>2</v>
       </c>
       <c r="U148" s="28" t="s">
         <v>5</v>
@@ -11405,10 +11391,10 @@
         <v>252</v>
       </c>
       <c r="W148" s="27" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="X148" s="27" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Y148" s="27"/>
       <c r="Z148" s="27"/>
@@ -11421,10 +11407,10 @@
         <v>10</v>
       </c>
       <c r="B149" s="13">
-        <v>59374</v>
+        <v>59367</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>252</v>
@@ -11448,10 +11434,10 @@
       <c r="O149" s="45"/>
       <c r="P149" s="45"/>
       <c r="Q149" s="41">
-        <v>41778</v>
+        <v>42306</v>
       </c>
       <c r="R149" s="14">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="S149" s="37">
         <v>0</v>
@@ -11466,10 +11452,10 @@
         <v>252</v>
       </c>
       <c r="W149" s="27" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="X149" s="27" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="Y149" s="27"/>
       <c r="Z149" s="27"/>
@@ -11481,11 +11467,11 @@
       <c r="A150" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B150" s="10">
-        <v>59383</v>
+      <c r="B150" s="13">
+        <v>59374</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>252</v>
@@ -11509,10 +11495,10 @@
       <c r="O150" s="45"/>
       <c r="P150" s="45"/>
       <c r="Q150" s="41">
-        <v>42346</v>
+        <v>41778</v>
       </c>
       <c r="R150" s="14">
-        <v>557</v>
+        <v>479</v>
       </c>
       <c r="S150" s="37">
         <v>0</v>
@@ -11527,10 +11513,10 @@
         <v>252</v>
       </c>
       <c r="W150" s="27" t="s">
-        <v>28</v>
+        <v>287</v>
       </c>
       <c r="X150" s="27" t="s">
-        <v>27</v>
+        <v>288</v>
       </c>
       <c r="Y150" s="27"/>
       <c r="Z150" s="27"/>
@@ -11539,14 +11525,14 @@
       </c>
     </row>
     <row r="151" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A151" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B151" s="15">
-        <v>59389</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>290</v>
+      <c r="A151" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151" s="10">
+        <v>59383</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>289</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>252</v>
@@ -11561,40 +11547,40 @@
       <c r="H151" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I151" s="57"/>
-      <c r="J151" s="57"/>
-      <c r="K151" s="57"/>
-      <c r="L151" s="57"/>
-      <c r="M151" s="57"/>
-      <c r="N151" s="57"/>
-      <c r="O151" s="57"/>
-      <c r="P151" s="57"/>
-      <c r="Q151" s="9">
+      <c r="I151" s="45"/>
+      <c r="J151" s="45"/>
+      <c r="K151" s="45"/>
+      <c r="L151" s="45"/>
+      <c r="M151" s="45"/>
+      <c r="N151" s="45"/>
+      <c r="O151" s="45"/>
+      <c r="P151" s="45"/>
+      <c r="Q151" s="41">
         <v>42346</v>
       </c>
-      <c r="R151" s="8">
-        <v>290</v>
-      </c>
-      <c r="S151" s="7">
+      <c r="R151" s="14">
+        <v>557</v>
+      </c>
+      <c r="S151" s="37">
         <v>0</v>
       </c>
       <c r="T151" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="U151" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V151" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="W151" s="3" t="s">
+      <c r="U151" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V151" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="W151" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="X151" s="3" t="s">
+      <c r="X151" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="Y151" s="3"/>
-      <c r="Z151" s="3"/>
+      <c r="Y151" s="27"/>
+      <c r="Z151" s="27"/>
       <c r="AA151" s="15" t="s">
         <v>0</v>
       </c>
@@ -11603,11 +11589,11 @@
       <c r="A152" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B152" s="10">
-        <v>59398</v>
+      <c r="B152" s="15">
+        <v>59389</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>252</v>
@@ -11631,10 +11617,10 @@
       <c r="O152" s="57"/>
       <c r="P152" s="57"/>
       <c r="Q152" s="9">
-        <v>42342</v>
-      </c>
-      <c r="R152" s="14">
-        <v>371</v>
+        <v>42346</v>
+      </c>
+      <c r="R152" s="8">
+        <v>290</v>
       </c>
       <c r="S152" s="7">
         <v>0</v>
@@ -11661,14 +11647,14 @@
       </c>
     </row>
     <row r="153" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A153" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B153" s="15">
-        <v>59493</v>
-      </c>
-      <c r="C153" s="13" t="s">
-        <v>292</v>
+      <c r="A153" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" s="10">
+        <v>59398</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>291</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>252</v>
@@ -11683,40 +11669,40 @@
       <c r="H153" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I153" s="45"/>
-      <c r="J153" s="45"/>
-      <c r="K153" s="45"/>
-      <c r="L153" s="45"/>
-      <c r="M153" s="45"/>
-      <c r="N153" s="45"/>
-      <c r="O153" s="45"/>
-      <c r="P153" s="45"/>
-      <c r="Q153" s="41">
-        <v>41778</v>
+      <c r="I153" s="57"/>
+      <c r="J153" s="57"/>
+      <c r="K153" s="57"/>
+      <c r="L153" s="57"/>
+      <c r="M153" s="57"/>
+      <c r="N153" s="57"/>
+      <c r="O153" s="57"/>
+      <c r="P153" s="57"/>
+      <c r="Q153" s="9">
+        <v>42342</v>
       </c>
       <c r="R153" s="14">
-        <v>919</v>
-      </c>
-      <c r="S153" s="37">
+        <v>371</v>
+      </c>
+      <c r="S153" s="7">
         <v>0</v>
       </c>
       <c r="T153" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="U153" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="V153" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="W153" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="X153" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="Y153" s="27"/>
-      <c r="Z153" s="27"/>
+      <c r="U153" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V153" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="W153" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X153" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y153" s="3"/>
+      <c r="Z153" s="3"/>
       <c r="AA153" s="15" t="s">
         <v>0</v>
       </c>
@@ -11726,10 +11712,10 @@
         <v>10</v>
       </c>
       <c r="B154" s="15">
-        <v>59501</v>
+        <v>59493</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>252</v>
@@ -11756,13 +11742,13 @@
         <v>41778</v>
       </c>
       <c r="R154" s="14">
-        <v>703</v>
+        <v>919</v>
       </c>
       <c r="S154" s="37">
         <v>0</v>
       </c>
-      <c r="T154" s="61">
-        <v>11</v>
+      <c r="T154" s="16" t="s">
+        <v>1</v>
       </c>
       <c r="U154" s="28" t="s">
         <v>5</v>
@@ -11771,10 +11757,10 @@
         <v>252</v>
       </c>
       <c r="W154" s="27" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="X154" s="27" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Y154" s="27"/>
       <c r="Z154" s="27"/>
@@ -11787,10 +11773,10 @@
         <v>10</v>
       </c>
       <c r="B155" s="15">
-        <v>59503</v>
+        <v>59501</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>252</v>
@@ -11814,16 +11800,16 @@
       <c r="O155" s="45"/>
       <c r="P155" s="45"/>
       <c r="Q155" s="41">
-        <v>41913</v>
+        <v>41778</v>
       </c>
       <c r="R155" s="14">
-        <v>740</v>
+        <v>703</v>
       </c>
       <c r="S155" s="37">
         <v>0</v>
       </c>
-      <c r="T155" s="16" t="s">
-        <v>1</v>
+      <c r="T155" s="61">
+        <v>11</v>
       </c>
       <c r="U155" s="28" t="s">
         <v>5</v>
@@ -11832,10 +11818,10 @@
         <v>252</v>
       </c>
       <c r="W155" s="27" t="s">
-        <v>28</v>
+        <v>296</v>
       </c>
       <c r="X155" s="27" t="s">
-        <v>27</v>
+        <v>297</v>
       </c>
       <c r="Y155" s="27"/>
       <c r="Z155" s="27"/>
@@ -11847,11 +11833,11 @@
       <c r="A156" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B156" s="13">
-        <v>59507</v>
+      <c r="B156" s="15">
+        <v>59503</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>252</v>
@@ -11875,10 +11861,10 @@
       <c r="O156" s="45"/>
       <c r="P156" s="45"/>
       <c r="Q156" s="41">
-        <v>42346</v>
+        <v>41913</v>
       </c>
       <c r="R156" s="14">
-        <v>991</v>
+        <v>740</v>
       </c>
       <c r="S156" s="37">
         <v>0</v>
@@ -11908,11 +11894,11 @@
       <c r="A157" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B157" s="10">
-        <v>59509</v>
+      <c r="B157" s="13">
+        <v>59507</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>252</v>
@@ -11939,7 +11925,7 @@
         <v>42346</v>
       </c>
       <c r="R157" s="14">
-        <v>570</v>
+        <v>991</v>
       </c>
       <c r="S157" s="37">
         <v>0</v>
@@ -11954,10 +11940,10 @@
         <v>252</v>
       </c>
       <c r="W157" s="27" t="s">
-        <v>301</v>
+        <v>28</v>
       </c>
       <c r="X157" s="27" t="s">
-        <v>302</v>
+        <v>27</v>
       </c>
       <c r="Y157" s="27"/>
       <c r="Z157" s="27"/>
@@ -11970,10 +11956,10 @@
         <v>10</v>
       </c>
       <c r="B158" s="10">
-        <v>59513</v>
+        <v>59509</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>252</v>
@@ -12000,7 +11986,7 @@
         <v>42346</v>
       </c>
       <c r="R158" s="14">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="S158" s="37">
         <v>0</v>
@@ -12015,10 +12001,10 @@
         <v>252</v>
       </c>
       <c r="W158" s="27" t="s">
-        <v>28</v>
+        <v>301</v>
       </c>
       <c r="X158" s="27" t="s">
-        <v>27</v>
+        <v>302</v>
       </c>
       <c r="Y158" s="27"/>
       <c r="Z158" s="27"/>
@@ -12031,10 +12017,10 @@
         <v>10</v>
       </c>
       <c r="B159" s="10">
-        <v>59522</v>
+        <v>59513</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>252</v>
@@ -12058,10 +12044,10 @@
       <c r="O159" s="45"/>
       <c r="P159" s="45"/>
       <c r="Q159" s="41">
-        <v>41913</v>
-      </c>
-      <c r="R159" s="25">
-        <v>1802</v>
+        <v>42346</v>
+      </c>
+      <c r="R159" s="14">
+        <v>578</v>
       </c>
       <c r="S159" s="37">
         <v>0</v>
@@ -12088,136 +12074,136 @@
       </c>
     </row>
     <row r="160" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B160" s="10">
+        <v>59522</v>
+      </c>
+      <c r="C160" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G160" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H160" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I160" s="45"/>
+      <c r="J160" s="45"/>
+      <c r="K160" s="45"/>
+      <c r="L160" s="45"/>
+      <c r="M160" s="45"/>
+      <c r="N160" s="45"/>
+      <c r="O160" s="45"/>
+      <c r="P160" s="45"/>
+      <c r="Q160" s="41">
+        <v>41913</v>
+      </c>
+      <c r="R160" s="25">
+        <v>1802</v>
+      </c>
+      <c r="S160" s="37">
+        <v>0</v>
+      </c>
+      <c r="T160" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U160" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V160" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="W160" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X160" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y160" s="27"/>
+      <c r="Z160" s="27"/>
+      <c r="AA160" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A161" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B161" s="10">
         <v>59526</v>
       </c>
-      <c r="C160" s="10" t="s">
+      <c r="C161" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="D160" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E160" s="10"/>
-      <c r="F160" s="10" t="s">
+      <c r="D161" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E161" s="10"/>
+      <c r="F161" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G160" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H160" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I160" s="57"/>
-      <c r="J160" s="57"/>
-      <c r="K160" s="57"/>
-      <c r="L160" s="57"/>
-      <c r="M160" s="57"/>
-      <c r="N160" s="57"/>
-      <c r="O160" s="57"/>
-      <c r="P160" s="57"/>
-      <c r="Q160" s="9">
+      <c r="G161" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H161" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I161" s="57"/>
+      <c r="J161" s="57"/>
+      <c r="K161" s="57"/>
+      <c r="L161" s="57"/>
+      <c r="M161" s="57"/>
+      <c r="N161" s="57"/>
+      <c r="O161" s="57"/>
+      <c r="P161" s="57"/>
+      <c r="Q161" s="9">
         <v>41778</v>
       </c>
-      <c r="R160" s="8">
+      <c r="R161" s="8">
         <v>354</v>
       </c>
-      <c r="S160" s="7">
-        <v>0</v>
-      </c>
-      <c r="T160" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="U160" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V160" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="W160" s="3" t="s">
+      <c r="S161" s="7">
+        <v>0</v>
+      </c>
+      <c r="T161" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U161" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V161" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="W161" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="X160" s="3" t="s">
+      <c r="X161" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Y160" s="3"/>
-      <c r="Z160" s="3"/>
-      <c r="AA160" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A161" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B161" s="10">
+      <c r="Y161" s="3"/>
+      <c r="Z161" s="3"/>
+      <c r="AA161" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A162" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B162" s="10">
         <v>59529</v>
       </c>
-      <c r="C161" s="13" t="s">
+      <c r="C162" s="13" t="s">
         <v>306</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E161" s="13"/>
-      <c r="F161" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G161" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H161" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I161" s="45"/>
-      <c r="J161" s="45"/>
-      <c r="K161" s="45"/>
-      <c r="L161" s="45"/>
-      <c r="M161" s="45"/>
-      <c r="N161" s="45"/>
-      <c r="O161" s="45"/>
-      <c r="P161" s="45"/>
-      <c r="Q161" s="41">
-        <v>42346</v>
-      </c>
-      <c r="R161" s="14">
-        <v>518</v>
-      </c>
-      <c r="S161" s="37">
-        <v>0</v>
-      </c>
-      <c r="T161" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="U161" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="V161" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="W161" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="X161" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y161" s="27"/>
-      <c r="Z161" s="27"/>
-      <c r="AA161" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A162" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B162" s="10">
-        <v>59535</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>307</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>252</v>
@@ -12232,53 +12218,53 @@
       <c r="H162" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I162" s="57"/>
-      <c r="J162" s="57"/>
-      <c r="K162" s="57"/>
-      <c r="L162" s="57"/>
-      <c r="M162" s="57"/>
-      <c r="N162" s="57"/>
-      <c r="O162" s="57"/>
-      <c r="P162" s="57"/>
-      <c r="Q162" s="9">
-        <v>41913</v>
-      </c>
-      <c r="R162" s="8">
-        <v>25552</v>
-      </c>
-      <c r="S162" s="7">
+      <c r="I162" s="45"/>
+      <c r="J162" s="45"/>
+      <c r="K162" s="45"/>
+      <c r="L162" s="45"/>
+      <c r="M162" s="45"/>
+      <c r="N162" s="45"/>
+      <c r="O162" s="45"/>
+      <c r="P162" s="45"/>
+      <c r="Q162" s="41">
+        <v>42346</v>
+      </c>
+      <c r="R162" s="14">
+        <v>518</v>
+      </c>
+      <c r="S162" s="37">
         <v>0</v>
       </c>
       <c r="T162" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="U162" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V162" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="W162" s="3" t="s">
+      <c r="U162" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V162" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="W162" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="X162" s="3" t="s">
+      <c r="X162" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="Y162" s="3"/>
-      <c r="Z162" s="3"/>
+      <c r="Y162" s="27"/>
+      <c r="Z162" s="27"/>
       <c r="AA162" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A163" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B163" s="13">
-        <v>59541</v>
-      </c>
-      <c r="C163" s="13" t="s">
-        <v>308</v>
+      <c r="A163" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B163" s="10">
+        <v>59535</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>307</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>252</v>
@@ -12293,40 +12279,40 @@
       <c r="H163" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I163" s="45"/>
-      <c r="J163" s="45"/>
-      <c r="K163" s="45"/>
-      <c r="L163" s="45"/>
-      <c r="M163" s="45"/>
-      <c r="N163" s="45"/>
-      <c r="O163" s="45"/>
-      <c r="P163" s="45"/>
-      <c r="Q163" s="41">
-        <v>42346</v>
-      </c>
-      <c r="R163" s="14">
-        <v>452</v>
-      </c>
-      <c r="S163" s="37">
+      <c r="I163" s="57"/>
+      <c r="J163" s="57"/>
+      <c r="K163" s="57"/>
+      <c r="L163" s="57"/>
+      <c r="M163" s="57"/>
+      <c r="N163" s="57"/>
+      <c r="O163" s="57"/>
+      <c r="P163" s="57"/>
+      <c r="Q163" s="9">
+        <v>41913</v>
+      </c>
+      <c r="R163" s="8">
+        <v>25552</v>
+      </c>
+      <c r="S163" s="7">
         <v>0</v>
       </c>
       <c r="T163" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="U163" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="V163" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="W163" s="27" t="s">
+      <c r="U163" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V163" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="W163" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="X163" s="27" t="s">
+      <c r="X163" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Y163" s="27"/>
-      <c r="Z163" s="27"/>
+      <c r="Y163" s="3"/>
+      <c r="Z163" s="3"/>
       <c r="AA163" s="15" t="s">
         <v>0</v>
       </c>
@@ -12335,11 +12321,11 @@
       <c r="A164" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B164" s="10">
-        <v>59544</v>
+      <c r="B164" s="13">
+        <v>59541</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>252</v>
@@ -12363,10 +12349,10 @@
       <c r="O164" s="45"/>
       <c r="P164" s="45"/>
       <c r="Q164" s="41">
-        <v>41778</v>
+        <v>42346</v>
       </c>
       <c r="R164" s="14">
-        <v>537</v>
+        <v>452</v>
       </c>
       <c r="S164" s="37">
         <v>0</v>
@@ -12396,11 +12382,11 @@
       <c r="A165" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B165" s="13">
-        <v>59548</v>
+      <c r="B165" s="10">
+        <v>59544</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>252</v>
@@ -12427,7 +12413,7 @@
         <v>41778</v>
       </c>
       <c r="R165" s="14">
-        <v>386</v>
+        <v>537</v>
       </c>
       <c r="S165" s="37">
         <v>0</v>
@@ -12458,10 +12444,10 @@
         <v>10</v>
       </c>
       <c r="B166" s="13">
-        <v>59554</v>
+        <v>59548</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>252</v>
@@ -12485,10 +12471,10 @@
       <c r="O166" s="45"/>
       <c r="P166" s="45"/>
       <c r="Q166" s="41">
-        <v>42346</v>
+        <v>41778</v>
       </c>
       <c r="R166" s="14">
-        <v>613</v>
+        <v>386</v>
       </c>
       <c r="S166" s="37">
         <v>0</v>
@@ -12518,11 +12504,11 @@
       <c r="A167" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B167" s="10">
-        <v>59558</v>
+      <c r="B167" s="13">
+        <v>59554</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>252</v>
@@ -12549,7 +12535,7 @@
         <v>42346</v>
       </c>
       <c r="R167" s="14">
-        <v>702</v>
+        <v>613</v>
       </c>
       <c r="S167" s="37">
         <v>0</v>
@@ -12580,10 +12566,10 @@
         <v>10</v>
       </c>
       <c r="B168" s="10">
-        <v>59561</v>
+        <v>59558</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>252</v>
@@ -12610,7 +12596,7 @@
         <v>42346</v>
       </c>
       <c r="R168" s="14">
-        <v>519</v>
+        <v>702</v>
       </c>
       <c r="S168" s="37">
         <v>0</v>
@@ -12637,20 +12623,20 @@
       </c>
     </row>
     <row r="169" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B169" s="10">
-        <v>59563</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>314</v>
+        <v>59561</v>
+      </c>
+      <c r="C169" s="13" t="s">
+        <v>313</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E169" s="10"/>
-      <c r="F169" s="10" t="s">
+      <c r="E169" s="13"/>
+      <c r="F169" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G169" s="15" t="s">
@@ -12667,51 +12653,51 @@
       <c r="N169" s="45"/>
       <c r="O169" s="45"/>
       <c r="P169" s="45"/>
-      <c r="Q169" s="9">
-        <v>41906</v>
-      </c>
-      <c r="R169" s="8">
-        <v>420</v>
-      </c>
-      <c r="S169" s="7">
+      <c r="Q169" s="41">
+        <v>42346</v>
+      </c>
+      <c r="R169" s="14">
+        <v>519</v>
+      </c>
+      <c r="S169" s="37">
         <v>0</v>
       </c>
       <c r="T169" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="U169" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V169" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="W169" s="3" t="s">
+      <c r="U169" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V169" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="W169" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="X169" s="3" t="s">
+      <c r="X169" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="Y169" s="3"/>
-      <c r="Z169" s="3"/>
+      <c r="Y169" s="27"/>
+      <c r="Z169" s="27"/>
       <c r="AA169" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A170" s="27" t="s">
+      <c r="A170" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B170" s="10">
-        <v>59565</v>
-      </c>
-      <c r="C170" s="13" t="s">
-        <v>315</v>
+        <v>59563</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>314</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E170" s="13"/>
-      <c r="F170" s="13" t="s">
+      <c r="E170" s="10"/>
+      <c r="F170" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G170" s="15" t="s">
@@ -12728,32 +12714,32 @@
       <c r="N170" s="45"/>
       <c r="O170" s="45"/>
       <c r="P170" s="45"/>
-      <c r="Q170" s="41">
-        <v>41913</v>
-      </c>
-      <c r="R170" s="14">
-        <v>860</v>
-      </c>
-      <c r="S170" s="37">
+      <c r="Q170" s="9">
+        <v>41906</v>
+      </c>
+      <c r="R170" s="8">
+        <v>420</v>
+      </c>
+      <c r="S170" s="7">
         <v>0</v>
       </c>
       <c r="T170" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="U170" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="V170" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="W170" s="27" t="s">
+      <c r="U170" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V170" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="W170" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="X170" s="27" t="s">
+      <c r="X170" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Y170" s="27"/>
-      <c r="Z170" s="27"/>
+      <c r="Y170" s="3"/>
+      <c r="Z170" s="3"/>
       <c r="AA170" s="15" t="s">
         <v>0</v>
       </c>
@@ -12763,16 +12749,16 @@
         <v>10</v>
       </c>
       <c r="B171" s="10">
-        <v>59567</v>
+        <v>59565</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E171" s="39"/>
-      <c r="F171" s="39" t="s">
+      <c r="E171" s="13"/>
+      <c r="F171" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G171" s="15" t="s">
@@ -12793,9 +12779,9 @@
         <v>41913</v>
       </c>
       <c r="R171" s="14">
-        <v>561</v>
-      </c>
-      <c r="S171" s="7">
+        <v>860</v>
+      </c>
+      <c r="S171" s="37">
         <v>0</v>
       </c>
       <c r="T171" s="16" t="s">
@@ -12820,75 +12806,75 @@
       </c>
     </row>
     <row r="172" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A172" s="3" t="s">
+      <c r="A172" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B172" s="10">
+        <v>59567</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E172" s="39"/>
+      <c r="F172" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G172" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H172" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I172" s="45"/>
+      <c r="J172" s="45"/>
+      <c r="K172" s="45"/>
+      <c r="L172" s="45"/>
+      <c r="M172" s="45"/>
+      <c r="N172" s="45"/>
+      <c r="O172" s="45"/>
+      <c r="P172" s="45"/>
+      <c r="Q172" s="41">
+        <v>41913</v>
+      </c>
+      <c r="R172" s="14">
+        <v>561</v>
+      </c>
+      <c r="S172" s="7">
+        <v>0</v>
+      </c>
+      <c r="T172" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U172" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V172" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="W172" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X172" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y172" s="27"/>
+      <c r="Z172" s="27"/>
+      <c r="AA172" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A173" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B173" s="10">
         <v>64607</v>
       </c>
-      <c r="C172" s="10" t="s">
+      <c r="C173" s="10" t="s">
         <v>317</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E172" s="13"/>
-      <c r="F172" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G172" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H172" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I172" s="57"/>
-      <c r="J172" s="57"/>
-      <c r="K172" s="57"/>
-      <c r="L172" s="57"/>
-      <c r="M172" s="57"/>
-      <c r="N172" s="57"/>
-      <c r="O172" s="57"/>
-      <c r="P172" s="57"/>
-      <c r="Q172" s="9">
-        <v>42342</v>
-      </c>
-      <c r="R172" s="8">
-        <v>397</v>
-      </c>
-      <c r="S172" s="7">
-        <v>0</v>
-      </c>
-      <c r="T172" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="U172" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V172" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="W172" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="X172" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y172" s="3"/>
-      <c r="Z172" s="3"/>
-      <c r="AA172" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:27" ht="26" x14ac:dyDescent="0.15">
-      <c r="A173" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B173" s="10">
-        <v>66898</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>318</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>252</v>
@@ -12914,8 +12900,8 @@
       <c r="Q173" s="9">
         <v>42342</v>
       </c>
-      <c r="R173" s="14">
-        <v>318</v>
+      <c r="R173" s="8">
+        <v>397</v>
       </c>
       <c r="S173" s="7">
         <v>0</v>
@@ -12941,21 +12927,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A174" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B174" s="10">
-        <v>66899</v>
+        <v>66898</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E174" s="10"/>
-      <c r="F174" s="10" t="s">
+      <c r="E174" s="13"/>
+      <c r="F174" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G174" s="15" t="s">
@@ -12975,8 +12961,8 @@
       <c r="Q174" s="9">
         <v>42342</v>
       </c>
-      <c r="R174" s="8">
-        <v>213</v>
+      <c r="R174" s="14">
+        <v>318</v>
       </c>
       <c r="S174" s="7">
         <v>0</v>
@@ -13003,20 +12989,20 @@
       </c>
     </row>
     <row r="175" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A175" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B175" s="15">
-        <v>66908</v>
-      </c>
-      <c r="C175" s="13" t="s">
-        <v>320</v>
+      <c r="A175" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B175" s="10">
+        <v>66899</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>319</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E175" s="13"/>
-      <c r="F175" s="13" t="s">
+      <c r="E175" s="10"/>
+      <c r="F175" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G175" s="15" t="s">
@@ -13025,40 +13011,40 @@
       <c r="H175" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I175" s="45"/>
-      <c r="J175" s="45"/>
-      <c r="K175" s="45"/>
-      <c r="L175" s="45"/>
-      <c r="M175" s="45"/>
-      <c r="N175" s="45"/>
-      <c r="O175" s="45"/>
-      <c r="P175" s="45"/>
-      <c r="Q175" s="41">
-        <v>42346</v>
-      </c>
-      <c r="R175" s="14">
-        <v>600</v>
-      </c>
-      <c r="S175" s="37">
+      <c r="I175" s="57"/>
+      <c r="J175" s="57"/>
+      <c r="K175" s="57"/>
+      <c r="L175" s="57"/>
+      <c r="M175" s="57"/>
+      <c r="N175" s="57"/>
+      <c r="O175" s="57"/>
+      <c r="P175" s="57"/>
+      <c r="Q175" s="9">
+        <v>42342</v>
+      </c>
+      <c r="R175" s="8">
+        <v>213</v>
+      </c>
+      <c r="S175" s="7">
         <v>0</v>
       </c>
       <c r="T175" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="U175" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="V175" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="W175" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="X175" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="Y175" s="27"/>
-      <c r="Z175" s="27"/>
+      <c r="U175" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V175" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="W175" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X175" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y175" s="3"/>
+      <c r="Z175" s="3"/>
       <c r="AA175" s="15" t="s">
         <v>0</v>
       </c>
@@ -13067,11 +13053,11 @@
       <c r="A176" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B176" s="13">
-        <v>66959</v>
+      <c r="B176" s="15">
+        <v>66908</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>252</v>
@@ -13095,10 +13081,10 @@
       <c r="O176" s="45"/>
       <c r="P176" s="45"/>
       <c r="Q176" s="41">
-        <v>41778</v>
+        <v>42346</v>
       </c>
       <c r="R176" s="14">
-        <v>391</v>
+        <v>600</v>
       </c>
       <c r="S176" s="37">
         <v>0</v>
@@ -13113,10 +13099,10 @@
         <v>252</v>
       </c>
       <c r="W176" s="27" t="s">
-        <v>28</v>
+        <v>321</v>
       </c>
       <c r="X176" s="27" t="s">
-        <v>27</v>
+        <v>322</v>
       </c>
       <c r="Y176" s="27"/>
       <c r="Z176" s="27"/>
@@ -13128,11 +13114,11 @@
       <c r="A177" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B177" s="10">
-        <v>67000</v>
+      <c r="B177" s="13">
+        <v>66959</v>
       </c>
       <c r="C177" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>252</v>
@@ -13159,7 +13145,7 @@
         <v>41778</v>
       </c>
       <c r="R177" s="14">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="S177" s="37">
         <v>0</v>
@@ -13174,10 +13160,10 @@
         <v>252</v>
       </c>
       <c r="W177" s="27" t="s">
-        <v>325</v>
+        <v>28</v>
       </c>
       <c r="X177" s="27" t="s">
-        <v>326</v>
+        <v>27</v>
       </c>
       <c r="Y177" s="27"/>
       <c r="Z177" s="27"/>
@@ -13189,11 +13175,11 @@
       <c r="A178" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B178" s="15">
-        <v>67109</v>
+      <c r="B178" s="10">
+        <v>67000</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>252</v>
@@ -13220,7 +13206,7 @@
         <v>41778</v>
       </c>
       <c r="R178" s="14">
-        <v>677</v>
+        <v>424</v>
       </c>
       <c r="S178" s="37">
         <v>0</v>
@@ -13235,10 +13221,10 @@
         <v>252</v>
       </c>
       <c r="W178" s="27" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="X178" s="27" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y178" s="27"/>
       <c r="Z178" s="27"/>
@@ -13246,15 +13232,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:27" ht="26" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A179" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B179" s="13">
-        <v>67117</v>
+      <c r="B179" s="15">
+        <v>67109</v>
       </c>
       <c r="C179" s="13" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>252</v>
@@ -13281,7 +13267,7 @@
         <v>41778</v>
       </c>
       <c r="R179" s="14">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="S179" s="37">
         <v>0</v>
@@ -13296,10 +13282,10 @@
         <v>252</v>
       </c>
       <c r="W179" s="27" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="X179" s="27" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Y179" s="27"/>
       <c r="Z179" s="27"/>
@@ -13307,15 +13293,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A180" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B180" s="13">
-        <v>67122</v>
+        <v>67117</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>252</v>
@@ -13339,10 +13325,10 @@
       <c r="O180" s="45"/>
       <c r="P180" s="45"/>
       <c r="Q180" s="41">
-        <v>42306</v>
+        <v>41778</v>
       </c>
       <c r="R180" s="14">
-        <v>496</v>
+        <v>663</v>
       </c>
       <c r="S180" s="37">
         <v>0</v>
@@ -13357,10 +13343,10 @@
         <v>252</v>
       </c>
       <c r="W180" s="27" t="s">
-        <v>280</v>
+        <v>331</v>
       </c>
       <c r="X180" s="27" t="s">
-        <v>281</v>
+        <v>332</v>
       </c>
       <c r="Y180" s="27"/>
       <c r="Z180" s="27"/>
@@ -13369,84 +13355,84 @@
       </c>
     </row>
     <row r="181" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A181" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B181" s="10">
+      <c r="A181" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B181" s="13">
+        <v>67122</v>
+      </c>
+      <c r="C181" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E181" s="13"/>
+      <c r="F181" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G181" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H181" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I181" s="45"/>
+      <c r="J181" s="45"/>
+      <c r="K181" s="45"/>
+      <c r="L181" s="45"/>
+      <c r="M181" s="45"/>
+      <c r="N181" s="45"/>
+      <c r="O181" s="45"/>
+      <c r="P181" s="45"/>
+      <c r="Q181" s="41">
+        <v>42306</v>
+      </c>
+      <c r="R181" s="14">
+        <v>496</v>
+      </c>
+      <c r="S181" s="37">
+        <v>0</v>
+      </c>
+      <c r="T181" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U181" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V181" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="W181" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="X181" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y181" s="27"/>
+      <c r="Z181" s="27"/>
+      <c r="AA181" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A182" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B182" s="10">
         <v>67191</v>
       </c>
-      <c r="C181" s="10" t="s">
+      <c r="C182" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="D181" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E181" s="10"/>
-      <c r="F181" s="10" t="s">
+      <c r="D182" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E182" s="10"/>
+      <c r="F182" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G181" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H181" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I181" s="57"/>
-      <c r="J181" s="57"/>
-      <c r="K181" s="57"/>
-      <c r="L181" s="57"/>
-      <c r="M181" s="57"/>
-      <c r="N181" s="57"/>
-      <c r="O181" s="57"/>
-      <c r="P181" s="57"/>
-      <c r="Q181" s="9">
-        <v>41778</v>
-      </c>
-      <c r="R181" s="8">
-        <v>332</v>
-      </c>
-      <c r="S181" s="7">
-        <v>0</v>
-      </c>
-      <c r="T181" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="U181" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V181" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="W181" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="X181" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y181" s="3"/>
-      <c r="Z181" s="3"/>
-      <c r="AA181" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:27" ht="26" x14ac:dyDescent="0.15">
-      <c r="A182" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B182" s="10">
-        <v>67194</v>
-      </c>
-      <c r="C182" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E182" s="39"/>
-      <c r="F182" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G182" s="33" t="s">
+      <c r="G182" s="15" t="s">
         <v>2</v>
       </c>
       <c r="H182" s="15" t="s">
@@ -13464,7 +13450,7 @@
         <v>41778</v>
       </c>
       <c r="R182" s="8">
-        <v>212</v>
+        <v>332</v>
       </c>
       <c r="S182" s="7">
         <v>0</v>
@@ -13490,24 +13476,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:27" ht="26" x14ac:dyDescent="0.15">
       <c r="A183" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B183" s="10">
-        <v>67196</v>
+        <v>67194</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E183" s="13"/>
-      <c r="F183" s="13" t="s">
+      <c r="E183" s="39"/>
+      <c r="F183" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G183" s="15" t="s">
+      <c r="G183" s="33" t="s">
         <v>2</v>
       </c>
       <c r="H183" s="15" t="s">
@@ -13525,7 +13511,7 @@
         <v>41778</v>
       </c>
       <c r="R183" s="8">
-        <v>331</v>
+        <v>212</v>
       </c>
       <c r="S183" s="7">
         <v>0</v>
@@ -13552,14 +13538,14 @@
       </c>
     </row>
     <row r="184" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A184" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B184" s="13">
-        <v>67211</v>
-      </c>
-      <c r="C184" s="13" t="s">
-        <v>336</v>
+      <c r="A184" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B184" s="10">
+        <v>67196</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>335</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>252</v>
@@ -13574,40 +13560,40 @@
       <c r="H184" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I184" s="45"/>
-      <c r="J184" s="45"/>
-      <c r="K184" s="45"/>
-      <c r="L184" s="45"/>
-      <c r="M184" s="45"/>
-      <c r="N184" s="45"/>
-      <c r="O184" s="45"/>
-      <c r="P184" s="45"/>
-      <c r="Q184" s="41">
+      <c r="I184" s="57"/>
+      <c r="J184" s="57"/>
+      <c r="K184" s="57"/>
+      <c r="L184" s="57"/>
+      <c r="M184" s="57"/>
+      <c r="N184" s="57"/>
+      <c r="O184" s="57"/>
+      <c r="P184" s="57"/>
+      <c r="Q184" s="9">
         <v>41778</v>
       </c>
-      <c r="R184" s="14">
-        <v>322</v>
-      </c>
-      <c r="S184" s="37">
+      <c r="R184" s="8">
+        <v>331</v>
+      </c>
+      <c r="S184" s="7">
         <v>0</v>
       </c>
       <c r="T184" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="U184" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="V184" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="W184" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="X184" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y184" s="27"/>
-      <c r="Z184" s="27"/>
+      <c r="U184" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V184" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="W184" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X184" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y184" s="3"/>
+      <c r="Z184" s="3"/>
       <c r="AA184" s="15" t="s">
         <v>0</v>
       </c>
@@ -13617,10 +13603,10 @@
         <v>10</v>
       </c>
       <c r="B185" s="13">
-        <v>67219</v>
+        <v>67211</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>252</v>
@@ -13647,7 +13633,7 @@
         <v>41778</v>
       </c>
       <c r="R185" s="14">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="S185" s="37">
         <v>0</v>
@@ -13674,14 +13660,14 @@
       </c>
     </row>
     <row r="186" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A186" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B186" s="10">
-        <v>67225</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>338</v>
+      <c r="A186" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B186" s="13">
+        <v>67219</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>337</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>252</v>
@@ -13696,345 +13682,345 @@
       <c r="H186" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I186" s="57"/>
-      <c r="J186" s="57"/>
-      <c r="K186" s="57"/>
-      <c r="L186" s="57"/>
-      <c r="M186" s="57"/>
-      <c r="N186" s="57"/>
-      <c r="O186" s="57"/>
-      <c r="P186" s="57"/>
-      <c r="Q186" s="9">
+      <c r="I186" s="45"/>
+      <c r="J186" s="45"/>
+      <c r="K186" s="45"/>
+      <c r="L186" s="45"/>
+      <c r="M186" s="45"/>
+      <c r="N186" s="45"/>
+      <c r="O186" s="45"/>
+      <c r="P186" s="45"/>
+      <c r="Q186" s="41">
         <v>41778</v>
       </c>
-      <c r="R186" s="8">
+      <c r="R186" s="14">
+        <v>341</v>
+      </c>
+      <c r="S186" s="37">
+        <v>0</v>
+      </c>
+      <c r="T186" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U186" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V186" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="W186" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="X186" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y186" s="27"/>
+      <c r="Z186" s="27"/>
+      <c r="AA186" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A187" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187" s="10">
+        <v>67225</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E187" s="13"/>
+      <c r="F187" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G187" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H187" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I187" s="57"/>
+      <c r="J187" s="57"/>
+      <c r="K187" s="57"/>
+      <c r="L187" s="57"/>
+      <c r="M187" s="57"/>
+      <c r="N187" s="57"/>
+      <c r="O187" s="57"/>
+      <c r="P187" s="57"/>
+      <c r="Q187" s="9">
+        <v>41778</v>
+      </c>
+      <c r="R187" s="8">
         <v>313</v>
       </c>
-      <c r="S186" s="7">
-        <v>0</v>
-      </c>
-      <c r="T186" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="U186" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V186" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="W186" s="3" t="s">
+      <c r="S187" s="7">
+        <v>0</v>
+      </c>
+      <c r="T187" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U187" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V187" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="W187" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="X186" s="3" t="s">
+      <c r="X187" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="Y186" s="3"/>
-      <c r="Z186" s="3"/>
-      <c r="AA186" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A187" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B187" s="10">
+      <c r="Y187" s="3"/>
+      <c r="Z187" s="3"/>
+      <c r="AA187" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A188" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B188" s="10">
         <v>67232</v>
       </c>
-      <c r="C187" s="13" t="s">
+      <c r="C188" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="D187" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E187" s="39"/>
-      <c r="F187" s="39" t="s">
+      <c r="D188" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E188" s="39"/>
+      <c r="F188" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G187" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="H187" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I187" s="45"/>
-      <c r="J187" s="45"/>
-      <c r="K187" s="45"/>
-      <c r="L187" s="45"/>
-      <c r="M187" s="45"/>
-      <c r="N187" s="45"/>
-      <c r="O187" s="45"/>
-      <c r="P187" s="45"/>
-      <c r="Q187" s="41">
+      <c r="G188" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="H188" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I188" s="45"/>
+      <c r="J188" s="45"/>
+      <c r="K188" s="45"/>
+      <c r="L188" s="45"/>
+      <c r="M188" s="45"/>
+      <c r="N188" s="45"/>
+      <c r="O188" s="45"/>
+      <c r="P188" s="45"/>
+      <c r="Q188" s="41">
         <v>41778</v>
       </c>
-      <c r="R187" s="14">
+      <c r="R188" s="14">
         <v>433</v>
       </c>
-      <c r="S187" s="37">
-        <v>0</v>
-      </c>
-      <c r="T187" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="U187" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="V187" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="W187" s="27" t="s">
+      <c r="S188" s="37">
+        <v>0</v>
+      </c>
+      <c r="T188" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U188" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V188" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="W188" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="X187" s="27" t="s">
+      <c r="X188" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="Y187" s="27"/>
-      <c r="Z187" s="27"/>
-      <c r="AA187" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A188" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B188" s="10">
+      <c r="Y188" s="27"/>
+      <c r="Z188" s="27"/>
+      <c r="AA188" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A189" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189" s="10">
         <v>67237</v>
       </c>
-      <c r="C188" s="10" t="s">
+      <c r="C189" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="D188" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E188" s="10"/>
-      <c r="F188" s="10" t="s">
+      <c r="D189" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E189" s="10"/>
+      <c r="F189" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G188" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H188" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I188" s="57"/>
-      <c r="J188" s="57"/>
-      <c r="K188" s="57"/>
-      <c r="L188" s="57"/>
-      <c r="M188" s="57"/>
-      <c r="N188" s="57"/>
-      <c r="O188" s="57"/>
-      <c r="P188" s="57"/>
-      <c r="Q188" s="9">
+      <c r="G189" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H189" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I189" s="57"/>
+      <c r="J189" s="57"/>
+      <c r="K189" s="57"/>
+      <c r="L189" s="57"/>
+      <c r="M189" s="57"/>
+      <c r="N189" s="57"/>
+      <c r="O189" s="57"/>
+      <c r="P189" s="57"/>
+      <c r="Q189" s="9">
         <v>41778</v>
       </c>
-      <c r="R188" s="14">
+      <c r="R189" s="14">
         <v>170</v>
       </c>
-      <c r="S188" s="7">
-        <v>0</v>
-      </c>
-      <c r="T188" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="U188" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V188" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="W188" s="3" t="s">
+      <c r="S189" s="7">
+        <v>0</v>
+      </c>
+      <c r="T189" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U189" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V189" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="W189" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="X188" s="3" t="s">
+      <c r="X189" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Y188" s="3"/>
-      <c r="Z188" s="3"/>
-      <c r="AA188" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A189" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B189" s="15">
+      <c r="Y189" s="3"/>
+      <c r="Z189" s="3"/>
+      <c r="AA189" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A190" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B190" s="15">
         <v>67252</v>
       </c>
-      <c r="C189" s="13" t="s">
+      <c r="C190" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="D189" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E189" s="13"/>
-      <c r="F189" s="13" t="s">
+      <c r="D190" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E190" s="13"/>
+      <c r="F190" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G189" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H189" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I189" s="45"/>
-      <c r="J189" s="45"/>
-      <c r="K189" s="45"/>
-      <c r="L189" s="45"/>
-      <c r="M189" s="45"/>
-      <c r="N189" s="45"/>
-      <c r="O189" s="45"/>
-      <c r="P189" s="45"/>
-      <c r="Q189" s="41">
+      <c r="G190" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H190" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I190" s="45"/>
+      <c r="J190" s="45"/>
+      <c r="K190" s="45"/>
+      <c r="L190" s="45"/>
+      <c r="M190" s="45"/>
+      <c r="N190" s="45"/>
+      <c r="O190" s="45"/>
+      <c r="P190" s="45"/>
+      <c r="Q190" s="41">
         <v>41778</v>
       </c>
-      <c r="R189" s="14">
+      <c r="R190" s="14">
         <v>422</v>
       </c>
-      <c r="S189" s="37">
-        <v>0</v>
-      </c>
-      <c r="T189" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="U189" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="V189" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="W189" s="27" t="s">
+      <c r="S190" s="37">
+        <v>0</v>
+      </c>
+      <c r="T190" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U190" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V190" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="W190" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="X189" s="27" t="s">
+      <c r="X190" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="Y189" s="27"/>
-      <c r="Z189" s="27"/>
-      <c r="AA189" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A190" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B190" s="10">
+      <c r="Y190" s="27"/>
+      <c r="Z190" s="27"/>
+      <c r="AA190" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A191" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B191" s="10">
         <v>67257</v>
       </c>
-      <c r="C190" s="10" t="s">
+      <c r="C191" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="D190" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E190" s="10"/>
-      <c r="F190" s="10" t="s">
+      <c r="D191" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E191" s="10"/>
+      <c r="F191" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G190" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H190" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I190" s="57"/>
-      <c r="J190" s="57"/>
-      <c r="K190" s="57"/>
-      <c r="L190" s="57"/>
-      <c r="M190" s="57"/>
-      <c r="N190" s="57"/>
-      <c r="O190" s="57"/>
-      <c r="P190" s="57"/>
-      <c r="Q190" s="9">
+      <c r="G191" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H191" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I191" s="57"/>
+      <c r="J191" s="57"/>
+      <c r="K191" s="57"/>
+      <c r="L191" s="57"/>
+      <c r="M191" s="57"/>
+      <c r="N191" s="57"/>
+      <c r="O191" s="57"/>
+      <c r="P191" s="57"/>
+      <c r="Q191" s="9">
         <v>41778</v>
       </c>
-      <c r="R190" s="8">
+      <c r="R191" s="8">
         <v>399</v>
       </c>
-      <c r="S190" s="7">
-        <v>0</v>
-      </c>
-      <c r="T190" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="U190" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V190" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="W190" s="3" t="s">
+      <c r="S191" s="7">
+        <v>0</v>
+      </c>
+      <c r="T191" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U191" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V191" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="W191" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="X190" s="3" t="s">
+      <c r="X191" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Y190" s="3"/>
-      <c r="Z190" s="3"/>
-      <c r="AA190" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A191" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B191" s="13">
-        <v>67267</v>
-      </c>
-      <c r="C191" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E191" s="13"/>
-      <c r="F191" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G191" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H191" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I191" s="45"/>
-      <c r="J191" s="45"/>
-      <c r="K191" s="45"/>
-      <c r="L191" s="45"/>
-      <c r="M191" s="45"/>
-      <c r="N191" s="45"/>
-      <c r="O191" s="45"/>
-      <c r="P191" s="45"/>
-      <c r="Q191" s="41">
-        <v>41778</v>
-      </c>
-      <c r="R191" s="14">
-        <v>539</v>
-      </c>
-      <c r="S191" s="37">
-        <v>0</v>
-      </c>
-      <c r="T191" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="U191" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="V191" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="W191" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="X191" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y191" s="27"/>
-      <c r="Z191" s="27"/>
+      <c r="Y191" s="3"/>
+      <c r="Z191" s="3"/>
       <c r="AA191" s="15" t="s">
         <v>0</v>
       </c>
@@ -14044,10 +14030,10 @@
         <v>10</v>
       </c>
       <c r="B192" s="13">
-        <v>67297</v>
+        <v>67267</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>252</v>
@@ -14074,7 +14060,7 @@
         <v>41778</v>
       </c>
       <c r="R192" s="14">
-        <v>401</v>
+        <v>539</v>
       </c>
       <c r="S192" s="37">
         <v>0</v>
@@ -14104,11 +14090,11 @@
       <c r="A193" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B193" s="10">
-        <v>67300</v>
+      <c r="B193" s="13">
+        <v>67297</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>252</v>
@@ -14135,7 +14121,7 @@
         <v>41778</v>
       </c>
       <c r="R193" s="14">
-        <v>493</v>
+        <v>401</v>
       </c>
       <c r="S193" s="37">
         <v>0</v>
@@ -14166,10 +14152,10 @@
         <v>10</v>
       </c>
       <c r="B194" s="10">
-        <v>76170</v>
+        <v>67300</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D194" s="3" t="s">
         <v>252</v>
@@ -14195,8 +14181,8 @@
       <c r="Q194" s="41">
         <v>41778</v>
       </c>
-      <c r="R194" s="25">
-        <v>1623</v>
+      <c r="R194" s="14">
+        <v>493</v>
       </c>
       <c r="S194" s="37">
         <v>0</v>
@@ -14211,10 +14197,10 @@
         <v>252</v>
       </c>
       <c r="W194" s="27" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="X194" s="27" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="Y194" s="27"/>
       <c r="Z194" s="27"/>
@@ -14227,10 +14213,10 @@
         <v>10</v>
       </c>
       <c r="B195" s="10">
-        <v>76777</v>
+        <v>76170</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>252</v>
@@ -14254,10 +14240,10 @@
       <c r="O195" s="45"/>
       <c r="P195" s="45"/>
       <c r="Q195" s="41">
-        <v>42346</v>
+        <v>41778</v>
       </c>
       <c r="R195" s="25">
-        <v>1080</v>
+        <v>1623</v>
       </c>
       <c r="S195" s="37">
         <v>0</v>
@@ -14288,10 +14274,10 @@
         <v>10</v>
       </c>
       <c r="B196" s="10">
-        <v>98284</v>
+        <v>76777</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>252</v>
@@ -14315,12 +14301,12 @@
       <c r="O196" s="45"/>
       <c r="P196" s="45"/>
       <c r="Q196" s="41">
-        <v>41913</v>
+        <v>42346</v>
       </c>
       <c r="R196" s="25">
-        <v>1654</v>
-      </c>
-      <c r="S196" s="7">
+        <v>1080</v>
+      </c>
+      <c r="S196" s="37">
         <v>0</v>
       </c>
       <c r="T196" s="16" t="s">
@@ -14345,14 +14331,14 @@
       </c>
     </row>
     <row r="197" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A197" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B197" s="15">
-        <v>141775</v>
-      </c>
-      <c r="C197" s="15" t="s">
-        <v>349</v>
+      <c r="A197" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B197" s="10">
+        <v>98284</v>
+      </c>
+      <c r="C197" s="13" t="s">
+        <v>348</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>252</v>
@@ -14367,104 +14353,98 @@
       <c r="H197" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I197" s="16"/>
-      <c r="J197" s="16"/>
-      <c r="K197" s="16"/>
-      <c r="L197" s="16"/>
-      <c r="M197" s="16"/>
-      <c r="N197" s="16"/>
-      <c r="O197" s="16"/>
-      <c r="P197" s="16"/>
+      <c r="I197" s="45"/>
+      <c r="J197" s="45"/>
+      <c r="K197" s="45"/>
+      <c r="L197" s="45"/>
+      <c r="M197" s="45"/>
+      <c r="N197" s="45"/>
+      <c r="O197" s="45"/>
+      <c r="P197" s="45"/>
       <c r="Q197" s="41">
-        <v>42108</v>
-      </c>
-      <c r="R197" s="20">
-        <v>79</v>
-      </c>
-      <c r="S197" s="37">
-        <v>0</v>
-      </c>
-      <c r="T197" s="37">
-        <v>11</v>
-      </c>
-      <c r="U197" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="V197" s="16">
-        <v>0</v>
-      </c>
-      <c r="W197" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="X197" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y197" s="16"/>
-      <c r="Z197" s="16"/>
+        <v>41913</v>
+      </c>
+      <c r="R197" s="25">
+        <v>1654</v>
+      </c>
+      <c r="S197" s="7">
+        <v>0</v>
+      </c>
+      <c r="T197" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U197" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V197" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="W197" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="X197" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y197" s="27"/>
+      <c r="Z197" s="27"/>
       <c r="AA197" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A198" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B198" s="26">
-        <v>75420</v>
+        <v>6</v>
+      </c>
+      <c r="B198" s="15">
+        <v>141775</v>
       </c>
       <c r="C198" s="15" t="s">
-        <v>63</v>
+        <v>349</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E198" s="16"/>
-      <c r="F198" s="16" t="s">
-        <v>24</v>
+        <v>252</v>
+      </c>
+      <c r="E198" s="13"/>
+      <c r="F198" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="G198" s="15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H198" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I198" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="J198" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="K198" s="16" t="s">
-        <v>242</v>
-      </c>
+      <c r="I198" s="16"/>
+      <c r="J198" s="16"/>
+      <c r="K198" s="16"/>
       <c r="L198" s="16"/>
       <c r="M198" s="16"/>
-      <c r="N198" s="16" t="s">
-        <v>2</v>
-      </c>
+      <c r="N198" s="16"/>
       <c r="O198" s="16"/>
       <c r="P198" s="16"/>
       <c r="Q198" s="41">
-        <v>41676</v>
-      </c>
-      <c r="R198" s="37">
-        <v>1007</v>
+        <v>42108</v>
+      </c>
+      <c r="R198" s="20">
+        <v>79</v>
       </c>
       <c r="S198" s="37">
-        <v>3</v>
-      </c>
-      <c r="T198" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="U198" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="V198" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="T198" s="37">
+        <v>11</v>
+      </c>
+      <c r="U198" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="V198" s="16">
+        <v>0</v>
+      </c>
       <c r="W198" s="16" t="s">
-        <v>14</v>
+        <v>296</v>
       </c>
       <c r="X198" s="16" t="s">
-        <v>13</v>
+        <v>297</v>
       </c>
       <c r="Y198" s="16"/>
       <c r="Z198" s="16"/>
@@ -14473,77 +14453,81 @@
       </c>
     </row>
     <row r="199" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A199" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B199" s="10">
-        <v>75425</v>
-      </c>
-      <c r="C199" s="10" t="s">
-        <v>66</v>
+      <c r="A199" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B199" s="26">
+        <v>75420</v>
+      </c>
+      <c r="C199" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E199" s="13"/>
-      <c r="F199" s="13" t="s">
+      <c r="E199" s="16"/>
+      <c r="F199" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G199" s="26" t="s">
+      <c r="G199" s="15" t="s">
         <v>4</v>
       </c>
       <c r="H199" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I199" s="3"/>
-      <c r="J199" s="57"/>
-      <c r="K199" s="57"/>
-      <c r="L199" s="57"/>
-      <c r="M199" s="57"/>
+      <c r="I199" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="J199" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="K199" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="L199" s="16"/>
+      <c r="M199" s="16"/>
       <c r="N199" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O199" s="40"/>
-      <c r="P199" s="40"/>
-      <c r="Q199" s="23">
-        <v>41913</v>
-      </c>
-      <c r="R199" s="14">
-        <v>316</v>
-      </c>
-      <c r="S199" s="19">
-        <v>0</v>
+      <c r="O199" s="16"/>
+      <c r="P199" s="16"/>
+      <c r="Q199" s="41">
+        <v>41676</v>
+      </c>
+      <c r="R199" s="37">
+        <v>1007</v>
+      </c>
+      <c r="S199" s="37">
+        <v>3</v>
       </c>
       <c r="T199" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="U199" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V199" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="W199" s="3" t="s">
+      <c r="U199" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="V199" s="16"/>
+      <c r="W199" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="X199" s="3" t="s">
+      <c r="X199" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Y199" s="3"/>
-      <c r="Z199" s="3"/>
+      <c r="Y199" s="16"/>
+      <c r="Z199" s="16"/>
       <c r="AA199" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A200" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B200" s="13">
-        <v>75427</v>
-      </c>
-      <c r="C200" s="13" t="s">
-        <v>65</v>
+      <c r="A200" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B200" s="10">
+        <v>75425</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>63</v>
@@ -14559,54 +14543,54 @@
         <v>4</v>
       </c>
       <c r="I200" s="3"/>
-      <c r="J200" s="45"/>
-      <c r="K200" s="45"/>
-      <c r="L200" s="45"/>
-      <c r="M200" s="45"/>
+      <c r="J200" s="57"/>
+      <c r="K200" s="57"/>
+      <c r="L200" s="57"/>
+      <c r="M200" s="57"/>
       <c r="N200" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O200" s="29"/>
-      <c r="P200" s="29"/>
-      <c r="Q200" s="21">
-        <v>41778</v>
+      <c r="O200" s="40"/>
+      <c r="P200" s="40"/>
+      <c r="Q200" s="23">
+        <v>41913</v>
       </c>
       <c r="R200" s="14">
-        <v>253</v>
-      </c>
-      <c r="S200" s="22">
+        <v>316</v>
+      </c>
+      <c r="S200" s="19">
         <v>0</v>
       </c>
       <c r="T200" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="U200" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="V200" s="27" t="s">
+      <c r="U200" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V200" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="W200" s="27" t="s">
+      <c r="W200" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="X200" s="27" t="s">
+      <c r="X200" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Y200" s="27"/>
-      <c r="Z200" s="27"/>
+      <c r="Y200" s="3"/>
+      <c r="Z200" s="3"/>
       <c r="AA200" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A201" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B201" s="10">
-        <v>75429</v>
-      </c>
-      <c r="C201" s="10" t="s">
-        <v>64</v>
+      <c r="A201" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B201" s="13">
+        <v>75427</v>
+      </c>
+      <c r="C201" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>63</v>
@@ -14631,303 +14615,303 @@
       </c>
       <c r="O201" s="29"/>
       <c r="P201" s="29"/>
-      <c r="Q201" s="23">
+      <c r="Q201" s="21">
         <v>41778</v>
       </c>
-      <c r="R201" s="8">
+      <c r="R201" s="14">
+        <v>253</v>
+      </c>
+      <c r="S201" s="22">
+        <v>0</v>
+      </c>
+      <c r="T201" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U201" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V201" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="W201" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="X201" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y201" s="27"/>
+      <c r="Z201" s="27"/>
+      <c r="AA201" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A202" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202" s="10">
+        <v>75429</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E202" s="13"/>
+      <c r="F202" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G202" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H202" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I202" s="3"/>
+      <c r="J202" s="45"/>
+      <c r="K202" s="45"/>
+      <c r="L202" s="45"/>
+      <c r="M202" s="45"/>
+      <c r="N202" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O202" s="29"/>
+      <c r="P202" s="29"/>
+      <c r="Q202" s="23">
+        <v>41778</v>
+      </c>
+      <c r="R202" s="8">
         <v>279</v>
       </c>
-      <c r="S201" s="19">
-        <v>0</v>
-      </c>
-      <c r="T201" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="U201" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V201" s="3" t="s">
+      <c r="S202" s="19">
+        <v>0</v>
+      </c>
+      <c r="T202" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U202" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V202" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="W201" s="3" t="s">
+      <c r="W202" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="X201" s="3" t="s">
+      <c r="X202" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Y201" s="3"/>
-      <c r="Z201" s="3"/>
-      <c r="AA201" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A202" s="16" t="s">
+      <c r="Y202" s="3"/>
+      <c r="Z202" s="3"/>
+      <c r="AA202" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A203" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B202" s="15">
+      <c r="B203" s="15">
         <v>77652</v>
       </c>
-      <c r="C202" s="15" t="s">
+      <c r="C203" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D202" s="3" t="s">
+      <c r="D203" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E202" s="33"/>
-      <c r="F202" s="33" t="s">
+      <c r="E203" s="33"/>
+      <c r="F203" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G202" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H202" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I202" s="3" t="s">
+      <c r="G203" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H203" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I203" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="J202" s="16" t="s">
+      <c r="J203" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="K202" s="16" t="s">
+      <c r="K203" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="L202" s="16"/>
-      <c r="M202" s="16"/>
-      <c r="N202" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="O202" s="16"/>
-      <c r="P202" s="16"/>
-      <c r="Q202" s="41">
+      <c r="L203" s="16"/>
+      <c r="M203" s="16"/>
+      <c r="N203" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O203" s="16"/>
+      <c r="P203" s="16"/>
+      <c r="Q203" s="41">
         <v>41794</v>
       </c>
-      <c r="R202" s="20">
+      <c r="R203" s="20">
         <v>412</v>
       </c>
-      <c r="S202" s="37">
-        <v>0</v>
-      </c>
-      <c r="T202" s="37">
-        <v>1</v>
-      </c>
-      <c r="U202" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="V202" s="16"/>
-      <c r="W202" s="16" t="s">
+      <c r="S203" s="37">
+        <v>0</v>
+      </c>
+      <c r="T203" s="37">
+        <v>1</v>
+      </c>
+      <c r="U203" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="V203" s="16"/>
+      <c r="W203" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="X202" s="16" t="s">
+      <c r="X203" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Y202" s="16"/>
-      <c r="Z202" s="16" t="s">
+      <c r="Y203" s="16"/>
+      <c r="Z203" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AA202" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A203" s="3" t="s">
+      <c r="AA203" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A204" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B203" s="12">
+      <c r="B204" s="12">
         <v>93863</v>
       </c>
-      <c r="C203" s="10" t="s">
+      <c r="C204" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D203" s="11" t="s">
+      <c r="D204" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E203" s="13"/>
-      <c r="F203" s="13" t="s">
+      <c r="E204" s="13"/>
+      <c r="F204" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G203" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H203" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I203" s="3"/>
-      <c r="J203" s="2"/>
-      <c r="K203" s="2"/>
-      <c r="L203" s="2"/>
-      <c r="M203" s="2"/>
-      <c r="N203" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="O203" s="2"/>
-      <c r="P203" s="2"/>
-      <c r="Q203" s="9" t="s">
+      <c r="G204" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H204" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I204" s="3"/>
+      <c r="J204" s="2"/>
+      <c r="K204" s="2"/>
+      <c r="L204" s="2"/>
+      <c r="M204" s="2"/>
+      <c r="N204" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O204" s="2"/>
+      <c r="P204" s="2"/>
+      <c r="Q204" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R203" s="8">
+      <c r="R204" s="8">
         <v>213</v>
       </c>
-      <c r="S203" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="T203" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="U203" s="6"/>
-      <c r="V203" s="3"/>
-      <c r="W203" s="5" t="s">
+      <c r="S204" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T204" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="U204" s="6"/>
+      <c r="V204" s="3"/>
+      <c r="W204" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="X203" s="5" t="s">
+      <c r="X204" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Y203" s="4"/>
-      <c r="Z203" s="3"/>
-      <c r="AA203" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A204" s="16" t="s">
+      <c r="Y204" s="4"/>
+      <c r="Z204" s="3"/>
+      <c r="AA204" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A205" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B204" s="15">
+      <c r="B205" s="15">
         <v>59641</v>
       </c>
-      <c r="C204" s="15" t="s">
+      <c r="C205" s="15" t="s">
         <v>47</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E204" s="26"/>
-      <c r="F204" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G204" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H204" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I204" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="J204" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="K204" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="L204" s="16"/>
-      <c r="M204" s="16"/>
-      <c r="N204" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="O204" s="16"/>
-      <c r="P204" s="16"/>
-      <c r="Q204" s="41">
-        <v>41687</v>
-      </c>
-      <c r="R204" s="37">
-        <v>2627</v>
-      </c>
-      <c r="S204" s="7">
-        <v>8</v>
-      </c>
-      <c r="T204" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="U204" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="V204" s="16"/>
-      <c r="W204" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="X204" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y204" s="16"/>
-      <c r="Z204" s="16"/>
-      <c r="AA204" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A205" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B205" s="13">
-        <v>59646</v>
-      </c>
-      <c r="C205" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E205" s="13"/>
-      <c r="F205" s="13" t="s">
+      <c r="E205" s="26"/>
+      <c r="F205" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G205" s="26" t="s">
+      <c r="G205" s="15" t="s">
         <v>2</v>
       </c>
       <c r="H205" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I205" s="3"/>
-      <c r="J205" s="45"/>
-      <c r="K205" s="45"/>
-      <c r="L205" s="45"/>
-      <c r="M205" s="45"/>
+      <c r="I205" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="J205" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="K205" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="L205" s="16"/>
+      <c r="M205" s="16"/>
       <c r="N205" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O205" s="29"/>
-      <c r="P205" s="29"/>
-      <c r="Q205" s="21">
-        <v>42054</v>
-      </c>
-      <c r="R205" s="14">
-        <v>629</v>
-      </c>
-      <c r="S205" s="22">
-        <v>0</v>
+      <c r="O205" s="16"/>
+      <c r="P205" s="16"/>
+      <c r="Q205" s="41">
+        <v>41687</v>
+      </c>
+      <c r="R205" s="37">
+        <v>2627</v>
+      </c>
+      <c r="S205" s="7">
+        <v>8</v>
       </c>
       <c r="T205" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="U205" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="V205" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="W205" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="X205" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y205" s="27"/>
-      <c r="Z205" s="27"/>
+      <c r="U205" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="V205" s="16"/>
+      <c r="W205" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="X205" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y205" s="16"/>
+      <c r="Z205" s="16"/>
       <c r="AA205" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A206" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B206" s="10">
-        <v>76761</v>
-      </c>
-      <c r="C206" s="10" t="s">
-        <v>55</v>
+      <c r="A206" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B206" s="13">
+        <v>59646</v>
+      </c>
+      <c r="C206" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>47</v>
@@ -14943,41 +14927,41 @@
         <v>4</v>
       </c>
       <c r="I206" s="3"/>
-      <c r="J206" s="57"/>
-      <c r="K206" s="57"/>
-      <c r="L206" s="57"/>
-      <c r="M206" s="57"/>
+      <c r="J206" s="45"/>
+      <c r="K206" s="45"/>
+      <c r="L206" s="45"/>
+      <c r="M206" s="45"/>
       <c r="N206" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O206" s="40"/>
-      <c r="P206" s="40"/>
-      <c r="Q206" s="23">
-        <v>42346</v>
+      <c r="O206" s="29"/>
+      <c r="P206" s="29"/>
+      <c r="Q206" s="21">
+        <v>42054</v>
       </c>
       <c r="R206" s="14">
-        <v>379</v>
-      </c>
-      <c r="S206" s="19">
+        <v>629</v>
+      </c>
+      <c r="S206" s="22">
         <v>0</v>
       </c>
       <c r="T206" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="U206" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V206" s="3" t="s">
+      <c r="U206" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V206" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="W206" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="X206" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y206" s="3"/>
-      <c r="Z206" s="3"/>
+      <c r="W206" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X206" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y206" s="27"/>
+      <c r="Z206" s="27"/>
       <c r="AA206" s="15" t="s">
         <v>0</v>
       </c>
@@ -14987,19 +14971,19 @@
         <v>10</v>
       </c>
       <c r="B207" s="10">
-        <v>76762</v>
+        <v>76761</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E207" s="39"/>
-      <c r="F207" s="39" t="s">
+      <c r="E207" s="13"/>
+      <c r="F207" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G207" s="34" t="s">
+      <c r="G207" s="26" t="s">
         <v>2</v>
       </c>
       <c r="H207" s="15" t="s">
@@ -15019,7 +15003,7 @@
         <v>42346</v>
       </c>
       <c r="R207" s="14">
-        <v>297</v>
+        <v>379</v>
       </c>
       <c r="S207" s="19">
         <v>0</v>
@@ -15050,19 +15034,19 @@
         <v>10</v>
       </c>
       <c r="B208" s="10">
-        <v>76764</v>
+        <v>76762</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E208" s="10"/>
-      <c r="F208" s="10" t="s">
+      <c r="E208" s="39"/>
+      <c r="F208" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G208" s="30" t="s">
+      <c r="G208" s="34" t="s">
         <v>2</v>
       </c>
       <c r="H208" s="15" t="s">
@@ -15079,10 +15063,10 @@
       <c r="O208" s="40"/>
       <c r="P208" s="40"/>
       <c r="Q208" s="23">
-        <v>42054</v>
+        <v>42346</v>
       </c>
       <c r="R208" s="14">
-        <v>253</v>
+        <v>297</v>
       </c>
       <c r="S208" s="19">
         <v>0</v>
@@ -15113,16 +15097,16 @@
         <v>10</v>
       </c>
       <c r="B209" s="10">
-        <v>76766</v>
+        <v>76764</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E209" s="13"/>
-      <c r="F209" s="13" t="s">
+      <c r="E209" s="10"/>
+      <c r="F209" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G209" s="30" t="s">
@@ -15142,10 +15126,10 @@
       <c r="O209" s="40"/>
       <c r="P209" s="40"/>
       <c r="Q209" s="23">
-        <v>41778</v>
+        <v>42054</v>
       </c>
       <c r="R209" s="14">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="S209" s="19">
         <v>0</v>
@@ -15172,43 +15156,43 @@
       </c>
     </row>
     <row r="210" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A210" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B210" s="13">
-        <v>76767</v>
-      </c>
-      <c r="C210" s="13" t="s">
-        <v>51</v>
+      <c r="A210" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B210" s="10">
+        <v>76766</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E210" s="39"/>
-      <c r="F210" s="39" t="s">
+      <c r="E210" s="13"/>
+      <c r="F210" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G210" s="34" t="s">
+      <c r="G210" s="30" t="s">
         <v>2</v>
       </c>
       <c r="H210" s="15" t="s">
         <v>4</v>
       </c>
       <c r="I210" s="3"/>
-      <c r="J210" s="45"/>
-      <c r="K210" s="45"/>
-      <c r="L210" s="45"/>
-      <c r="M210" s="45"/>
+      <c r="J210" s="57"/>
+      <c r="K210" s="57"/>
+      <c r="L210" s="57"/>
+      <c r="M210" s="57"/>
       <c r="N210" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O210" s="29"/>
-      <c r="P210" s="29"/>
-      <c r="Q210" s="21">
-        <v>42054</v>
+      <c r="O210" s="40"/>
+      <c r="P210" s="40"/>
+      <c r="Q210" s="23">
+        <v>41778</v>
       </c>
       <c r="R210" s="14">
-        <v>191</v>
+        <v>254</v>
       </c>
       <c r="S210" s="19">
         <v>0</v>
@@ -15216,33 +15200,33 @@
       <c r="T210" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="U210" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="V210" s="27" t="s">
+      <c r="U210" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V210" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="W210" s="27" t="s">
+      <c r="W210" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="X210" s="27" t="s">
+      <c r="X210" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Y210" s="27"/>
-      <c r="Z210" s="27"/>
+      <c r="Y210" s="3"/>
+      <c r="Z210" s="3"/>
       <c r="AA210" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A211" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B211" s="10">
-        <v>76768</v>
-      </c>
-      <c r="C211" s="10" t="s">
-        <v>50</v>
+      <c r="A211" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B211" s="13">
+        <v>76767</v>
+      </c>
+      <c r="C211" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>47</v>
@@ -15258,20 +15242,20 @@
         <v>4</v>
       </c>
       <c r="I211" s="3"/>
-      <c r="J211" s="57"/>
-      <c r="K211" s="57"/>
-      <c r="L211" s="57"/>
-      <c r="M211" s="57"/>
+      <c r="J211" s="45"/>
+      <c r="K211" s="45"/>
+      <c r="L211" s="45"/>
+      <c r="M211" s="45"/>
       <c r="N211" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O211" s="40"/>
-      <c r="P211" s="40"/>
-      <c r="Q211" s="23">
+      <c r="O211" s="29"/>
+      <c r="P211" s="29"/>
+      <c r="Q211" s="21">
         <v>42054</v>
       </c>
       <c r="R211" s="14">
-        <v>262</v>
+        <v>191</v>
       </c>
       <c r="S211" s="19">
         <v>0</v>
@@ -15279,20 +15263,20 @@
       <c r="T211" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="U211" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V211" s="3" t="s">
+      <c r="U211" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V211" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="W211" s="3" t="s">
+      <c r="W211" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="X211" s="3" t="s">
+      <c r="X211" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="Y211" s="3"/>
-      <c r="Z211" s="3"/>
+      <c r="Y211" s="27"/>
+      <c r="Z211" s="27"/>
       <c r="AA211" s="15" t="s">
         <v>0</v>
       </c>
@@ -15302,10 +15286,10 @@
         <v>10</v>
       </c>
       <c r="B212" s="10">
-        <v>76770</v>
+        <v>76768</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>47</v>
@@ -15331,10 +15315,10 @@
       <c r="O212" s="40"/>
       <c r="P212" s="40"/>
       <c r="Q212" s="23">
-        <v>42346</v>
-      </c>
-      <c r="R212" s="8">
-        <v>279</v>
+        <v>42054</v>
+      </c>
+      <c r="R212" s="14">
+        <v>262</v>
       </c>
       <c r="S212" s="19">
         <v>0</v>
@@ -15361,130 +15345,124 @@
       </c>
     </row>
     <row r="213" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A213" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B213" s="26">
-        <v>141741</v>
-      </c>
-      <c r="C213" s="15" t="s">
-        <v>48</v>
+      <c r="A213" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B213" s="10">
+        <v>76770</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E213" s="33"/>
-      <c r="F213" s="33" t="s">
+      <c r="E213" s="39"/>
+      <c r="F213" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G213" s="31" t="s">
+      <c r="G213" s="34" t="s">
         <v>2</v>
       </c>
       <c r="H213" s="15" t="s">
         <v>4</v>
       </c>
       <c r="I213" s="3"/>
-      <c r="J213" s="16"/>
-      <c r="K213" s="16"/>
-      <c r="L213" s="16"/>
-      <c r="M213" s="16"/>
+      <c r="J213" s="57"/>
+      <c r="K213" s="57"/>
+      <c r="L213" s="57"/>
+      <c r="M213" s="57"/>
       <c r="N213" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O213" s="18"/>
-      <c r="P213" s="18"/>
-      <c r="Q213" s="21">
-        <v>42107</v>
-      </c>
-      <c r="R213" s="20">
-        <v>76</v>
-      </c>
-      <c r="S213" s="22">
-        <v>0</v>
-      </c>
-      <c r="T213" s="37">
-        <v>5</v>
-      </c>
-      <c r="U213" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="V213" s="16">
-        <v>0</v>
-      </c>
-      <c r="W213" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="X213" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y213" s="16"/>
-      <c r="Z213" s="16"/>
+      <c r="O213" s="40"/>
+      <c r="P213" s="40"/>
+      <c r="Q213" s="23">
+        <v>42346</v>
+      </c>
+      <c r="R213" s="8">
+        <v>279</v>
+      </c>
+      <c r="S213" s="19">
+        <v>0</v>
+      </c>
+      <c r="T213" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U213" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V213" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W213" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X213" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y213" s="3"/>
+      <c r="Z213" s="3"/>
       <c r="AA213" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A214" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B214" s="15">
-        <v>145819</v>
+        <v>6</v>
+      </c>
+      <c r="B214" s="26">
+        <v>141741</v>
       </c>
       <c r="C214" s="15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E214" s="15"/>
-      <c r="F214" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G214" s="38" t="s">
-        <v>4</v>
+        <v>47</v>
+      </c>
+      <c r="E214" s="33"/>
+      <c r="F214" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G214" s="31" t="s">
+        <v>2</v>
       </c>
       <c r="H214" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I214" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="J214" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="K214" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="L214" s="44"/>
-      <c r="M214" s="44">
-        <v>2</v>
-      </c>
-      <c r="N214" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="O214" s="44"/>
-      <c r="P214" s="44"/>
-      <c r="Q214" s="41">
-        <v>42278</v>
-      </c>
-      <c r="R214" s="42">
-        <v>167</v>
-      </c>
-      <c r="S214" s="7">
-        <v>1</v>
-      </c>
-      <c r="T214" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="U214" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="V214" s="16"/>
+      <c r="I214" s="3"/>
+      <c r="J214" s="16"/>
+      <c r="K214" s="16"/>
+      <c r="L214" s="16"/>
+      <c r="M214" s="16"/>
+      <c r="N214" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O214" s="18"/>
+      <c r="P214" s="18"/>
+      <c r="Q214" s="21">
+        <v>42107</v>
+      </c>
+      <c r="R214" s="20">
+        <v>76</v>
+      </c>
+      <c r="S214" s="22">
+        <v>0</v>
+      </c>
+      <c r="T214" s="37">
+        <v>5</v>
+      </c>
+      <c r="U214" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="V214" s="16">
+        <v>0</v>
+      </c>
       <c r="W214" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="X214" s="16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Y214" s="16"/>
       <c r="Z214" s="16"/>
@@ -15493,67 +15471,136 @@
       </c>
     </row>
     <row r="215" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A215" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B215" s="13">
-        <v>146101</v>
-      </c>
-      <c r="C215" s="13" t="s">
-        <v>44</v>
+      <c r="A215" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B215" s="15">
+        <v>145819</v>
+      </c>
+      <c r="C215" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E215" s="13"/>
-      <c r="F215" s="13" t="s">
+      <c r="E215" s="15"/>
+      <c r="F215" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G215" s="26" t="s">
+      <c r="G215" s="38" t="s">
         <v>4</v>
       </c>
       <c r="H215" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I215" s="3"/>
-      <c r="J215" s="45"/>
-      <c r="K215" s="45"/>
-      <c r="L215" s="45"/>
-      <c r="M215" s="45">
-        <v>2</v>
-      </c>
-      <c r="N215" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="O215" s="29"/>
-      <c r="P215" s="29"/>
-      <c r="Q215" s="21">
+      <c r="I215" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J215" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="K215" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="L215" s="44"/>
+      <c r="M215" s="44">
+        <v>2</v>
+      </c>
+      <c r="N215" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O215" s="44"/>
+      <c r="P215" s="44"/>
+      <c r="Q215" s="41">
         <v>42278</v>
       </c>
-      <c r="R215" s="14">
+      <c r="R215" s="42">
+        <v>167</v>
+      </c>
+      <c r="S215" s="7">
+        <v>1</v>
+      </c>
+      <c r="T215" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U215" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="V215" s="16"/>
+      <c r="W215" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="X215" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y215" s="16"/>
+      <c r="Z215" s="16"/>
+      <c r="AA215" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A216" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B216" s="13">
+        <v>146101</v>
+      </c>
+      <c r="C216" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E216" s="13"/>
+      <c r="F216" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G216" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H216" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I216" s="3"/>
+      <c r="J216" s="45"/>
+      <c r="K216" s="45"/>
+      <c r="L216" s="45"/>
+      <c r="M216" s="45">
+        <v>2</v>
+      </c>
+      <c r="N216" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="O216" s="29"/>
+      <c r="P216" s="29"/>
+      <c r="Q216" s="21">
+        <v>42278</v>
+      </c>
+      <c r="R216" s="14">
         <v>55</v>
       </c>
-      <c r="S215" s="22">
-        <v>0</v>
-      </c>
-      <c r="T215" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="U215" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="V215" s="27" t="s">
+      <c r="S216" s="22">
+        <v>0</v>
+      </c>
+      <c r="T216" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U216" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V216" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="W215" s="27" t="s">
+      <c r="W216" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="X215" s="27" t="s">
+      <c r="X216" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="Y215" s="27"/>
-      <c r="Z215" s="27"/>
-      <c r="AA215" s="15" t="s">
+      <c r="Y216" s="27"/>
+      <c r="Z216" s="27"/>
+      <c r="AA216" s="15" t="s">
         <v>0</v>
       </c>
     </row>

--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -15,7 +15,7 @@
     <sheet name="1. Content items" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$2:$V$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$2:$V$13</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
   <si>
     <t>No</t>
   </si>
@@ -134,9 +134,6 @@
     <t>Migrate</t>
   </si>
   <si>
-    <t>"New collection == No" but lacks a Repository or a Community</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -167,13 +164,25 @@
     <t>Community</t>
   </si>
   <si>
-    <t>A collection with more than one Community or Repository</t>
-  </si>
-  <si>
     <t>Repository</t>
   </si>
   <si>
     <t>Invalid collection name '#N/A'</t>
+  </si>
+  <si>
+    <t>eProcurement</t>
+  </si>
+  <si>
+    <t>asset_release as solution in new collection</t>
+  </si>
+  <si>
+    <t>project_project as solution in new collection</t>
+  </si>
+  <si>
+    <t>More than one Community or Repository</t>
+  </si>
+  <si>
+    <t>No Repository or Community</t>
   </si>
 </sst>
 </file>
@@ -329,9 +338,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="28">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -435,7 +462,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="28">
+  <cellStyles count="46">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -449,6 +476,15 @@
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -462,6 +498,15 @@
     <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="1"/>
   </cellStyles>
@@ -822,8 +867,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A2:AA11" totalsRowShown="0" headerRowDxfId="24">
-  <autoFilter ref="A2:AA11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A2:AA13" totalsRowShown="0" headerRowDxfId="24">
+  <autoFilter ref="A2:AA13"/>
   <sortState ref="A13187:X13200">
     <sortCondition ref="D2:D13200"/>
   </sortState>
@@ -1126,7 +1171,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -1136,7 +1181,7 @@
   <cols>
     <col min="1" max="1" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="59.5" style="1" customWidth="1"/>
     <col min="5" max="6" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="1" bestFit="1" customWidth="1"/>
@@ -1279,10 +1324,10 @@
         <v>60735</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>3</v>
@@ -1291,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.15">
@@ -1302,10 +1347,10 @@
         <v>99999999</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="1" t="s">
@@ -1315,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
@@ -1340,13 +1385,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>39</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="1" t="s">
@@ -1356,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
@@ -1384,10 +1429,10 @@
         <v>157729</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="1" t="s">
@@ -1397,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
@@ -1425,7 +1470,7 @@
         <v>58729</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="e">
         <v>#N/A</v>
@@ -1438,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
@@ -1466,17 +1511,17 @@
         <v>60736</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
@@ -1498,16 +1543,16 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="20">
         <v>156207</v>
       </c>
       <c r="C9" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="1" t="s">
@@ -1517,7 +1562,7 @@
         <v>#N/A</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
@@ -1539,16 +1584,16 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A10" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="20">
         <v>145807</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="1" t="s">
@@ -1558,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
@@ -1580,16 +1625,16 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A11" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" s="20">
         <v>105945</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="21" t="s">
@@ -1599,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
@@ -1619,6 +1664,88 @@
       <c r="Y11" s="27"/>
       <c r="AA11" s="19"/>
     </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A12" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="20">
+        <v>58694</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="AA12" s="19"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A13" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="20">
+        <v>26863</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="AA13" s="19"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>

--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -15,7 +15,7 @@
     <sheet name="1. Content items" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$Q$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$Q$13</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
   <si>
     <t>No</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>Invalid</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Software instead of Project</t>
   </si>
 </sst>
 </file>
@@ -254,7 +260,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -302,6 +308,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -338,7 +345,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -363,6 +370,7 @@
     <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -657,8 +665,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:Q12" totalsRowShown="0" headerRowDxfId="16">
-  <autoFilter ref="A1:Q12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:Q13" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="A1:Q13"/>
   <sortState ref="A13187:X13200">
     <sortCondition ref="D2:D13200"/>
   </sortState>
@@ -951,7 +959,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1389,17 +1397,53 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="7"/>
     </row>
+    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="4">
+        <v>87737</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="7"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M9" r:id="rId1"/>
     <hyperlink ref="M11" r:id="rId2"/>
     <hyperlink ref="M12" r:id="rId3"/>
     <hyperlink ref="M10" r:id="rId4"/>
+    <hyperlink ref="M13" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -15,7 +15,7 @@
     <sheet name="1. Content items" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$Q$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$Q$20</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="54">
   <si>
     <t>No</t>
   </si>
@@ -159,6 +159,42 @@
   </si>
   <si>
     <t>Software instead of Project</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Factsheet</t>
+  </si>
+  <si>
+    <t>Factsheet to Document (type=factsheet)</t>
+  </si>
+  <si>
+    <t>Legal document</t>
+  </si>
+  <si>
+    <t>Legal document to Document (type=legal)</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Presentation to Document (type=presentation)</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>Case to Document (type=case)</t>
+  </si>
+  <si>
+    <t>Document with URL and file (file wins)</t>
+  </si>
+  <si>
+    <t>Document with URL</t>
+  </si>
+  <si>
+    <t>Document with file</t>
   </si>
 </sst>
 </file>
@@ -236,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -259,8 +295,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -311,8 +360,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -344,8 +416,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="73">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -371,6 +454,29 @@
     <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -665,8 +771,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:Q13" totalsRowShown="0" headerRowDxfId="16">
-  <autoFilter ref="A1:Q13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:Q20" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="A1:Q20"/>
   <sortState ref="A13187:X13200">
     <sortCondition ref="D2:D13200"/>
   </sortState>
@@ -959,7 +1065,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -969,7 +1075,7 @@
   <cols>
     <col min="1" max="1" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="1" bestFit="1" customWidth="1"/>
@@ -1432,6 +1538,251 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="7"/>
     </row>
+    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="13">
+        <v>139528</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="7"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="17">
+        <v>42233</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="7"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="17">
+        <v>138766</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="7"/>
+    </row>
+    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="17">
+        <v>133560</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="7"/>
+    </row>
+    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="15">
+        <v>53012</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="16"/>
+    </row>
+    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="4">
+        <v>63578</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="7"/>
+    </row>
+    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="4">
+        <v>155691</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="7"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M9" r:id="rId1"/>
@@ -1439,11 +1790,18 @@
     <hyperlink ref="M12" r:id="rId3"/>
     <hyperlink ref="M10" r:id="rId4"/>
     <hyperlink ref="M13" r:id="rId5"/>
+    <hyperlink ref="M14" r:id="rId6"/>
+    <hyperlink ref="M18" r:id="rId7"/>
+    <hyperlink ref="M19" r:id="rId8"/>
+    <hyperlink ref="M20" r:id="rId9"/>
+    <hyperlink ref="M17" r:id="rId10"/>
+    <hyperlink ref="M15" r:id="rId11"/>
+    <hyperlink ref="M16" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -15,7 +15,7 @@
     <sheet name="1. Content items" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$Q$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$Q$22</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="57">
   <si>
     <t>No</t>
   </si>
@@ -195,6 +195,15 @@
   </si>
   <si>
     <t>Document with file</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>News with 2 countries</t>
+  </si>
+  <si>
+    <t>News in Europe as country and Athens as city</t>
   </si>
 </sst>
 </file>
@@ -309,7 +318,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="73">
+  <cellStyleXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -357,6 +366,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -428,7 +440,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="73">
+  <cellStyles count="76">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -477,6 +489,9 @@
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -771,8 +786,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:Q20" totalsRowShown="0" headerRowDxfId="16">
-  <autoFilter ref="A1:Q20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:Q22" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="A1:Q22"/>
   <sortState ref="A13187:X13200">
     <sortCondition ref="D2:D13200"/>
   </sortState>
@@ -1065,7 +1080,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1783,6 +1798,76 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="7"/>
     </row>
+    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="4">
+        <v>27607</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="7"/>
+    </row>
+    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="4">
+        <v>155894</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="7"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M9" r:id="rId1"/>
@@ -1797,11 +1882,13 @@
     <hyperlink ref="M17" r:id="rId10"/>
     <hyperlink ref="M15" r:id="rId11"/>
     <hyperlink ref="M16" r:id="rId12"/>
+    <hyperlink ref="M21" r:id="rId13"/>
+    <hyperlink ref="M22" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
   <tableParts count="1">
-    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -15,7 +15,7 @@
     <sheet name="1. Content items" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$Q$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$Q$23</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="58">
   <si>
     <t>No</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>News in Europe as country and Athens as city</t>
+  </si>
+  <si>
+    <t>Newsletter</t>
   </si>
 </sst>
 </file>
@@ -318,7 +321,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="76">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -366,6 +369,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -440,7 +444,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="76">
+  <cellStyles count="77">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -492,6 +496,7 @@
     <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -786,8 +791,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:Q22" totalsRowShown="0" headerRowDxfId="16">
-  <autoFilter ref="A1:Q22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:Q23" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="A1:Q23"/>
   <sortState ref="A13187:X13200">
     <sortCondition ref="D2:D13200"/>
   </sortState>
@@ -1080,7 +1085,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1868,6 +1873,41 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="7"/>
     </row>
+    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="4">
+        <v>152066</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="7"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M9" r:id="rId1"/>
@@ -1884,11 +1924,12 @@
     <hyperlink ref="M16" r:id="rId12"/>
     <hyperlink ref="M21" r:id="rId13"/>
     <hyperlink ref="M22" r:id="rId14"/>
+    <hyperlink ref="M23" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -321,7 +321,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -369,6 +369,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -444,7 +445,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="78">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -497,6 +498,7 @@
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1493,7 +1495,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="4">
-        <v>26863</v>
+        <v>49860</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>31</v>

--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -15,7 +15,7 @@
     <sheet name="1. Content items" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$Q$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$Q$24</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="60">
   <si>
     <t>No</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>Newsletter</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Event with image</t>
   </si>
 </sst>
 </file>
@@ -321,7 +327,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="78">
+  <cellStyleXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -369,6 +375,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -445,7 +453,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="78">
+  <cellStyles count="80">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -499,6 +507,8 @@
     <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -793,8 +803,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:Q23" totalsRowShown="0" headerRowDxfId="16">
-  <autoFilter ref="A1:Q23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:Q24" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="A1:Q24"/>
   <sortState ref="A13187:X13200">
     <sortCondition ref="D2:D13200"/>
   </sortState>
@@ -1087,7 +1097,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1910,6 +1920,41 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="7"/>
     </row>
+    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="4">
+        <v>145278</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="7"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M9" r:id="rId1"/>
@@ -1927,11 +1972,12 @@
     <hyperlink ref="M21" r:id="rId13"/>
     <hyperlink ref="M22" r:id="rId14"/>
     <hyperlink ref="M23" r:id="rId15"/>
+    <hyperlink ref="M24" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>
--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -15,7 +15,7 @@
     <sheet name="1. Content items" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$Q$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$Q$26</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="68">
   <si>
     <t>No</t>
   </si>
@@ -213,13 +213,37 @@
   </si>
   <si>
     <t>Event with image</t>
+  </si>
+  <si>
+    <t>Repository as base for collection</t>
+  </si>
+  <si>
+    <t>Open government</t>
+  </si>
+  <si>
+    <t>baby.doe@example.com</t>
+  </si>
+  <si>
+    <t>Community as base for collection</t>
+  </si>
+  <si>
+    <t>Collection from Repository</t>
+  </si>
+  <si>
+    <t>Collection from Community</t>
+  </si>
+  <si>
+    <t>Collaboration</t>
+  </si>
+  <si>
+    <t>jbloggs@example.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +293,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -290,7 +320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -326,8 +356,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF5B9BD5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF5B9BD5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5B9BD5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5B9BD5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="80">
+  <cellStyleXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -408,8 +453,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -452,8 +505,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="46" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="80">
+  <cellStyles count="88">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -509,6 +567,14 @@
     <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -803,8 +869,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:Q24" totalsRowShown="0" headerRowDxfId="16">
-  <autoFilter ref="A1:Q24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:Q26" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="A1:Q26"/>
   <sortState ref="A13187:X13200">
     <sortCondition ref="D2:D13200"/>
   </sortState>
@@ -1097,7 +1163,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1116,7 +1182,7 @@
     <col min="10" max="10" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.1640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -1954,6 +2020,76 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="7"/>
+    </row>
+    <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="18">
+        <v>59642</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="7"/>
+    </row>
+    <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="13">
+        <v>42436</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1973,11 +2109,13 @@
     <hyperlink ref="M22" r:id="rId14"/>
     <hyperlink ref="M23" r:id="rId15"/>
     <hyperlink ref="M24" r:id="rId16"/>
+    <hyperlink ref="M26" r:id="rId17"/>
+    <hyperlink ref="M25" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
   <tableParts count="1">
-    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId20"/>
   </tableParts>
 </worksheet>
 </file>
--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="69">
   <si>
     <t>No</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>jbloggs@example.com</t>
+  </si>
+  <si>
+    <t>Abstract for a new collection</t>
   </si>
 </sst>
 </file>
@@ -372,7 +375,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="88">
+  <cellStyleXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -461,8 +464,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -510,8 +528,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="46" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="88">
+  <cellStyles count="103">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -575,6 +596,21 @@
     <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -761,7 +797,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1215,7 +1251,7 @@
       <c r="H1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="9" t="s">
@@ -1289,7 +1325,6 @@
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -1322,7 +1357,6 @@
       <c r="H4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -1355,7 +1389,6 @@
       <c r="H5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -1388,7 +1421,6 @@
       <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1418,7 +1450,6 @@
       <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1451,7 +1482,6 @@
       <c r="H8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1484,7 +1514,6 @@
       <c r="H9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1519,7 +1548,6 @@
       <c r="H10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1554,7 +1582,9 @@
       <c r="H11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1589,7 +1619,9 @@
       <c r="H12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1624,7 +1656,9 @@
       <c r="H13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1659,7 +1693,9 @@
       <c r="H14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1694,7 +1730,9 @@
       <c r="H15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1729,7 +1767,9 @@
       <c r="H16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1764,7 +1804,9 @@
       <c r="H17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1799,7 +1841,9 @@
       <c r="H18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="3"/>
+      <c r="I18" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1834,7 +1878,9 @@
       <c r="H19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="3"/>
+      <c r="I19" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -1869,7 +1915,9 @@
       <c r="H20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="3"/>
+      <c r="I20" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -1904,7 +1952,9 @@
       <c r="H21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="3"/>
+      <c r="I21" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -1939,7 +1989,9 @@
       <c r="H22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="3"/>
+      <c r="I22" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -1974,7 +2026,9 @@
       <c r="H23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="3"/>
+      <c r="I23" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -2009,7 +2063,9 @@
       <c r="H24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="3"/>
+      <c r="I24" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -2044,7 +2100,6 @@
       <c r="H25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -2061,7 +2116,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="13">
-        <v>42436</v>
+        <v>149141</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>63</v>
@@ -2079,7 +2134,6 @@
       <c r="H26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>

--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -80,9 +80,6 @@
     <t>Type of content item</t>
   </si>
   <si>
-    <t>Content item status</t>
-  </si>
-  <si>
     <t>Migrate</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
     <t>Collection Owner</t>
   </si>
   <si>
-    <t>Collection status</t>
-  </si>
-  <si>
     <t>joeroe@example.com</t>
   </si>
   <si>
@@ -240,6 +234,12 @@
   </si>
   <si>
     <t>Abstract for a new collection</t>
+  </si>
+  <si>
+    <t>Collection state</t>
+  </si>
+  <si>
+    <t>Content item state</t>
   </si>
 </sst>
 </file>
@@ -926,8 +926,8 @@
     <tableColumn id="9" name="Collection Owner" dataDxfId="4" dataCellStyle="Normale 2"/>
     <tableColumn id="25" name="Elibrary Creation" dataDxfId="3"/>
     <tableColumn id="26" name="Pre Moderation" dataDxfId="2"/>
-    <tableColumn id="13" name="Collection status" dataDxfId="1"/>
-    <tableColumn id="28" name="Content item status" dataDxfId="0" dataCellStyle="Normale 2"/>
+    <tableColumn id="13" name="Collection state" dataDxfId="1"/>
+    <tableColumn id="28" name="Content item state" dataDxfId="0" dataCellStyle="Normale 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1201,8 +1201,8 @@
   </sheetPr>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1231,7 +1231,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>13</v>
@@ -1249,7 +1249,7 @@
         <v>9</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>8</v>
@@ -1264,7 +1264,7 @@
         <v>6</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>5</v>
@@ -1273,10 +1273,10 @@
         <v>4</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>15</v>
+        <v>67</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -1287,10 +1287,10 @@
         <v>60735</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -1310,20 +1310,20 @@
         <v>99999999</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1339,23 +1339,23 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1374,10 +1374,10 @@
         <v>157729</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1406,7 +1406,7 @@
         <v>58729</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="e">
         <v>#N/A</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1438,17 +1438,17 @@
         <v>60736</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1461,16 +1461,16 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4">
         <v>156207</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1" t="s">
@@ -1480,7 +1480,7 @@
         <v>#N/A</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1493,16 +1493,16 @@
     </row>
     <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4">
         <v>145807</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1" t="s">
@@ -1512,13 +1512,13 @@
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1527,16 +1527,16 @@
     </row>
     <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4">
         <v>105945</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="5" t="s">
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -1567,29 +1567,29 @@
         <v>58694</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -1598,35 +1598,35 @@
     </row>
     <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4">
         <v>49860</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -1635,35 +1635,35 @@
     </row>
     <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="4">
         <v>87737</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -1672,35 +1672,35 @@
     </row>
     <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" s="13">
         <v>139528</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -1709,35 +1709,35 @@
     </row>
     <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" s="17">
         <v>42233</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -1746,35 +1746,35 @@
     </row>
     <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" s="17">
         <v>138766</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1783,35 +1783,35 @@
     </row>
     <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" s="17">
         <v>133560</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -1820,35 +1820,35 @@
     </row>
     <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" s="15">
         <v>53012</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
@@ -1857,35 +1857,35 @@
     </row>
     <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="4">
         <v>63578</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -1894,35 +1894,35 @@
     </row>
     <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20" s="4">
         <v>155691</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -1931,35 +1931,35 @@
     </row>
     <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B21" s="4">
         <v>27607</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -1968,35 +1968,35 @@
     </row>
     <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" s="4">
         <v>155894</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -2005,35 +2005,35 @@
     </row>
     <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23" s="4">
         <v>152066</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -2042,35 +2042,35 @@
     </row>
     <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B24" s="4">
         <v>145278</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -2079,32 +2079,32 @@
     </row>
     <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="18">
         <v>59642</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -2113,32 +2113,32 @@
     </row>
     <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="13">
         <v>149141</v>
       </c>
       <c r="C26" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>

--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -15,7 +15,7 @@
     <sheet name="1. Content items" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$Q$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$Q$28</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="73">
   <si>
     <t>No</t>
   </si>
@@ -240,6 +240,18 @@
   </si>
   <si>
     <t>Content item state</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>Archived collection</t>
+  </si>
+  <si>
+    <t>archived</t>
+  </si>
+  <si>
+    <t>Archived solution under archived collection</t>
   </si>
 </sst>
 </file>
@@ -375,7 +387,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="103">
+  <cellStyleXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -423,6 +435,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -532,7 +548,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="103">
+  <cellStyles count="107">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -611,6 +627,10 @@
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -905,8 +925,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:Q26" totalsRowShown="0" headerRowDxfId="16">
-  <autoFilter ref="A1:Q26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:Q28" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="A1:Q28"/>
   <sortState ref="A13187:X13200">
     <sortCondition ref="D2:D13200"/>
   </sortState>
@@ -1199,10 +1219,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1210,7 +1230,7 @@
     <col min="1" max="1" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" style="1" customWidth="1"/>
     <col min="5" max="6" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -1363,7 +1383,9 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+      <c r="P4" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -2144,6 +2166,76 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="7"/>
+    </row>
+    <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="4">
+        <v>144326</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q27" s="7"/>
+    </row>
+    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4">
+        <v>76726</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2165,11 +2257,13 @@
     <hyperlink ref="M24" r:id="rId16"/>
     <hyperlink ref="M26" r:id="rId17"/>
     <hyperlink ref="M25" r:id="rId18"/>
+    <hyperlink ref="M27" r:id="rId19"/>
+    <hyperlink ref="M28" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
   <tableParts count="1">
-    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
 </worksheet>
 </file>
--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="76">
   <si>
     <t>No</t>
   </si>
@@ -252,6 +252,15 @@
   </si>
   <si>
     <t>Archived solution under archived collection</t>
+  </si>
+  <si>
+    <t>proposed</t>
+  </si>
+  <si>
+    <t>needs_update</t>
+  </si>
+  <si>
+    <t>draft</t>
   </si>
 </sst>
 </file>
@@ -387,7 +396,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="107">
+  <cellStyleXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -435,6 +444,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -548,7 +561,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="107">
+  <cellStyles count="111">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -631,6 +644,10 @@
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1616,7 +1633,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="7"/>
+      <c r="Q11" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -1727,7 +1746,9 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="7"/>
+      <c r="Q14" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -1986,7 +2007,9 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="7"/>
+      <c r="Q21" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">

--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -1633,9 +1633,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" t="s">
-        <v>73</v>
-      </c>
+      <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -1672,7 +1670,9 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="7"/>
+      <c r="Q12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">

--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -15,7 +15,7 @@
     <sheet name="1. Content items" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$Q$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$Q$29</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="77">
   <si>
     <t>No</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>draft</t>
+  </si>
+  <si>
+    <t>asset_release with contact point</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="111">
+  <cellStyleXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -444,6 +447,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -561,7 +565,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="111">
+  <cellStyles count="112">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -648,6 +652,7 @@
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -942,8 +947,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:Q28" totalsRowShown="0" headerRowDxfId="16">
-  <autoFilter ref="A1:Q28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:Q29" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="A1:Q29"/>
   <sortState ref="A13187:X13200">
     <sortCondition ref="D2:D13200"/>
   </sortState>
@@ -1236,7 +1241,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2260,6 +2265,40 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="7"/>
     </row>
+    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4">
+        <v>102713</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="7"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M9" r:id="rId1"/>
@@ -2282,11 +2321,12 @@
     <hyperlink ref="M25" r:id="rId18"/>
     <hyperlink ref="M27" r:id="rId19"/>
     <hyperlink ref="M28" r:id="rId20"/>
+    <hyperlink ref="M29" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
   <tableParts count="1">
-    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId23"/>
   </tableParts>
 </worksheet>
 </file>
--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -134,9 +134,6 @@
     <t>No Repository or Community</t>
   </si>
   <si>
-    <t>nid</t>
-  </si>
-  <si>
     <t>Collection Owner</t>
   </si>
   <si>
@@ -264,6 +261,9 @@
   </si>
   <si>
     <t>asset_release with contact point</t>
+  </si>
+  <si>
+    <t>Nid</t>
   </si>
 </sst>
 </file>
@@ -954,7 +954,7 @@
   </sortState>
   <tableColumns count="17">
     <tableColumn id="20" name="Type of content item" dataDxfId="15"/>
-    <tableColumn id="18" name="nid" dataDxfId="14"/>
+    <tableColumn id="18" name="Nid" dataDxfId="14"/>
     <tableColumn id="1" name="Title of content item" dataDxfId="13"/>
     <tableColumn id="10" name="Collection_Name"/>
     <tableColumn id="3" name="Policy domain 1" dataDxfId="12"/>
@@ -1243,9 +1243,7 @@
   </sheetPr>
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1273,7 +1271,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>13</v>
@@ -1306,7 +1304,7 @@
         <v>6</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>5</v>
@@ -1315,10 +1313,10 @@
         <v>4</v>
       </c>
       <c r="P1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -1362,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>16</v>
@@ -1406,7 +1404,7 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="7"/>
     </row>
@@ -1562,7 +1560,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1596,7 +1594,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -1627,13 +1625,13 @@
         <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -1664,30 +1662,30 @@
         <v>16</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="4">
         <v>87737</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
@@ -1703,13 +1701,13 @@
         <v>16</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -1718,13 +1716,13 @@
     </row>
     <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="13">
         <v>139528</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
@@ -1740,30 +1738,30 @@
         <v>16</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="17">
         <v>42233</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
@@ -1779,13 +1777,13 @@
         <v>16</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -1794,13 +1792,13 @@
     </row>
     <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="17">
         <v>138766</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
@@ -1816,13 +1814,13 @@
         <v>16</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1831,13 +1829,13 @@
     </row>
     <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="17">
         <v>133560</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
@@ -1853,13 +1851,13 @@
         <v>16</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -1868,13 +1866,13 @@
     </row>
     <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="15">
         <v>53012</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
@@ -1890,13 +1888,13 @@
         <v>16</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
@@ -1905,13 +1903,13 @@
     </row>
     <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="4">
         <v>63578</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>9</v>
@@ -1927,13 +1925,13 @@
         <v>16</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -1942,13 +1940,13 @@
     </row>
     <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="4">
         <v>155691</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
@@ -1964,13 +1962,13 @@
         <v>16</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -1979,13 +1977,13 @@
     </row>
     <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="4">
         <v>27607</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>9</v>
@@ -2001,30 +1999,30 @@
         <v>16</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="4">
         <v>155894</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>9</v>
@@ -2040,13 +2038,13 @@
         <v>16</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -2055,13 +2053,13 @@
     </row>
     <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="4">
         <v>152066</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>9</v>
@@ -2077,13 +2075,13 @@
         <v>16</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -2092,13 +2090,13 @@
     </row>
     <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="4">
         <v>145278</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>9</v>
@@ -2114,13 +2112,13 @@
         <v>16</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -2135,14 +2133,14 @@
         <v>59642</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>0</v>
@@ -2154,7 +2152,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -2169,14 +2167,14 @@
         <v>149141</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>0</v>
@@ -2188,7 +2186,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -2203,14 +2201,14 @@
         <v>144326</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>0</v>
@@ -2222,12 +2220,12 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q27" s="7"/>
     </row>
@@ -2239,14 +2237,14 @@
         <v>76726</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>0</v>
@@ -2258,7 +2256,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -2273,14 +2271,14 @@
         <v>102713</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>0</v>
@@ -2292,7 +2290,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>

--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -15,7 +15,7 @@
     <sheet name="1. Content items" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$Q$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$Q$31</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="79">
   <si>
     <t>No</t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t>Nid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Document with URL and multiple files</t>
   </si>
 </sst>
 </file>
@@ -399,7 +405,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="112">
+  <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -447,6 +453,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -565,7 +574,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="112">
+  <cellStyles count="115">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -653,6 +662,9 @@
     <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -947,8 +959,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:Q29" totalsRowShown="0" headerRowDxfId="16">
-  <autoFilter ref="A1:Q29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:Q31" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="A1:Q31"/>
   <sortState ref="A13187:X13200">
     <sortCondition ref="D2:D13200"/>
   </sortState>
@@ -1241,9 +1253,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2297,6 +2311,59 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="7"/>
     </row>
+    <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="4">
+        <v>125548</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="7"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="6"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="7"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M9" r:id="rId1"/>
@@ -2320,11 +2387,12 @@
     <hyperlink ref="M27" r:id="rId19"/>
     <hyperlink ref="M28" r:id="rId20"/>
     <hyperlink ref="M29" r:id="rId21"/>
+    <hyperlink ref="M30" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
   <tableParts count="1">
-    <tablePart r:id="rId23"/>
+    <tablePart r:id="rId24"/>
   </tableParts>
 </worksheet>
 </file>
--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -15,7 +15,7 @@
     <sheet name="1. Content items" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$Q$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$Q$33</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="81">
   <si>
     <t>No</t>
   </si>
@@ -266,10 +266,16 @@
     <t>Nid</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Document with URL and multiple files</t>
+  </si>
+  <si>
+    <t>Project having Issue with &gt; 1 files</t>
+  </si>
+  <si>
+    <t>Event with &gt; 1 files</t>
+  </si>
+  <si>
+    <t>News with &gt; 1 files</t>
   </si>
 </sst>
 </file>
@@ -405,7 +411,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="115">
+  <cellStyleXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -453,6 +459,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -574,7 +584,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="115">
+  <cellStyles count="119">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -665,6 +675,10 @@
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -959,8 +973,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:Q31" totalsRowShown="0" headerRowDxfId="16">
-  <autoFilter ref="A1:Q31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:Q33" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="A1:Q33"/>
   <sortState ref="A13187:X13200">
     <sortCondition ref="D2:D13200"/>
   </sortState>
@@ -1253,7 +1267,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2319,7 +2333,7 @@
         <v>125548</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>69</v>
@@ -2345,24 +2359,107 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="7"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
+    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="4">
+        <v>42444</v>
+      </c>
       <c r="C31" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="6"/>
+      <c r="F31" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="12"/>
+      <c r="M31" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="4">
+        <v>150255</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="7"/>
+    </row>
+    <row r="33" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="4">
+        <v>65803</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2388,11 +2485,14 @@
     <hyperlink ref="M28" r:id="rId20"/>
     <hyperlink ref="M29" r:id="rId21"/>
     <hyperlink ref="M30" r:id="rId22"/>
+    <hyperlink ref="M31" r:id="rId23"/>
+    <hyperlink ref="M32" r:id="rId24"/>
+    <hyperlink ref="M33" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
   <tableParts count="1">
-    <tablePart r:id="rId24"/>
+    <tablePart r:id="rId27"/>
   </tableParts>
 </worksheet>
 </file>
--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -15,7 +15,7 @@
     <sheet name="1. Content items" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$Q$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$S$33</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="87">
   <si>
     <t>No</t>
   </si>
@@ -276,13 +276,31 @@
   </si>
   <si>
     <t>News with &gt; 1 files</t>
+  </si>
+  <si>
+    <t>Owner name</t>
+  </si>
+  <si>
+    <t>Owner type</t>
+  </si>
+  <si>
+    <t>Text owner 1</t>
+  </si>
+  <si>
+    <t>SupraNationalAuthority</t>
+  </si>
+  <si>
+    <t>Text owner 2</t>
+  </si>
+  <si>
+    <t>Academia-ScientificOrganisation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,8 +356,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,8 +383,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -410,6 +441,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF5B9BD5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5B9BD5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5B9BD5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -532,7 +576,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -582,6 +626,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="119">
@@ -705,7 +758,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="19">
     <dxf>
       <font>
         <b val="0"/>
@@ -722,6 +775,42 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -973,24 +1062,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:Q33" totalsRowShown="0" headerRowDxfId="16">
-  <autoFilter ref="A1:Q33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:S33" totalsRowShown="0" headerRowDxfId="18">
+  <autoFilter ref="A1:S33"/>
   <sortState ref="A13187:X13200">
     <sortCondition ref="D2:D13200"/>
   </sortState>
-  <tableColumns count="17">
-    <tableColumn id="20" name="Type of content item" dataDxfId="15"/>
-    <tableColumn id="18" name="Nid" dataDxfId="14"/>
-    <tableColumn id="1" name="Title of content item" dataDxfId="13"/>
+  <tableColumns count="19">
+    <tableColumn id="20" name="Type of content item" dataDxfId="17"/>
+    <tableColumn id="18" name="Nid" dataDxfId="16"/>
+    <tableColumn id="1" name="Title of content item" dataDxfId="15"/>
     <tableColumn id="10" name="Collection_Name"/>
-    <tableColumn id="3" name="Policy domain 1" dataDxfId="12"/>
-    <tableColumn id="27" name="Policy domain 2" dataDxfId="11" dataCellStyle="Normale 2"/>
-    <tableColumn id="22" name="New collection" dataDxfId="10"/>
-    <tableColumn id="30" name="Migrate" dataDxfId="9" dataCellStyle="Normale 2"/>
-    <tableColumn id="12" name="Abstract" dataDxfId="8"/>
-    <tableColumn id="8" name="Logo" dataDxfId="7"/>
-    <tableColumn id="2" name="Banner" dataDxfId="6"/>
-    <tableColumn id="15" name="Owner" dataDxfId="5"/>
+    <tableColumn id="3" name="Policy domain 1" dataDxfId="14"/>
+    <tableColumn id="27" name="Policy domain 2" dataDxfId="13" dataCellStyle="Normale 2"/>
+    <tableColumn id="22" name="New collection" dataDxfId="12"/>
+    <tableColumn id="30" name="Migrate" dataDxfId="11" dataCellStyle="Normale 2"/>
+    <tableColumn id="12" name="Abstract" dataDxfId="10"/>
+    <tableColumn id="8" name="Logo" dataDxfId="9"/>
+    <tableColumn id="2" name="Banner" dataDxfId="8"/>
+    <tableColumn id="15" name="Owner" dataDxfId="7"/>
+    <tableColumn id="5" name="Owner name" dataDxfId="6" dataCellStyle="Normale 2"/>
+    <tableColumn id="4" name="Owner type" dataDxfId="5" dataCellStyle="Normale 2"/>
     <tableColumn id="9" name="Collection Owner" dataDxfId="4" dataCellStyle="Normale 2"/>
     <tableColumn id="25" name="Elibrary Creation" dataDxfId="3"/>
     <tableColumn id="26" name="Pre Moderation" dataDxfId="2"/>
@@ -1267,7 +1358,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1286,15 +1377,17 @@
     <col min="10" max="10" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="21.1640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="24.1640625" style="1"/>
+    <col min="17" max="17" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="24.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1331,23 +1424,29 @@
       <c r="L1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1370,7 +1469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1396,13 +1495,15 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="12"/>
+      <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="O3" s="12"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="7"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="7"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1431,12 +1532,14 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="Q4" s="7"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="S4" s="7"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1466,9 +1569,11 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="7"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="7"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1498,9 +1603,11 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="7"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="7"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1527,9 +1634,11 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="7"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="7"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -1555,13 +1664,15 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="7"/>
-    </row>
-    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="7"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
@@ -1587,15 +1698,17 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="7"/>
-    </row>
-    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="7"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -1621,15 +1734,17 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="7"/>
-    </row>
-    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="7"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -1658,15 +1773,17 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="7"/>
-    </row>
-    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="7"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
@@ -1695,17 +1812,23 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="O12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" t="s">
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1734,15 +1857,17 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="7"/>
-    </row>
-    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="7"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
@@ -1771,17 +1896,19 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="11" t="s">
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" t="s">
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -1810,15 +1937,17 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="7"/>
-    </row>
-    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="7"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>39</v>
       </c>
@@ -1847,15 +1976,17 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="11" t="s">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="7"/>
-    </row>
-    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="7"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
@@ -1884,15 +2015,17 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="7"/>
-    </row>
-    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="7"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>40</v>
       </c>
@@ -1921,15 +2054,17 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="11" t="s">
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
       <c r="P18" s="14"/>
-      <c r="Q18" s="16"/>
-    </row>
-    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="16"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
@@ -1958,15 +2093,17 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="11" t="s">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-      <c r="Q19" s="7"/>
-    </row>
-    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="7"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
@@ -1995,15 +2132,17 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="7"/>
-    </row>
-    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="7"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>51</v>
       </c>
@@ -2032,17 +2171,19 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-      <c r="Q21" t="s">
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
@@ -2071,15 +2212,17 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="11" t="s">
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-      <c r="Q22" s="7"/>
-    </row>
-    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="7"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>54</v>
       </c>
@@ -2108,15 +2251,17 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="11" t="s">
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="7"/>
-    </row>
-    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="7"/>
+    </row>
+    <row r="24" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>55</v>
       </c>
@@ -2145,15 +2290,17 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="11" t="s">
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-      <c r="Q24" s="7"/>
-    </row>
-    <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="7"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
@@ -2179,15 +2326,17 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="20" t="s">
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-      <c r="Q25" s="7"/>
-    </row>
-    <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="7"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -2213,15 +2362,17 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="20" t="s">
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="7"/>
-    </row>
-    <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="7"/>
+    </row>
+    <row r="27" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>1</v>
       </c>
@@ -2247,17 +2398,19 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="11" t="s">
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3" t="s">
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="Q27" s="7"/>
-    </row>
-    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="S27" s="7"/>
+    </row>
+    <row r="28" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>1</v>
       </c>
@@ -2283,15 +2436,17 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="11" t="s">
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="7"/>
-    </row>
-    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="7"/>
+    </row>
+    <row r="29" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>1</v>
       </c>
@@ -2317,15 +2472,17 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="11" t="s">
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="7"/>
-    </row>
-    <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="7"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>39</v>
       </c>
@@ -2351,15 +2508,17 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="11" t="s">
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="7"/>
-    </row>
-    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="7"/>
+    </row>
+    <row r="31" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>23</v>
       </c>
@@ -2385,15 +2544,21 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="11" t="s">
+      <c r="M31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N31" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="O31" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="7"/>
-    </row>
-    <row r="32" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="7"/>
+    </row>
+    <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>55</v>
       </c>
@@ -2419,15 +2584,17 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="11" t="s">
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="7"/>
-    </row>
-    <row r="33" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="7"/>
+    </row>
+    <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>51</v>
       </c>
@@ -2453,41 +2620,43 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
-      <c r="M33" s="11" t="s">
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="7"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M9" r:id="rId1"/>
-    <hyperlink ref="M11" r:id="rId2"/>
-    <hyperlink ref="M12" r:id="rId3"/>
-    <hyperlink ref="M10" r:id="rId4"/>
-    <hyperlink ref="M13" r:id="rId5"/>
-    <hyperlink ref="M14" r:id="rId6"/>
-    <hyperlink ref="M18" r:id="rId7"/>
-    <hyperlink ref="M19" r:id="rId8"/>
-    <hyperlink ref="M20" r:id="rId9"/>
-    <hyperlink ref="M17" r:id="rId10"/>
-    <hyperlink ref="M15" r:id="rId11"/>
-    <hyperlink ref="M16" r:id="rId12"/>
-    <hyperlink ref="M21" r:id="rId13"/>
-    <hyperlink ref="M22" r:id="rId14"/>
-    <hyperlink ref="M23" r:id="rId15"/>
-    <hyperlink ref="M24" r:id="rId16"/>
-    <hyperlink ref="M26" r:id="rId17"/>
-    <hyperlink ref="M25" r:id="rId18"/>
-    <hyperlink ref="M27" r:id="rId19"/>
-    <hyperlink ref="M28" r:id="rId20"/>
-    <hyperlink ref="M29" r:id="rId21"/>
-    <hyperlink ref="M30" r:id="rId22"/>
-    <hyperlink ref="M31" r:id="rId23"/>
-    <hyperlink ref="M32" r:id="rId24"/>
-    <hyperlink ref="M33" r:id="rId25"/>
+    <hyperlink ref="O9" r:id="rId1"/>
+    <hyperlink ref="O11" r:id="rId2"/>
+    <hyperlink ref="O12" r:id="rId3"/>
+    <hyperlink ref="O10" r:id="rId4"/>
+    <hyperlink ref="O13" r:id="rId5"/>
+    <hyperlink ref="O14" r:id="rId6"/>
+    <hyperlink ref="O18" r:id="rId7"/>
+    <hyperlink ref="O19" r:id="rId8"/>
+    <hyperlink ref="O20" r:id="rId9"/>
+    <hyperlink ref="O17" r:id="rId10"/>
+    <hyperlink ref="O15" r:id="rId11"/>
+    <hyperlink ref="O16" r:id="rId12"/>
+    <hyperlink ref="O21" r:id="rId13"/>
+    <hyperlink ref="O22" r:id="rId14"/>
+    <hyperlink ref="O23" r:id="rId15"/>
+    <hyperlink ref="O24" r:id="rId16"/>
+    <hyperlink ref="O26" r:id="rId17"/>
+    <hyperlink ref="O25" r:id="rId18"/>
+    <hyperlink ref="O27" r:id="rId19"/>
+    <hyperlink ref="O28" r:id="rId20"/>
+    <hyperlink ref="O29" r:id="rId21"/>
+    <hyperlink ref="O30" r:id="rId22"/>
+    <hyperlink ref="O31" r:id="rId23"/>
+    <hyperlink ref="O32" r:id="rId24"/>
+    <hyperlink ref="O33" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>

--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -284,16 +284,16 @@
     <t>Owner type</t>
   </si>
   <si>
-    <t>Text owner 1</t>
-  </si>
-  <si>
     <t>SupraNationalAuthority</t>
   </si>
   <si>
-    <t>Text owner 2</t>
-  </si>
-  <si>
     <t>Academia-ScientificOrganisation</t>
+  </si>
+  <si>
+    <t>Dark Side of The Force</t>
+  </si>
+  <si>
+    <t>ACME University</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="119">
+  <cellStyleXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -503,6 +503,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -637,7 +642,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="119">
+  <cellStyles count="124">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -732,6 +737,11 @@
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1377,7 +1387,7 @@
     <col min="10" max="10" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="18.5" style="1" customWidth="1"/>
     <col min="15" max="15" width="21.1640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -1812,11 +1822,11 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" s="24" t="s">
         <v>83</v>
-      </c>
-      <c r="N12" s="24" t="s">
-        <v>84</v>
       </c>
       <c r="O12" s="11" t="s">
         <v>35</v>
@@ -2545,10 +2555,10 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N31" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O31" s="11" t="s">
         <v>35</v>

--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -15,7 +15,7 @@
     <sheet name="1. Content items" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$S$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$S$34</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="87">
   <si>
     <t>No</t>
   </si>
@@ -146,9 +146,6 @@
     <t>Invalid</t>
   </si>
   <si>
-    <t>Software</t>
-  </si>
-  <si>
     <t>Software instead of Project</t>
   </si>
   <si>
@@ -294,13 +291,16 @@
   </si>
   <si>
     <t>ACME University</t>
+  </si>
+  <si>
+    <t>News declared as newsletter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,6 +362,11 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
     </font>
   </fonts>
   <fills count="5">
@@ -455,7 +460,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="124">
+  <cellStyleXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -580,8 +585,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -641,8 +647,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="124">
+  <cellStyles count="125">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -742,6 +749,7 @@
     <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1072,8 +1080,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:S33" totalsRowShown="0" headerRowDxfId="18">
-  <autoFilter ref="A1:S33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:S34" totalsRowShown="0" headerRowDxfId="18">
+  <autoFilter ref="A1:S34"/>
   <sortState ref="A13187:X13200">
     <sortCondition ref="D2:D13200"/>
   </sortState>
@@ -1368,7 +1376,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1402,7 +1410,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>13</v>
@@ -1435,10 +1443,10 @@
         <v>6</v>
       </c>
       <c r="M1" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="23" t="s">
         <v>81</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>82</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>33</v>
@@ -1450,10 +1458,10 @@
         <v>4</v>
       </c>
       <c r="R1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
@@ -1545,7 +1553,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S4" s="7"/>
     </row>
@@ -1778,7 +1786,7 @@
         <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1817,16 +1825,16 @@
         <v>16</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O12" s="11" t="s">
         <v>35</v>
@@ -1835,18 +1843,18 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B13" s="4">
         <v>87737</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
@@ -1862,7 +1870,7 @@
         <v>16</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1879,13 +1887,13 @@
     </row>
     <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="13">
         <v>139528</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
@@ -1901,7 +1909,7 @@
         <v>16</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1915,18 +1923,18 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="17">
         <v>42233</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
@@ -1942,7 +1950,7 @@
         <v>16</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1959,13 +1967,13 @@
     </row>
     <row r="16" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="17">
         <v>138766</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
@@ -1981,7 +1989,7 @@
         <v>16</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1998,13 +2006,13 @@
     </row>
     <row r="17" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="17">
         <v>133560</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
@@ -2020,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -2037,13 +2045,13 @@
     </row>
     <row r="18" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="15">
         <v>53012</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
@@ -2059,7 +2067,7 @@
         <v>16</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -2076,13 +2084,13 @@
     </row>
     <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="4">
         <v>63578</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>9</v>
@@ -2098,7 +2106,7 @@
         <v>16</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -2115,13 +2123,13 @@
     </row>
     <row r="20" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="4">
         <v>155691</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
@@ -2137,7 +2145,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -2154,13 +2162,13 @@
     </row>
     <row r="21" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="4">
         <v>27607</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>9</v>
@@ -2176,7 +2184,7 @@
         <v>16</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -2190,18 +2198,18 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="4">
         <v>155894</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>9</v>
@@ -2217,7 +2225,7 @@
         <v>16</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -2234,13 +2242,13 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="4">
         <v>152066</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>9</v>
@@ -2256,7 +2264,7 @@
         <v>16</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -2273,13 +2281,13 @@
     </row>
     <row r="24" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="4">
         <v>145278</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>9</v>
@@ -2295,7 +2303,7 @@
         <v>16</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -2318,14 +2326,14 @@
         <v>59642</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>0</v>
@@ -2339,7 +2347,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -2354,14 +2362,14 @@
         <v>149141</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>0</v>
@@ -2375,7 +2383,7 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -2384,20 +2392,20 @@
     </row>
     <row r="27" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B27" s="4">
         <v>144326</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>0</v>
@@ -2416,7 +2424,7 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S27" s="7"/>
     </row>
@@ -2428,14 +2436,14 @@
         <v>76726</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>0</v>
@@ -2464,14 +2472,14 @@
         <v>102713</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>0</v>
@@ -2494,20 +2502,20 @@
     </row>
     <row r="30" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="4">
         <v>125548</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>0</v>
@@ -2536,14 +2544,14 @@
         <v>42444</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>0</v>
@@ -2555,10 +2563,10 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N31" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O31" s="11" t="s">
         <v>35</v>
@@ -2570,20 +2578,20 @@
     </row>
     <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B32" s="4">
         <v>150255</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>0</v>
@@ -2606,20 +2614,20 @@
     </row>
     <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="4">
         <v>65803</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>0</v>
@@ -2639,6 +2647,40 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="7"/>
+    </row>
+    <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="25">
+        <v>156973</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="88">
   <si>
     <t>No</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>News declared as newsletter</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="125">
+  <cellStyleXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -508,6 +511,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -649,7 +654,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="125">
+  <cellStyles count="127">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -750,6 +755,8 @@
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1829,7 +1836,9 @@
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="L12" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="M12" s="1" t="s">
         <v>84</v>
       </c>
@@ -2489,7 +2498,9 @@
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+      <c r="L29" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="11" t="s">

--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -15,7 +15,7 @@
     <sheet name="1. Content items" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$S$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$S$35</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="89">
   <si>
     <t>No</t>
   </si>
@@ -297,13 +297,16 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>project with discussions having replies with files</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,11 +369,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -398,7 +396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -419,19 +417,6 @@
       <bottom style="thin">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -463,7 +448,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="127">
+  <cellStyleXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -591,70 +576,79 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="46" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="46" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="46" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="46" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="127">
+  <cellStyles count="129">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -757,6 +751,8 @@
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -783,204 +779,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <font>
         <b val="0"/>
@@ -998,56 +797,10 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1073,6 +826,256 @@
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1087,31 +1090,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:S34" totalsRowShown="0" headerRowDxfId="18">
-  <autoFilter ref="A1:S34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:S35" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A1:S35"/>
   <sortState ref="A13187:X13200">
     <sortCondition ref="D2:D13200"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="20" name="Type of content item" dataDxfId="17"/>
-    <tableColumn id="18" name="Nid" dataDxfId="16"/>
-    <tableColumn id="1" name="Title of content item" dataDxfId="15"/>
-    <tableColumn id="10" name="Collection_Name"/>
-    <tableColumn id="3" name="Policy domain 1" dataDxfId="14"/>
-    <tableColumn id="27" name="Policy domain 2" dataDxfId="13" dataCellStyle="Normale 2"/>
-    <tableColumn id="22" name="New collection" dataDxfId="12"/>
-    <tableColumn id="30" name="Migrate" dataDxfId="11" dataCellStyle="Normale 2"/>
-    <tableColumn id="12" name="Abstract" dataDxfId="10"/>
-    <tableColumn id="8" name="Logo" dataDxfId="9"/>
-    <tableColumn id="2" name="Banner" dataDxfId="8"/>
-    <tableColumn id="15" name="Owner" dataDxfId="7"/>
-    <tableColumn id="5" name="Owner name" dataDxfId="6" dataCellStyle="Normale 2"/>
-    <tableColumn id="4" name="Owner type" dataDxfId="5" dataCellStyle="Normale 2"/>
-    <tableColumn id="9" name="Collection Owner" dataDxfId="4" dataCellStyle="Normale 2"/>
-    <tableColumn id="25" name="Elibrary Creation" dataDxfId="3"/>
-    <tableColumn id="26" name="Pre Moderation" dataDxfId="2"/>
-    <tableColumn id="13" name="Collection state" dataDxfId="1"/>
-    <tableColumn id="28" name="Content item state" dataDxfId="0" dataCellStyle="Normale 2"/>
+    <tableColumn id="20" name="Type of content item" dataDxfId="20"/>
+    <tableColumn id="18" name="Nid" dataDxfId="0" dataCellStyle="Normale 2"/>
+    <tableColumn id="1" name="Title of content item" dataDxfId="19"/>
+    <tableColumn id="10" name="Collection_Name" dataDxfId="18"/>
+    <tableColumn id="3" name="Policy domain 1" dataDxfId="17"/>
+    <tableColumn id="27" name="Policy domain 2" dataDxfId="16" dataCellStyle="Normale 2"/>
+    <tableColumn id="22" name="New collection" dataDxfId="15"/>
+    <tableColumn id="30" name="Migrate" dataDxfId="14" dataCellStyle="Normale 2"/>
+    <tableColumn id="12" name="Abstract" dataDxfId="13"/>
+    <tableColumn id="8" name="Logo" dataDxfId="12"/>
+    <tableColumn id="2" name="Banner" dataDxfId="11"/>
+    <tableColumn id="15" name="Owner" dataDxfId="10"/>
+    <tableColumn id="5" name="Owner name" dataDxfId="9" dataCellStyle="Normale 2"/>
+    <tableColumn id="4" name="Owner type" dataDxfId="8" dataCellStyle="Normale 2"/>
+    <tableColumn id="9" name="Collection Owner" dataDxfId="7" dataCellStyle="Normale 2"/>
+    <tableColumn id="25" name="Elibrary Creation" dataDxfId="6"/>
+    <tableColumn id="26" name="Pre Moderation" dataDxfId="5"/>
+    <tableColumn id="13" name="Collection state" dataDxfId="4"/>
+    <tableColumn id="28" name="Content item state" dataDxfId="3" dataCellStyle="Normale 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1383,1315 +1386,1353 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="24.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38" style="1" customWidth="1"/>
-    <col min="5" max="6" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="21.1640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="24.1640625" style="1"/>
+    <col min="1" max="1" width="19.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="38" style="8" customWidth="1"/>
+    <col min="5" max="6" width="16.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" style="8" customWidth="1"/>
+    <col min="14" max="14" width="18.5" style="8" customWidth="1"/>
+    <col min="15" max="15" width="21.1640625" style="8" customWidth="1"/>
+    <col min="16" max="16" width="17.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="24.1640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:19" s="7" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="9">
         <v>60735</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="H2" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="9">
         <v>99999999</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="7"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="H3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="12"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3" t="s">
+      <c r="G4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="S4" s="7"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="S4" s="12"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="9">
         <v>157729</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="7"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="H5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="9">
         <v>58729</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="1" t="e">
+      <c r="D6" s="8" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="7"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="H6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="9">
         <v>60736</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="7"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="G7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="12"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="9">
         <v>156207</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="3" t="e">
+      <c r="G8" s="10" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="7"/>
+      <c r="H8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="12"/>
     </row>
     <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="9">
         <v>145807</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="11" t="s">
+      <c r="H9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="7"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="12"/>
     </row>
     <row r="10" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="9">
         <v>105945</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="5" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="11" t="s">
+      <c r="H10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="7"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="12"/>
     </row>
     <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="9">
         <v>58694</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="5" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="G11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="11" t="s">
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="7"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="12"/>
     </row>
     <row r="12" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="9">
         <v>49860</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="5" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="H12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3" t="s">
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="O12" s="11" t="s">
+      <c r="O12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" t="s">
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="9">
         <v>87737</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="G13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="11" t="s">
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="7"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="12"/>
     </row>
     <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="9">
         <v>139528</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="5" t="s">
+      <c r="E14" s="10"/>
+      <c r="F14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="G14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="11" t="s">
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" t="s">
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="17" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="9">
         <v>42233</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="5" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="G15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="11" t="s">
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="7"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="12"/>
     </row>
     <row r="16" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="9">
         <v>138766</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="5" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="G16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="11" t="s">
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="7"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="12"/>
     </row>
     <row r="17" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="9">
         <v>133560</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="5" t="s">
+      <c r="E17" s="10"/>
+      <c r="F17" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="G17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="11" t="s">
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="7"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="12"/>
     </row>
     <row r="18" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="9">
         <v>53012</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="5" t="s">
+      <c r="E18" s="10"/>
+      <c r="F18" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="G18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="11" t="s">
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="16"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="19"/>
     </row>
     <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="9">
         <v>63578</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="5" t="s">
+      <c r="E19" s="10"/>
+      <c r="F19" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="G19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="11" t="s">
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="7"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="12"/>
     </row>
     <row r="20" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="9">
         <v>155691</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="5" t="s">
+      <c r="E20" s="10"/>
+      <c r="F20" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="G20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="11" t="s">
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="7"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="12"/>
     </row>
     <row r="21" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="9">
         <v>27607</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="5" t="s">
+      <c r="E21" s="10"/>
+      <c r="F21" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="1" t="s">
+      <c r="G21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="11" t="s">
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" t="s">
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="17" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="9">
         <v>155894</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="5" t="s">
+      <c r="E22" s="10"/>
+      <c r="F22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="1" t="s">
+      <c r="G22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="11" t="s">
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="7"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="12"/>
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="9">
         <v>152066</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="5" t="s">
+      <c r="E23" s="10"/>
+      <c r="F23" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="1" t="s">
+      <c r="G23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="11" t="s">
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="7"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="12"/>
     </row>
     <row r="24" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="9">
         <v>145278</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="5" t="s">
+      <c r="E24" s="10"/>
+      <c r="F24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="1" t="s">
+      <c r="G24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="11" t="s">
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="7"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="12"/>
     </row>
     <row r="25" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="9">
         <v>59642</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="18" t="s">
+      <c r="E25" s="10"/>
+      <c r="F25" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="20" t="s">
+      <c r="H25" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="7"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="12"/>
     </row>
     <row r="26" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="9">
         <v>149141</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="18" t="s">
+      <c r="E26" s="10"/>
+      <c r="F26" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="20" t="s">
+      <c r="H26" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="7"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="12"/>
     </row>
     <row r="27" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="9">
         <v>144326</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="18" t="s">
+      <c r="E27" s="10"/>
+      <c r="F27" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="11" t="s">
+      <c r="H27" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3" t="s">
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="S27" s="7"/>
+      <c r="S27" s="12"/>
     </row>
     <row r="28" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="9">
         <v>76726</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="18" t="s">
+      <c r="E28" s="10"/>
+      <c r="F28" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="11" t="s">
+      <c r="H28" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="7"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="12"/>
     </row>
     <row r="29" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="9">
         <v>102713</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="18" t="s">
+      <c r="E29" s="10"/>
+      <c r="F29" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3" t="s">
+      <c r="H29" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="11" t="s">
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="7"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="12"/>
     </row>
     <row r="30" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="9">
         <v>125548</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="18" t="s">
+      <c r="E30" s="10"/>
+      <c r="F30" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="11" t="s">
+      <c r="H30" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="7"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="12"/>
     </row>
     <row r="31" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="9">
         <v>42444</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="18" t="s">
+      <c r="E31" s="10"/>
+      <c r="F31" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3" t="s">
+      <c r="H31" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="N31" s="24" t="s">
+      <c r="N31" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="O31" s="11" t="s">
+      <c r="O31" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="7"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="12"/>
     </row>
     <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="9">
         <v>150255</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="18" t="s">
+      <c r="E32" s="10"/>
+      <c r="F32" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="11" t="s">
+      <c r="H32" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="7"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="12"/>
     </row>
     <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="9">
         <v>65803</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="18" t="s">
+      <c r="E33" s="10"/>
+      <c r="F33" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H33" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="11" t="s">
+      <c r="H33" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="7"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="12"/>
     </row>
     <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="9">
         <v>156973</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="18" t="s">
+      <c r="E34" s="10"/>
+      <c r="F34" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="7"/>
+      <c r="H34" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="12"/>
+    </row>
+    <row r="35" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="9">
+        <v>63567</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2720,11 +2761,13 @@
     <hyperlink ref="O31" r:id="rId23"/>
     <hyperlink ref="O32" r:id="rId24"/>
     <hyperlink ref="O33" r:id="rId25"/>
+    <hyperlink ref="O34" r:id="rId26"/>
+    <hyperlink ref="O35" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
   <tableParts count="1">
-    <tablePart r:id="rId27"/>
+    <tablePart r:id="rId29"/>
   </tableParts>
 </worksheet>
 </file>
--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -15,7 +15,7 @@
     <sheet name="1. Content items" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$S$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$S$38</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
   <si>
     <t>No</t>
   </si>
@@ -300,6 +300,15 @@
   </si>
   <si>
     <t>project with discussions having replies with files</t>
+  </si>
+  <si>
+    <t>asset_release with relations</t>
+  </si>
+  <si>
+    <t>related by 55844 as Translation</t>
+  </si>
+  <si>
+    <t>related by 55844 as Related Asset</t>
   </si>
 </sst>
 </file>
@@ -448,7 +457,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="129">
+  <cellStyleXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -496,6 +505,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -648,7 +660,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="129">
+  <cellStyles count="132">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -753,6 +765,9 @@
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -780,52 +795,6 @@
     <cellStyle name="Normale 2" xfId="1"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1074,6 +1043,52 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -1090,31 +1105,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:S35" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="A1:S35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:S38" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:S38"/>
   <sortState ref="A13187:X13200">
     <sortCondition ref="D2:D13200"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="20" name="Type of content item" dataDxfId="20"/>
-    <tableColumn id="18" name="Nid" dataDxfId="0" dataCellStyle="Normale 2"/>
-    <tableColumn id="1" name="Title of content item" dataDxfId="19"/>
-    <tableColumn id="10" name="Collection_Name" dataDxfId="18"/>
-    <tableColumn id="3" name="Policy domain 1" dataDxfId="17"/>
-    <tableColumn id="27" name="Policy domain 2" dataDxfId="16" dataCellStyle="Normale 2"/>
-    <tableColumn id="22" name="New collection" dataDxfId="15"/>
-    <tableColumn id="30" name="Migrate" dataDxfId="14" dataCellStyle="Normale 2"/>
-    <tableColumn id="12" name="Abstract" dataDxfId="13"/>
-    <tableColumn id="8" name="Logo" dataDxfId="12"/>
-    <tableColumn id="2" name="Banner" dataDxfId="11"/>
-    <tableColumn id="15" name="Owner" dataDxfId="10"/>
-    <tableColumn id="5" name="Owner name" dataDxfId="9" dataCellStyle="Normale 2"/>
-    <tableColumn id="4" name="Owner type" dataDxfId="8" dataCellStyle="Normale 2"/>
-    <tableColumn id="9" name="Collection Owner" dataDxfId="7" dataCellStyle="Normale 2"/>
-    <tableColumn id="25" name="Elibrary Creation" dataDxfId="6"/>
-    <tableColumn id="26" name="Pre Moderation" dataDxfId="5"/>
-    <tableColumn id="13" name="Collection state" dataDxfId="4"/>
-    <tableColumn id="28" name="Content item state" dataDxfId="3" dataCellStyle="Normale 2"/>
+    <tableColumn id="20" name="Type of content item" dataDxfId="18"/>
+    <tableColumn id="18" name="Nid" dataDxfId="17" dataCellStyle="Normale 2"/>
+    <tableColumn id="1" name="Title of content item" dataDxfId="16"/>
+    <tableColumn id="10" name="Collection_Name" dataDxfId="15"/>
+    <tableColumn id="3" name="Policy domain 1" dataDxfId="14"/>
+    <tableColumn id="27" name="Policy domain 2" dataDxfId="13" dataCellStyle="Normale 2"/>
+    <tableColumn id="22" name="New collection" dataDxfId="12"/>
+    <tableColumn id="30" name="Migrate" dataDxfId="11" dataCellStyle="Normale 2"/>
+    <tableColumn id="12" name="Abstract" dataDxfId="10"/>
+    <tableColumn id="8" name="Logo" dataDxfId="9"/>
+    <tableColumn id="2" name="Banner" dataDxfId="8"/>
+    <tableColumn id="15" name="Owner" dataDxfId="7"/>
+    <tableColumn id="5" name="Owner name" dataDxfId="6" dataCellStyle="Normale 2"/>
+    <tableColumn id="4" name="Owner type" dataDxfId="5" dataCellStyle="Normale 2"/>
+    <tableColumn id="9" name="Collection Owner" dataDxfId="4" dataCellStyle="Normale 2"/>
+    <tableColumn id="25" name="Elibrary Creation" dataDxfId="3"/>
+    <tableColumn id="26" name="Pre Moderation" dataDxfId="2"/>
+    <tableColumn id="13" name="Collection state" dataDxfId="1"/>
+    <tableColumn id="28" name="Content item state" dataDxfId="0" dataCellStyle="Normale 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1386,7 +1401,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2473,7 +2488,9 @@
       </c>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
+      <c r="R28" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="S28" s="12"/>
     </row>
     <row r="29" spans="1:19" ht="15" x14ac:dyDescent="0.2">
@@ -2511,7 +2528,9 @@
       </c>
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
+      <c r="R29" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="S29" s="12"/>
     </row>
     <row r="30" spans="1:19" ht="15" x14ac:dyDescent="0.2">
@@ -2547,7 +2566,9 @@
       </c>
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
+      <c r="R30" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="S30" s="12"/>
     </row>
     <row r="31" spans="1:19" ht="15" x14ac:dyDescent="0.2">
@@ -2587,7 +2608,9 @@
       </c>
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
+      <c r="R31" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="S31" s="12"/>
     </row>
     <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.2">
@@ -2623,7 +2646,9 @@
       </c>
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
+      <c r="R32" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="S32" s="12"/>
     </row>
     <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.2">
@@ -2659,7 +2684,9 @@
       </c>
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
+      <c r="R33" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="S33" s="12"/>
     </row>
     <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.2">
@@ -2695,7 +2722,9 @@
       </c>
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
+      <c r="R34" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="S34" s="12"/>
     </row>
     <row r="35" spans="1:19" ht="15" x14ac:dyDescent="0.2">
@@ -2731,8 +2760,124 @@
       </c>
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
+      <c r="R35" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="S35" s="12"/>
+    </row>
+    <row r="36" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="15">
+        <v>59180</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="S36" s="12"/>
+    </row>
+    <row r="37" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="15">
+        <v>59183</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="S37" s="12"/>
+    </row>
+    <row r="38" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="15">
+        <v>60208</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="S38" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2763,11 +2908,14 @@
     <hyperlink ref="O33" r:id="rId25"/>
     <hyperlink ref="O34" r:id="rId26"/>
     <hyperlink ref="O35" r:id="rId27"/>
+    <hyperlink ref="O36" r:id="rId28"/>
+    <hyperlink ref="O37" r:id="rId29"/>
+    <hyperlink ref="O38" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
   <tableParts count="1">
-    <tablePart r:id="rId29"/>
+    <tablePart r:id="rId32"/>
   </tableParts>
 </worksheet>
 </file>
--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
   <si>
     <t>No</t>
   </si>
@@ -457,7 +457,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="132">
+  <cellStyleXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -505,6 +505,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -660,7 +662,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="132">
+  <cellStyles count="134">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -768,6 +770,8 @@
     <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1902,8 +1906,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
+      <c r="N13" s="16"/>
       <c r="O13" s="13" t="s">
         <v>35</v>
       </c>
@@ -2753,8 +2756,12 @@
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
+      <c r="M35" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N35" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="O35" s="13" t="s">
         <v>35</v>
       </c>

--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="1. Content items" sheetId="2" r:id="rId1"/>
+    <sheet name="5. Collections" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$S$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$S$34</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="91">
   <si>
     <t>No</t>
   </si>
@@ -107,18 +108,12 @@
     <t>Project</t>
   </si>
   <si>
-    <t>Invalid "New collection" cell</t>
-  </si>
-  <si>
     <t>Community</t>
   </si>
   <si>
     <t>Repository</t>
   </si>
   <si>
-    <t>Invalid collection name '#N/A'</t>
-  </si>
-  <si>
     <t>eProcurement</t>
   </si>
   <si>
@@ -128,18 +123,9 @@
     <t>project_project as solution in new collection</t>
   </si>
   <si>
-    <t>More than one Community or Repository</t>
-  </si>
-  <si>
-    <t>No Repository or Community</t>
-  </si>
-  <si>
     <t>Collection Owner</t>
   </si>
   <si>
-    <t>joeroe@example.com</t>
-  </si>
-  <si>
     <t>doe@example.com</t>
   </si>
   <si>
@@ -309,6 +295,18 @@
   </si>
   <si>
     <t>related by 55844 as Related Asset</t>
+  </si>
+  <si>
+    <t>Collection_name</t>
+  </si>
+  <si>
+    <t>eGovernment</t>
+  </si>
+  <si>
+    <t>Inexistent collection</t>
+  </si>
+  <si>
+    <t>Collection with errorneous items</t>
   </si>
 </sst>
 </file>
@@ -379,7 +377,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,8 +402,20 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -456,8 +466,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="134">
+  <cellStyleXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -592,8 +615,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -661,8 +686,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="46" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="46" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="134">
+  <cellStyles count="136">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -772,6 +819,8 @@
     <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1109,8 +1158,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:S38" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:S38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:S34" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:S34"/>
   <sortState ref="A13187:X13200">
     <sortCondition ref="D2:D13200"/>
   </sortState>
@@ -1405,7 +1454,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1415,8 +1464,8 @@
   <cols>
     <col min="1" max="1" width="19.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="38" style="8" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="16.5" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" style="8" bestFit="1" customWidth="1"/>
@@ -1426,11 +1475,11 @@
     <col min="12" max="12" width="9" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.83203125" style="8" customWidth="1"/>
     <col min="14" max="14" width="18.5" style="8" customWidth="1"/>
-    <col min="15" max="15" width="21.1640625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="24.1640625" style="8"/>
   </cols>
   <sheetData>
@@ -1439,7 +1488,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
@@ -1472,13 +1521,13 @@
         <v>6</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>5</v>
@@ -1487,10 +1536,10 @@
         <v>4</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -1504,7 +1553,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>3</v>
@@ -1527,14 +1576,14 @@
         <v>18</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>16</v>
@@ -1561,7 +1610,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="8" t="s">
@@ -1582,7 +1631,7 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="S4" s="12"/>
     </row>
@@ -1597,7 +1646,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="8" t="s">
@@ -1625,20 +1674,17 @@
         <v>1</v>
       </c>
       <c r="B6" s="9">
-        <v>58729</v>
+        <v>60736</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="8" t="e">
-        <v>#N/A</v>
+        <v>19</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>16</v>
@@ -1654,101 +1700,124 @@
       <c r="R6" s="10"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="9">
-        <v>60736</v>
+        <v>58694</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>16</v>
+      <c r="F7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
+      <c r="O7" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="9">
-        <v>156207</v>
+        <v>49860</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E8" s="10"/>
-      <c r="F8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>16</v>
+      <c r="F8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="10"/>
+      <c r="L8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
-      <c r="S8" s="12"/>
+      <c r="S8" s="17" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="9">
-        <v>145807</v>
+        <v>87737</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="8" t="s">
-        <v>3</v>
+      <c r="F9" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
+      <c r="N9" s="16"/>
       <c r="O9" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
@@ -1757,26 +1826,29 @@
     </row>
     <row r="10" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B10" s="9">
-        <v>105945</v>
+        <v>139528</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="14" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>16</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -1784,29 +1856,31 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
-      <c r="S10" s="12"/>
+      <c r="S10" s="17" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B11" s="9">
-        <v>58694</v>
+        <v>42233</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>16</v>
@@ -1815,7 +1889,7 @@
         <v>16</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -1823,7 +1897,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
@@ -1832,67 +1906,59 @@
     </row>
     <row r="12" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B12" s="9">
-        <v>49860</v>
+        <v>138766</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>82</v>
-      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
       <c r="O12" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
-      <c r="S12" s="17" t="s">
-        <v>71</v>
-      </c>
+      <c r="S12" s="12"/>
     </row>
     <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B13" s="9">
-        <v>87737</v>
+        <v>133560</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>16</v>
@@ -1901,14 +1967,15 @@
         <v>16</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
-      <c r="N13" s="16"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
       <c r="O13" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
@@ -1916,21 +1983,21 @@
       <c r="S13" s="12"/>
     </row>
     <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>38</v>
+      <c r="A14" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="B14" s="9">
-        <v>139528</v>
+        <v>53012</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>16</v>
@@ -1939,7 +2006,7 @@
         <v>16</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -1947,31 +2014,29 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="17" t="s">
-        <v>72</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="19"/>
     </row>
     <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" s="9">
-        <v>42233</v>
+        <v>63578</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>16</v>
@@ -1980,7 +2045,7 @@
         <v>16</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -1988,7 +2053,7 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
@@ -2000,17 +2065,17 @@
         <v>38</v>
       </c>
       <c r="B16" s="9">
-        <v>138766</v>
+        <v>155691</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>16</v>
@@ -2019,7 +2084,7 @@
         <v>16</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -2027,7 +2092,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
@@ -2039,7 +2104,7 @@
         <v>45</v>
       </c>
       <c r="B17" s="9">
-        <v>133560</v>
+        <v>27607</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>46</v>
@@ -2049,7 +2114,7 @@
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>16</v>
@@ -2058,7 +2123,7 @@
         <v>16</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -2066,29 +2131,31 @@
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
-      <c r="S17" s="12"/>
+      <c r="S17" s="17" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="18" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
-        <v>39</v>
+      <c r="A18" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="B18" s="9">
-        <v>53012</v>
+        <v>155894</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>16</v>
@@ -2097,7 +2164,7 @@
         <v>16</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -2105,29 +2172,29 @@
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="19"/>
+        <v>30</v>
+      </c>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="12"/>
     </row>
     <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B19" s="9">
-        <v>63578</v>
+        <v>152066</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>16</v>
@@ -2136,7 +2203,7 @@
         <v>16</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -2144,7 +2211,7 @@
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
@@ -2153,20 +2220,20 @@
     </row>
     <row r="20" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B20" s="9">
-        <v>155691</v>
+        <v>145278</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>16</v>
@@ -2175,7 +2242,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -2183,7 +2250,7 @@
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
@@ -2192,78 +2259,70 @@
     </row>
     <row r="21" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B21" s="9">
-        <v>27607</v>
-      </c>
-      <c r="C21" s="10" t="s">
+        <v>59642</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="E21" s="10"/>
-      <c r="F21" s="14" t="s">
-        <v>28</v>
+      <c r="F21" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H21" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
-      <c r="O21" s="13" t="s">
-        <v>35</v>
+      <c r="O21" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
-      <c r="S21" s="17" t="s">
-        <v>73</v>
-      </c>
+      <c r="S21" s="12"/>
     </row>
     <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B22" s="9">
-        <v>155894</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>52</v>
+        <v>149141</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="E22" s="10"/>
-      <c r="F22" s="14" t="s">
-        <v>28</v>
+      <c r="F22" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
-      <c r="O22" s="13" t="s">
-        <v>35</v>
+      <c r="O22" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
@@ -2272,29 +2331,26 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B23" s="9">
-        <v>152066</v>
+        <v>144326</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>9</v>
+        <v>63</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="E23" s="10"/>
-      <c r="F23" s="14" t="s">
-        <v>28</v>
+      <c r="F23" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H23" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -2302,38 +2358,37 @@
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
       <c r="O23" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
+      <c r="R23" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="S23" s="12"/>
     </row>
     <row r="24" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B24" s="9">
-        <v>145278</v>
+        <v>76726</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>9</v>
+        <v>65</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="E24" s="10"/>
-      <c r="F24" s="14" t="s">
-        <v>28</v>
+      <c r="F24" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
@@ -2341,29 +2396,31 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
+      <c r="R24" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="S24" s="12"/>
     </row>
     <row r="25" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B25" s="9">
-        <v>59642</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>60</v>
+        <v>102713</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="20" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>0</v>
@@ -2376,30 +2433,32 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
-      <c r="O25" s="22" t="s">
-        <v>58</v>
+      <c r="O25" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
+      <c r="R25" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="S25" s="12"/>
     </row>
     <row r="26" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B26" s="9">
-        <v>149141</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>61</v>
+        <v>125548</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="20" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>0</v>
@@ -2412,30 +2471,32 @@
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
-      <c r="O26" s="22" t="s">
-        <v>63</v>
+      <c r="O26" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
+      <c r="R26" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="S26" s="12"/>
     </row>
     <row r="27" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" s="9">
-        <v>144326</v>
+        <v>42444</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="20" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>0</v>
@@ -2445,35 +2506,41 @@
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
+      <c r="L27" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N27" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="O27" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="S27" s="12"/>
     </row>
     <row r="28" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B28" s="9">
-        <v>76726</v>
+        <v>150255</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="20" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>0</v>
@@ -2487,31 +2554,31 @@
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="S28" s="12"/>
     </row>
     <row r="29" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B29" s="9">
-        <v>102713</v>
+        <v>65803</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>74</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="20" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>0</v>
@@ -2521,37 +2588,35 @@
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
-      <c r="L29" s="10" t="s">
-        <v>87</v>
-      </c>
+      <c r="L29" s="10"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="O29" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="S29" s="12"/>
     </row>
     <row r="30" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B30" s="9">
-        <v>125548</v>
+        <v>156973</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="20" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>0</v>
@@ -2565,12 +2630,12 @@
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
       <c r="O30" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="S30" s="12"/>
     </row>
@@ -2579,17 +2644,17 @@
         <v>23</v>
       </c>
       <c r="B31" s="9">
-        <v>42444</v>
+        <v>63567</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="20" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>0</v>
@@ -2600,38 +2665,38 @@
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
-      <c r="M31" s="10" t="s">
-        <v>85</v>
+      <c r="M31" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="N31" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="S31" s="12"/>
     </row>
     <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="9">
-        <v>150255</v>
+        <v>1</v>
+      </c>
+      <c r="B32" s="15">
+        <v>59180</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="20" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>0</v>
@@ -2645,31 +2710,31 @@
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
       <c r="O32" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="S32" s="12"/>
     </row>
     <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="9">
-        <v>65803</v>
+        <v>1</v>
+      </c>
+      <c r="B33" s="15">
+        <v>59183</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="20" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>0</v>
@@ -2683,31 +2748,31 @@
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
       <c r="O33" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="S33" s="12"/>
     </row>
     <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="9">
-        <v>156973</v>
+        <v>1</v>
+      </c>
+      <c r="B34" s="15">
+        <v>60208</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>86</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="20" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>0</v>
@@ -2721,208 +2786,242 @@
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
       <c r="O34" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
       <c r="R34" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="S34" s="12"/>
-    </row>
-    <row r="35" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="9">
-        <v>63567</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="N35" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="O35" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="S35" s="12"/>
-    </row>
-    <row r="36" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="15">
-        <v>59180</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="S36" s="12"/>
-    </row>
-    <row r="37" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="15">
-        <v>59183</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="S37" s="12"/>
-    </row>
-    <row r="38" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="15">
-        <v>60208</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="S38" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O9" r:id="rId1"/>
-    <hyperlink ref="O11" r:id="rId2"/>
-    <hyperlink ref="O12" r:id="rId3"/>
+    <hyperlink ref="O7" r:id="rId1"/>
+    <hyperlink ref="O8" r:id="rId2"/>
+    <hyperlink ref="O9" r:id="rId3"/>
     <hyperlink ref="O10" r:id="rId4"/>
-    <hyperlink ref="O13" r:id="rId5"/>
-    <hyperlink ref="O14" r:id="rId6"/>
-    <hyperlink ref="O18" r:id="rId7"/>
-    <hyperlink ref="O19" r:id="rId8"/>
-    <hyperlink ref="O20" r:id="rId9"/>
-    <hyperlink ref="O17" r:id="rId10"/>
-    <hyperlink ref="O15" r:id="rId11"/>
-    <hyperlink ref="O16" r:id="rId12"/>
-    <hyperlink ref="O21" r:id="rId13"/>
-    <hyperlink ref="O22" r:id="rId14"/>
-    <hyperlink ref="O23" r:id="rId15"/>
-    <hyperlink ref="O24" r:id="rId16"/>
-    <hyperlink ref="O26" r:id="rId17"/>
-    <hyperlink ref="O25" r:id="rId18"/>
-    <hyperlink ref="O27" r:id="rId19"/>
-    <hyperlink ref="O28" r:id="rId20"/>
-    <hyperlink ref="O29" r:id="rId21"/>
-    <hyperlink ref="O30" r:id="rId22"/>
-    <hyperlink ref="O31" r:id="rId23"/>
-    <hyperlink ref="O32" r:id="rId24"/>
-    <hyperlink ref="O33" r:id="rId25"/>
-    <hyperlink ref="O34" r:id="rId26"/>
-    <hyperlink ref="O35" r:id="rId27"/>
-    <hyperlink ref="O36" r:id="rId28"/>
-    <hyperlink ref="O37" r:id="rId29"/>
-    <hyperlink ref="O38" r:id="rId30"/>
+    <hyperlink ref="O14" r:id="rId5"/>
+    <hyperlink ref="O15" r:id="rId6"/>
+    <hyperlink ref="O16" r:id="rId7"/>
+    <hyperlink ref="O13" r:id="rId8"/>
+    <hyperlink ref="O11" r:id="rId9"/>
+    <hyperlink ref="O12" r:id="rId10"/>
+    <hyperlink ref="O17" r:id="rId11"/>
+    <hyperlink ref="O18" r:id="rId12"/>
+    <hyperlink ref="O19" r:id="rId13"/>
+    <hyperlink ref="O20" r:id="rId14"/>
+    <hyperlink ref="O22" r:id="rId15"/>
+    <hyperlink ref="O21" r:id="rId16"/>
+    <hyperlink ref="O23" r:id="rId17"/>
+    <hyperlink ref="O24" r:id="rId18"/>
+    <hyperlink ref="O25" r:id="rId19"/>
+    <hyperlink ref="O26" r:id="rId20"/>
+    <hyperlink ref="O27" r:id="rId21"/>
+    <hyperlink ref="O28" r:id="rId22"/>
+    <hyperlink ref="O29" r:id="rId23"/>
+    <hyperlink ref="O30" r:id="rId24"/>
+    <hyperlink ref="O31" r:id="rId25"/>
+    <hyperlink ref="O32" r:id="rId26"/>
+    <hyperlink ref="O33" r:id="rId27"/>
+    <hyperlink ref="O34" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
   <tableParts count="1">
-    <tablePart r:id="rId32"/>
+    <tablePart r:id="rId30"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="S1:AF6"/>
+  <sheetViews>
+    <sheetView topLeftCell="R1" zoomScale="163" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="19:32" x14ac:dyDescent="0.2">
+      <c r="S1" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA1" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB1" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC1" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF1" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="19:32" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T2" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="U2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="19:32" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="V3" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA3" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB3" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC3" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="19:32" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S4" s="30">
+        <v>59642</v>
+      </c>
+      <c r="T4" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U4" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="V4" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="W4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="19:32" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="30">
+        <v>149141</v>
+      </c>
+      <c r="T5" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="U5" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="V5" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="W5" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="19:32" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S6" s="30">
+        <v>42444</v>
+      </c>
+      <c r="T6" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="U6" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="V6" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="W6" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB6" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC6" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF6" s="30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AC3" r:id="rId1"/>
+    <hyperlink ref="AC4" r:id="rId2"/>
+    <hyperlink ref="AC5" r:id="rId3"/>
+    <hyperlink ref="AC6" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="96">
   <si>
     <t>No</t>
   </si>
@@ -126,9 +126,6 @@
     <t>Collection Owner</t>
   </si>
   <si>
-    <t>doe@example.com</t>
-  </si>
-  <si>
     <t>Invalid</t>
   </si>
   <si>
@@ -195,24 +192,15 @@
     <t>Open government</t>
   </si>
   <si>
-    <t>baby.doe@example.com</t>
-  </si>
-  <si>
     <t>Community as base for collection</t>
   </si>
   <si>
-    <t>Collection from Repository</t>
-  </si>
-  <si>
     <t>Collection from Community</t>
   </si>
   <si>
     <t>Collaboration</t>
   </si>
   <si>
-    <t>jbloggs@example.com</t>
-  </si>
-  <si>
     <t>Abstract for a new collection</t>
   </si>
   <si>
@@ -306,7 +294,34 @@
     <t>Inexistent collection</t>
   </si>
   <si>
-    <t>Collection with errorneous items</t>
+    <t>Collection with invalid node</t>
+  </si>
+  <si>
+    <t>Project as base for collection</t>
+  </si>
+  <si>
+    <t>Collection from Project</t>
+  </si>
+  <si>
+    <t>joel@sambreville.be</t>
+  </si>
+  <si>
+    <t>viktor.hristov@hotmail.com</t>
+  </si>
+  <si>
+    <t>eric.smets@fks.be</t>
+  </si>
+  <si>
+    <t>mux2005@gmail.com</t>
+  </si>
+  <si>
+    <t>riccardo.sibilia@vtg.admin.ch</t>
+  </si>
+  <si>
+    <t>tbenita@atreal.fr, aanguix@gvsig.com</t>
+  </si>
+  <si>
+    <t>Collection with erroneous items</t>
   </si>
 </sst>
 </file>
@@ -415,7 +430,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -479,8 +494,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="136">
+  <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -527,7 +551,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -618,7 +648,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -651,13 +681,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="46" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -683,9 +707,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="46" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -698,18 +719,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="46" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="136">
+  <cellStyles count="142">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -732,6 +761,7 @@
     <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
@@ -821,6 +851,12 @@
     <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -843,7 +879,6 @@
     <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="46" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="1"/>
   </cellStyles>
@@ -1464,7 +1499,7 @@
   <cols>
     <col min="1" max="1" width="19.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="24.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="16.5" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="8" bestFit="1" customWidth="1"/>
@@ -1473,9 +1508,9 @@
     <col min="10" max="10" width="7.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.5" style="8" customWidth="1"/>
-    <col min="15" max="15" width="19.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.1640625" style="8" customWidth="1"/>
     <col min="16" max="16" width="17.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.1640625" style="8" bestFit="1" customWidth="1"/>
@@ -1488,7 +1523,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
@@ -1521,10 +1556,10 @@
         <v>6</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>29</v>
@@ -1536,13 +1571,13 @@
         <v>4</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1553,7 +1588,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>3</v>
@@ -1564,8 +1599,11 @@
       <c r="H2" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O2" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1576,14 +1614,14 @@
         <v>18</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>16</v>
@@ -1593,13 +1631,15 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
-      <c r="O3" s="11"/>
+      <c r="O3" s="22" t="s">
+        <v>93</v>
+      </c>
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
-      <c r="S3" s="12"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S3" s="11"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
@@ -1610,7 +1650,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="8" t="s">
@@ -1627,15 +1667,17 @@
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
+      <c r="O4" s="22" t="s">
+        <v>93</v>
+      </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="S4" s="12"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="S4" s="11"/>
+    </row>
+    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
@@ -1646,7 +1688,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="8" t="s">
@@ -1663,11 +1705,13 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
+      <c r="O5" s="22" t="s">
+        <v>93</v>
+      </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
-      <c r="S5" s="12"/>
+      <c r="S5" s="11"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
@@ -1698,9 +1742,9 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
-      <c r="S6" s="12"/>
-    </row>
-    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="S6" s="11"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -1714,30 +1758,30 @@
         <v>9</v>
       </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="13" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="13" t="s">
-        <v>30</v>
+      <c r="O7" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
-      <c r="S7" s="12"/>
+      <c r="S7" s="11"/>
     </row>
     <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
@@ -1753,40 +1797,40 @@
         <v>9</v>
       </c>
       <c r="E8" s="10"/>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="13" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>30</v>
+        <v>75</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
-      <c r="S8" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="S8" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
@@ -1794,580 +1838,590 @@
         <v>87737</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="13" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="13" t="s">
-        <v>30</v>
+      <c r="N9" s="14"/>
+      <c r="O9" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
-      <c r="S9" s="12"/>
+      <c r="S9" s="11"/>
     </row>
     <row r="10" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="9">
         <v>139528</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="13" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
-      <c r="O10" s="13" t="s">
-        <v>30</v>
+      <c r="O10" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
-      <c r="S10" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="S10" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="9">
         <v>42233</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="13" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
-      <c r="O11" s="13" t="s">
-        <v>30</v>
+      <c r="O11" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
-      <c r="S11" s="12"/>
-    </row>
-    <row r="12" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="S11" s="11"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="9">
         <v>138766</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="10"/>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
-      <c r="O12" s="13" t="s">
-        <v>30</v>
+      <c r="O12" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
-      <c r="S12" s="12"/>
-    </row>
-    <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="S12" s="11"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="9">
         <v>133560</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="10"/>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="13" t="s">
         <v>16</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
-      <c r="O13" s="13" t="s">
-        <v>30</v>
+      <c r="O13" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
-      <c r="S13" s="12"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>34</v>
+      <c r="S13" s="11"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="B14" s="9">
         <v>53012</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="13" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
-      <c r="O14" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="19"/>
-    </row>
-    <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="O14" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="17"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="9">
         <v>63578</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="13" t="s">
         <v>16</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
-      <c r="O15" s="13" t="s">
-        <v>30</v>
+      <c r="O15" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
-      <c r="S15" s="12"/>
-    </row>
-    <row r="16" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="S15" s="11"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="9">
         <v>155691</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="10"/>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="13" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
-      <c r="O16" s="13" t="s">
-        <v>30</v>
+      <c r="O16" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
-      <c r="S16" s="12"/>
+      <c r="S16" s="11"/>
     </row>
     <row r="17" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="9">
         <v>27607</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="10"/>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="13" t="s">
         <v>16</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
-      <c r="O17" s="13" t="s">
-        <v>30</v>
+      <c r="O17" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
-      <c r="S17" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="S17" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="9">
         <v>155894</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="10"/>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="13" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
-      <c r="O18" s="13" t="s">
-        <v>30</v>
+      <c r="O18" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
-      <c r="S18" s="12"/>
-    </row>
-    <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="S18" s="11"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="9">
         <v>152066</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="10"/>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="13" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
-      <c r="O19" s="13" t="s">
-        <v>30</v>
+      <c r="O19" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
-      <c r="S19" s="12"/>
-    </row>
-    <row r="20" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="S19" s="11"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="9">
         <v>145278</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="10"/>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="13" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
-      <c r="O20" s="13" t="s">
-        <v>30</v>
+      <c r="O20" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
-      <c r="S20" s="12"/>
-    </row>
-    <row r="21" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="S20" s="11"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" s="9">
-        <v>59642</v>
-      </c>
-      <c r="C21" s="21" t="s">
+        <v>42438</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="18" t="s">
         <v>51</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="20" t="s">
-        <v>52</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="22" t="s">
-        <v>53</v>
+      <c r="L21" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
-      <c r="S21" s="12"/>
-    </row>
-    <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="S21" s="11"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="9">
         <v>149141</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="20" t="s">
-        <v>57</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="L22" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
-      <c r="O22" s="22" t="s">
-        <v>58</v>
+      <c r="O22" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
-      <c r="S22" s="12"/>
-    </row>
-    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="S22" s="11"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" s="9">
-        <v>144326</v>
+        <v>82307</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E23" s="10"/>
-      <c r="F23" s="20" t="s">
-        <v>52</v>
+      <c r="F23" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
+      <c r="L23" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
-      <c r="O23" s="13" t="s">
-        <v>30</v>
+      <c r="O23" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="S23" s="12"/>
-    </row>
-    <row r="24" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="S23" s="11"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
@@ -2375,19 +2429,19 @@
         <v>76726</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E24" s="10"/>
-      <c r="F24" s="20" t="s">
-        <v>52</v>
+      <c r="F24" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J24" s="10"/>
@@ -2395,17 +2449,17 @@
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
-      <c r="O24" s="13" t="s">
-        <v>30</v>
+      <c r="O24" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
       <c r="R24" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="S24" s="12"/>
-    </row>
-    <row r="25" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="S24" s="11"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>1</v>
       </c>
@@ -2413,57 +2467,57 @@
         <v>102713</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E25" s="10"/>
-      <c r="F25" s="20" t="s">
-        <v>52</v>
+      <c r="F25" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="13" t="s">
-        <v>30</v>
+      <c r="N25" s="14"/>
+      <c r="O25" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
       <c r="R25" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="S25" s="12"/>
-    </row>
-    <row r="26" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="S25" s="11"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="9">
         <v>125548</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E26" s="10"/>
-      <c r="F26" s="20" t="s">
-        <v>52</v>
+      <c r="F26" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J26" s="10"/>
@@ -2471,17 +2525,17 @@
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
-      <c r="O26" s="13" t="s">
-        <v>30</v>
+      <c r="O26" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="S26" s="12"/>
-    </row>
-    <row r="27" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="S26" s="11"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>23</v>
       </c>
@@ -2489,63 +2543,61 @@
         <v>42444</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E27" s="10"/>
-      <c r="F27" s="20" t="s">
-        <v>52</v>
+      <c r="F27" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="L27" s="10"/>
       <c r="M27" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="N27" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="O27" s="13" t="s">
-        <v>30</v>
+        <v>76</v>
+      </c>
+      <c r="N27" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="S27" s="12"/>
-    </row>
-    <row r="28" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="S27" s="11"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="9">
         <v>150255</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E28" s="10"/>
-      <c r="F28" s="20" t="s">
-        <v>52</v>
+      <c r="F28" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J28" s="10"/>
@@ -2553,37 +2605,37 @@
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
-      <c r="O28" s="13" t="s">
-        <v>30</v>
+      <c r="O28" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="S28" s="12"/>
-    </row>
-    <row r="29" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="S28" s="11"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="9">
         <v>65803</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E29" s="10"/>
-      <c r="F29" s="20" t="s">
-        <v>52</v>
+      <c r="F29" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J29" s="10"/>
@@ -2591,37 +2643,37 @@
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
-      <c r="O29" s="13" t="s">
-        <v>30</v>
+      <c r="O29" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="S29" s="12"/>
-    </row>
-    <row r="30" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="S29" s="11"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" s="9">
         <v>156973</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E30" s="10"/>
-      <c r="F30" s="20" t="s">
-        <v>52</v>
+      <c r="F30" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J30" s="10"/>
@@ -2629,17 +2681,17 @@
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
-      <c r="O30" s="13" t="s">
-        <v>30</v>
+      <c r="O30" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="S30" s="12"/>
-    </row>
-    <row r="31" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="S30" s="11"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>23</v>
       </c>
@@ -2647,61 +2699,61 @@
         <v>63567</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E31" s="10"/>
-      <c r="F31" s="20" t="s">
-        <v>52</v>
+      <c r="F31" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
       <c r="M31" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="N31" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="O31" s="13" t="s">
-        <v>30</v>
+        <v>75</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="S31" s="12"/>
-    </row>
-    <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="S31" s="11"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="13">
         <v>59180</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E32" s="10"/>
-      <c r="F32" s="20" t="s">
-        <v>52</v>
+      <c r="F32" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J32" s="10"/>
@@ -2709,37 +2761,37 @@
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
-      <c r="O32" s="13" t="s">
-        <v>30</v>
+      <c r="O32" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="S32" s="12"/>
-    </row>
-    <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="S32" s="11"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="13">
         <v>59183</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E33" s="10"/>
-      <c r="F33" s="20" t="s">
-        <v>52</v>
+      <c r="F33" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J33" s="10"/>
@@ -2747,37 +2799,37 @@
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
-      <c r="O33" s="13" t="s">
-        <v>30</v>
+      <c r="O33" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="S33" s="12"/>
-    </row>
-    <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="S33" s="11"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="13">
         <v>60208</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E34" s="10"/>
-      <c r="F34" s="20" t="s">
-        <v>52</v>
+      <c r="F34" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J34" s="10"/>
@@ -2785,58 +2837,36 @@
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
-      <c r="O34" s="13" t="s">
-        <v>30</v>
+      <c r="O34" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
       <c r="R34" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="S34" s="12"/>
+        <v>60</v>
+      </c>
+      <c r="S34" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O7" r:id="rId1"/>
-    <hyperlink ref="O8" r:id="rId2"/>
-    <hyperlink ref="O9" r:id="rId3"/>
-    <hyperlink ref="O10" r:id="rId4"/>
-    <hyperlink ref="O14" r:id="rId5"/>
-    <hyperlink ref="O15" r:id="rId6"/>
-    <hyperlink ref="O16" r:id="rId7"/>
-    <hyperlink ref="O13" r:id="rId8"/>
-    <hyperlink ref="O11" r:id="rId9"/>
-    <hyperlink ref="O12" r:id="rId10"/>
-    <hyperlink ref="O17" r:id="rId11"/>
-    <hyperlink ref="O18" r:id="rId12"/>
-    <hyperlink ref="O19" r:id="rId13"/>
-    <hyperlink ref="O20" r:id="rId14"/>
-    <hyperlink ref="O22" r:id="rId15"/>
-    <hyperlink ref="O21" r:id="rId16"/>
-    <hyperlink ref="O23" r:id="rId17"/>
-    <hyperlink ref="O24" r:id="rId18"/>
-    <hyperlink ref="O25" r:id="rId19"/>
-    <hyperlink ref="O26" r:id="rId20"/>
-    <hyperlink ref="O27" r:id="rId21"/>
-    <hyperlink ref="O28" r:id="rId22"/>
-    <hyperlink ref="O29" r:id="rId23"/>
-    <hyperlink ref="O30" r:id="rId24"/>
-    <hyperlink ref="O31" r:id="rId25"/>
-    <hyperlink ref="O32" r:id="rId26"/>
-    <hyperlink ref="O33" r:id="rId27"/>
-    <hyperlink ref="O34" r:id="rId28"/>
+    <hyperlink ref="O7" r:id="rId1" display="doe@example.com"/>
+    <hyperlink ref="O21" r:id="rId2" display="baby.doe@example.com"/>
+    <hyperlink ref="O23" r:id="rId3" display="doe@example.com"/>
+    <hyperlink ref="O8:O19" r:id="rId4" display="doe@example.com"/>
+    <hyperlink ref="O20" r:id="rId5" display="doe@example.com"/>
+    <hyperlink ref="O24:O34" r:id="rId6" display="doe@example.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId30"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="S1:AF6"/>
+  <dimension ref="S1:AF7"/>
   <sheetViews>
     <sheetView topLeftCell="R1" zoomScale="163" workbookViewId="0">
       <selection activeCell="S2" sqref="S2"/>
@@ -2846,7 +2876,7 @@
   <cols>
     <col min="1" max="17" width="0" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="7.5" customWidth="1"/>
-    <col min="19" max="19" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.5" bestFit="1" customWidth="1"/>
@@ -2856,172 +2886,196 @@
     <col min="26" max="26" width="6.5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="38.83203125" customWidth="1"/>
     <col min="30" max="30" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="19:32" x14ac:dyDescent="0.2">
-      <c r="S1" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="U1" s="24" t="s">
+      <c r="S1" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="U1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="V1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="24" t="s">
+      <c r="W1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="X1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="24" t="s">
+      <c r="Y1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="Z1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="24" t="s">
+      <c r="AA1" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB1" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF1" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="19:32" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T2" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="U2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC2" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="19:32" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T3" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="V3" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA3" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AB3" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="19:32" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S4" s="28">
+        <v>42438</v>
+      </c>
+      <c r="T4" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="U4" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="V4" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="19:32" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="26">
+        <v>149141</v>
+      </c>
+      <c r="T5" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="U5" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="V5" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="W5" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="19:32" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S6" s="28">
+        <v>82307</v>
+      </c>
+      <c r="T6" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="U6" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="V6" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="W6" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="AC1" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF1" s="24" t="s">
+      <c r="AB6" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF6" s="26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="19:32" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="T2" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="U2" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="V2" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="19:32" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="T3" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="V3" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="W3" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="X3" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA3" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB3" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC3" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="19:32" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="S4" s="30">
-        <v>59642</v>
-      </c>
-      <c r="T4" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U4" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="V4" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="W4" s="25" t="s">
+    <row r="7" spans="19:32" x14ac:dyDescent="0.2">
+      <c r="S7" s="29">
+        <v>9999999</v>
+      </c>
+      <c r="T7" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="U7" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="V7" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="W7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AC4" s="32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="19:32" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="S5" s="30">
-        <v>149141</v>
-      </c>
-      <c r="T5" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="U5" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="V5" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="W5" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="19:32" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="S6" s="30">
-        <v>42444</v>
-      </c>
-      <c r="T6" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="U6" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="V6" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="W6" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB6" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC6" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF6" s="30" t="s">
-        <v>64</v>
+      <c r="AC7" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="AC3" r:id="rId1"/>
-    <hyperlink ref="AC4" r:id="rId2"/>
-    <hyperlink ref="AC5" r:id="rId3"/>
-    <hyperlink ref="AC6" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -16,7 +16,7 @@
     <sheet name="5. Collections" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$S$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$S$37</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="103">
   <si>
     <t>No</t>
   </si>
@@ -322,6 +322,27 @@
   </si>
   <si>
     <t>Collection with erroneous items</t>
+  </si>
+  <si>
+    <t>Community with custom section</t>
+  </si>
+  <si>
+    <t>john.doe@example.com</t>
+  </si>
+  <si>
+    <t>Collection with 2 entities having custom section</t>
+  </si>
+  <si>
+    <t>Project with custom section</t>
+  </si>
+  <si>
+    <t>Collection with 1 entity having custom section</t>
+  </si>
+  <si>
+    <t>jane.roe@example.com</t>
+  </si>
+  <si>
+    <t>Community with 2 custom sections</t>
   </si>
 </sst>
 </file>
@@ -430,7 +451,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -503,8 +524,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="142">
+  <cellStyleXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -647,8 +679,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -737,8 +779,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="142">
+  <cellStyles count="152">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -857,6 +908,16 @@
     <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1193,8 +1254,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:S34" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:S34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:S37" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:S37"/>
   <sortState ref="A13187:X13200">
     <sortCondition ref="D2:D13200"/>
   </sortState>
@@ -1489,7 +1550,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1500,7 +1561,7 @@
     <col min="1" max="1" width="19.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.1640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="16.5" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" style="8" bestFit="1" customWidth="1"/>
@@ -2847,6 +2908,118 @@
       </c>
       <c r="S34" s="11"/>
     </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="13">
+        <v>157710</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="11"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="13">
+        <v>27024</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="11"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="13">
+        <v>26768</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="11"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="O7" r:id="rId1" display="doe@example.com"/>
@@ -2866,7 +3039,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="S1:AF7"/>
+  <dimension ref="S1:AF9"/>
   <sheetViews>
     <sheetView topLeftCell="R1" zoomScale="163" workbookViewId="0">
       <selection activeCell="S2" sqref="S2"/>
@@ -2877,7 +3050,7 @@
     <col min="1" max="17" width="0" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="7.5" customWidth="1"/>
     <col min="19" max="19" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="35.83203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -3074,6 +3247,46 @@
         <v>92</v>
       </c>
     </row>
+    <row r="8" spans="19:32" x14ac:dyDescent="0.2">
+      <c r="S8" s="28">
+        <v>157710</v>
+      </c>
+      <c r="T8" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="U8" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="V8" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="W8" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="19:32" x14ac:dyDescent="0.2">
+      <c r="S9" s="32">
+        <v>26768</v>
+      </c>
+      <c r="T9" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="U9" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="V9" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="32" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -2987,7 +2987,7 @@
         <v>24</v>
       </c>
       <c r="B37" s="13">
-        <v>26768</v>
+        <v>66790</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>96</v>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="9" spans="19:32" x14ac:dyDescent="0.2">
       <c r="S9" s="32">
-        <v>26768</v>
+        <v>66790</v>
       </c>
       <c r="T9" s="33" t="s">
         <v>100</v>

--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1. Content items" sheetId="2" r:id="rId1"/>
@@ -1552,7 +1552,7 @@
   </sheetPr>
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3039,251 +3039,249 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="S1:AF9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="36.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="17" width="0" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5" customWidth="1"/>
-    <col min="19" max="19" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="35.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="38.83203125" customWidth="1"/>
-    <col min="30" max="30" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="19:32" x14ac:dyDescent="0.2">
-      <c r="S1" s="20" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="B1" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AF1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="19:32" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="T2" s="31" t="s">
+    <row r="2" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="U2" s="23" t="s">
+      <c r="C2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="D2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC2" s="22" t="s">
+      <c r="E2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="19:32" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="T3" s="23" t="s">
+    <row r="3" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="22" t="s">
+      <c r="C3" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="V3" s="24" t="s">
+      <c r="D3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="X3" s="23" t="s">
+      <c r="E3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="AA3" s="23" t="s">
+      <c r="I3" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="AB3" s="25" t="s">
+      <c r="J3" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="K3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="19:32" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="S4" s="28">
+    <row r="4" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="28">
         <v>42438</v>
       </c>
-      <c r="T4" s="23" t="s">
+      <c r="B4" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="U4" s="22" t="s">
+      <c r="C4" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="V4" s="27" t="s">
+      <c r="D4" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="W4" s="22" t="s">
+      <c r="E4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AA4" s="28" t="s">
+      <c r="I4" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="AB4" s="28" t="s">
+      <c r="J4" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="K4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="19:32" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="S5" s="26">
+    <row r="5" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="26">
         <v>149141</v>
       </c>
-      <c r="T5" s="23" t="s">
+      <c r="B5" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="U5" s="22" t="s">
+      <c r="C5" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="V5" s="27" t="s">
+      <c r="D5" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="W5" s="22" t="s">
+      <c r="E5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="K5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="19:32" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="S6" s="28">
+    <row r="6" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="28">
         <v>82307</v>
       </c>
-      <c r="T6" s="26" t="s">
+      <c r="B6" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="U6" s="22" t="s">
+      <c r="C6" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="V6" s="27" t="s">
+      <c r="D6" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="W6" s="22" t="s">
+      <c r="E6" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AA6" s="26" t="s">
+      <c r="I6" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="AB6" s="25" t="s">
+      <c r="J6" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="K6" t="s">
         <v>91</v>
       </c>
-      <c r="AF6" s="26" t="s">
+      <c r="N6" s="26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="19:32" x14ac:dyDescent="0.2">
-      <c r="S7" s="29">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="29">
         <v>9999999</v>
       </c>
-      <c r="T7" s="30" t="s">
+      <c r="B7" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="U7" s="22" t="s">
+      <c r="C7" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="V7" s="27" t="s">
+      <c r="D7" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="W7" s="22" t="s">
+      <c r="E7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="K7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="19:32" x14ac:dyDescent="0.2">
-      <c r="S8" s="28">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="28">
         <v>157710</v>
       </c>
-      <c r="T8" s="31" t="s">
+      <c r="B8" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="U8" s="22" t="s">
+      <c r="C8" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="V8" s="27" t="s">
+      <c r="D8" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="W8" s="22" t="s">
+      <c r="E8" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AC8" s="28" t="s">
+      <c r="K8" s="28" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="19:32" x14ac:dyDescent="0.2">
-      <c r="S9" s="32">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="32">
         <v>66790</v>
       </c>
-      <c r="T9" s="33" t="s">
+      <c r="B9" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="U9" s="22" t="s">
+      <c r="C9" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="V9" s="27" t="s">
+      <c r="D9" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="22" t="s">
+      <c r="E9" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AC9" s="32" t="s">
+      <c r="K9" s="32" t="s">
         <v>101</v>
       </c>
     </row>

--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340"/>
   </bookViews>
   <sheets>
     <sheet name="1. Content items" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="107">
   <si>
     <t>No</t>
   </si>
@@ -343,6 +343,18 @@
   </si>
   <si>
     <t>Community with 2 custom sections</t>
+  </si>
+  <si>
+    <t>acme.jpg</t>
+  </si>
+  <si>
+    <t>butterfly-wallpaper.jpg</t>
+  </si>
+  <si>
+    <t>Logo_1.png</t>
+  </si>
+  <si>
+    <t>Banner_1.png</t>
   </si>
 </sst>
 </file>
@@ -1552,7 +1564,7 @@
   </sheetPr>
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1565,9 +1577,9 @@
     <col min="5" max="6" width="16.5" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" style="8" customWidth="1"/>
     <col min="12" max="12" width="9" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.5" style="8" customWidth="1"/>
@@ -2520,7 +2532,7 @@
       </c>
       <c r="S24" s="11"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="39" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>1</v>
       </c>
@@ -2543,8 +2555,12 @@
       <c r="H25" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
+      <c r="J25" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>104</v>
+      </c>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
       <c r="N25" s="14"/>
@@ -3041,8 +3057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="163" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3140,6 +3156,12 @@
       <c r="F3" s="23" t="s">
         <v>55</v>
       </c>
+      <c r="G3" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>106</v>
+      </c>
       <c r="I3" s="23" t="s">
         <v>75</v>
       </c>

--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -16,7 +16,7 @@
     <sheet name="5. Collections" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$S$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$S$38</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="108">
   <si>
     <t>No</t>
   </si>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t>Banner_1.png</t>
+  </si>
+  <si>
+    <t>Video</t>
   </si>
 </sst>
 </file>
@@ -548,7 +551,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="152">
+  <cellStyleXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -594,6 +597,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -801,7 +806,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="152">
+  <cellStyles count="154">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -930,6 +935,8 @@
     <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1266,8 +1273,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:S37" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:S37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:S38" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:S38"/>
   <sortState ref="A13187:X13200">
     <sortCondition ref="D2:D13200"/>
   </sortState>
@@ -1562,7 +1569,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2532,7 +2539,7 @@
       </c>
       <c r="S24" s="11"/>
     </row>
-    <row r="25" spans="1:19" ht="39" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>1</v>
       </c>
@@ -3035,6 +3042,42 @@
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
       <c r="S37" s="11"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="13">
+        <v>125838</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -16,7 +16,7 @@
     <sheet name="5. Collections" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$S$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$S$39</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="109">
   <si>
     <t>No</t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>Video</t>
+  </si>
+  <si>
+    <t>Event with invalid website URL</t>
   </si>
 </sst>
 </file>
@@ -551,7 +554,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="154">
+  <cellStyleXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -597,6 +600,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -806,7 +810,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="154">
+  <cellStyles count="155">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -937,6 +941,7 @@
     <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1273,8 +1278,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:S38" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:S38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:S39" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:S39"/>
   <sortState ref="A13187:X13200">
     <sortCondition ref="D2:D13200"/>
   </sortState>
@@ -1569,7 +1574,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3078,6 +3083,42 @@
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
       <c r="S38" s="11"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="13">
+        <v>42464</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -16,7 +16,7 @@
     <sheet name="5. Collections" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$S$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$S$40</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="112">
   <si>
     <t>No</t>
   </si>
@@ -361,13 +361,22 @@
   </si>
   <si>
     <t>Event with invalid website URL</t>
+  </si>
+  <si>
+    <t>Membership testing</t>
+  </si>
+  <si>
+    <t>lfalcon@gnusolidario.org</t>
+  </si>
+  <si>
+    <t>Project with various memberships</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,6 +439,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -469,55 +485,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF5B9BD5"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF5B9BD5"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF5B9BD5"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5B9BD5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF5B9BD5"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF5B9BD5"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5B9BD5"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -534,27 +507,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF5B9BD5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF5B9BD5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5B9BD5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color rgb="FF5B9BD5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5B9BD5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="155">
+  <cellStyleXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -710,26 +700,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -740,38 +725,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -788,29 +749,42 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="155">
+  <cellStyles count="159">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -942,6 +916,10 @@
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1278,8 +1256,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:S39" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:S39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:S40" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:S40"/>
   <sortState ref="A13187:X13200">
     <sortCondition ref="D2:D13200"/>
   </sortState>
@@ -1574,7 +1552,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1582,28 +1560,28 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.1640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="9" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5" style="8" customWidth="1"/>
-    <col min="15" max="15" width="31.1640625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="17.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="24.1640625" style="8"/>
+    <col min="1" max="1" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5" style="5" customWidth="1"/>
+    <col min="15" max="15" width="31.1640625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="24.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="7" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1613,1512 +1591,1587 @@
       <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="21" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="15">
         <v>60735</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="22" t="s">
+      <c r="H2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="11" t="s">
         <v>93</v>
       </c>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
     </row>
     <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="15">
         <v>99999999</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="22" t="s">
+      <c r="H3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="22"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="11"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="22" t="s">
+      <c r="G4" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10" t="s">
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="S4" s="11"/>
+      <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="15">
         <v>157729</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="22" t="s">
+      <c r="H5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="11"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="15">
         <v>60736</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="8" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="11"/>
+      <c r="G6" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="15">
         <v>58694</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="8" t="s">
+      <c r="G7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10" t="s">
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="11"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="15">
         <v>49860</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="12" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="H8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10" t="s">
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="22" t="s">
         <v>75</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="15" t="s">
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="24" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="15">
         <v>87737</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="12" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="8" t="s">
+      <c r="G9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="22"/>
       <c r="N9" s="14"/>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="11"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="15">
         <v>139528</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="12" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="8" t="s">
+      <c r="G10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10" t="s">
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="15" t="s">
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="24" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="15">
         <v>42233</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="12" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="8" t="s">
+      <c r="G11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10" t="s">
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="11"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="15">
         <v>138766</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="12" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="8" t="s">
+      <c r="G12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10" t="s">
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="11"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="15">
         <v>133560</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="12" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="8" t="s">
+      <c r="G13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10" t="s">
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="11"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="15">
         <v>53012</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="12" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="8" t="s">
+      <c r="G14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10" t="s">
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="17"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="8"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="15">
         <v>63578</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="12" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="8" t="s">
+      <c r="G15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10" t="s">
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="11"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="8"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="15">
         <v>155691</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="12" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="8" t="s">
+      <c r="G16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10" t="s">
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="11"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="8"/>
     </row>
     <row r="17" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="15">
         <v>27607</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="12" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="8" t="s">
+      <c r="G17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10" t="s">
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="15" t="s">
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="24" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="15">
         <v>155894</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="12" t="s">
+      <c r="E18" s="7"/>
+      <c r="F18" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="8" t="s">
+      <c r="G18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10" t="s">
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="11"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="8"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="15">
         <v>152066</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="12" t="s">
+      <c r="E19" s="7"/>
+      <c r="F19" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="8" t="s">
+      <c r="G19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10" t="s">
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="11"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="8"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="15">
         <v>145278</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="12" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="8" t="s">
+      <c r="G20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10" t="s">
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="11"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="8"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="15">
         <v>42438</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="18" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10" t="s">
+      <c r="H21" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="22"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="M21" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="N21" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="O21" s="10" t="s">
+      <c r="O21" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="11"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="8"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="15">
         <v>149141</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="18" t="s">
+      <c r="E22" s="7"/>
+      <c r="F22" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10" t="s">
+      <c r="H22" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="22"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10" t="s">
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="11"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="8"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="15">
         <v>82307</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="18" t="s">
+      <c r="E23" s="7"/>
+      <c r="F23" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10" t="s">
+      <c r="H23" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="22"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10" t="s">
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10" t="s">
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S23" s="11"/>
+      <c r="S23" s="8"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="15">
         <v>76726</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="18" t="s">
+      <c r="E24" s="7"/>
+      <c r="F24" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H24" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10" t="s">
+      <c r="H24" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="22"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10" t="s">
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S24" s="11"/>
+      <c r="S24" s="8"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="15">
         <v>102713</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="18" t="s">
+      <c r="E25" s="7"/>
+      <c r="F25" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" s="10" t="s">
+      <c r="H25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="22"/>
+      <c r="J25" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
       <c r="N25" s="14"/>
-      <c r="O25" s="10" t="s">
+      <c r="O25" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10" t="s">
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S25" s="11"/>
+      <c r="S25" s="8"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="15">
         <v>125548</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="18" t="s">
+      <c r="E26" s="7"/>
+      <c r="F26" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10" t="s">
+      <c r="H26" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10" t="s">
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S26" s="11"/>
+      <c r="S26" s="8"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="15">
         <v>42444</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="18" t="s">
+      <c r="E27" s="7"/>
+      <c r="F27" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H27" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10" t="s">
+      <c r="H27" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="22"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7" t="s">
         <v>76</v>
       </c>
       <c r="N27" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="O27" s="10" t="s">
+      <c r="O27" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10" t="s">
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S27" s="11"/>
+      <c r="S27" s="8"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="15">
         <v>150255</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="18" t="s">
+      <c r="E28" s="7"/>
+      <c r="F28" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10" t="s">
+      <c r="H28" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="22"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10" t="s">
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S28" s="11"/>
+      <c r="S28" s="8"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="15">
         <v>65803</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="18" t="s">
+      <c r="E29" s="7"/>
+      <c r="F29" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10" t="s">
+      <c r="H29" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="22"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10" t="s">
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S29" s="11"/>
+      <c r="S29" s="8"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="15">
         <v>156973</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="18" t="s">
+      <c r="E30" s="7"/>
+      <c r="F30" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10" t="s">
+      <c r="H30" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="22"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10" t="s">
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S30" s="11"/>
+      <c r="S30" s="8"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="15">
         <v>63567</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="18" t="s">
+      <c r="E31" s="7"/>
+      <c r="F31" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="8" t="s">
+      <c r="H31" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="22"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="22" t="s">
         <v>75</v>
       </c>
       <c r="N31" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="O31" s="10" t="s">
+      <c r="O31" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10" t="s">
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S31" s="11"/>
+      <c r="S31" s="8"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="17">
         <v>59180</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="18" t="s">
+      <c r="E32" s="7"/>
+      <c r="F32" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H32" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10" t="s">
+      <c r="H32" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="22"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10" t="s">
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S32" s="11"/>
+      <c r="S32" s="8"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="17">
         <v>59183</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="18" t="s">
+      <c r="E33" s="7"/>
+      <c r="F33" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H33" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10" t="s">
+      <c r="H33" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="22"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10" t="s">
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S33" s="11"/>
+      <c r="S33" s="8"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="17">
         <v>60208</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="18" t="s">
+      <c r="E34" s="7"/>
+      <c r="F34" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H34" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10" t="s">
+      <c r="H34" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="22"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10" t="s">
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S34" s="11"/>
+      <c r="S34" s="8"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="17">
         <v>157710</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="18" t="s">
+      <c r="E35" s="7"/>
+      <c r="F35" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H35" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10" t="s">
+      <c r="H35" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="22"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34" t="s">
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="11"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="8"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="17">
         <v>27024</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="18" t="s">
+      <c r="E36" s="7"/>
+      <c r="F36" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H36" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34" t="s">
+      <c r="H36" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="22"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="11"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="8"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="17">
         <v>66790</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="18" t="s">
+      <c r="E37" s="7"/>
+      <c r="F37" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H37" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10" t="s">
+      <c r="H37" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="22"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34" t="s">
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="11"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="8"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="17">
         <v>125838</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="18" t="s">
+      <c r="E38" s="7"/>
+      <c r="F38" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H38" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34" t="s">
+      <c r="H38" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="22"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="11"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="8"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="17">
         <v>42464</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="18" t="s">
+      <c r="E39" s="7"/>
+      <c r="F39" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H39" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34" t="s">
+      <c r="H39" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="22"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="11"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="8"/>
+    </row>
+    <row r="40" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="28">
+        <v>27026</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="22"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3139,10 +3192,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView zoomScale="163" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3164,232 +3217,284 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="31" t="s">
+    <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="22" t="s">
+      <c r="E2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="23" t="s">
+    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="23" t="s">
+      <c r="E3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28">
+    <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
         <v>42438</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26">
+    <row r="5" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
         <v>149141</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28">
+    <row r="6" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
         <v>82307</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="N6" s="26" t="s">
+      <c r="N6" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="29">
+      <c r="A7" s="17">
         <v>9999999</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K7" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11" t="s">
         <v>92</v>
       </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="28">
+      <c r="A8" s="15">
         <v>157710</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="15" t="s">
         <v>97</v>
       </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="32">
+      <c r="A9" s="15">
         <v>66790</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="15" t="s">
         <v>101</v>
       </c>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>27026</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -16,7 +16,7 @@
     <sheet name="5. Collections" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$S$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$S$41</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="113">
   <si>
     <t>No</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>Project with various memberships</t>
+  </si>
+  <si>
+    <t>Project with multipe documentation files</t>
   </si>
 </sst>
 </file>
@@ -544,7 +547,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="159">
+  <cellStyleXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -704,8 +707,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -783,8 +787,20 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="159">
+  <cellStyles count="160">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -920,6 +936,7 @@
     <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1256,8 +1273,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:S40" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:S40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:S41" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:S41"/>
   <sortState ref="A13187:X13200">
     <sortCondition ref="D2:D13200"/>
   </sortState>
@@ -1552,7 +1569,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3172,6 +3189,42 @@
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
       <c r="S40" s="8"/>
+    </row>
+    <row r="41" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="30">
+        <v>68304</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" s="29"/>
+      <c r="F41" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="32"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -16,7 +16,7 @@
     <sheet name="5. Collections" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$S$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$T$41</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="115">
   <si>
     <t>No</t>
   </si>
@@ -373,13 +373,19 @@
   </si>
   <si>
     <t>Project with multipe documentation files</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Description for a new collection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,8 +455,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,8 +501,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -546,6 +566,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF5B9BD5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF5B9BD5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5B9BD5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5B9BD5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -709,7 +768,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -740,9 +799,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -797,6 +853,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -962,7 +1025,32 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1273,31 +1361,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:S41" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:S41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:T41" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:T41"/>
   <sortState ref="A13187:X13200">
     <sortCondition ref="D2:D13200"/>
   </sortState>
-  <tableColumns count="19">
-    <tableColumn id="20" name="Type of content item" dataDxfId="18"/>
-    <tableColumn id="18" name="Nid" dataDxfId="17" dataCellStyle="Normale 2"/>
-    <tableColumn id="1" name="Title of content item" dataDxfId="16"/>
-    <tableColumn id="10" name="Collection_Name" dataDxfId="15"/>
-    <tableColumn id="3" name="Policy domain 1" dataDxfId="14"/>
-    <tableColumn id="27" name="Policy domain 2" dataDxfId="13" dataCellStyle="Normale 2"/>
-    <tableColumn id="22" name="New collection" dataDxfId="12"/>
-    <tableColumn id="30" name="Migrate" dataDxfId="11" dataCellStyle="Normale 2"/>
-    <tableColumn id="12" name="Abstract" dataDxfId="10"/>
-    <tableColumn id="8" name="Logo" dataDxfId="9"/>
-    <tableColumn id="2" name="Banner" dataDxfId="8"/>
-    <tableColumn id="15" name="Owner" dataDxfId="7"/>
-    <tableColumn id="5" name="Owner name" dataDxfId="6" dataCellStyle="Normale 2"/>
-    <tableColumn id="4" name="Owner type" dataDxfId="5" dataCellStyle="Normale 2"/>
-    <tableColumn id="9" name="Collection Owner" dataDxfId="4" dataCellStyle="Normale 2"/>
-    <tableColumn id="25" name="Elibrary Creation" dataDxfId="3"/>
-    <tableColumn id="26" name="Pre Moderation" dataDxfId="2"/>
-    <tableColumn id="13" name="Collection state" dataDxfId="1"/>
-    <tableColumn id="28" name="Content item state" dataDxfId="0" dataCellStyle="Normale 2"/>
+  <tableColumns count="20">
+    <tableColumn id="20" name="Type of content item" dataDxfId="19"/>
+    <tableColumn id="18" name="Nid" dataDxfId="18" dataCellStyle="Normale 2"/>
+    <tableColumn id="1" name="Title of content item" dataDxfId="17"/>
+    <tableColumn id="10" name="Collection_Name" dataDxfId="16"/>
+    <tableColumn id="3" name="Policy domain 1" dataDxfId="15"/>
+    <tableColumn id="27" name="Policy domain 2" dataDxfId="14" dataCellStyle="Normale 2"/>
+    <tableColumn id="22" name="New collection" dataDxfId="13"/>
+    <tableColumn id="30" name="Migrate" dataDxfId="12" dataCellStyle="Normale 2"/>
+    <tableColumn id="6" name="Description" dataDxfId="0" dataCellStyle="Normale 2"/>
+    <tableColumn id="12" name="Abstract" dataDxfId="11"/>
+    <tableColumn id="8" name="Logo" dataDxfId="10"/>
+    <tableColumn id="2" name="Banner" dataDxfId="9"/>
+    <tableColumn id="15" name="Owner" dataDxfId="8"/>
+    <tableColumn id="5" name="Owner name" dataDxfId="7" dataCellStyle="Normale 2"/>
+    <tableColumn id="4" name="Owner type" dataDxfId="6" dataCellStyle="Normale 2"/>
+    <tableColumn id="9" name="Collection Owner" dataDxfId="5" dataCellStyle="Normale 2"/>
+    <tableColumn id="25" name="Elibrary Creation" dataDxfId="4"/>
+    <tableColumn id="26" name="Pre Moderation" dataDxfId="3"/>
+    <tableColumn id="13" name="Collection state" dataDxfId="2"/>
+    <tableColumn id="28" name="Content item state" dataDxfId="1" dataCellStyle="Normale 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1569,7 +1658,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1584,21 +1673,22 @@
     <col min="5" max="6" width="16.5" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5" style="5" customWidth="1"/>
-    <col min="15" max="15" width="31.1640625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="24.1640625" style="5"/>
+    <col min="9" max="9" width="16.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5" style="5" customWidth="1"/>
+    <col min="16" max="16" width="31.1640625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="24.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1623,213 +1713,220 @@
       <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="O1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="S1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="T1" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>60735</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="11" t="s">
+      <c r="H2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>99999999</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>95</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="7"/>
+      <c r="H3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="7"/>
+      <c r="P3" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="8"/>
-    </row>
-    <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="S3" s="7"/>
+      <c r="T3" s="8"/>
+    </row>
+    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>95</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="7"/>
+      <c r="G4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="7"/>
+      <c r="P4" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="7"/>
+      <c r="S4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="S4" s="8"/>
-    </row>
-    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="T4" s="8"/>
+    </row>
+    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>157729</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>95</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="7"/>
+      <c r="H5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="7"/>
+      <c r="P5" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="8"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S5" s="7"/>
+      <c r="T5" s="8"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>60736</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="7"/>
+      <c r="G6" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -1838,653 +1935,672 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="8"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S6" s="7"/>
+      <c r="T6" s="8"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>58694</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="22" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="22" t="s">
+      <c r="H7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="7"/>
+      <c r="P7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="8"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="S7" s="7"/>
+      <c r="T7" s="8"/>
+    </row>
+    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>49860</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="22" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="22" t="s">
+      <c r="H8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="7"/>
+      <c r="M8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="N8" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="O8" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="24" t="s">
+      <c r="S8" s="7"/>
+      <c r="T8" s="23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>87737</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="22" t="s">
+      <c r="H9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="7" t="s">
+      <c r="M9" s="7"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="8"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="S9" s="7"/>
+      <c r="T9" s="8"/>
+    </row>
+    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>139528</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="22" t="s">
+      <c r="H10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="7"/>
+      <c r="P10" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="24" t="s">
+      <c r="S10" s="7"/>
+      <c r="T10" s="23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>42233</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="22" t="s">
+      <c r="H11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="7"/>
+      <c r="P11" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="8"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S11" s="7"/>
+      <c r="T11" s="8"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>138766</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="22" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="22" t="s">
+      <c r="H12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="7"/>
+      <c r="P12" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="8"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S12" s="7"/>
+      <c r="T12" s="8"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>133560</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="22" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="22" t="s">
+      <c r="H13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="7"/>
+      <c r="P13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="8"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S13" s="7"/>
+      <c r="T13" s="8"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>53012</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="22" t="s">
         <v>26</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="22" t="s">
+      <c r="H14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="16"/>
+      <c r="J14" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="7"/>
+      <c r="P14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="8"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="7"/>
+      <c r="T14" s="8"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>63578</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="22" t="s">
         <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="22" t="s">
+      <c r="H15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="7"/>
+      <c r="P15" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="8"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S15" s="7"/>
+      <c r="T15" s="8"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>155691</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="22" t="s">
         <v>26</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="22" t="s">
+      <c r="H16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="7"/>
+      <c r="P16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="8"/>
-    </row>
-    <row r="17" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="S16" s="7"/>
+      <c r="T16" s="8"/>
+    </row>
+    <row r="17" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <v>27607</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="22" t="s">
         <v>26</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="22" t="s">
+      <c r="H17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="7"/>
+      <c r="P17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="24" t="s">
+      <c r="S17" s="7"/>
+      <c r="T17" s="23" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>155894</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="22" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="22" t="s">
+      <c r="H18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="7"/>
+      <c r="P18" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="8"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S18" s="7"/>
+      <c r="T18" s="8"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <v>152066</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="22" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="22" t="s">
+      <c r="H19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
-      <c r="O19" s="7" t="s">
+      <c r="O19" s="7"/>
+      <c r="P19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="8"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S19" s="7"/>
+      <c r="T19" s="8"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>145278</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="22" t="s">
         <v>26</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="22" t="s">
+      <c r="H20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="7" t="s">
+      <c r="O20" s="7"/>
+      <c r="P20" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="8"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S20" s="7"/>
+      <c r="T20" s="8"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="14">
         <v>42438</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>88</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="25" t="s">
         <v>51</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H21" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="7"/>
+      <c r="H21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="7" t="s">
+      <c r="L21" s="7"/>
+      <c r="M21" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="N21" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="O21" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="8"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S21" s="7"/>
+      <c r="T21" s="8"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <v>149141</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="21" t="s">
         <v>53</v>
       </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="25" t="s">
         <v>54</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="7"/>
+      <c r="H22" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="16"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="7"/>
+      <c r="M22" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="7" t="s">
+      <c r="O22" s="7"/>
+      <c r="P22" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="8"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S22" s="7"/>
+      <c r="T22" s="8"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="14">
         <v>82307</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -2494,38 +2610,39 @@
         <v>59</v>
       </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="25" t="s">
         <v>51</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="7"/>
+      <c r="H23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="16"/>
+      <c r="J23" s="21"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="7"/>
+      <c r="M23" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M23" s="7"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="7" t="s">
+      <c r="O23" s="7"/>
+      <c r="P23" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="7" t="s">
+      <c r="R23" s="7"/>
+      <c r="S23" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S23" s="8"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="8"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="14">
         <v>76726</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -2535,36 +2652,37 @@
         <v>59</v>
       </c>
       <c r="E24" s="7"/>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="25" t="s">
         <v>51</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H24" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="7"/>
+      <c r="H24" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="16"/>
+      <c r="J24" s="21"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="7" t="s">
+      <c r="O24" s="7"/>
+      <c r="P24" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="7" t="s">
+      <c r="R24" s="7"/>
+      <c r="S24" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S24" s="8"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="8"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="14">
         <v>102713</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -2574,40 +2692,41 @@
         <v>59</v>
       </c>
       <c r="E25" s="7"/>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="25" t="s">
         <v>51</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="7" t="s">
+      <c r="H25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="16"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="7" t="s">
+      <c r="N25" s="7"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="7" t="s">
+      <c r="R25" s="7"/>
+      <c r="S25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S25" s="8"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="8"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="14">
         <v>125548</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -2617,36 +2736,37 @@
         <v>59</v>
       </c>
       <c r="E26" s="7"/>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="25" t="s">
         <v>51</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="7"/>
+      <c r="H26" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="16"/>
+      <c r="J26" s="21"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="7" t="s">
+      <c r="O26" s="7"/>
+      <c r="P26" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
-      <c r="R26" s="7" t="s">
+      <c r="R26" s="7"/>
+      <c r="S26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S26" s="8"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="8"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="14">
         <v>42444</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -2656,40 +2776,41 @@
         <v>59</v>
       </c>
       <c r="E27" s="7"/>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="25" t="s">
         <v>51</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H27" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="7"/>
+      <c r="H27" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="16"/>
+      <c r="J27" s="21"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="7" t="s">
+      <c r="M27" s="7"/>
+      <c r="N27" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="N27" s="14" t="s">
+      <c r="O27" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="O27" s="7" t="s">
+      <c r="P27" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
-      <c r="R27" s="7" t="s">
+      <c r="R27" s="7"/>
+      <c r="S27" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S27" s="8"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="8"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="14">
         <v>150255</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -2699,36 +2820,37 @@
         <v>59</v>
       </c>
       <c r="E28" s="7"/>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="25" t="s">
         <v>51</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H28" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="7"/>
+      <c r="H28" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="16"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="7" t="s">
+      <c r="O28" s="7"/>
+      <c r="P28" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
-      <c r="R28" s="7" t="s">
+      <c r="R28" s="7"/>
+      <c r="S28" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S28" s="8"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="8"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="14">
         <v>65803</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -2738,36 +2860,37 @@
         <v>59</v>
       </c>
       <c r="E29" s="7"/>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="25" t="s">
         <v>51</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H29" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="7"/>
+      <c r="H29" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="16"/>
+      <c r="J29" s="21"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
-      <c r="O29" s="7" t="s">
+      <c r="O29" s="7"/>
+      <c r="P29" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
-      <c r="R29" s="7" t="s">
+      <c r="R29" s="7"/>
+      <c r="S29" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S29" s="8"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="8"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="14">
         <v>156973</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -2777,36 +2900,37 @@
         <v>59</v>
       </c>
       <c r="E30" s="7"/>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="25" t="s">
         <v>51</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H30" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="7"/>
+      <c r="H30" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="16"/>
+      <c r="J30" s="21"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="7" t="s">
+      <c r="O30" s="7"/>
+      <c r="P30" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
-      <c r="R30" s="7" t="s">
+      <c r="R30" s="7"/>
+      <c r="S30" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S30" s="8"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="8"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="14">
         <v>63567</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -2816,40 +2940,41 @@
         <v>59</v>
       </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="25" t="s">
         <v>51</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H31" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="7"/>
+      <c r="H31" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="16"/>
+      <c r="J31" s="21"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
-      <c r="M31" s="22" t="s">
+      <c r="M31" s="7"/>
+      <c r="N31" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="N31" s="14" t="s">
+      <c r="O31" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="O31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
-      <c r="R31" s="7" t="s">
+      <c r="R31" s="7"/>
+      <c r="S31" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S31" s="8"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="8"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="16">
         <v>59180</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -2859,36 +2984,37 @@
         <v>59</v>
       </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="25" t="s">
         <v>51</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H32" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="22"/>
-      <c r="J32" s="7"/>
+      <c r="H32" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="16"/>
+      <c r="J32" s="21"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
-      <c r="O32" s="7" t="s">
+      <c r="O32" s="7"/>
+      <c r="P32" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
-      <c r="R32" s="7" t="s">
+      <c r="R32" s="7"/>
+      <c r="S32" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S32" s="8"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="8"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="16">
         <v>59183</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -2898,36 +3024,37 @@
         <v>59</v>
       </c>
       <c r="E33" s="7"/>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="25" t="s">
         <v>51</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H33" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="22"/>
-      <c r="J33" s="7"/>
+      <c r="H33" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="16"/>
+      <c r="J33" s="21"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
-      <c r="O33" s="7" t="s">
+      <c r="O33" s="7"/>
+      <c r="P33" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
-      <c r="R33" s="7" t="s">
+      <c r="R33" s="7"/>
+      <c r="S33" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S33" s="8"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="8"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B34" s="16">
         <v>60208</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -2937,303 +3064,311 @@
         <v>59</v>
       </c>
       <c r="E34" s="7"/>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="25" t="s">
         <v>51</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H34" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="22"/>
-      <c r="J34" s="7"/>
+      <c r="H34" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="16"/>
+      <c r="J34" s="21"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
-      <c r="O34" s="7" t="s">
+      <c r="O34" s="7"/>
+      <c r="P34" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
-      <c r="R34" s="7" t="s">
+      <c r="R34" s="7"/>
+      <c r="S34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S34" s="8"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="8"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="16">
         <v>157710</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="21" t="s">
         <v>98</v>
       </c>
       <c r="E35" s="7"/>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="25" t="s">
         <v>51</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H35" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="22"/>
-      <c r="J35" s="7"/>
+      <c r="H35" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="16"/>
+      <c r="J35" s="21"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="7" t="s">
+      <c r="L35" s="7"/>
+      <c r="M35" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27" t="s">
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
-      <c r="S35" s="8"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S35" s="7"/>
+      <c r="T35" s="8"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="16">
         <v>27024</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="21" t="s">
         <v>98</v>
       </c>
       <c r="E36" s="7"/>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="25" t="s">
         <v>51</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H36" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="22"/>
-      <c r="J36" s="7"/>
+      <c r="H36" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="16"/>
+      <c r="J36" s="21"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27" t="s">
+      <c r="M36" s="7"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="8"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S36" s="7"/>
+      <c r="T36" s="8"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="16">
         <v>66790</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="21" t="s">
         <v>100</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="25" t="s">
         <v>51</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H37" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="22"/>
-      <c r="J37" s="7"/>
+      <c r="H37" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="16"/>
+      <c r="J37" s="21"/>
       <c r="K37" s="7"/>
-      <c r="L37" s="7" t="s">
+      <c r="L37" s="7"/>
+      <c r="M37" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27" t="s">
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
-      <c r="S37" s="8"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S37" s="7"/>
+      <c r="T37" s="8"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="16">
         <v>125838</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="21" t="s">
         <v>100</v>
       </c>
       <c r="E38" s="7"/>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="25" t="s">
         <v>51</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H38" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="22"/>
-      <c r="J38" s="7"/>
+      <c r="H38" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="16"/>
+      <c r="J38" s="21"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27" t="s">
+      <c r="M38" s="7"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="8"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S38" s="7"/>
+      <c r="T38" s="8"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="16">
         <v>42464</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="21" t="s">
         <v>100</v>
       </c>
       <c r="E39" s="7"/>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="25" t="s">
         <v>51</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H39" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="22"/>
-      <c r="J39" s="7"/>
+      <c r="H39" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="16"/>
+      <c r="J39" s="21"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27" t="s">
+      <c r="M39" s="7"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="8"/>
-    </row>
-    <row r="40" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="S39" s="7"/>
+      <c r="T39" s="8"/>
+    </row>
+    <row r="40" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="28">
+      <c r="B40" s="27">
         <v>27026</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="17" t="s">
         <v>109</v>
       </c>
       <c r="E40" s="7"/>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="25" t="s">
         <v>51</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H40" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="22"/>
-      <c r="J40" s="7"/>
+      <c r="H40" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="16"/>
+      <c r="J40" s="21"/>
       <c r="K40" s="7"/>
-      <c r="L40" s="7" t="s">
+      <c r="L40" s="7"/>
+      <c r="M40" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="11" t="s">
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
-      <c r="S40" s="8"/>
-    </row>
-    <row r="41" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="29" t="s">
+      <c r="S40" s="7"/>
+      <c r="T40" s="8"/>
+    </row>
+    <row r="41" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="30">
+      <c r="B41" s="29">
         <v>68304</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="26" t="s">
+      <c r="E41" s="28"/>
+      <c r="F41" s="25" t="s">
         <v>51</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H41" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="11" t="s">
+      <c r="H41" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="16"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="32"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="31"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O7" r:id="rId1" display="doe@example.com"/>
-    <hyperlink ref="O21" r:id="rId2" display="baby.doe@example.com"/>
-    <hyperlink ref="O23" r:id="rId3" display="doe@example.com"/>
-    <hyperlink ref="O8:O19" r:id="rId4" display="doe@example.com"/>
-    <hyperlink ref="O20" r:id="rId5" display="doe@example.com"/>
-    <hyperlink ref="O24:O34" r:id="rId6" display="doe@example.com"/>
+    <hyperlink ref="P7" r:id="rId1" display="doe@example.com"/>
+    <hyperlink ref="P21" r:id="rId2" display="baby.doe@example.com"/>
+    <hyperlink ref="P23" r:id="rId3" display="doe@example.com"/>
+    <hyperlink ref="P8:P19" r:id="rId4" display="doe@example.com"/>
+    <hyperlink ref="P20" r:id="rId5" display="doe@example.com"/>
+    <hyperlink ref="P24:P34" r:id="rId6" display="doe@example.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -3245,7 +3380,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView zoomScale="163" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3258,18 +3393,19 @@
     <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>66</v>
       </c>
@@ -3285,35 +3421,38 @@
       <c r="E1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>95</v>
       </c>
@@ -3326,44 +3465,47 @@
       <c r="E2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="K3" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="23" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
+    <row r="4" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
         <v>42438</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -3372,24 +3514,24 @@
       <c r="C4" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>51</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="J4" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="K4" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
+    <row r="5" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
         <v>149141</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -3398,56 +3540,56 @@
       <c r="C5" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>54</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
+    <row r="6" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
         <v>82307</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>59</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>51</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="J6" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="K6" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="O6" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="16">
         <v>9999999</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>86</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>51</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -3458,15 +3600,16 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="15">
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
         <v>157710</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -3475,7 +3618,7 @@
       <c r="C8" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -3486,15 +3629,16 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="11"/>
+      <c r="L8" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="15">
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
         <v>66790</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -3503,7 +3647,7 @@
       <c r="C9" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -3514,24 +3658,25 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="11"/>
+      <c r="L9" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>27026</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>109</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>51</v>
       </c>
       <c r="E10" s="11" t="s">
@@ -3542,12 +3687,13 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="11"/>
+      <c r="L10" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="117">
   <si>
     <t>No</t>
   </si>
@@ -379,6 +379,12 @@
   </si>
   <si>
     <t>Description for a new collection</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>http://example.com/this_collection</t>
   </si>
 </sst>
 </file>
@@ -606,7 +612,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="160">
+  <cellStyleXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -767,8 +773,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -862,8 +869,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="160">
+  <cellStyles count="161">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1000,6 +1008,7 @@
     <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1026,31 +1035,6 @@
     <cellStyle name="Normale 2" xfId="1"/>
   </cellStyles>
   <dxfs count="22">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1266,6 +1250,31 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1375,18 +1384,18 @@
     <tableColumn id="27" name="Policy domain 2" dataDxfId="14" dataCellStyle="Normale 2"/>
     <tableColumn id="22" name="New collection" dataDxfId="13"/>
     <tableColumn id="30" name="Migrate" dataDxfId="12" dataCellStyle="Normale 2"/>
-    <tableColumn id="6" name="Description" dataDxfId="0" dataCellStyle="Normale 2"/>
-    <tableColumn id="12" name="Abstract" dataDxfId="11"/>
-    <tableColumn id="8" name="Logo" dataDxfId="10"/>
-    <tableColumn id="2" name="Banner" dataDxfId="9"/>
-    <tableColumn id="15" name="Owner" dataDxfId="8"/>
-    <tableColumn id="5" name="Owner name" dataDxfId="7" dataCellStyle="Normale 2"/>
-    <tableColumn id="4" name="Owner type" dataDxfId="6" dataCellStyle="Normale 2"/>
-    <tableColumn id="9" name="Collection Owner" dataDxfId="5" dataCellStyle="Normale 2"/>
-    <tableColumn id="25" name="Elibrary Creation" dataDxfId="4"/>
-    <tableColumn id="26" name="Pre Moderation" dataDxfId="3"/>
-    <tableColumn id="13" name="Collection state" dataDxfId="2"/>
-    <tableColumn id="28" name="Content item state" dataDxfId="1" dataCellStyle="Normale 2"/>
+    <tableColumn id="6" name="Description" dataDxfId="11" dataCellStyle="Normale 2"/>
+    <tableColumn id="12" name="Abstract" dataDxfId="10"/>
+    <tableColumn id="8" name="Logo" dataDxfId="9"/>
+    <tableColumn id="2" name="Banner" dataDxfId="8"/>
+    <tableColumn id="15" name="Owner" dataDxfId="7"/>
+    <tableColumn id="5" name="Owner name" dataDxfId="6" dataCellStyle="Normale 2"/>
+    <tableColumn id="4" name="Owner type" dataDxfId="5" dataCellStyle="Normale 2"/>
+    <tableColumn id="9" name="Collection Owner" dataDxfId="4" dataCellStyle="Normale 2"/>
+    <tableColumn id="25" name="Elibrary Creation" dataDxfId="3"/>
+    <tableColumn id="26" name="Pre Moderation" dataDxfId="2"/>
+    <tableColumn id="13" name="Collection state" dataDxfId="1"/>
+    <tableColumn id="28" name="Content item state" dataDxfId="0" dataCellStyle="Normale 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3380,7 +3389,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView zoomScale="163" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3403,9 +3412,10 @@
     <col min="13" max="13" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>66</v>
       </c>
@@ -3451,8 +3461,11 @@
       <c r="O1" s="10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P1" s="35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>95</v>
       </c>
@@ -3469,7 +3482,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
@@ -3504,7 +3517,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>42438</v>
       </c>
@@ -3530,7 +3543,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>149141</v>
       </c>
@@ -3549,8 +3562,11 @@
       <c r="L5" s="11" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P5" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>82307</v>
       </c>
@@ -3579,7 +3595,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>9999999</v>
       </c>
@@ -3608,7 +3624,7 @@
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>157710</v>
       </c>
@@ -3637,7 +3653,7 @@
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>66790</v>
       </c>
@@ -3666,7 +3682,7 @@
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>27026</v>
       </c>

--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1. Content items" sheetId="2" r:id="rId1"/>
     <sheet name="5. Collections" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$T$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$T$42</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="118">
   <si>
     <t>No</t>
   </si>
@@ -385,6 +385,9 @@
   </si>
   <si>
     <t>http://example.com/this_collection</t>
+  </si>
+  <si>
+    <t>Member test</t>
   </si>
 </sst>
 </file>
@@ -1370,8 +1373,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:T41" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:T41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:T42" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:T42"/>
   <sortState ref="A13187:X13200">
     <sortCondition ref="D2:D13200"/>
   </sortState>
@@ -1667,9 +1670,9 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3370,6 +3373,43 @@
       <c r="S41" s="28"/>
       <c r="T41" s="31"/>
     </row>
+    <row r="42" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="29">
+        <v>68202</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="28"/>
+      <c r="F42" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="16"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="31"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="P7" r:id="rId1" display="doe@example.com"/>
@@ -3391,7 +3431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView zoomScale="163" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340"/>
   </bookViews>
   <sheets>
     <sheet name="1. Content items" sheetId="2" r:id="rId1"/>
     <sheet name="5. Collections" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$T$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$T$41</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="117">
   <si>
     <t>No</t>
   </si>
@@ -385,9 +385,6 @@
   </si>
   <si>
     <t>http://example.com/this_collection</t>
-  </si>
-  <si>
-    <t>Member test</t>
   </si>
 </sst>
 </file>
@@ -1373,8 +1370,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:T42" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:T42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:T41" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:T41"/>
   <sortState ref="A13187:X13200">
     <sortCondition ref="D2:D13200"/>
   </sortState>
@@ -1670,9 +1667,9 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3373,43 +3370,6 @@
       <c r="S41" s="28"/>
       <c r="T41" s="31"/>
     </row>
-    <row r="42" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="29">
-        <v>68202</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E42" s="28"/>
-      <c r="F42" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H42" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="16"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="31"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="P7" r:id="rId1" display="doe@example.com"/>
@@ -3431,7 +3391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
+    <sheetView zoomScale="163" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -303,24 +303,6 @@
     <t>Collection from Project</t>
   </si>
   <si>
-    <t>joel@sambreville.be</t>
-  </si>
-  <si>
-    <t>viktor.hristov@hotmail.com</t>
-  </si>
-  <si>
-    <t>eric.smets@fks.be</t>
-  </si>
-  <si>
-    <t>mux2005@gmail.com</t>
-  </si>
-  <si>
-    <t>riccardo.sibilia@vtg.admin.ch</t>
-  </si>
-  <si>
-    <t>tbenita@atreal.fr, aanguix@gvsig.com</t>
-  </si>
-  <si>
     <t>Collection with erroneous items</t>
   </si>
   <si>
@@ -366,9 +348,6 @@
     <t>Membership testing</t>
   </si>
   <si>
-    <t>lfalcon@gnusolidario.org</t>
-  </si>
-  <si>
     <t>Project with various memberships</t>
   </si>
   <si>
@@ -385,6 +364,27 @@
   </si>
   <si>
     <t>http://example.com/this_collection</t>
+  </si>
+  <si>
+    <t>user7143@example.com</t>
+  </si>
+  <si>
+    <t>user7098@example.com</t>
+  </si>
+  <si>
+    <t>user7160@example.com</t>
+  </si>
+  <si>
+    <t>user7051@example.com</t>
+  </si>
+  <si>
+    <t>user7287@example.com, user6416@example.com</t>
+  </si>
+  <si>
+    <t>user7021@example.com</t>
+  </si>
+  <si>
+    <t>user9351@example.com</t>
   </si>
 </sst>
 </file>
@@ -1723,7 +1723,7 @@
         <v>15</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>8</v>
@@ -1790,7 +1790,7 @@
       <c r="N2" s="21"/>
       <c r="O2" s="21"/>
       <c r="P2" s="11" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
@@ -1808,7 +1808,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="21" t="s">
@@ -1828,7 +1828,7 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="11" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -1846,7 +1846,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="21" t="s">
@@ -1866,7 +1866,7 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="11" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
@@ -1886,7 +1886,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="21" t="s">
@@ -1906,7 +1906,7 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="11" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
@@ -1980,7 +1980,7 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
@@ -2011,7 +2011,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J8" s="21" t="s">
         <v>55</v>
@@ -2028,7 +2028,7 @@
         <v>73</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
@@ -2070,7 +2070,7 @@
       <c r="N9" s="21"/>
       <c r="O9" s="13"/>
       <c r="P9" s="7" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
@@ -2110,7 +2110,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
@@ -2152,7 +2152,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
@@ -2192,7 +2192,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
@@ -2232,7 +2232,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
@@ -2272,7 +2272,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
@@ -2312,7 +2312,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
@@ -2352,7 +2352,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
@@ -2392,7 +2392,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
@@ -2434,7 +2434,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
@@ -2474,7 +2474,7 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
@@ -2514,7 +2514,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
@@ -2558,14 +2558,14 @@
         <v>73</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
       <c r="T21" s="8"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>24</v>
       </c>
@@ -2597,8 +2597,8 @@
       </c>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="7" t="s">
-        <v>94</v>
+      <c r="P22" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
@@ -2638,7 +2638,7 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
@@ -2678,7 +2678,7 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
@@ -2713,16 +2713,16 @@
       <c r="I25" s="16"/>
       <c r="J25" s="21"/>
       <c r="K25" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="13"/>
       <c r="P25" s="7" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
@@ -2762,7 +2762,7 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
@@ -2806,7 +2806,7 @@
         <v>74</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
@@ -2846,7 +2846,7 @@
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
@@ -2886,7 +2886,7 @@
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
@@ -2926,7 +2926,7 @@
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
@@ -2970,7 +2970,7 @@
         <v>73</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
@@ -3010,7 +3010,7 @@
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
       <c r="P32" s="7" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
@@ -3050,7 +3050,7 @@
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
@@ -3090,7 +3090,7 @@
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
@@ -3107,10 +3107,10 @@
         <v>157710</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="25" t="s">
@@ -3132,7 +3132,7 @@
       <c r="N35" s="26"/>
       <c r="O35" s="26"/>
       <c r="P35" s="26" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
@@ -3147,10 +3147,10 @@
         <v>27024</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="25" t="s">
@@ -3170,7 +3170,7 @@
       <c r="N36" s="26"/>
       <c r="O36" s="26"/>
       <c r="P36" s="26" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
@@ -3185,10 +3185,10 @@
         <v>66790</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="25" t="s">
@@ -3210,7 +3210,7 @@
       <c r="N37" s="26"/>
       <c r="O37" s="26"/>
       <c r="P37" s="26" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
@@ -3219,16 +3219,16 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B38" s="16">
         <v>125838</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="25" t="s">
@@ -3248,7 +3248,7 @@
       <c r="N38" s="26"/>
       <c r="O38" s="26"/>
       <c r="P38" s="26" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
@@ -3263,10 +3263,10 @@
         <v>42464</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="25" t="s">
@@ -3286,7 +3286,7 @@
       <c r="N39" s="26"/>
       <c r="O39" s="26"/>
       <c r="P39" s="26" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
@@ -3301,10 +3301,10 @@
         <v>27026</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="25" t="s">
@@ -3326,7 +3326,7 @@
       <c r="N40" s="26"/>
       <c r="O40" s="26"/>
       <c r="P40" s="11" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
@@ -3341,10 +3341,10 @@
         <v>68304</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E41" s="28"/>
       <c r="F41" s="25" t="s">
@@ -3363,7 +3363,7 @@
       <c r="N41" s="30"/>
       <c r="O41" s="30"/>
       <c r="P41" s="11" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="Q41" s="28"/>
       <c r="R41" s="28"/>
@@ -3371,18 +3371,10 @@
       <c r="T41" s="31"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="P7" r:id="rId1" display="doe@example.com"/>
-    <hyperlink ref="P21" r:id="rId2" display="baby.doe@example.com"/>
-    <hyperlink ref="P23" r:id="rId3" display="doe@example.com"/>
-    <hyperlink ref="P8:P19" r:id="rId4" display="doe@example.com"/>
-    <hyperlink ref="P20" r:id="rId5" display="doe@example.com"/>
-    <hyperlink ref="P24:P34" r:id="rId6" display="doe@example.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3408,7 +3400,7 @@
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
@@ -3432,7 +3424,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>8</v>
@@ -3462,12 +3454,12 @@
         <v>56</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>3</v>
@@ -3479,7 +3471,7 @@
         <v>16</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -3496,16 +3488,16 @@
         <v>16</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>55</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>75</v>
@@ -3514,7 +3506,7 @@
         <v>73</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -3540,7 +3532,7 @@
         <v>73</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -3560,10 +3552,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -3589,7 +3581,7 @@
         <v>74</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="O6" s="14" t="s">
         <v>60</v>
@@ -3618,7 +3610,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
@@ -3629,7 +3621,7 @@
         <v>157710</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>84</v>
@@ -3647,7 +3639,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
@@ -3658,7 +3650,7 @@
         <v>66790</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>84</v>
@@ -3676,7 +3668,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="14" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
@@ -3687,7 +3679,7 @@
         <v>27026</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>84</v>
@@ -3705,7 +3697,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>

--- a/resources/migrate/mapping-test.xlsx
+++ b/resources/migrate/mapping-test.xlsx
@@ -16,7 +16,7 @@
     <sheet name="5. Collections" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$T$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. Content items'!$A$1:$T$44</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="120">
   <si>
     <t>No</t>
   </si>
@@ -385,6 +385,15 @@
   </si>
   <si>
     <t>user9351@example.com</t>
+  </si>
+  <si>
+    <t>General case study with files</t>
+  </si>
+  <si>
+    <t>Guideline with files</t>
+  </si>
+  <si>
+    <t>Open source case study with files</t>
   </si>
 </sst>
 </file>
@@ -612,7 +621,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="161">
+  <cellStyleXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -773,6 +782,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
@@ -871,7 +888,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="161">
+  <cellStyles count="169">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1009,6 +1026,10 @@
     <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1031,6 +1052,10 @@
     <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="1"/>
   </cellStyles>
@@ -1370,8 +1395,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:T41" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:T41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table18915" displayName="Table18915" ref="A1:T44" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:T44"/>
   <sortState ref="A13187:X13200">
     <sortCondition ref="D2:D13200"/>
   </sortState>
@@ -1667,7 +1692,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3369,6 +3394,117 @@
       <c r="R41" s="28"/>
       <c r="S41" s="28"/>
       <c r="T41" s="31"/>
+    </row>
+    <row r="42" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="29">
+        <v>144018</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="28"/>
+      <c r="F42" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="29"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="31"/>
+    </row>
+    <row r="43" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="29">
+        <v>135110</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="28"/>
+      <c r="F43" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="29"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="31"/>
+    </row>
+    <row r="44" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="29">
+        <v>135160</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="28"/>
+      <c r="F44" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="29"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
